--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB027B17-DBB3-4113-ACF7-94DBEB71A0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Filed Cases" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Related Cases" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Not Litigated" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Similar" sheetId="4" r:id="rId7"/>
+    <sheet name="Filed Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Related Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Not Litigated" sheetId="3" r:id="rId3"/>
+    <sheet name="Similar" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="725">
   <si>
     <t>State</t>
   </si>
@@ -599,18 +608,24 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Alki David, </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>FilmOn.tv</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>, Hologram USA</t>
     </r>
   </si>
@@ -1257,9 +1272,6 @@
     <t>Criminal</t>
   </si>
   <si>
-    <t>Many-National</t>
-  </si>
-  <si>
     <t>Film, Hollywood</t>
   </si>
   <si>
@@ -1272,9 +1284,6 @@
     <t>https://www.vanityfair.com/hollywood/2003/04/robert-harrison-confidential-magazine</t>
   </si>
   <si>
-    <t>Many- National</t>
-  </si>
-  <si>
     <t>Film, Business</t>
   </si>
   <si>
@@ -2170,43 +2179,96 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Joe_Biden_sexual_assault_allegation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Farmer, Annie Farmer,  Graydon Carter, Vanity Fair Office </t>
+  </si>
+  <si>
+    <t>1996-Present</t>
+  </si>
+  <si>
+    <t>Artist, Art Advisor, Artist-In-Residence, New York Art World, New York Academy of Art</t>
+  </si>
+  <si>
+    <t>Ohio, New York, New Mexico</t>
+  </si>
+  <si>
+    <t>Maria Farmer, Annie Farmer, FBI, New York City Police Department</t>
+  </si>
+  <si>
+    <t>Jeffrey Epstein, Ghislaine Maxwell, Others Unknown</t>
+  </si>
+  <si>
+    <t>Intimidation, Sexual Assault, Harassment, Art Theft</t>
+  </si>
+  <si>
+    <t>Intimidation Interstate, Manipulation and Intimidation of Journalists, Across States, Interstate Threats</t>
+  </si>
+  <si>
+    <t>"In January 2020, Farmer was reportedly working on a series of paintings and pastel drawings called “The Survivors Project” consisting of individual portraits of known survivors of Epstein's abuse," Art</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Maria_Farmer</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2019/08/26/us/epstein-farmer-sisters-maxwell.html</t>
+  </si>
+  <si>
+    <t>Many-National, Hollywood</t>
+  </si>
+  <si>
+    <t>Many- National, Hollywood, Arts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -2215,7 +2277,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2225,74 +2287,46 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2482,30 +2516,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.38"/>
-    <col customWidth="1" min="2" max="2" width="5.5"/>
-    <col customWidth="1" min="3" max="3" width="15.38"/>
-    <col customWidth="1" min="4" max="4" width="17.38"/>
-    <col customWidth="1" min="6" max="6" width="15.75"/>
-    <col customWidth="1" min="7" max="7" width="15.5"/>
-    <col customWidth="1" min="8" max="8" width="17.63"/>
-    <col customWidth="1" min="9" max="9" width="17.88"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2570,12 +2607,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1">
-        <v>1937.0</v>
+        <v>1937</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
@@ -2611,12 +2648,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>1954.0</v>
+        <v>1954</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2646,12 +2683,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
@@ -2689,12 +2726,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>53</v>
@@ -2730,12 +2767,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1">
-        <v>1997.0</v>
+        <v>1997</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>64</v>
@@ -2763,12 +2800,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="1">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>73</v>
@@ -2801,12 +2838,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>82</v>
@@ -2823,8 +2860,8 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="2" t="s">
         <v>86</v>
       </c>
@@ -2832,12 +2869,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>88</v>
@@ -2869,17 +2906,17 @@
       <c r="V9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W9" s="3"/>
+      <c r="W9" s="1"/>
       <c r="X9" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="1">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>100</v>
@@ -2905,14 +2942,14 @@
       <c r="U10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11">
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="1">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>108</v>
@@ -2939,12 +2976,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>116</v>
@@ -2974,12 +3011,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>124</v>
@@ -3003,14 +3040,14 @@
       <c r="K13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="V13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>130</v>
@@ -3027,7 +3064,7 @@
       <c r="I14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="1"/>
       <c r="T14" s="2" t="s">
         <v>135</v>
       </c>
@@ -3038,12 +3075,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>138</v>
@@ -3065,24 +3102,24 @@
       <c r="K15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="4" t="s">
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="3" t="s">
         <v>145</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B16" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>148</v>
@@ -3110,12 +3147,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>154</v>
@@ -3144,7 +3181,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -3165,8 +3202,8 @@
       </c>
       <c r="I18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
       <c r="T18" s="2" t="s">
         <v>165</v>
       </c>
@@ -3180,7 +3217,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>169</v>
       </c>
@@ -3191,12 +3228,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>172</v>
@@ -3212,8 +3249,8 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
       <c r="T20" s="2" t="s">
         <v>176</v>
       </c>
@@ -3221,12 +3258,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>178</v>
@@ -3243,12 +3280,12 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>182</v>
@@ -3268,8 +3305,8 @@
       <c r="J22" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
       <c r="T22" s="2" t="s">
         <v>187</v>
       </c>
@@ -3277,12 +3314,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="1">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>108</v>
@@ -3305,12 +3342,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>194</v>
@@ -3331,12 +3368,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>199</v>
@@ -3360,7 +3397,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -3383,12 +3420,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>210</v>
@@ -3408,12 +3445,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>214</v>
@@ -3440,12 +3477,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>222</v>
@@ -3470,12 +3507,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="1">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>228</v>
@@ -3502,7 +3539,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -3525,16 +3562,16 @@
       <c r="J31" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-    </row>
-    <row r="32">
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>240</v>
@@ -3554,19 +3591,19 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
       <c r="U32" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>245</v>
@@ -3588,19 +3625,19 @@
         <v>249</v>
       </c>
       <c r="K33" s="1"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
       <c r="U33" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>251</v>
@@ -3611,13 +3648,13 @@
       <c r="E34" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="1" t="s">
         <v>254</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -3635,7 +3672,7 @@
       <c r="V34" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="W34" s="3"/>
+      <c r="W34" s="1"/>
       <c r="X34" s="2" t="s">
         <v>260</v>
       </c>
@@ -3646,12 +3683,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>263</v>
@@ -3675,12 +3712,12 @@
       <c r="K35" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="W35" s="3"/>
-    </row>
-    <row r="36">
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>270</v>
       </c>
@@ -3699,11 +3736,11 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-    </row>
-    <row r="37">
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -3720,7 +3757,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>279</v>
       </c>
@@ -3742,18 +3779,18 @@
       <c r="K38" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
       <c r="T38" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>285</v>
@@ -3783,7 +3820,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3803,7 +3840,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -3825,13 +3862,13 @@
       <c r="J41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
       <c r="T41" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -3854,7 +3891,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
@@ -3874,7 +3911,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>307</v>
       </c>
@@ -3885,7 +3922,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -3908,7 +3945,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -3928,12 +3965,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="1">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>320</v>
@@ -3954,7 +3991,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>324</v>
       </c>
@@ -3972,12 +4009,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>326</v>
@@ -4004,7 +4041,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -4027,7 +4064,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>334</v>
       </c>
@@ -4044,7 +4081,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="52" ht="15.0" customHeight="1">
+    <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>339</v>
       </c>
@@ -4070,7 +4107,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -4099,14 +4136,14 @@
       <c r="V53" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="W53" s="3"/>
-    </row>
-    <row r="54">
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="1">
-        <v>1943.0</v>
+        <v>1943</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>352</v>
@@ -4124,14 +4161,14 @@
       <c r="J54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
       <c r="U54" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -4157,12 +4194,12 @@
         <v>359</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B56" s="1">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>360</v>
@@ -4180,7 +4217,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -4204,12 +4241,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>368</v>
@@ -4239,12 +4276,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B59" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>377</v>
@@ -4274,12 +4311,12 @@
         <v>382</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B60" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>383</v>
@@ -4309,12 +4346,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B61" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>251</v>
@@ -4340,91 +4377,94 @@
       <c r="R61" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="U61" s="4" t="s">
+      <c r="U61" s="3" t="s">
         <v>393</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="U4"/>
-    <hyperlink r:id="rId3" ref="V4"/>
-    <hyperlink r:id="rId4" ref="U6"/>
-    <hyperlink r:id="rId5" ref="U7"/>
-    <hyperlink r:id="rId6" ref="V7"/>
-    <hyperlink r:id="rId7" ref="T8"/>
-    <hyperlink r:id="rId8" ref="U8"/>
-    <hyperlink r:id="rId9" ref="T9"/>
-    <hyperlink r:id="rId10" ref="U9"/>
-    <hyperlink r:id="rId11" ref="V9"/>
-    <hyperlink r:id="rId12" ref="X9"/>
-    <hyperlink r:id="rId13" ref="U10"/>
-    <hyperlink r:id="rId14" ref="U11"/>
-    <hyperlink r:id="rId15" ref="V11"/>
-    <hyperlink r:id="rId16" ref="T12"/>
-    <hyperlink r:id="rId17" ref="U12"/>
-    <hyperlink r:id="rId18" ref="T14"/>
-    <hyperlink r:id="rId19" ref="U14"/>
-    <hyperlink r:id="rId20" ref="V14"/>
-    <hyperlink r:id="rId21" ref="U15"/>
-    <hyperlink r:id="rId22" ref="V15"/>
-    <hyperlink r:id="rId23" ref="T16"/>
-    <hyperlink r:id="rId24" ref="T18"/>
-    <hyperlink r:id="rId25" ref="U18"/>
-    <hyperlink r:id="rId26" ref="V18"/>
-    <hyperlink r:id="rId27" ref="W18"/>
-    <hyperlink r:id="rId28" ref="T20"/>
-    <hyperlink r:id="rId29" ref="U20"/>
-    <hyperlink r:id="rId30" ref="T22"/>
-    <hyperlink r:id="rId31" ref="U22"/>
-    <hyperlink r:id="rId32" ref="U23"/>
-    <hyperlink r:id="rId33" ref="V23"/>
-    <hyperlink r:id="rId34" ref="C24"/>
-    <hyperlink r:id="rId35" ref="U25"/>
-    <hyperlink r:id="rId36" ref="U27"/>
-    <hyperlink r:id="rId37" ref="U28"/>
-    <hyperlink r:id="rId38" ref="U29"/>
-    <hyperlink r:id="rId39" ref="U32"/>
-    <hyperlink r:id="rId40" ref="U33"/>
-    <hyperlink r:id="rId41" ref="U34"/>
-    <hyperlink r:id="rId42" ref="V34"/>
-    <hyperlink r:id="rId43" ref="X34"/>
-    <hyperlink r:id="rId44" ref="Y34"/>
-    <hyperlink r:id="rId45" ref="Z34"/>
-    <hyperlink r:id="rId46" ref="T38"/>
-    <hyperlink r:id="rId47" ref="U39"/>
-    <hyperlink r:id="rId48" ref="T41"/>
-    <hyperlink r:id="rId49" ref="T52"/>
-    <hyperlink r:id="rId50" ref="V53"/>
-    <hyperlink r:id="rId51" ref="U54"/>
-    <hyperlink r:id="rId52" ref="T55"/>
-    <hyperlink r:id="rId53" ref="U58"/>
-    <hyperlink r:id="rId54" ref="U59"/>
-    <hyperlink r:id="rId55" ref="U60"/>
-    <hyperlink r:id="rId56" ref="U61"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="U4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="V4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="U6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="U7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="V7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="T8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="U8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="T9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="U9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="V9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="X9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="U10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="U11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="V11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="T12" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="U12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="T14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="U14" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="V14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="U15" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="V15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="T16" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="T18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="U18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="V18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="W18" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="T20" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="U20" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="T22" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="U22" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="U23" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="V23" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C24" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="U25" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="U27" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="U28" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="U29" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="U32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="U33" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="U34" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="V34" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="X34" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Y34" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="Z34" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="T38" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="U39" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="T41" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="T52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="V53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="U54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="T55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="U58" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="U59" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="U60" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="U61" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
   </hyperlinks>
-  <drawing r:id="rId57"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="6.13"/>
-    <col customWidth="1" min="8" max="8" width="16.5"/>
-    <col customWidth="1" min="10" max="10" width="20.75"/>
-    <col customWidth="1" min="13" max="13" width="18.5"/>
-    <col customWidth="1" min="15" max="15" width="19.63"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>394</v>
       </c>
@@ -4480,95 +4520,76 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C2">
+        <v>1954</v>
+      </c>
+      <c r="D2" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="1">
-        <v>1954.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
         <v>410</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="M2" t="s">
         <v>411</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="S2" t="s">
         <v>412</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C3">
+        <v>2008</v>
+      </c>
+      <c r="D3" t="s">
         <v>413</v>
       </c>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="1">
-        <v>2008.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" t="s">
         <v>415</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" t="s">
         <v>416</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="M3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>198</v>
@@ -4577,252 +4598,252 @@
         <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1"/>
+      <c r="S4" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="T4" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="2" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9" t="s">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="7" t="s">
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="1">
-        <v>2009.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="K8" s="1"/>
       <c r="M8" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="S8" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="Q8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>251</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C10" s="1">
-        <v>2020.0</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>159</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>32</v>
@@ -4831,110 +4852,110 @@
         <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="S11" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="P11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C12" s="1">
-        <v>2022.0</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="Q12" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="R12" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="S12" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="S12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>140</v>
       </c>
       <c r="S13" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
@@ -4943,21 +4964,21 @@
         <v>126</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C15" s="1">
-        <v>1977.0</v>
+        <v>1977</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>21</v>
@@ -4969,16 +4990,16 @@
         <v>340</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="S15" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>408</v>
       </c>
@@ -4987,10 +5008,10 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -5000,56 +5021,56 @@
         <v>140</v>
       </c>
       <c r="S16" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="S17" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="T17" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C18" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>198</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>340</v>
@@ -5058,18 +5079,18 @@
         <v>140</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C19" s="1">
-        <v>1982.0</v>
+        <v>1982</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>198</v>
@@ -5078,47 +5099,47 @@
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="S19" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>533</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>198</v>
@@ -5127,54 +5148,92 @@
         <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>498</v>
+      </c>
+      <c r="B22" t="s">
+        <v>712</v>
+      </c>
+      <c r="C22" t="s">
+        <v>713</v>
+      </c>
+      <c r="D22" t="s">
+        <v>714</v>
+      </c>
+      <c r="E22" t="s">
+        <v>715</v>
+      </c>
+      <c r="F22" t="s">
+        <v>716</v>
+      </c>
+      <c r="G22" t="s">
+        <v>717</v>
+      </c>
+      <c r="J22" t="s">
+        <v>718</v>
+      </c>
+      <c r="P22" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>720</v>
+      </c>
+      <c r="S22" t="s">
+        <v>721</v>
+      </c>
+      <c r="T22" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="S2"/>
-    <hyperlink r:id="rId2" ref="S4"/>
-    <hyperlink r:id="rId3" ref="T4"/>
-    <hyperlink r:id="rId4" ref="S5"/>
-    <hyperlink r:id="rId5" ref="S8"/>
-    <hyperlink r:id="rId6" ref="S10"/>
-    <hyperlink r:id="rId7" ref="S11"/>
-    <hyperlink r:id="rId8" ref="R12"/>
-    <hyperlink r:id="rId9" ref="S12"/>
-    <hyperlink r:id="rId10" ref="T12"/>
-    <hyperlink r:id="rId11" ref="S13"/>
-    <hyperlink r:id="rId12" ref="S15"/>
-    <hyperlink r:id="rId13" ref="T15"/>
-    <hyperlink r:id="rId14" ref="S16"/>
-    <hyperlink r:id="rId15" ref="S17"/>
-    <hyperlink r:id="rId16" ref="T17"/>
-    <hyperlink r:id="rId17" ref="S18"/>
-    <hyperlink r:id="rId18" ref="S19"/>
+    <hyperlink ref="S4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="T4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="S5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="S8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="S10" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="S11" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="R12" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="S12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="T12" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="S13" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="S15" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="T15" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="S16" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="S17" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="T17" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="S18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="S19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
   </hyperlinks>
-  <drawing r:id="rId19"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="6.25"/>
-    <col customWidth="1" min="7" max="7" width="17.88"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5183,40 +5242,40 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
@@ -5231,58 +5290,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1954</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1954.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="G2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>209</v>
@@ -5290,175 +5349,175 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1998.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="1">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>121</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
@@ -5467,67 +5526,67 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
@@ -5536,24 +5595,24 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
@@ -5562,12 +5621,12 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
@@ -5577,116 +5636,116 @@
         <v>245</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="S12" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14">
+        <v>554</v>
+      </c>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C14" s="1">
-        <v>2008.0</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="M14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="S14" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
@@ -5696,14 +5755,14 @@
         <v>327</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
@@ -5712,57 +5771,57 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>348</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>365</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>357</v>
@@ -5771,70 +5830,70 @@
         <v>141</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="R18" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="S18" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="S18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>351</v>
@@ -5842,37 +5901,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="S2"/>
-    <hyperlink r:id="rId2" ref="S4"/>
-    <hyperlink r:id="rId3" ref="S5"/>
-    <hyperlink r:id="rId4" ref="S12"/>
-    <hyperlink r:id="rId5" ref="T12"/>
-    <hyperlink r:id="rId6" ref="S14"/>
-    <hyperlink r:id="rId7" ref="U14"/>
-    <hyperlink r:id="rId8" ref="R18"/>
-    <hyperlink r:id="rId9" ref="S18"/>
-    <hyperlink r:id="rId10" ref="U18"/>
-    <hyperlink r:id="rId11" ref="R19"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="S4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="S5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="S12" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="T12" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="S14" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="U14" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="R18" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="S18" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="U18" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="R19" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="15.63"/>
-    <col customWidth="1" min="20" max="20" width="33.38"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="20" max="20" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>394</v>
       </c>
@@ -5883,13 +5943,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>405</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -5916,16 +5976,16 @@
         <v>401</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>406</v>
@@ -5937,199 +5997,199 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="7" t="s">
+      <c r="T2" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="V2" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="W2" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="X2" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="Y2" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="X2" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-    </row>
-    <row r="3">
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="V3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>278</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="V4" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="V5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" location="cite_note-11" ref="V3"/>
-    <hyperlink r:id="rId7" ref="W3"/>
-    <hyperlink r:id="rId8" ref="V4"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="V3" r:id="rId6" location="cite_note-11" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="W3" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="V4" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB027B17-DBB3-4113-ACF7-94DBEB71A0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62D9936-12A9-4255-8725-FAB215D9B74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,10 +2214,10 @@
     <t>https://www.nytimes.com/2019/08/26/us/epstein-farmer-sisters-maxwell.html</t>
   </si>
   <si>
-    <t>Many-National, Hollywood</t>
-  </si>
-  <si>
     <t>Many- National, Hollywood, Arts</t>
+  </si>
+  <si>
+    <t>Many-National, Hollywood Social Circles</t>
   </si>
 </sst>
 </file>
@@ -4452,7 +4452,7 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4525,7 +4525,7 @@
         <v>408</v>
       </c>
       <c r="B2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C2">
         <v>1954</v>
@@ -4557,7 +4557,7 @@
         <v>408</v>
       </c>
       <c r="B3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C3">
         <v>2008</v>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62D9936-12A9-4255-8725-FAB215D9B74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77303D68-5F73-4FE7-97ED-F9B92279ED87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4452,7 +4452,7 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77303D68-5F73-4FE7-97ED-F9B92279ED87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B41BFA-C541-4240-9C34-059C427C4E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,10 +2214,10 @@
     <t>https://www.nytimes.com/2019/08/26/us/epstein-farmer-sisters-maxwell.html</t>
   </si>
   <si>
-    <t>Many- National, Hollywood, Arts</t>
-  </si>
-  <si>
     <t>Many-National, Hollywood Social Circles</t>
+  </si>
+  <si>
+    <t>Many- National, Witnesses, Hollywood, Arts</t>
   </si>
 </sst>
 </file>
@@ -4452,7 +4452,7 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4464,7 +4464,7 @@
     <col min="15" max="15" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>394</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>408</v>
       </c>
       <c r="B2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C2">
         <v>1954</v>
@@ -4557,7 +4557,7 @@
         <v>408</v>
       </c>
       <c r="B3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C3">
         <v>2008</v>
@@ -4581,7 +4581,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>417</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>408</v>
       </c>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>408</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>438</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>408</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>408</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>408</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>477</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>438</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>498</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>408</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>408</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>510</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>408</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>408</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>408</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>532</v>
       </c>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B41BFA-C541-4240-9C34-059C427C4E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106D6339-23F8-4AF2-9C8F-D77273CF9BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filed Cases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="812">
   <si>
     <t>State</t>
   </si>
@@ -1728,9 +1728,6 @@
     <t>Death</t>
   </si>
   <si>
-    <t>Eddie Murphy, Marty Singer</t>
-  </si>
-  <si>
     <t>Shalimar Sueli</t>
   </si>
   <si>
@@ -1749,9 +1746,6 @@
     <t>Reported</t>
   </si>
   <si>
-    <t>P Diddy, Sean Combs</t>
-  </si>
-  <si>
     <t>Witnesses, Lil Rod, daughter, TikToker</t>
   </si>
   <si>
@@ -1821,9 +1815,6 @@
     <t>OJ Simpson</t>
   </si>
   <si>
-    <t>Nicole Brown</t>
-  </si>
-  <si>
     <t>Surviellance, Anthony Pellicano</t>
   </si>
   <si>
@@ -1842,18 +1833,9 @@
     <t>2016-2017</t>
   </si>
   <si>
-    <t>Settlement Letter</t>
-  </si>
-  <si>
-    <t>Defrauded, Sexually Assaulted</t>
-  </si>
-  <si>
     <t>Brokered</t>
   </si>
   <si>
-    <t>Kevin Costner</t>
-  </si>
-  <si>
     <t>Brokering, Brokering to Tabloids</t>
   </si>
   <si>
@@ -2019,9 +2001,6 @@
     <t>Fix Law Firm, Cause Resignation</t>
   </si>
   <si>
-    <t>Resigned</t>
-  </si>
-  <si>
     <t>Legal, Music</t>
   </si>
   <si>
@@ -2218,13 +2197,295 @@
   </si>
   <si>
     <t>Many- National, Witnesses, Hollywood, Arts</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>Hollywood Fixers, Marty Singer, Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Marty Singer</t>
+  </si>
+  <si>
+    <t>American Media Inc, Michael Sanchez, Dylan Howard</t>
+  </si>
+  <si>
+    <t>Jeff Bezos, Lauren Sanchez, Gavin de Becker</t>
+  </si>
+  <si>
+    <t>Offers, Pressure</t>
+  </si>
+  <si>
+    <t>Respond, Settlement</t>
+  </si>
+  <si>
+    <t>Gavin de Becker</t>
+  </si>
+  <si>
+    <t>Cameron Stracher</t>
+  </si>
+  <si>
+    <t>Billionaires, Business</t>
+  </si>
+  <si>
+    <t>Business, Billionaire</t>
+  </si>
+  <si>
+    <t>https://www.thewrap.com/national-enquirer-paid-brother-of-jeff-bezos-mistress-lauren-sanchez-200000-for-his-text-messages-report/</t>
+  </si>
+  <si>
+    <t>John Travolta</t>
+  </si>
+  <si>
+    <t>Exploit, Implications, Pressure</t>
+  </si>
+  <si>
+    <t>Respond</t>
+  </si>
+  <si>
+    <t>Enablers, Fixers</t>
+  </si>
+  <si>
+    <t>Hiring, Implications</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Jane Doe, Elon Musk, Gavin De Becker, Alex Spiro</t>
+  </si>
+  <si>
+    <t>Alex Spiro</t>
+  </si>
+  <si>
+    <t>Business, Billionaires</t>
+  </si>
+  <si>
+    <t>https://radaronline.com/p/elon-musk-exclusive-investigation-unmasks-musk-accuser-conspiracy-peddler/</t>
+  </si>
+  <si>
+    <t>2022-2024</t>
+  </si>
+  <si>
+    <t>Brad Pitt, Hollywood Fixers</t>
+  </si>
+  <si>
+    <t>Unknowing, Respond</t>
+  </si>
+  <si>
+    <t>Paul Murphy</t>
+  </si>
+  <si>
+    <t>Film, Security, Winery</t>
+  </si>
+  <si>
+    <t>Film, Security, SRS Global</t>
+  </si>
+  <si>
+    <t>Hiring, Fixers</t>
+  </si>
+  <si>
+    <t>https://radaronline.com/p/angelina-jolie-brad-pitt-350-million-war-nda-ex-bodyguard-declaration-spills-actress-tried-to-block-public/</t>
+  </si>
+  <si>
+    <t>https://people.com/angelina-jolie-allegedly-encouraged-kids-avoid-brad-pitt-custody-visits-8646201</t>
+  </si>
+  <si>
+    <t>https://www.latimes.com/obituaries/story/2021-02-02/jack-palladino-private-eye-clinton-accusers-dies-mugging</t>
+  </si>
+  <si>
+    <t>American Media Inc</t>
+  </si>
+  <si>
+    <t>Kevin Costner, Jane Doe</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2017/11/07/us/harvey-weinstein-new-yorker.html</t>
+  </si>
+  <si>
+    <t>https://www.nydailynews.com/2007/10/22/oj-simpson-bugged-nicole-says-private-investigator/</t>
+  </si>
+  <si>
+    <t>Nicole Brown, Witnesses</t>
+  </si>
+  <si>
+    <t>https://www.dailymail.co.uk/news/article-13303947/oj-simpson-nicole-brown-ron-goldman-murder-scene-witness.html</t>
+  </si>
+  <si>
+    <t>https://lawandcrime.com/celebrity/woman-says-armie-hammer-raped-her-slammed-her-head-against-wall-in-4-hour-attack/</t>
+  </si>
+  <si>
+    <t>https://www.usmagazine.com/celebrity-news/news/gloria-allred-refused-to-represent-armie-hammer-rape-accuser/</t>
+  </si>
+  <si>
+    <t>Ori Spado, Naomi Campbell</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Stopped Harassment</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A-63tGhzDes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ACCIDENTAL-GANGSTER-Insurance-Salesman-Hollywood/dp/1948239469</t>
+  </si>
+  <si>
+    <t>Modeling, Socialite, Nightclubs, Hollywood</t>
+  </si>
+  <si>
+    <t>East Coast</t>
+  </si>
+  <si>
+    <t>https://youtu.be/nojknljfvME?si=GfX1QbvWDNOipGpg</t>
+  </si>
+  <si>
+    <t>Richard Di Sabatino, Nicole Kidman</t>
+  </si>
+  <si>
+    <t>Film, Investigation</t>
+  </si>
+  <si>
+    <t>Anthony Pellicano, FBI, Fixers</t>
+  </si>
+  <si>
+    <t>Investigations</t>
+  </si>
+  <si>
+    <t>Investigated, Mitigated</t>
+  </si>
+  <si>
+    <t>Fixers, Conflicts of Interests</t>
+  </si>
+  <si>
+    <t>Anthony Pellicano, Fixers</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Pellicano, Hollywood Fixers</t>
+  </si>
+  <si>
+    <t>Sylvester Stallone</t>
+  </si>
+  <si>
+    <t>2000s-</t>
+  </si>
+  <si>
+    <t>Neville Johnson</t>
+  </si>
+  <si>
+    <t>Testify, Respond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploit, Implications, Pressure </t>
+  </si>
+  <si>
+    <t>Film, Hollywood, Fixers</t>
+  </si>
+  <si>
+    <t>1998-</t>
+  </si>
+  <si>
+    <t>https://patch.com/california/hollywood/disgraced-hollywood-pi-anthony-pellicano-be-re-sentenced</t>
+  </si>
+  <si>
+    <t>https://www.scribd.com/document/716732373/Alexa-Nikolas-Temporary-Restraining-Order-Against-Mannee-Hailey-McMurray</t>
+  </si>
+  <si>
+    <t>https://www.huffpost.com/entry/the-john-travolta-saga-a_b_1589777</t>
+  </si>
+  <si>
+    <t>https://edition.cnn.com/2022/06/16/media/wwe-vince-mcmahon-investigation/index.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v6d3qZRI5FI</t>
+  </si>
+  <si>
+    <t>Ozzy Osbourne</t>
+  </si>
+  <si>
+    <t>Revoked License</t>
+  </si>
+  <si>
+    <t>Dr. David Kipper, Licensing Board</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/archive/lifestyle/2003/12/08/ozzy-osbournes-pill-prescriber-has-medical-license-revoked/e4b9ed07-fd6d-4f9a-b28b-36af0483154f/</t>
+  </si>
+  <si>
+    <t>https://archive.seattletimes.com/archive/?date=20031208&amp;slug=ozzy08</t>
+  </si>
+  <si>
+    <t>Music, Medical</t>
+  </si>
+  <si>
+    <t>Report, Investigation, Licensing Board</t>
+  </si>
+  <si>
+    <t>https://www.newyorker.com/news/news-desk/harvey-weinsteins-secret-settlements</t>
+  </si>
+  <si>
+    <t>Defraud, Settlement Letter</t>
+  </si>
+  <si>
+    <t>Avoid, Sexually Assaulted</t>
+  </si>
+  <si>
+    <t>Modeling, Film</t>
+  </si>
+  <si>
+    <t>Ambra Battilana Gutierrez, Rose McGowan</t>
+  </si>
+  <si>
+    <t>P Diddy, Sean Combs, Fixers</t>
+  </si>
+  <si>
+    <t>Supporters, Britney Spears</t>
+  </si>
+  <si>
+    <t>Michael Rosenbart</t>
+  </si>
+  <si>
+    <t>https://pagesix.com/article/meet-lou-taylor-britney-spears-former-business-manager/</t>
+  </si>
+  <si>
+    <t>Former</t>
+  </si>
+  <si>
+    <t>2019-2021</t>
+  </si>
+  <si>
+    <t>Music, Management</t>
+  </si>
+  <si>
+    <t>Exploitation, Hiring</t>
+  </si>
+  <si>
+    <t>Tri Star Sports &amp; Entertainment Group, Lou Taylor, Robin Greenhill</t>
+  </si>
+  <si>
+    <t>Former, Exploitation, Control</t>
+  </si>
+  <si>
+    <t>Demonstrate, Assembly, Legal</t>
+  </si>
+  <si>
+    <t>Resigned, Other Business, Surprise Witness LLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2271,6 +2532,20 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2295,10 +2570,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2308,8 +2584,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4451,7 +4730,7 @@
   </sheetPr>
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -4525,7 +4804,7 @@
         <v>408</v>
       </c>
       <c r="B2" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C2">
         <v>1954</v>
@@ -4557,7 +4836,7 @@
         <v>408</v>
       </c>
       <c r="B3" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C3">
         <v>2008</v>
@@ -5159,37 +5438,37 @@
         <v>498</v>
       </c>
       <c r="B22" t="s">
+        <v>705</v>
+      </c>
+      <c r="C22" t="s">
+        <v>706</v>
+      </c>
+      <c r="D22" t="s">
+        <v>707</v>
+      </c>
+      <c r="E22" t="s">
+        <v>708</v>
+      </c>
+      <c r="F22" t="s">
+        <v>709</v>
+      </c>
+      <c r="G22" t="s">
+        <v>710</v>
+      </c>
+      <c r="J22" t="s">
+        <v>711</v>
+      </c>
+      <c r="P22" t="s">
         <v>712</v>
       </c>
-      <c r="C22" t="s">
+      <c r="Q22" t="s">
         <v>713</v>
       </c>
-      <c r="D22" t="s">
+      <c r="S22" t="s">
         <v>714</v>
       </c>
-      <c r="E22" t="s">
+      <c r="T22" t="s">
         <v>715</v>
-      </c>
-      <c r="F22" t="s">
-        <v>716</v>
-      </c>
-      <c r="G22" t="s">
-        <v>717</v>
-      </c>
-      <c r="J22" t="s">
-        <v>718</v>
-      </c>
-      <c r="P22" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>720</v>
-      </c>
-      <c r="S22" t="s">
-        <v>721</v>
-      </c>
-      <c r="T22" t="s">
-        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -5221,697 +5500,1037 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>536</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>537</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>538</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>539</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>540</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>541</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>542</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>543</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>544</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>545</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>546</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>547</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>407</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>548</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
         <v>1954</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>549</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>550</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>551</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>552</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>553</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>554</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>555</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>557</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>558</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>559</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="S3" s="7" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>560</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1998</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>782</v>
+      </c>
+      <c r="D4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E4" t="s">
         <v>561</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>562</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" t="s">
         <v>563</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" t="s">
+        <v>720</v>
+      </c>
+      <c r="L4" t="s">
         <v>564</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="O4" t="s">
+        <v>554</v>
+      </c>
+      <c r="S4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B5" t="s">
+        <v>774</v>
+      </c>
+      <c r="C5">
+        <v>2019</v>
+      </c>
+      <c r="D5" t="s">
+        <v>721</v>
+      </c>
+      <c r="E5" t="s">
+        <v>722</v>
+      </c>
+      <c r="F5" t="s">
+        <v>723</v>
+      </c>
+      <c r="G5" t="s">
+        <v>724</v>
+      </c>
+      <c r="H5" t="s">
+        <v>725</v>
+      </c>
+      <c r="I5" t="s">
+        <v>554</v>
+      </c>
+      <c r="K5" t="s">
+        <v>726</v>
+      </c>
+      <c r="L5" t="s">
+        <v>727</v>
+      </c>
+      <c r="M5" t="s">
+        <v>728</v>
+      </c>
+      <c r="O5" t="s">
+        <v>554</v>
+      </c>
+      <c r="P5" t="s">
+        <v>725</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>579</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
+      <c r="E6" t="s">
+        <v>730</v>
+      </c>
+      <c r="F6" t="s">
+        <v>731</v>
+      </c>
+      <c r="G6" t="s">
+        <v>732</v>
+      </c>
+      <c r="I6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" t="s">
+        <v>613</v>
+      </c>
+      <c r="K6" t="s">
+        <v>613</v>
+      </c>
+      <c r="L6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" t="s">
+        <v>409</v>
+      </c>
+      <c r="N6" t="s">
+        <v>733</v>
+      </c>
+      <c r="O6" t="s">
+        <v>734</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>735</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>736</v>
+      </c>
+      <c r="I7" t="s">
         <v>554</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="J7" t="s">
+        <v>737</v>
+      </c>
+      <c r="L7" t="s">
+        <v>738</v>
+      </c>
+      <c r="M7" t="s">
+        <v>728</v>
+      </c>
+      <c r="O7" t="s">
+        <v>554</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>777</v>
+      </c>
+      <c r="D8" t="s">
+        <v>767</v>
+      </c>
+      <c r="E8" t="s">
+        <v>769</v>
+      </c>
+      <c r="F8" t="s">
+        <v>770</v>
+      </c>
+      <c r="G8" t="s">
+        <v>771</v>
+      </c>
+      <c r="I8" t="s">
+        <v>773</v>
+      </c>
+      <c r="L8" t="s">
+        <v>768</v>
+      </c>
+      <c r="O8" t="s">
+        <v>772</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D9" t="s">
+        <v>741</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>741</v>
+      </c>
+      <c r="G9" t="s">
+        <v>742</v>
+      </c>
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" t="s">
+        <v>743</v>
+      </c>
+      <c r="L9" t="s">
+        <v>744</v>
+      </c>
+      <c r="M9" t="s">
+        <v>745</v>
+      </c>
+      <c r="O9" t="s">
+        <v>746</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>2024</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E10" t="s">
         <v>567</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F10" t="s">
+        <v>568</v>
+      </c>
+      <c r="G10" t="s">
+        <v>569</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>570</v>
+      </c>
+      <c r="O10" t="s">
+        <v>554</v>
+      </c>
+      <c r="S10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>571</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="F11" t="s">
+        <v>572</v>
+      </c>
+      <c r="L11" t="s">
+        <v>573</v>
+      </c>
+      <c r="O11" t="s">
+        <v>574</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>582</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>583</v>
+      </c>
+      <c r="D12" t="s">
+        <v>584</v>
+      </c>
+      <c r="E12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" t="s">
+        <v>585</v>
+      </c>
+      <c r="G12" t="s">
+        <v>586</v>
+      </c>
+      <c r="I12" t="s">
+        <v>587</v>
+      </c>
+      <c r="L12" t="s">
+        <v>231</v>
+      </c>
+      <c r="O12" t="s">
+        <v>554</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>560</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>588</v>
+      </c>
+      <c r="D13" t="s">
+        <v>589</v>
+      </c>
+      <c r="E13" t="s">
+        <v>754</v>
+      </c>
+      <c r="F13" t="s">
+        <v>590</v>
+      </c>
+      <c r="G13" t="s">
+        <v>591</v>
+      </c>
+      <c r="I13" t="s">
+        <v>415</v>
+      </c>
+      <c r="K13" t="s">
+        <v>592</v>
+      </c>
+      <c r="L13" t="s">
+        <v>593</v>
+      </c>
+      <c r="O13" t="s">
+        <v>554</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>630</v>
+      </c>
+      <c r="B14" t="s">
+        <v>765</v>
+      </c>
+      <c r="D14" t="s">
+        <v>758</v>
+      </c>
+      <c r="E14" t="s">
+        <v>759</v>
+      </c>
+      <c r="F14" t="s">
+        <v>760</v>
+      </c>
+      <c r="G14" t="s">
+        <v>761</v>
+      </c>
+      <c r="L14" t="s">
+        <v>764</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>750</v>
+      </c>
+      <c r="E15" t="s">
+        <v>751</v>
+      </c>
+      <c r="F15" t="s">
+        <v>597</v>
+      </c>
+      <c r="I15" t="s">
+        <v>415</v>
+      </c>
+      <c r="L15" t="s">
+        <v>231</v>
+      </c>
+      <c r="O15" t="s">
+        <v>554</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>548</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>777</v>
+      </c>
+      <c r="D16" t="s">
+        <v>775</v>
+      </c>
+      <c r="E16" t="s">
+        <v>776</v>
+      </c>
+      <c r="F16" t="s">
+        <v>780</v>
+      </c>
+      <c r="G16" t="s">
+        <v>779</v>
+      </c>
+      <c r="J16" t="s">
+        <v>778</v>
+      </c>
+      <c r="L16" t="s">
+        <v>781</v>
+      </c>
+      <c r="O16" t="s">
+        <v>746</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>575</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>576</v>
+      </c>
+      <c r="E17" t="s">
+        <v>577</v>
+      </c>
+      <c r="F17" t="s">
+        <v>578</v>
+      </c>
+      <c r="G17" t="s">
+        <v>579</v>
+      </c>
+      <c r="I17" t="s">
+        <v>580</v>
+      </c>
+      <c r="L17" t="s">
+        <v>581</v>
+      </c>
+      <c r="O17" t="s">
+        <v>554</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>579</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1">
-        <v>2024</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
+      <c r="D18" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" t="s">
+        <v>598</v>
+      </c>
+      <c r="F18" t="s">
+        <v>599</v>
+      </c>
+      <c r="G18" t="s">
+        <v>600</v>
+      </c>
+      <c r="K18" t="s">
+        <v>601</v>
+      </c>
+      <c r="L18" t="s">
+        <v>602</v>
+      </c>
+      <c r="S18" t="s">
+        <v>603</v>
+      </c>
+      <c r="T18" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>605</v>
+      </c>
+      <c r="B19" t="s">
+        <v>606</v>
+      </c>
+      <c r="C19" t="s">
+        <v>607</v>
+      </c>
+      <c r="D19" t="s">
+        <v>608</v>
+      </c>
+      <c r="E19" t="s">
+        <v>609</v>
+      </c>
+      <c r="F19" t="s">
+        <v>610</v>
+      </c>
+      <c r="G19" t="s">
+        <v>611</v>
+      </c>
+      <c r="I19" t="s">
+        <v>612</v>
+      </c>
+      <c r="J19" t="s">
+        <v>613</v>
+      </c>
+      <c r="L19" t="s">
+        <v>614</v>
+      </c>
+      <c r="M19" t="s">
+        <v>615</v>
+      </c>
+      <c r="O19" t="s">
         <v>554</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>594</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D20" t="s">
+        <v>584</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>616</v>
+      </c>
+      <c r="B21" t="s">
+        <v>617</v>
+      </c>
+      <c r="C21">
+        <v>2008</v>
+      </c>
+      <c r="D21" t="s">
+        <v>618</v>
+      </c>
+      <c r="E21" t="s">
+        <v>619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>620</v>
+      </c>
+      <c r="G21" t="s">
+        <v>621</v>
+      </c>
+      <c r="I21" t="s">
+        <v>580</v>
+      </c>
+      <c r="K21" t="s">
+        <v>622</v>
+      </c>
+      <c r="L21" t="s">
+        <v>623</v>
+      </c>
+      <c r="O21" t="s">
+        <v>554</v>
+      </c>
+      <c r="S21" t="s">
+        <v>624</v>
+      </c>
+      <c r="U21" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>626</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E22" t="s">
+        <v>627</v>
+      </c>
+      <c r="F22" t="s">
+        <v>628</v>
+      </c>
+      <c r="H22" t="s">
+        <v>629</v>
+      </c>
+      <c r="L22" t="s">
+        <v>141</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>630</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="E23" t="s">
+        <v>327</v>
+      </c>
+      <c r="F23" t="s">
+        <v>599</v>
+      </c>
+      <c r="G23" t="s">
+        <v>632</v>
+      </c>
+      <c r="K23" t="s">
+        <v>633</v>
+      </c>
+      <c r="L23" t="s">
+        <v>348</v>
+      </c>
+      <c r="M23" t="s">
+        <v>634</v>
+      </c>
+      <c r="N23" t="s">
+        <v>239</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>579</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>635</v>
+      </c>
+      <c r="E24" t="s">
+        <v>365</v>
+      </c>
+      <c r="F24" t="s">
+        <v>636</v>
+      </c>
+      <c r="G24" t="s">
+        <v>637</v>
+      </c>
+      <c r="K24" t="s">
+        <v>357</v>
+      </c>
+      <c r="L24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" t="s">
         <v>578</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="S24" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="T24" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>579</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>638</v>
+      </c>
+      <c r="E25" t="s">
+        <v>639</v>
+      </c>
+      <c r="F25" t="s">
+        <v>640</v>
+      </c>
+      <c r="G25" t="s">
+        <v>641</v>
+      </c>
+      <c r="K25" t="s">
+        <v>642</v>
+      </c>
+      <c r="L25" t="s">
+        <v>643</v>
+      </c>
+      <c r="O25" t="s">
+        <v>644</v>
+      </c>
+      <c r="R25" t="s">
+        <v>645</v>
+      </c>
+      <c r="S25" t="s">
+        <v>646</v>
+      </c>
+      <c r="U25" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>648</v>
+      </c>
+      <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="S12" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="O14" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="D28" t="s">
         <v>649</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="E28" t="s">
         <v>650</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="F28" t="s">
         <v>651</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="G28" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="L28" t="s">
         <v>652</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="R19" s="2" t="s">
+      <c r="R28" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="S4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="S5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="S12" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="T12" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="S14" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="U14" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="R18" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="S18" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="U18" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="R19" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="S5" r:id="rId1" xr:uid="{288175D3-46BC-4874-B132-DA336F20094F}"/>
+    <hyperlink ref="S7" r:id="rId2" xr:uid="{D1C4C4B2-824E-4E18-9670-52E27CFA17DC}"/>
+    <hyperlink ref="T9" r:id="rId3" xr:uid="{7C386641-1688-4037-8D5A-1AB1985EE152}"/>
+    <hyperlink ref="S9" r:id="rId4" xr:uid="{EFF73829-423D-4903-920A-4AC07C293287}"/>
+    <hyperlink ref="T12" r:id="rId5" xr:uid="{7619AE88-25BD-4F14-B80D-FBB77906B6B5}"/>
+    <hyperlink ref="S12" r:id="rId6" xr:uid="{EAFCE82C-73D2-4573-A21D-039ECA690C85}"/>
+    <hyperlink ref="T13" r:id="rId7" xr:uid="{19D80F3D-DEDB-4282-9C09-6845A04E6753}"/>
+    <hyperlink ref="S13" r:id="rId8" xr:uid="{E97BEC82-F6A2-4087-ADF9-611E6B647B10}"/>
+    <hyperlink ref="S24" r:id="rId9" xr:uid="{C30CB245-0D89-4A1C-A01B-FAC0B1117ADE}"/>
+    <hyperlink ref="R14" r:id="rId10" xr:uid="{832890D8-83D0-46A8-8DAB-DEF4C88EBB81}"/>
+    <hyperlink ref="S14" r:id="rId11" xr:uid="{31DF8A51-AF0C-4D9F-8C94-05307AFDBE13}"/>
+    <hyperlink ref="R15" r:id="rId12" xr:uid="{3F878BF4-F505-42D6-9952-838D2A699917}"/>
+    <hyperlink ref="S16" r:id="rId13" xr:uid="{A5E06A0C-F3B0-4106-91C8-EADEFDA9CE6D}"/>
+    <hyperlink ref="S17" r:id="rId14" xr:uid="{E7B1E89C-EBAB-49EF-BA30-D2939CF735FF}"/>
+    <hyperlink ref="S22" r:id="rId15" xr:uid="{D1524A0D-7AC6-4E23-9064-BB890F2C63BD}"/>
+    <hyperlink ref="S6" r:id="rId16" xr:uid="{55978EDB-DF12-4331-9CEE-C717F8426D11}"/>
+    <hyperlink ref="S3" r:id="rId17" xr:uid="{22243F9D-1CC6-447A-986E-3655CF3F389F}"/>
+    <hyperlink ref="R23" r:id="rId18" xr:uid="{79C6BD16-0BF3-4B07-AE2F-25A2D82C5ED5}"/>
+    <hyperlink ref="T26" r:id="rId19" xr:uid="{09F42AEB-E886-4128-AF01-3AD237FFF416}"/>
+    <hyperlink ref="S26" r:id="rId20" xr:uid="{6B5C9AEE-0D58-4F36-9E22-54078B4A3533}"/>
+    <hyperlink ref="S11" r:id="rId21" xr:uid="{D34B6BFE-2A72-4498-98D1-0833831E1496}"/>
+    <hyperlink ref="S20" r:id="rId22" xr:uid="{8DF42478-3A35-4C41-B32B-E3339B9056AA}"/>
+    <hyperlink ref="R8" r:id="rId23" xr:uid="{48047C18-5159-4880-8CBC-F2ED4D9511E8}"/>
+    <hyperlink ref="S27" r:id="rId24" xr:uid="{9A10EF76-57F6-4FDE-83B4-57B95065A882}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5943,13 +6562,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>405</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -5976,16 +6595,16 @@
         <v>401</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>406</v>
@@ -6002,68 +6621,68 @@
         <v>408</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>672</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>677</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>684</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -6081,99 +6700,99 @@
         <v>408</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>278</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106D6339-23F8-4AF2-9C8F-D77273CF9BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D094B5-0417-4468-9377-5F69BD8BFAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="826">
   <si>
     <t>State</t>
   </si>
@@ -2480,12 +2480,54 @@
   <si>
     <t>Resigned, Other Business, Surprise Witness LLC</t>
   </si>
+  <si>
+    <t>Ignored, Death</t>
+  </si>
+  <si>
+    <t>1950s-1962</t>
+  </si>
+  <si>
+    <t>Fred Otash, Clients, Kennedys</t>
+  </si>
+  <si>
+    <t>Recording Audios, Fixing</t>
+  </si>
+  <si>
+    <t>Film, Fixers, Investigators, Modeing</t>
+  </si>
+  <si>
+    <t>https://linkedinvestigations.com/a-los-angeles-detective-caught-marilyn-monroe-s-death-on-tape/</t>
+  </si>
+  <si>
+    <t>Ignored, Death, Murder</t>
+  </si>
+  <si>
+    <t>Letters to Family, Unknown, Flee</t>
+  </si>
+  <si>
+    <t>Ventura Police</t>
+  </si>
+  <si>
+    <t>Marty Singer, Adam Waldman, Others</t>
+  </si>
+  <si>
+    <t>https://charleyproject.org/case/anthony-vivien-fox</t>
+  </si>
+  <si>
+    <t>2001-</t>
+  </si>
+  <si>
+    <t>Paul Schindler, Unclear</t>
+  </si>
+  <si>
+    <t>Fixers, Hiring, Witness Tampering</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2539,13 +2581,6 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2574,7 +2609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2585,7 +2620,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2807,7 +2841,9 @@
   </sheetPr>
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5500,10 +5536,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5601,783 +5637,775 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>555</v>
+        <v>812</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>718</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>556</v>
+        <v>813</v>
+      </c>
+      <c r="D3" t="s">
+        <v>814</v>
       </c>
       <c r="E3" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F3" t="s">
-        <v>558</v>
-      </c>
-      <c r="G3" t="s">
-        <v>209</v>
+        <v>815</v>
       </c>
       <c r="L3" t="s">
-        <v>559</v>
+        <v>816</v>
+      </c>
+      <c r="O3" t="s">
+        <v>554</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>782</v>
+        <v>718</v>
       </c>
       <c r="D4" t="s">
-        <v>719</v>
+        <v>556</v>
       </c>
       <c r="E4" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F4" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G4" t="s">
-        <v>563</v>
-      </c>
-      <c r="I4" t="s">
-        <v>159</v>
-      </c>
-      <c r="K4" t="s">
-        <v>720</v>
+        <v>209</v>
       </c>
       <c r="L4" t="s">
-        <v>564</v>
-      </c>
-      <c r="O4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="S4" t="s">
-        <v>565</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="B5" t="s">
-        <v>774</v>
-      </c>
-      <c r="C5">
-        <v>2019</v>
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>782</v>
       </c>
       <c r="D5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E5" t="s">
-        <v>722</v>
+        <v>561</v>
       </c>
       <c r="F5" t="s">
-        <v>723</v>
+        <v>562</v>
       </c>
       <c r="G5" t="s">
-        <v>724</v>
-      </c>
-      <c r="H5" t="s">
-        <v>725</v>
+        <v>563</v>
       </c>
       <c r="I5" t="s">
-        <v>554</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="L5" t="s">
-        <v>727</v>
-      </c>
-      <c r="M5" t="s">
-        <v>728</v>
+        <v>564</v>
       </c>
       <c r="O5" t="s">
         <v>554</v>
       </c>
-      <c r="P5" t="s">
-        <v>725</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>729</v>
+      <c r="S5" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>234</v>
+        <v>774</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>721</v>
       </c>
       <c r="E6" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="F6" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="G6" t="s">
-        <v>732</v>
+        <v>724</v>
+      </c>
+      <c r="H6" t="s">
+        <v>725</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J6" t="s">
-        <v>613</v>
+        <v>554</v>
       </c>
       <c r="K6" t="s">
-        <v>613</v>
+        <v>726</v>
       </c>
       <c r="L6" t="s">
-        <v>141</v>
+        <v>727</v>
       </c>
       <c r="M6" t="s">
-        <v>409</v>
-      </c>
-      <c r="N6" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="O6" t="s">
-        <v>734</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>785</v>
+        <v>554</v>
+      </c>
+      <c r="P6" t="s">
+        <v>725</v>
+      </c>
+      <c r="S6" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>735</v>
+        <v>579</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>2022</v>
+      <c r="C7" t="s">
+        <v>234</v>
       </c>
       <c r="D7" t="s">
         <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>736</v>
+        <v>730</v>
+      </c>
+      <c r="F7" t="s">
+        <v>731</v>
+      </c>
+      <c r="G7" t="s">
+        <v>732</v>
       </c>
       <c r="I7" t="s">
-        <v>554</v>
+        <v>159</v>
       </c>
       <c r="J7" t="s">
-        <v>737</v>
+        <v>613</v>
+      </c>
+      <c r="K7" t="s">
+        <v>613</v>
       </c>
       <c r="L7" t="s">
-        <v>738</v>
+        <v>141</v>
       </c>
       <c r="M7" t="s">
-        <v>728</v>
+        <v>409</v>
+      </c>
+      <c r="N7" t="s">
+        <v>733</v>
       </c>
       <c r="O7" t="s">
-        <v>554</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>739</v>
+        <v>734</v>
+      </c>
+      <c r="S7" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>548</v>
+        <v>735</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>777</v>
+      <c r="C8">
+        <v>2022</v>
       </c>
       <c r="D8" t="s">
-        <v>767</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>769</v>
-      </c>
-      <c r="F8" t="s">
-        <v>770</v>
-      </c>
-      <c r="G8" t="s">
-        <v>771</v>
+        <v>736</v>
       </c>
       <c r="I8" t="s">
-        <v>773</v>
+        <v>554</v>
+      </c>
+      <c r="J8" t="s">
+        <v>737</v>
       </c>
       <c r="L8" t="s">
-        <v>768</v>
+        <v>738</v>
+      </c>
+      <c r="M8" t="s">
+        <v>728</v>
       </c>
       <c r="O8" t="s">
-        <v>772</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>766</v>
+        <v>554</v>
+      </c>
+      <c r="S8" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>735</v>
+        <v>548</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>740</v>
+        <v>777</v>
       </c>
       <c r="D9" t="s">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>769</v>
       </c>
       <c r="F9" t="s">
-        <v>741</v>
+        <v>770</v>
       </c>
       <c r="G9" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
-      </c>
-      <c r="J9" t="s">
-        <v>743</v>
+        <v>773</v>
       </c>
       <c r="L9" t="s">
-        <v>744</v>
-      </c>
-      <c r="M9" t="s">
-        <v>745</v>
+        <v>768</v>
       </c>
       <c r="O9" t="s">
-        <v>746</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>748</v>
+        <v>772</v>
+      </c>
+      <c r="R9" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>566</v>
+        <v>735</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>2024</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>800</v>
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>740</v>
+      </c>
+      <c r="D10" t="s">
+        <v>741</v>
       </c>
       <c r="E10" t="s">
-        <v>567</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>568</v>
+        <v>741</v>
       </c>
       <c r="G10" t="s">
-        <v>569</v>
+        <v>742</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>159</v>
+      </c>
+      <c r="J10" t="s">
+        <v>743</v>
       </c>
       <c r="L10" t="s">
-        <v>570</v>
+        <v>744</v>
+      </c>
+      <c r="M10" t="s">
+        <v>745</v>
       </c>
       <c r="O10" t="s">
-        <v>554</v>
+        <v>746</v>
       </c>
       <c r="S10" t="s">
-        <v>123</v>
+        <v>747</v>
+      </c>
+      <c r="T10" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>2020</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>514</v>
+        <v>2024</v>
+      </c>
+      <c r="D11" t="s">
+        <v>800</v>
+      </c>
+      <c r="E11" t="s">
+        <v>567</v>
       </c>
       <c r="F11" t="s">
-        <v>572</v>
+        <v>568</v>
+      </c>
+      <c r="G11" t="s">
+        <v>569</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O11" t="s">
-        <v>574</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>517</v>
+        <v>554</v>
+      </c>
+      <c r="S11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>583</v>
+      <c r="C12">
+        <v>2020</v>
       </c>
       <c r="D12" t="s">
-        <v>584</v>
+        <v>511</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>514</v>
       </c>
       <c r="F12" t="s">
-        <v>585</v>
-      </c>
-      <c r="G12" t="s">
-        <v>586</v>
-      </c>
-      <c r="I12" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="L12" t="s">
-        <v>231</v>
+        <v>573</v>
       </c>
       <c r="O12" t="s">
-        <v>554</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>752</v>
+        <v>574</v>
+      </c>
+      <c r="S12" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D13" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E13" t="s">
-        <v>754</v>
+        <v>179</v>
       </c>
       <c r="F13" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G13" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="I13" t="s">
-        <v>415</v>
-      </c>
-      <c r="K13" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L13" t="s">
-        <v>593</v>
+        <v>231</v>
       </c>
       <c r="O13" t="s">
         <v>554</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>753</v>
+      <c r="S13" t="s">
+        <v>625</v>
+      </c>
+      <c r="T13" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>630</v>
+        <v>560</v>
       </c>
       <c r="B14" t="s">
-        <v>765</v>
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>588</v>
       </c>
       <c r="D14" t="s">
-        <v>758</v>
+        <v>589</v>
       </c>
       <c r="E14" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F14" t="s">
-        <v>760</v>
+        <v>590</v>
       </c>
       <c r="G14" t="s">
-        <v>761</v>
+        <v>591</v>
+      </c>
+      <c r="I14" t="s">
+        <v>415</v>
+      </c>
+      <c r="K14" t="s">
+        <v>592</v>
       </c>
       <c r="L14" t="s">
-        <v>764</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>763</v>
+        <v>593</v>
+      </c>
+      <c r="O14" t="s">
+        <v>554</v>
+      </c>
+      <c r="S14" t="s">
+        <v>755</v>
+      </c>
+      <c r="T14" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>765</v>
       </c>
       <c r="D15" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="E15" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="F15" t="s">
-        <v>597</v>
-      </c>
-      <c r="I15" t="s">
-        <v>415</v>
+        <v>760</v>
+      </c>
+      <c r="G15" t="s">
+        <v>761</v>
       </c>
       <c r="L15" t="s">
-        <v>231</v>
-      </c>
-      <c r="O15" t="s">
-        <v>554</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
+      </c>
+      <c r="R15" t="s">
+        <v>762</v>
+      </c>
+      <c r="S15" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>548</v>
+        <v>596</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>777</v>
-      </c>
       <c r="D16" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="E16" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="F16" t="s">
-        <v>780</v>
-      </c>
-      <c r="G16" t="s">
-        <v>779</v>
-      </c>
-      <c r="J16" t="s">
-        <v>778</v>
+        <v>597</v>
+      </c>
+      <c r="I16" t="s">
+        <v>415</v>
       </c>
       <c r="L16" t="s">
-        <v>781</v>
+        <v>231</v>
       </c>
       <c r="O16" t="s">
-        <v>746</v>
-      </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7" t="s">
-        <v>783</v>
+        <v>554</v>
+      </c>
+      <c r="R16" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
+      <c r="C17" t="s">
+        <v>777</v>
+      </c>
       <c r="D17" t="s">
-        <v>576</v>
+        <v>775</v>
       </c>
       <c r="E17" t="s">
-        <v>577</v>
+        <v>776</v>
       </c>
       <c r="F17" t="s">
-        <v>578</v>
+        <v>780</v>
       </c>
       <c r="G17" t="s">
-        <v>579</v>
-      </c>
-      <c r="I17" t="s">
-        <v>580</v>
+        <v>779</v>
+      </c>
+      <c r="J17" t="s">
+        <v>778</v>
       </c>
       <c r="L17" t="s">
-        <v>581</v>
+        <v>781</v>
       </c>
       <c r="O17" t="s">
-        <v>554</v>
-      </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
+      </c>
+      <c r="S17" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>576</v>
+      </c>
+      <c r="E18" t="s">
+        <v>577</v>
+      </c>
+      <c r="F18" t="s">
+        <v>578</v>
+      </c>
+      <c r="G18" t="s">
         <v>579</v>
       </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>245</v>
-      </c>
-      <c r="E18" t="s">
-        <v>598</v>
-      </c>
-      <c r="F18" t="s">
-        <v>599</v>
-      </c>
-      <c r="G18" t="s">
-        <v>600</v>
-      </c>
-      <c r="K18" t="s">
-        <v>601</v>
+      <c r="I18" t="s">
+        <v>580</v>
       </c>
       <c r="L18" t="s">
-        <v>602</v>
+        <v>581</v>
+      </c>
+      <c r="O18" t="s">
+        <v>554</v>
       </c>
       <c r="S18" t="s">
-        <v>603</v>
-      </c>
-      <c r="T18" t="s">
-        <v>604</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="B19" t="s">
-        <v>606</v>
-      </c>
-      <c r="C19" t="s">
-        <v>607</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>608</v>
+        <v>245</v>
       </c>
       <c r="E19" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F19" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G19" t="s">
-        <v>611</v>
-      </c>
-      <c r="I19" t="s">
-        <v>612</v>
-      </c>
-      <c r="J19" t="s">
-        <v>613</v>
+        <v>600</v>
+      </c>
+      <c r="K19" t="s">
+        <v>601</v>
       </c>
       <c r="L19" t="s">
-        <v>614</v>
-      </c>
-      <c r="M19" t="s">
-        <v>615</v>
-      </c>
-      <c r="O19" t="s">
-        <v>554</v>
+        <v>602</v>
+      </c>
+      <c r="S19" t="s">
+        <v>603</v>
+      </c>
+      <c r="T19" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>606</v>
       </c>
       <c r="C20" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="D20" t="s">
-        <v>584</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>795</v>
+        <v>608</v>
+      </c>
+      <c r="E20" t="s">
+        <v>609</v>
+      </c>
+      <c r="F20" t="s">
+        <v>610</v>
+      </c>
+      <c r="G20" t="s">
+        <v>611</v>
+      </c>
+      <c r="I20" t="s">
+        <v>612</v>
+      </c>
+      <c r="J20" t="s">
+        <v>613</v>
+      </c>
+      <c r="L20" t="s">
+        <v>614</v>
+      </c>
+      <c r="M20" t="s">
+        <v>615</v>
+      </c>
+      <c r="O20" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="B21" t="s">
-        <v>617</v>
-      </c>
-      <c r="C21">
-        <v>2008</v>
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>595</v>
       </c>
       <c r="D21" t="s">
-        <v>618</v>
+        <v>584</v>
       </c>
       <c r="E21" t="s">
-        <v>619</v>
+        <v>799</v>
       </c>
       <c r="F21" t="s">
-        <v>620</v>
+        <v>796</v>
       </c>
       <c r="G21" t="s">
-        <v>621</v>
-      </c>
-      <c r="I21" t="s">
-        <v>580</v>
-      </c>
-      <c r="K21" t="s">
-        <v>622</v>
+        <v>797</v>
       </c>
       <c r="L21" t="s">
-        <v>623</v>
-      </c>
-      <c r="O21" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="S21" t="s">
-        <v>624</v>
-      </c>
-      <c r="U21" t="s">
-        <v>625</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>617</v>
+      </c>
+      <c r="C22">
+        <v>2008</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>618</v>
       </c>
       <c r="E22" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F22" t="s">
-        <v>628</v>
-      </c>
-      <c r="H22" t="s">
-        <v>629</v>
+        <v>620</v>
+      </c>
+      <c r="G22" t="s">
+        <v>621</v>
+      </c>
+      <c r="I22" t="s">
+        <v>580</v>
+      </c>
+      <c r="K22" t="s">
+        <v>622</v>
       </c>
       <c r="L22" t="s">
-        <v>141</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>784</v>
+        <v>623</v>
+      </c>
+      <c r="O22" t="s">
+        <v>554</v>
+      </c>
+      <c r="S22" t="s">
+        <v>624</v>
+      </c>
+      <c r="U22" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>631</v>
+      <c r="D23" t="s">
+        <v>327</v>
       </c>
       <c r="E23" t="s">
-        <v>327</v>
+        <v>627</v>
       </c>
       <c r="F23" t="s">
-        <v>599</v>
-      </c>
-      <c r="G23" t="s">
-        <v>632</v>
-      </c>
-      <c r="K23" t="s">
-        <v>633</v>
+        <v>628</v>
+      </c>
+      <c r="H23" t="s">
+        <v>629</v>
       </c>
       <c r="L23" t="s">
-        <v>348</v>
-      </c>
-      <c r="M23" t="s">
-        <v>634</v>
-      </c>
-      <c r="N23" t="s">
-        <v>239</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>787</v>
+        <v>141</v>
+      </c>
+      <c r="S23" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>579</v>
+        <v>630</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E24" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="F24" t="s">
-        <v>636</v>
+        <v>599</v>
       </c>
       <c r="G24" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="K24" t="s">
-        <v>357</v>
+        <v>633</v>
       </c>
       <c r="L24" t="s">
-        <v>141</v>
-      </c>
-      <c r="O24" t="s">
-        <v>578</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="T24" t="s">
-        <v>757</v>
+        <v>348</v>
+      </c>
+      <c r="M24" t="s">
+        <v>634</v>
+      </c>
+      <c r="N24" t="s">
+        <v>239</v>
+      </c>
+      <c r="R24" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6388,149 +6416,200 @@
         <v>21</v>
       </c>
       <c r="D25" t="s">
+        <v>635</v>
+      </c>
+      <c r="E25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F25" t="s">
+        <v>636</v>
+      </c>
+      <c r="G25" t="s">
+        <v>637</v>
+      </c>
+      <c r="K25" t="s">
+        <v>357</v>
+      </c>
+      <c r="L25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O25" t="s">
+        <v>578</v>
+      </c>
+      <c r="S25" t="s">
+        <v>756</v>
+      </c>
+      <c r="T25" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>579</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
         <v>638</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>639</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>640</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>641</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K26" t="s">
         <v>642</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L26" t="s">
         <v>643</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O26" t="s">
         <v>644</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R26" t="s">
         <v>645</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S26" t="s">
         <v>646</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U26" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>789</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
         <v>788</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E27" t="s">
         <v>790</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F27" t="s">
         <v>794</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L27" t="s">
         <v>793</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="S27" t="s">
         <v>792</v>
       </c>
-      <c r="T26" s="7" t="s">
+      <c r="T27" t="s">
         <v>791</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>804</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>805</v>
+      </c>
+      <c r="D28" t="s">
+        <v>801</v>
+      </c>
+      <c r="E28" t="s">
+        <v>808</v>
+      </c>
+      <c r="F28" t="s">
+        <v>810</v>
+      </c>
+      <c r="G28" t="s">
+        <v>809</v>
+      </c>
+      <c r="K28" t="s">
+        <v>802</v>
+      </c>
+      <c r="L28" t="s">
+        <v>806</v>
+      </c>
+      <c r="O28" t="s">
+        <v>807</v>
+      </c>
+      <c r="S28" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>648</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>649</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>650</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>651</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G29" t="s">
         <v>811</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L29" t="s">
         <v>652</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R29" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>818</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>823</v>
+      </c>
+      <c r="D30" t="s">
+        <v>824</v>
+      </c>
+      <c r="E30" t="s">
+        <v>361</v>
+      </c>
+      <c r="F30" t="s">
+        <v>560</v>
+      </c>
+      <c r="G30" t="s">
+        <v>819</v>
+      </c>
+      <c r="H30" t="s">
+        <v>820</v>
+      </c>
+      <c r="I30" t="s">
+        <v>554</v>
+      </c>
+      <c r="K30" t="s">
+        <v>821</v>
+      </c>
+      <c r="O30" t="s">
+        <v>825</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>822</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S5" r:id="rId1" xr:uid="{288175D3-46BC-4874-B132-DA336F20094F}"/>
-    <hyperlink ref="S7" r:id="rId2" xr:uid="{D1C4C4B2-824E-4E18-9670-52E27CFA17DC}"/>
-    <hyperlink ref="T9" r:id="rId3" xr:uid="{7C386641-1688-4037-8D5A-1AB1985EE152}"/>
-    <hyperlink ref="S9" r:id="rId4" xr:uid="{EFF73829-423D-4903-920A-4AC07C293287}"/>
-    <hyperlink ref="T12" r:id="rId5" xr:uid="{7619AE88-25BD-4F14-B80D-FBB77906B6B5}"/>
-    <hyperlink ref="S12" r:id="rId6" xr:uid="{EAFCE82C-73D2-4573-A21D-039ECA690C85}"/>
-    <hyperlink ref="T13" r:id="rId7" xr:uid="{19D80F3D-DEDB-4282-9C09-6845A04E6753}"/>
-    <hyperlink ref="S13" r:id="rId8" xr:uid="{E97BEC82-F6A2-4087-ADF9-611E6B647B10}"/>
-    <hyperlink ref="S24" r:id="rId9" xr:uid="{C30CB245-0D89-4A1C-A01B-FAC0B1117ADE}"/>
-    <hyperlink ref="R14" r:id="rId10" xr:uid="{832890D8-83D0-46A8-8DAB-DEF4C88EBB81}"/>
-    <hyperlink ref="S14" r:id="rId11" xr:uid="{31DF8A51-AF0C-4D9F-8C94-05307AFDBE13}"/>
-    <hyperlink ref="R15" r:id="rId12" xr:uid="{3F878BF4-F505-42D6-9952-838D2A699917}"/>
-    <hyperlink ref="S16" r:id="rId13" xr:uid="{A5E06A0C-F3B0-4106-91C8-EADEFDA9CE6D}"/>
-    <hyperlink ref="S17" r:id="rId14" xr:uid="{E7B1E89C-EBAB-49EF-BA30-D2939CF735FF}"/>
-    <hyperlink ref="S22" r:id="rId15" xr:uid="{D1524A0D-7AC6-4E23-9064-BB890F2C63BD}"/>
-    <hyperlink ref="S6" r:id="rId16" xr:uid="{55978EDB-DF12-4331-9CEE-C717F8426D11}"/>
-    <hyperlink ref="S3" r:id="rId17" xr:uid="{22243F9D-1CC6-447A-986E-3655CF3F389F}"/>
-    <hyperlink ref="R23" r:id="rId18" xr:uid="{79C6BD16-0BF3-4B07-AE2F-25A2D82C5ED5}"/>
-    <hyperlink ref="T26" r:id="rId19" xr:uid="{09F42AEB-E886-4128-AF01-3AD237FFF416}"/>
-    <hyperlink ref="S26" r:id="rId20" xr:uid="{6B5C9AEE-0D58-4F36-9E22-54078B4A3533}"/>
-    <hyperlink ref="S11" r:id="rId21" xr:uid="{D34B6BFE-2A72-4498-98D1-0833831E1496}"/>
-    <hyperlink ref="S20" r:id="rId22" xr:uid="{8DF42478-3A35-4C41-B32B-E3339B9056AA}"/>
-    <hyperlink ref="R8" r:id="rId23" xr:uid="{48047C18-5159-4880-8CBC-F2ED4D9511E8}"/>
-    <hyperlink ref="S27" r:id="rId24" xr:uid="{9A10EF76-57F6-4FDE-83B4-57B95065A882}"/>
+    <hyperlink ref="S3" r:id="rId1" xr:uid="{9C6A2D41-D2C5-4D2F-BCEB-C5B0CAFCCD63}"/>
+    <hyperlink ref="S30" r:id="rId2" xr:uid="{F3D10A5A-C72C-4CF0-B377-B95376121FD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D094B5-0417-4468-9377-5F69BD8BFAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852F1F2A-1CBE-4493-9DCA-37E0A3100988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5539,7 +5539,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5637,370 +5637,370 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>812</v>
+        <v>555</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>813</v>
+        <v>718</v>
       </c>
       <c r="D3" t="s">
-        <v>814</v>
+        <v>556</v>
       </c>
       <c r="E3" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="F3" t="s">
-        <v>815</v>
+        <v>558</v>
+      </c>
+      <c r="G3" t="s">
+        <v>209</v>
       </c>
       <c r="L3" t="s">
-        <v>816</v>
-      </c>
-      <c r="O3" t="s">
-        <v>554</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>817</v>
+        <v>559</v>
+      </c>
+      <c r="S3" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>718</v>
+        <v>782</v>
       </c>
       <c r="D4" t="s">
-        <v>556</v>
+        <v>719</v>
       </c>
       <c r="E4" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F4" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>563</v>
+      </c>
+      <c r="I4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" t="s">
+        <v>720</v>
       </c>
       <c r="L4" t="s">
-        <v>559</v>
+        <v>564</v>
+      </c>
+      <c r="O4" t="s">
+        <v>554</v>
       </c>
       <c r="S4" t="s">
-        <v>786</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>782</v>
+        <v>774</v>
+      </c>
+      <c r="C5">
+        <v>2019</v>
       </c>
       <c r="D5" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E5" t="s">
-        <v>561</v>
+        <v>722</v>
       </c>
       <c r="F5" t="s">
-        <v>562</v>
+        <v>723</v>
       </c>
       <c r="G5" t="s">
-        <v>563</v>
+        <v>724</v>
+      </c>
+      <c r="H5" t="s">
+        <v>725</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>554</v>
       </c>
       <c r="K5" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="L5" t="s">
-        <v>564</v>
+        <v>727</v>
+      </c>
+      <c r="M5" t="s">
+        <v>728</v>
       </c>
       <c r="O5" t="s">
         <v>554</v>
       </c>
+      <c r="P5" t="s">
+        <v>725</v>
+      </c>
       <c r="S5" t="s">
-        <v>565</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="B6" t="s">
-        <v>774</v>
-      </c>
-      <c r="C6">
-        <v>2019</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>721</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="F6" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="G6" t="s">
-        <v>724</v>
-      </c>
-      <c r="H6" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="I6" t="s">
-        <v>554</v>
+        <v>159</v>
+      </c>
+      <c r="J6" t="s">
+        <v>613</v>
       </c>
       <c r="K6" t="s">
-        <v>726</v>
+        <v>613</v>
       </c>
       <c r="L6" t="s">
-        <v>727</v>
+        <v>141</v>
       </c>
       <c r="M6" t="s">
-        <v>728</v>
+        <v>409</v>
+      </c>
+      <c r="N6" t="s">
+        <v>733</v>
       </c>
       <c r="O6" t="s">
-        <v>554</v>
-      </c>
-      <c r="P6" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="S6" t="s">
-        <v>729</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>579</v>
+        <v>735</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>234</v>
+      <c r="C7">
+        <v>2022</v>
       </c>
       <c r="D7" t="s">
         <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>730</v>
-      </c>
-      <c r="F7" t="s">
-        <v>731</v>
-      </c>
-      <c r="G7" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="I7" t="s">
-        <v>159</v>
+        <v>554</v>
       </c>
       <c r="J7" t="s">
-        <v>613</v>
-      </c>
-      <c r="K7" t="s">
-        <v>613</v>
+        <v>737</v>
       </c>
       <c r="L7" t="s">
-        <v>141</v>
+        <v>738</v>
       </c>
       <c r="M7" t="s">
-        <v>409</v>
-      </c>
-      <c r="N7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="O7" t="s">
-        <v>734</v>
+        <v>554</v>
       </c>
       <c r="S7" t="s">
-        <v>785</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>735</v>
+        <v>548</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>2022</v>
+      <c r="C8" t="s">
+        <v>777</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>767</v>
       </c>
       <c r="E8" t="s">
-        <v>736</v>
+        <v>769</v>
+      </c>
+      <c r="F8" t="s">
+        <v>770</v>
+      </c>
+      <c r="G8" t="s">
+        <v>771</v>
       </c>
       <c r="I8" t="s">
-        <v>554</v>
-      </c>
-      <c r="J8" t="s">
-        <v>737</v>
+        <v>773</v>
       </c>
       <c r="L8" t="s">
-        <v>738</v>
-      </c>
-      <c r="M8" t="s">
-        <v>728</v>
+        <v>768</v>
       </c>
       <c r="O8" t="s">
-        <v>554</v>
-      </c>
-      <c r="S8" t="s">
-        <v>739</v>
+        <v>772</v>
+      </c>
+      <c r="R8" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>548</v>
+        <v>735</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>777</v>
+        <v>740</v>
       </c>
       <c r="D9" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
       <c r="E9" t="s">
-        <v>769</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>770</v>
+        <v>741</v>
       </c>
       <c r="G9" t="s">
-        <v>771</v>
+        <v>742</v>
       </c>
       <c r="I9" t="s">
-        <v>773</v>
+        <v>159</v>
+      </c>
+      <c r="J9" t="s">
+        <v>743</v>
       </c>
       <c r="L9" t="s">
-        <v>768</v>
+        <v>744</v>
+      </c>
+      <c r="M9" t="s">
+        <v>745</v>
       </c>
       <c r="O9" t="s">
-        <v>772</v>
-      </c>
-      <c r="R9" t="s">
-        <v>766</v>
+        <v>746</v>
+      </c>
+      <c r="S9" t="s">
+        <v>747</v>
+      </c>
+      <c r="T9" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>735</v>
+        <v>566</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>740</v>
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>2024</v>
       </c>
       <c r="D10" t="s">
-        <v>741</v>
+        <v>800</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>567</v>
       </c>
       <c r="F10" t="s">
-        <v>741</v>
+        <v>568</v>
       </c>
       <c r="G10" t="s">
-        <v>742</v>
+        <v>569</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
-      </c>
-      <c r="J10" t="s">
-        <v>743</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>744</v>
-      </c>
-      <c r="M10" t="s">
-        <v>745</v>
+        <v>570</v>
       </c>
       <c r="O10" t="s">
-        <v>746</v>
+        <v>554</v>
       </c>
       <c r="S10" t="s">
-        <v>747</v>
-      </c>
-      <c r="T10" t="s">
-        <v>748</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D11" t="s">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="E11" t="s">
-        <v>567</v>
+        <v>514</v>
       </c>
       <c r="F11" t="s">
-        <v>568</v>
-      </c>
-      <c r="G11" t="s">
-        <v>569</v>
-      </c>
-      <c r="I11" t="s">
-        <v>121</v>
+        <v>572</v>
       </c>
       <c r="L11" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="O11" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="S11" t="s">
-        <v>123</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>571</v>
+        <v>812</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12">
-        <v>2020</v>
+      <c r="C12" t="s">
+        <v>813</v>
       </c>
       <c r="D12" t="s">
-        <v>511</v>
+        <v>814</v>
       </c>
       <c r="E12" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="F12" t="s">
-        <v>572</v>
+        <v>815</v>
       </c>
       <c r="L12" t="s">
-        <v>573</v>
+        <v>816</v>
       </c>
       <c r="O12" t="s">
-        <v>574</v>
-      </c>
-      <c r="S12" t="s">
-        <v>517</v>
+        <v>554</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -6608,8 +6608,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S3" r:id="rId1" xr:uid="{9C6A2D41-D2C5-4D2F-BCEB-C5B0CAFCCD63}"/>
-    <hyperlink ref="S30" r:id="rId2" xr:uid="{F3D10A5A-C72C-4CF0-B377-B95376121FD3}"/>
+    <hyperlink ref="S12" r:id="rId1" xr:uid="{C128D13F-E388-46EF-BC6F-4E08840FA05E}"/>
+    <hyperlink ref="S30" r:id="rId2" xr:uid="{9CB0123F-E74C-490D-A84D-A5AED553534B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852F1F2A-1CBE-4493-9DCA-37E0A3100988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AB45AC-3046-4F0B-8D7A-35F36B747C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="827">
   <si>
     <t>State</t>
   </si>
@@ -2521,6 +2521,9 @@
   </si>
   <si>
     <t>Fixers, Hiring, Witness Tampering</t>
+  </si>
+  <si>
+    <t>2017-2022</t>
   </si>
 </sst>
 </file>
@@ -5539,7 +5542,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6415,6 +6418,9 @@
       <c r="B25" t="s">
         <v>21</v>
       </c>
+      <c r="C25" t="s">
+        <v>826</v>
+      </c>
       <c r="D25" t="s">
         <v>635</v>
       </c>
@@ -6598,6 +6604,9 @@
       </c>
       <c r="K30" t="s">
         <v>821</v>
+      </c>
+      <c r="L30" t="s">
+        <v>363</v>
       </c>
       <c r="O30" t="s">
         <v>825</v>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AB45AC-3046-4F0B-8D7A-35F36B747C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AB8C66-7FA5-4E12-AD87-FCA31D66F127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="828">
   <si>
     <t>State</t>
   </si>
@@ -2524,6 +2524,9 @@
   </si>
   <si>
     <t>2017-2022</t>
+  </si>
+  <si>
+    <t>Rose McGowan, Witnesses</t>
   </si>
 </sst>
 </file>
@@ -5542,7 +5545,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6020,7 +6023,7 @@
         <v>584</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>827</v>
       </c>
       <c r="F13" t="s">
         <v>585</v>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AB8C66-7FA5-4E12-AD87-FCA31D66F127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD7856-F1EB-49EA-8AFD-1F793A3EA3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filed Cases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="972">
   <si>
     <t>State</t>
   </si>
@@ -1047,9 +1047,6 @@
     <t>Director, Clownhouse</t>
   </si>
   <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
     <t>David Neuman</t>
   </si>
   <si>
@@ -1773,9 +1770,6 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
     <t>Monica Lewinsky</t>
   </si>
   <si>
@@ -1863,9 +1857,6 @@
     <t>Not Active</t>
   </si>
   <si>
-    <t>California-UK</t>
-  </si>
-  <si>
     <t>2001-2019</t>
   </si>
   <si>
@@ -1896,9 +1887,6 @@
     <t>Ignored, Obstruction Charges</t>
   </si>
   <si>
-    <t>Illinois</t>
-  </si>
-  <si>
     <t>R Kelly</t>
   </si>
   <si>
@@ -2527,13 +2515,457 @@
   </si>
   <si>
     <t>Rose McGowan, Witnesses</t>
+  </si>
+  <si>
+    <t>Kesha Rose Sebert</t>
+  </si>
+  <si>
+    <t>California, New York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Geragos </t>
+  </si>
+  <si>
+    <t>Scott A. Edelman</t>
+  </si>
+  <si>
+    <t>2014-2023</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kesha_v._Dr._Luke</t>
+  </si>
+  <si>
+    <t>Issues, Dismissals, Settled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Swift </t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taylor_Swift_sexual_assault_trial</t>
+  </si>
+  <si>
+    <t>Kim Novak</t>
+  </si>
+  <si>
+    <t>Harassed</t>
+  </si>
+  <si>
+    <t>David Mueller</t>
+  </si>
+  <si>
+    <t>Battery, Sexual Assault</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Music, Singer, DJ</t>
+  </si>
+  <si>
+    <t>Music, Records, Producer</t>
+  </si>
+  <si>
+    <t>Singer, Musician</t>
+  </si>
+  <si>
+    <t>Musician, Performer</t>
+  </si>
+  <si>
+    <t>Producer, Records</t>
+  </si>
+  <si>
+    <t>Actor, Confidential Magazine</t>
+  </si>
+  <si>
+    <t>1950s</t>
+  </si>
+  <si>
+    <t>Brokering</t>
+  </si>
+  <si>
+    <t>Nicki Minaj</t>
+  </si>
+  <si>
+    <t>California-NL</t>
+  </si>
+  <si>
+    <t>Overcharging, Falsified Records, Movement Substances</t>
+  </si>
+  <si>
+    <t>Music, Security, Travel, Private Jets</t>
+  </si>
+  <si>
+    <t>Security, Private Jet Crew</t>
+  </si>
+  <si>
+    <t>https://youtu.be/S98NlLhLU0g?si=pk3c3bw29i2oFFaG</t>
+  </si>
+  <si>
+    <t>Complaints</t>
+  </si>
+  <si>
+    <t>Fixers, Hiring</t>
+  </si>
+  <si>
+    <t>Ignored, Responded</t>
+  </si>
+  <si>
+    <t>Sammy Davis, Kim Novak</t>
+  </si>
+  <si>
+    <t>Harry Cohen, Assailant, Confidential Magazine</t>
+  </si>
+  <si>
+    <t>Respond, Avoid</t>
+  </si>
+  <si>
+    <t>Fixers, Assailant</t>
+  </si>
+  <si>
+    <t>https://youtu.be/YW1yH-bTWi8?si=L-Un59cfka_d2kLi</t>
+  </si>
+  <si>
+    <t>Film, Actress, Actor, Milllionaires</t>
+  </si>
+  <si>
+    <t>2000s-2010</t>
+  </si>
+  <si>
+    <t>Ori Spado</t>
+  </si>
+  <si>
+    <t>RICO Act, Association Crime Enterprises</t>
+  </si>
+  <si>
+    <t>FBI, Federal Government</t>
+  </si>
+  <si>
+    <t>Implications, Implicated Hollywood Fixing, Implicating Crimes</t>
+  </si>
+  <si>
+    <t>Ori Spado, Witnesses, Book, Interviews</t>
+  </si>
+  <si>
+    <t>https://theaccidentalgangster.com/</t>
+  </si>
+  <si>
+    <t>https://people.com/movies/kip-pardue-fined-sexual-misconduct/</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/mlb/story/_/id/38549922/trevor-bauer-woman-settle-dispute-sexual-assault-case</t>
+  </si>
+  <si>
+    <t>Bertolotti, Dad</t>
+  </si>
+  <si>
+    <t>https://youtu.be/t0OmsKxDrO8?si=Fhp3gfT_rYBIwtWR</t>
+  </si>
+  <si>
+    <t>https://www.justice.gov/archive/usao/cac/Pressroom/pr2008/064.html</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Marc_Collins-Rector</t>
+  </si>
+  <si>
+    <t>https://www.rollingstone.com/music/music-news/bryan-freedman-lawyer-sexual-assault-settlement-1234638354/</t>
+  </si>
+  <si>
+    <t>https://www.hbo.com/phoenix-rising</t>
+  </si>
+  <si>
+    <t>Unknown Assailants</t>
+  </si>
+  <si>
+    <t>Artists, Witnesses, Hollywood</t>
+  </si>
+  <si>
+    <t>Informant, Hollywood</t>
+  </si>
+  <si>
+    <t>Artists, Witnesses, Nightclubs, Singers</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>Terry Sanderson</t>
+  </si>
+  <si>
+    <t>Skiing Crash</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>https://apnews.com/article/gwyneth-paltrow-utah-ski-collision-trial-3f3b25539799e4537f2157ee3679d202</t>
+  </si>
+  <si>
+    <t>Film, Acting, Business, Medical</t>
+  </si>
+  <si>
+    <t>Business, Actress, Film</t>
+  </si>
+  <si>
+    <t>Medical, Doctor</t>
+  </si>
+  <si>
+    <t>Contract, Sexual Harassment, Sexual Assault, Gender Violence</t>
+  </si>
+  <si>
+    <t>Defamation, Contract</t>
+  </si>
+  <si>
+    <t>https://www.hollywoodreporter.com/news/general-news/david-neuman-new-sex-abuse-711018/</t>
+  </si>
+  <si>
+    <t>Hawaii, California</t>
+  </si>
+  <si>
+    <t>Patricia Glaser, Glaser Weil</t>
+  </si>
+  <si>
+    <t>https://www.npr.org/sections/therecord/2017/08/14/543473684/taylor-swift-wins-sexual-assault-lawsuit-against-former-radio-host</t>
+  </si>
+  <si>
+    <t>2013-2017</t>
+  </si>
+  <si>
+    <t>Gabriel McFarland</t>
+  </si>
+  <si>
+    <t>Douglas Baldridge</t>
+  </si>
+  <si>
+    <t>https://www.npr.org/sections/therecord/2017/08/11/542873672/judge-dumps-lawsuit-against-taylor-swift-filed-by-man-accused-of-groping-her</t>
+  </si>
+  <si>
+    <t>#Gwynnocent</t>
+  </si>
+  <si>
+    <t>2016-2023</t>
+  </si>
+  <si>
+    <t>https://www.npr.org/2023/03/30/1167262503/gwyneth-paltrow-wins-her-ski-crash-case-and-1-in-damages</t>
+  </si>
+  <si>
+    <t>Robert Sykes, Kristin VanOrman, Lawrence Buhler, Sykes McAllister Law Offices</t>
+  </si>
+  <si>
+    <t>Stephen Owens. Epperson &amp; Owens</t>
+  </si>
+  <si>
+    <t>Film, Journalism, Workplace</t>
+  </si>
+  <si>
+    <t>Fixers, Investigative</t>
+  </si>
+  <si>
+    <t>Fixers, Laws Lacking</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/anne__greene/reel/C-qfQIhyX7E/</t>
+  </si>
+  <si>
+    <t>Complaints, Ignored</t>
+  </si>
+  <si>
+    <t>Associates, Friends, Co-Workers, Anne Greene, Matthew Greene, Findel Jeremy</t>
+  </si>
+  <si>
+    <t>Intimidation, Break-Ins, Vandalism, Harassment, Surveillance</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>Music, Housecleaning</t>
+  </si>
+  <si>
+    <t>Mark Geragos</t>
+  </si>
+  <si>
+    <t>https://www.mjfacts.com/2005-michael-jackson-molestation-trial-transcripts/</t>
+  </si>
+  <si>
+    <t>Government, Hollywood Fixers</t>
+  </si>
+  <si>
+    <t>2000s</t>
+  </si>
+  <si>
+    <t>Fixers, Conspiracy Overt Acts, Exploitation, Audios, Witnesses, Finances</t>
+  </si>
+  <si>
+    <t>Criminal, Implications</t>
+  </si>
+  <si>
+    <t>Children, Staff, Parents, Singers, Family</t>
+  </si>
+  <si>
+    <t>Exploitation, Records</t>
+  </si>
+  <si>
+    <t>Conspiracy, Sexual Abuse, Financial</t>
+  </si>
+  <si>
+    <t>Witnesses</t>
+  </si>
+  <si>
+    <t>1990s-</t>
+  </si>
+  <si>
+    <t>Refusing Testimony</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intimidation, Witness Tampering</t>
+  </si>
+  <si>
+    <t>http://alisablogq.blogspot.com/2017/07/dismissed-in-interests-of-justice.html</t>
+  </si>
+  <si>
+    <t>John Dunton, Witnesses, Nicole Brown, Ron Goldman</t>
+  </si>
+  <si>
+    <t>Records Edited, Manipulation</t>
+  </si>
+  <si>
+    <t>Marty Singer, Tig Notora, Kroll</t>
+  </si>
+  <si>
+    <t>Matthew Hiltzik</t>
+  </si>
+  <si>
+    <t>Dark PR, Fixing, Unwanted Contact</t>
+  </si>
+  <si>
+    <t>Public Relations, Fixers</t>
+  </si>
+  <si>
+    <t>Shell, Lacking Regulations</t>
+  </si>
+  <si>
+    <t>Artists, Journalists, Others, Ronan Farrow</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/book/show/51022071-catch-and-kill</t>
+  </si>
+  <si>
+    <t>https://www.vice.com/en/article/why-exactly-is-bam-margera-suing-johnny-knowxville-jackass-forever-team-wrongful-termination-lawsuit/</t>
+  </si>
+  <si>
+    <t>https://youtu.be/73Rr-P12hwI?si=ma0zZ9OAR4slbMte</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Family, Alisa Spitzberg, Tig Notora</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Interest of Justice</t>
+  </si>
+  <si>
+    <t>Fixers, Ignored Witness Tampering, Implications</t>
+  </si>
+  <si>
+    <t>Fixers, Dunton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Paul Dawson </t>
+  </si>
+  <si>
+    <t>Exploit Medical Records, Books</t>
+  </si>
+  <si>
+    <t>None, Unknown</t>
+  </si>
+  <si>
+    <t>Film, Royalty, Serial Killers, Medical</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/stores/Dr.-Paul-Dawson/author/B00MS4DQ52?ref=ap_rdr&amp;isDramIntegrated=true&amp;shoppingPortalEnabled=true</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Film, Politics</t>
+  </si>
+  <si>
+    <t>Ignored, Unknown</t>
+  </si>
+  <si>
+    <t>Monaco, Grace Kelly, Prince Rainier, Family</t>
+  </si>
+  <si>
+    <t>Aware</t>
+  </si>
+  <si>
+    <t>Film, Politics, Surveillance</t>
+  </si>
+  <si>
+    <t>Angelina Jolie, Jackie Onassis, Princess Diana Frances Spencer, Grace Kelly, Charles Manson, Ted Bundy</t>
+  </si>
+  <si>
+    <t>California, United Kingdom</t>
+  </si>
+  <si>
+    <t>Illinois, California</t>
+  </si>
+  <si>
+    <t>New York, National</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Ae-pQX3pUfI?si=njD7AQPlnC9Sf7wJ</t>
+  </si>
+  <si>
+    <t>States, Monaco</t>
+  </si>
+  <si>
+    <t>David Boeis</t>
+  </si>
+  <si>
+    <t>Interview ABC's 20/20 (Part 6 of 6)</t>
+  </si>
+  <si>
+    <t>Letter, Article Comments</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/news/world-us-canada-67013019</t>
+  </si>
+  <si>
+    <t>Audio Recorded, Wiretapped, Harassed, Edited Statements</t>
+  </si>
+  <si>
+    <t>Unclear, Surveillance, Editing</t>
+  </si>
+  <si>
+    <t>Bill Clinton, Jack Palladino</t>
+  </si>
+  <si>
+    <t>Services, Shell</t>
+  </si>
+  <si>
+    <t>Lukasz Sebastian Gottwald, KMI</t>
+  </si>
+  <si>
+    <t>Friends, Witnesses</t>
+  </si>
+  <si>
+    <t>Comedians</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2587,6 +3019,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2615,7 +3054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2626,6 +3065,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2845,10 +3285,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3049,114 +3489,114 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1">
-        <v>2023</v>
+        <v>2006</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1">
-        <v>1997</v>
+        <v>2023</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -3593,6 +4033,9 @@
         <v>179</v>
       </c>
       <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>961</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>180</v>
       </c>
@@ -3840,6 +4283,9 @@
       </c>
       <c r="D30" s="1" t="s">
         <v>229</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>230</v>
@@ -4039,6 +4485,9 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>270</v>
       </c>
@@ -4060,6 +4509,9 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
+      <c r="U36" s="7" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -4068,6 +4520,9 @@
       <c r="C37" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>938</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>276</v>
       </c>
@@ -4079,6 +4534,9 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>825</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>279</v>
       </c>
@@ -4233,6 +4691,9 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>307</v>
       </c>
@@ -4241,6 +4702,12 @@
       </c>
       <c r="G44" s="1" t="s">
         <v>309</v>
+      </c>
+      <c r="T44" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4319,6 +4786,9 @@
       <c r="C48" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="D48" s="1" t="s">
+        <v>937</v>
+      </c>
       <c r="G48" s="1" t="s">
         <v>325</v>
       </c>
@@ -4387,30 +4857,39 @@
     </row>
     <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>338</v>
+      <c r="T51" s="7" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>111</v>
@@ -4422,10 +4901,10 @@
         <v>38</v>
       </c>
       <c r="K52" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="T52" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
@@ -4433,29 +4912,29 @@
         <v>21</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="T53" s="1"/>
       <c r="V53" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W53" s="1"/>
     </row>
@@ -4467,17 +4946,17 @@
         <v>1943</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="E54" s="1"/>
       <c r="G54" s="1" t="s">
         <v>202</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>38</v>
@@ -4486,7 +4965,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
@@ -4494,25 +4973,25 @@
         <v>21</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>141</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
@@ -4523,19 +5002,19 @@
         <v>2001</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
@@ -4543,14 +5022,14 @@
         <v>21</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="E57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>141</v>
@@ -4570,31 +5049,31 @@
         <v>2023</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="R58" s="1" t="s">
+      <c r="U58" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="U58" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
@@ -4605,31 +5084,31 @@
         <v>2021</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>209</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
@@ -4640,19 +5119,19 @@
         <v>2021</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>47</v>
@@ -4661,10 +5140,10 @@
         <v>291</v>
       </c>
       <c r="R60" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="U60" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
@@ -4681,16 +5160,16 @@
         <v>189</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>239</v>
@@ -4699,7 +5178,139 @@
         <v>209</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B62" t="s">
+        <v>828</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="U62" s="7" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B63" t="s">
+        <v>894</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="U63" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="V63" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="W63" s="7" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B64" t="s">
+        <v>899</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="T64" t="s">
+        <v>898</v>
+      </c>
+      <c r="U64" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="V64" s="7" t="s">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -4707,9 +5318,9 @@
     <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="U4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="V4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="U6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="U7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="V7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="U7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="U5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="V5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="T8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="U8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="T9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
@@ -4756,10 +5367,20 @@
     <hyperlink ref="V53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="U54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="T55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="U58" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="U59" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="U60" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="U61" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="U59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="U60" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="U61" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="U62" r:id="rId56" xr:uid="{48F17B49-EA4A-4906-AE5B-1FCF0B94EBDB}"/>
+    <hyperlink ref="W63" r:id="rId57" xr:uid="{497B9C14-8F73-4191-9DC0-0D07B6EA00A9}"/>
+    <hyperlink ref="U64" r:id="rId58" xr:uid="{AFC732F7-D6B1-46D2-80DD-4A56143AC63B}"/>
+    <hyperlink ref="T51" r:id="rId59" xr:uid="{D432C704-1022-4F77-8B3F-0EA2EA0F1326}"/>
+    <hyperlink ref="U58" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="V63" r:id="rId61" xr:uid="{6A1A2022-6248-4A4B-B370-4EF042E14C1B}"/>
+    <hyperlink ref="U63" r:id="rId62" xr:uid="{D0D419E3-0BDF-48AC-BC17-A69D3227D57B}"/>
+    <hyperlink ref="V64" r:id="rId63" xr:uid="{8EB2E660-F337-4745-B7BA-A697A2D9374F}"/>
+    <hyperlink ref="U44" r:id="rId64" xr:uid="{82010618-E445-46CD-90F7-604378B572CC}"/>
+    <hyperlink ref="T44" r:id="rId65" xr:uid="{1D8A2FC4-2666-4805-BE36-A6AB499978E4}"/>
+    <hyperlink ref="U36" r:id="rId66" xr:uid="{04F03604-1B7A-47ED-89F7-CA38364D241F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4770,10 +5391,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF22"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4787,10 +5408,10 @@
   <sheetData>
     <row r="1" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4802,40 +5423,40 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>20</v>
@@ -4843,16 +5464,16 @@
     </row>
     <row r="2" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C2">
         <v>1954</v>
       </c>
       <c r="D2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -4864,53 +5485,56 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M2" t="s">
         <v>410</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" t="s">
         <v>411</v>
-      </c>
-      <c r="S2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C3">
         <v>2008</v>
       </c>
       <c r="D3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>413</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>414</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>415</v>
-      </c>
-      <c r="J3" t="s">
-        <v>416</v>
       </c>
       <c r="M3" t="s">
         <v>159</v>
       </c>
+      <c r="S3" s="7" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="4" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>198</v>
@@ -4919,100 +5543,102 @@
         <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>206</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="S6" s="7" t="s">
+        <v>873</v>
+      </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -5029,142 +5655,154 @@
     </row>
     <row r="7" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="C7" s="1">
         <v>2009</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>444</v>
+      <c r="R7" s="7" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="K8" s="1"/>
       <c r="M8" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>251</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>464</v>
+      <c r="S9" s="7" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>159</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>32</v>
@@ -5173,110 +5811,110 @@
         <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="C12" s="1">
         <v>2022</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>140</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
@@ -5285,54 +5923,57 @@
         <v>126</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C15" s="1">
         <v>1977</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="S15" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -5342,44 +5983,44 @@
         <v>140</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="S17" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C18" s="1">
         <v>2017</v>
@@ -5388,27 +6029,27 @@
         <v>198</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>140</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C19" s="1">
         <v>1982</v>
@@ -5420,47 +6061,50 @@
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="S19" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>531</v>
+      <c r="S20" s="7" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>198</v>
@@ -5469,48 +6113,203 @@
         <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>535</v>
+      <c r="S21" s="7" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B22" t="s">
+        <v>701</v>
+      </c>
+      <c r="C22" t="s">
+        <v>702</v>
+      </c>
+      <c r="D22" t="s">
+        <v>703</v>
+      </c>
+      <c r="E22" t="s">
+        <v>704</v>
+      </c>
+      <c r="F22" t="s">
         <v>705</v>
       </c>
-      <c r="C22" t="s">
+      <c r="G22" t="s">
         <v>706</v>
       </c>
-      <c r="D22" t="s">
+      <c r="J22" t="s">
         <v>707</v>
       </c>
-      <c r="E22" t="s">
+      <c r="P22" t="s">
         <v>708</v>
       </c>
-      <c r="F22" t="s">
+      <c r="Q22" t="s">
         <v>709</v>
       </c>
-      <c r="G22" t="s">
+      <c r="S22" t="s">
         <v>710</v>
       </c>
-      <c r="J22" t="s">
+      <c r="T22" t="s">
         <v>711</v>
       </c>
-      <c r="P22" t="s">
-        <v>712</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>713</v>
-      </c>
-      <c r="S22" t="s">
-        <v>714</v>
-      </c>
-      <c r="T22" t="s">
-        <v>715</v>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C23" t="s">
+        <v>861</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="M23" t="s">
+        <v>864</v>
+      </c>
+      <c r="P23" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>866</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C24" t="s">
+        <v>915</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M24" t="s">
+        <v>914</v>
+      </c>
+      <c r="P24" t="s">
+        <v>916</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C25" t="s">
+        <v>922</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="K25" t="s">
+        <v>924</v>
+      </c>
+      <c r="P25" t="s">
+        <v>942</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="H26" t="s">
+        <v>716</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="K26" t="s">
+        <v>243</v>
+      </c>
+      <c r="P26" t="s">
+        <v>941</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -5532,6 +6331,18 @@
     <hyperlink ref="T17" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="S18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="S19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="S23" r:id="rId18" xr:uid="{E5BCF9ED-607A-46EF-8724-94F855B2D18D}"/>
+    <hyperlink ref="S21" r:id="rId19" xr:uid="{53A58021-42F2-4118-AA91-960F1BA9DD23}"/>
+    <hyperlink ref="S20" r:id="rId20" xr:uid="{81F18DB6-CC15-45BF-9272-BAEEBEC74C3F}"/>
+    <hyperlink ref="R7" r:id="rId21" xr:uid="{0F81DC5F-CBCB-4EB0-AB57-9021F64FDEB1}"/>
+    <hyperlink ref="S3" r:id="rId22" xr:uid="{31F33453-AA5C-4FED-AC94-E36CA0B8399F}"/>
+    <hyperlink ref="S6" r:id="rId23" xr:uid="{EA53A0A6-3354-4DA6-931D-0032968C97B6}"/>
+    <hyperlink ref="S14" r:id="rId24" xr:uid="{4D6573F2-1EA9-4E08-A52B-E468B8460EE1}"/>
+    <hyperlink ref="S9" r:id="rId25" xr:uid="{8D608921-968E-4F1A-BF18-7DBD51C776E6}"/>
+    <hyperlink ref="S24" r:id="rId26" xr:uid="{3046D3BB-35E6-4472-9DFC-58B3D4025E50}"/>
+    <hyperlink ref="S26" r:id="rId27" xr:uid="{AA49850F-C204-4CF2-AA22-0FE75057F0C1}"/>
+    <hyperlink ref="S25" r:id="rId28" xr:uid="{A07BEB9F-AD30-48DF-A8C7-48386BC6B3EC}"/>
+    <hyperlink ref="T23" r:id="rId29" xr:uid="{CE505C40-EDF1-4329-9994-25E21C9C0708}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5542,17 +6353,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5561,40 +6372,40 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" t="s">
         <v>537</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>538</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>539</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>540</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>541</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>542</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>543</v>
-      </c>
-      <c r="K1" t="s">
-        <v>544</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>544</v>
+      </c>
+      <c r="N1" t="s">
         <v>545</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>546</v>
-      </c>
-      <c r="O1" t="s">
-        <v>547</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -5603,7 +6414,7 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="S1" t="s">
         <v>20</v>
@@ -5611,7 +6422,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -5620,1008 +6431,1219 @@
         <v>1954</v>
       </c>
       <c r="D2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2" t="s">
         <v>549</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>550</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>551</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>552</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>553</v>
       </c>
-      <c r="O2" t="s">
-        <v>554</v>
-      </c>
       <c r="S2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E3" t="s">
         <v>556</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>557</v>
-      </c>
-      <c r="F3" t="s">
-        <v>558</v>
       </c>
       <c r="G3" t="s">
         <v>209</v>
       </c>
       <c r="L3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>778</v>
+      </c>
+      <c r="D4" t="s">
+        <v>715</v>
+      </c>
+      <c r="E4" t="s">
         <v>560</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>782</v>
-      </c>
-      <c r="D4" t="s">
-        <v>719</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>561</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>562</v>
-      </c>
-      <c r="G4" t="s">
-        <v>563</v>
       </c>
       <c r="I4" t="s">
         <v>159</v>
       </c>
       <c r="K4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="L4" t="s">
+        <v>563</v>
+      </c>
+      <c r="O4" t="s">
+        <v>553</v>
+      </c>
+      <c r="S4" t="s">
         <v>564</v>
-      </c>
-      <c r="O4" t="s">
-        <v>554</v>
-      </c>
-      <c r="S4" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>596</v>
+        <v>834</v>
       </c>
       <c r="B5" t="s">
-        <v>774</v>
-      </c>
-      <c r="C5">
-        <v>2019</v>
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>844</v>
       </c>
       <c r="D5" t="s">
-        <v>721</v>
+        <v>843</v>
       </c>
       <c r="E5" t="s">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="F5" t="s">
-        <v>723</v>
+        <v>845</v>
       </c>
       <c r="G5" t="s">
-        <v>724</v>
-      </c>
-      <c r="H5" t="s">
-        <v>725</v>
+        <v>577</v>
       </c>
       <c r="I5" t="s">
-        <v>554</v>
-      </c>
-      <c r="K5" t="s">
-        <v>726</v>
+        <v>553</v>
       </c>
       <c r="L5" t="s">
-        <v>727</v>
-      </c>
-      <c r="M5" t="s">
-        <v>728</v>
-      </c>
-      <c r="O5" t="s">
-        <v>554</v>
-      </c>
-      <c r="P5" t="s">
-        <v>725</v>
-      </c>
-      <c r="S5" t="s">
-        <v>729</v>
+        <v>860</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>234</v>
+        <v>770</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>717</v>
       </c>
       <c r="E6" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="F6" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="G6" t="s">
-        <v>732</v>
+        <v>720</v>
+      </c>
+      <c r="H6" t="s">
+        <v>721</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J6" t="s">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="K6" t="s">
-        <v>613</v>
+        <v>722</v>
       </c>
       <c r="L6" t="s">
-        <v>141</v>
+        <v>723</v>
       </c>
       <c r="M6" t="s">
-        <v>409</v>
-      </c>
-      <c r="N6" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="O6" t="s">
-        <v>734</v>
+        <v>553</v>
+      </c>
+      <c r="P6" t="s">
+        <v>721</v>
       </c>
       <c r="S6" t="s">
-        <v>785</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>735</v>
+        <v>577</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>2022</v>
+      <c r="C7" t="s">
+        <v>234</v>
       </c>
       <c r="D7" t="s">
         <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>736</v>
+        <v>726</v>
+      </c>
+      <c r="F7" t="s">
+        <v>727</v>
+      </c>
+      <c r="G7" t="s">
+        <v>728</v>
       </c>
       <c r="I7" t="s">
-        <v>554</v>
+        <v>159</v>
       </c>
       <c r="J7" t="s">
-        <v>737</v>
+        <v>610</v>
+      </c>
+      <c r="K7" t="s">
+        <v>610</v>
       </c>
       <c r="L7" t="s">
-        <v>738</v>
+        <v>141</v>
       </c>
       <c r="M7" t="s">
-        <v>728</v>
+        <v>408</v>
+      </c>
+      <c r="N7" t="s">
+        <v>729</v>
       </c>
       <c r="O7" t="s">
-        <v>554</v>
+        <v>730</v>
       </c>
       <c r="S7" t="s">
-        <v>739</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>548</v>
+        <v>731</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>777</v>
+      <c r="C8">
+        <v>2022</v>
       </c>
       <c r="D8" t="s">
-        <v>767</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>769</v>
-      </c>
-      <c r="F8" t="s">
-        <v>770</v>
-      </c>
-      <c r="G8" t="s">
-        <v>771</v>
+        <v>732</v>
       </c>
       <c r="I8" t="s">
-        <v>773</v>
+        <v>553</v>
+      </c>
+      <c r="J8" t="s">
+        <v>733</v>
       </c>
       <c r="L8" t="s">
-        <v>768</v>
+        <v>734</v>
+      </c>
+      <c r="M8" t="s">
+        <v>724</v>
       </c>
       <c r="O8" t="s">
-        <v>772</v>
-      </c>
-      <c r="R8" t="s">
-        <v>766</v>
+        <v>553</v>
+      </c>
+      <c r="S8" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>735</v>
+        <v>547</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>740</v>
+        <v>773</v>
       </c>
       <c r="D9" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>765</v>
       </c>
       <c r="F9" t="s">
-        <v>741</v>
+        <v>766</v>
       </c>
       <c r="G9" t="s">
-        <v>742</v>
+        <v>767</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
-      </c>
-      <c r="J9" t="s">
-        <v>743</v>
+        <v>769</v>
       </c>
       <c r="L9" t="s">
-        <v>744</v>
-      </c>
-      <c r="M9" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="O9" t="s">
-        <v>746</v>
-      </c>
-      <c r="S9" t="s">
-        <v>747</v>
-      </c>
-      <c r="T9" t="s">
-        <v>748</v>
+        <v>768</v>
+      </c>
+      <c r="R9" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>566</v>
+        <v>731</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>2024</v>
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>736</v>
       </c>
       <c r="D10" t="s">
-        <v>800</v>
+        <v>737</v>
       </c>
       <c r="E10" t="s">
-        <v>567</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>568</v>
+        <v>737</v>
       </c>
       <c r="G10" t="s">
-        <v>569</v>
+        <v>738</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>159</v>
+      </c>
+      <c r="J10" t="s">
+        <v>739</v>
       </c>
       <c r="L10" t="s">
-        <v>570</v>
+        <v>740</v>
+      </c>
+      <c r="M10" t="s">
+        <v>741</v>
       </c>
       <c r="O10" t="s">
-        <v>554</v>
+        <v>742</v>
       </c>
       <c r="S10" t="s">
-        <v>123</v>
+        <v>743</v>
+      </c>
+      <c r="T10" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>958</v>
       </c>
       <c r="C11">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D11" t="s">
-        <v>511</v>
+        <v>796</v>
       </c>
       <c r="E11" t="s">
-        <v>514</v>
+        <v>566</v>
       </c>
       <c r="F11" t="s">
-        <v>572</v>
+        <v>567</v>
+      </c>
+      <c r="G11" t="s">
+        <v>568</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="O11" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="S11" t="s">
-        <v>517</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>812</v>
+        <v>570</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>813</v>
+      <c r="C12">
+        <v>2020</v>
       </c>
       <c r="D12" t="s">
-        <v>814</v>
+        <v>510</v>
       </c>
       <c r="E12" t="s">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="F12" t="s">
-        <v>815</v>
+        <v>571</v>
       </c>
       <c r="L12" t="s">
-        <v>816</v>
+        <v>572</v>
       </c>
       <c r="O12" t="s">
-        <v>554</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>817</v>
+        <v>573</v>
+      </c>
+      <c r="S12" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>582</v>
+        <v>808</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>583</v>
+        <v>809</v>
       </c>
       <c r="D13" t="s">
-        <v>584</v>
+        <v>810</v>
       </c>
       <c r="E13" t="s">
-        <v>827</v>
+        <v>549</v>
       </c>
       <c r="F13" t="s">
-        <v>585</v>
-      </c>
-      <c r="G13" t="s">
-        <v>586</v>
-      </c>
-      <c r="I13" t="s">
-        <v>587</v>
+        <v>811</v>
       </c>
       <c r="L13" t="s">
-        <v>231</v>
+        <v>812</v>
       </c>
       <c r="O13" t="s">
-        <v>554</v>
-      </c>
-      <c r="S13" t="s">
-        <v>625</v>
-      </c>
-      <c r="T13" t="s">
-        <v>752</v>
+        <v>853</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>560</v>
+        <v>852</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>588</v>
+        <v>847</v>
+      </c>
+      <c r="C14">
+        <v>2024</v>
       </c>
       <c r="D14" t="s">
-        <v>589</v>
+        <v>850</v>
       </c>
       <c r="E14" t="s">
-        <v>754</v>
+        <v>846</v>
       </c>
       <c r="F14" t="s">
-        <v>590</v>
-      </c>
-      <c r="G14" t="s">
-        <v>591</v>
-      </c>
-      <c r="I14" t="s">
-        <v>415</v>
-      </c>
-      <c r="K14" t="s">
-        <v>592</v>
+        <v>848</v>
       </c>
       <c r="L14" t="s">
-        <v>593</v>
-      </c>
-      <c r="O14" t="s">
-        <v>554</v>
-      </c>
-      <c r="S14" t="s">
-        <v>755</v>
-      </c>
-      <c r="T14" t="s">
-        <v>753</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="B15" t="s">
-        <v>765</v>
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>581</v>
       </c>
       <c r="D15" t="s">
-        <v>758</v>
+        <v>582</v>
       </c>
       <c r="E15" t="s">
-        <v>759</v>
+        <v>823</v>
       </c>
       <c r="F15" t="s">
-        <v>760</v>
+        <v>583</v>
       </c>
       <c r="G15" t="s">
-        <v>761</v>
+        <v>584</v>
+      </c>
+      <c r="I15" t="s">
+        <v>585</v>
       </c>
       <c r="L15" t="s">
-        <v>764</v>
-      </c>
-      <c r="R15" t="s">
-        <v>762</v>
+        <v>231</v>
+      </c>
+      <c r="O15" t="s">
+        <v>553</v>
       </c>
       <c r="S15" t="s">
-        <v>763</v>
+        <v>621</v>
+      </c>
+      <c r="T15" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>596</v>
+        <v>559</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
+      <c r="C16" t="s">
+        <v>586</v>
+      </c>
       <c r="D16" t="s">
+        <v>587</v>
+      </c>
+      <c r="E16" t="s">
         <v>750</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>588</v>
+      </c>
+      <c r="G16" t="s">
+        <v>589</v>
+      </c>
+      <c r="I16" t="s">
+        <v>414</v>
+      </c>
+      <c r="K16" t="s">
+        <v>590</v>
+      </c>
+      <c r="L16" t="s">
+        <v>591</v>
+      </c>
+      <c r="O16" t="s">
+        <v>553</v>
+      </c>
+      <c r="S16" t="s">
         <v>751</v>
       </c>
-      <c r="F16" t="s">
-        <v>597</v>
-      </c>
-      <c r="I16" t="s">
-        <v>415</v>
-      </c>
-      <c r="L16" t="s">
-        <v>231</v>
-      </c>
-      <c r="O16" t="s">
-        <v>554</v>
-      </c>
-      <c r="R16" t="s">
-        <v>766</v>
+      <c r="T16" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>548</v>
+        <v>626</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="D17" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="E17" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="F17" t="s">
-        <v>780</v>
+        <v>756</v>
       </c>
       <c r="G17" t="s">
-        <v>779</v>
-      </c>
-      <c r="J17" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="L17" t="s">
-        <v>781</v>
-      </c>
-      <c r="O17" t="s">
-        <v>746</v>
+        <v>760</v>
+      </c>
+      <c r="R17" t="s">
+        <v>758</v>
       </c>
       <c r="S17" t="s">
-        <v>783</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>576</v>
+        <v>746</v>
       </c>
       <c r="E18" t="s">
-        <v>577</v>
+        <v>747</v>
       </c>
       <c r="F18" t="s">
-        <v>578</v>
-      </c>
-      <c r="G18" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="I18" t="s">
-        <v>580</v>
+        <v>414</v>
       </c>
       <c r="L18" t="s">
-        <v>581</v>
+        <v>231</v>
       </c>
       <c r="O18" t="s">
-        <v>554</v>
-      </c>
-      <c r="S18" t="s">
-        <v>749</v>
+        <v>553</v>
+      </c>
+      <c r="R18" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>773</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
+        <v>771</v>
       </c>
       <c r="E19" t="s">
-        <v>598</v>
+        <v>772</v>
       </c>
       <c r="F19" t="s">
-        <v>599</v>
+        <v>776</v>
       </c>
       <c r="G19" t="s">
-        <v>600</v>
-      </c>
-      <c r="K19" t="s">
-        <v>601</v>
+        <v>775</v>
+      </c>
+      <c r="J19" t="s">
+        <v>774</v>
       </c>
       <c r="L19" t="s">
-        <v>602</v>
+        <v>777</v>
+      </c>
+      <c r="O19" t="s">
+        <v>742</v>
       </c>
       <c r="S19" t="s">
-        <v>603</v>
-      </c>
-      <c r="T19" t="s">
-        <v>604</v>
+        <v>779</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>605</v>
+        <v>854</v>
       </c>
       <c r="B20" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>607</v>
+        <v>844</v>
       </c>
       <c r="D20" t="s">
-        <v>608</v>
+        <v>856</v>
       </c>
       <c r="E20" t="s">
-        <v>609</v>
-      </c>
-      <c r="F20" t="s">
-        <v>610</v>
+        <v>855</v>
       </c>
       <c r="G20" t="s">
-        <v>611</v>
-      </c>
-      <c r="I20" t="s">
-        <v>612</v>
-      </c>
-      <c r="J20" t="s">
-        <v>613</v>
+        <v>857</v>
       </c>
       <c r="L20" t="s">
-        <v>614</v>
-      </c>
-      <c r="M20" t="s">
-        <v>615</v>
+        <v>777</v>
       </c>
       <c r="O20" t="s">
-        <v>554</v>
+        <v>858</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>595</v>
-      </c>
       <c r="D21" t="s">
-        <v>584</v>
+        <v>967</v>
       </c>
       <c r="E21" t="s">
-        <v>799</v>
+        <v>575</v>
       </c>
       <c r="F21" t="s">
-        <v>796</v>
+        <v>576</v>
       </c>
       <c r="G21" t="s">
-        <v>797</v>
+        <v>577</v>
+      </c>
+      <c r="I21" t="s">
+        <v>578</v>
       </c>
       <c r="L21" t="s">
-        <v>798</v>
+        <v>579</v>
+      </c>
+      <c r="O21" t="s">
+        <v>553</v>
       </c>
       <c r="S21" t="s">
-        <v>795</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>616</v>
+        <v>577</v>
       </c>
       <c r="B22" t="s">
-        <v>617</v>
-      </c>
-      <c r="C22">
-        <v>2008</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>618</v>
+        <v>245</v>
       </c>
       <c r="E22" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="F22" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="G22" t="s">
-        <v>621</v>
-      </c>
-      <c r="I22" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="K22" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="L22" t="s">
-        <v>623</v>
-      </c>
-      <c r="O22" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="S22" t="s">
-        <v>624</v>
-      </c>
-      <c r="U22" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+      <c r="T22" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>956</v>
+      </c>
+      <c r="C23" t="s">
+        <v>604</v>
       </c>
       <c r="D23" t="s">
-        <v>327</v>
+        <v>605</v>
       </c>
       <c r="E23" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="F23" t="s">
-        <v>628</v>
-      </c>
-      <c r="H23" t="s">
-        <v>629</v>
+        <v>607</v>
+      </c>
+      <c r="G23" t="s">
+        <v>608</v>
+      </c>
+      <c r="I23" t="s">
+        <v>609</v>
+      </c>
+      <c r="J23" t="s">
+        <v>610</v>
       </c>
       <c r="L23" t="s">
-        <v>141</v>
+        <v>611</v>
+      </c>
+      <c r="M23" t="s">
+        <v>612</v>
+      </c>
+      <c r="O23" t="s">
+        <v>553</v>
       </c>
       <c r="S23" t="s">
-        <v>784</v>
+        <v>963</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>630</v>
+        <v>907</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>631</v>
+        <v>904</v>
       </c>
       <c r="E24" t="s">
-        <v>327</v>
+        <v>908</v>
       </c>
       <c r="F24" t="s">
-        <v>599</v>
-      </c>
-      <c r="G24" t="s">
-        <v>632</v>
-      </c>
-      <c r="K24" t="s">
-        <v>633</v>
+        <v>909</v>
       </c>
       <c r="L24" t="s">
-        <v>348</v>
-      </c>
-      <c r="M24" t="s">
-        <v>634</v>
-      </c>
-      <c r="N24" t="s">
-        <v>239</v>
-      </c>
-      <c r="R24" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>903</v>
+      </c>
+      <c r="O24" t="s">
+        <v>905</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>826</v>
+        <v>593</v>
       </c>
       <c r="D25" t="s">
-        <v>635</v>
+        <v>582</v>
       </c>
       <c r="E25" t="s">
-        <v>365</v>
+        <v>795</v>
       </c>
       <c r="F25" t="s">
-        <v>636</v>
+        <v>792</v>
       </c>
       <c r="G25" t="s">
-        <v>637</v>
-      </c>
-      <c r="K25" t="s">
-        <v>357</v>
+        <v>793</v>
       </c>
       <c r="L25" t="s">
-        <v>141</v>
-      </c>
-      <c r="O25" t="s">
+        <v>794</v>
+      </c>
+      <c r="S25" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>613</v>
+      </c>
+      <c r="B26" t="s">
+        <v>957</v>
+      </c>
+      <c r="C26">
+        <v>2008</v>
+      </c>
+      <c r="D26" t="s">
+        <v>614</v>
+      </c>
+      <c r="E26" t="s">
+        <v>615</v>
+      </c>
+      <c r="F26" t="s">
+        <v>616</v>
+      </c>
+      <c r="G26" t="s">
+        <v>617</v>
+      </c>
+      <c r="I26" t="s">
         <v>578</v>
       </c>
-      <c r="S25" t="s">
-        <v>756</v>
-      </c>
-      <c r="T25" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>579</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>638</v>
-      </c>
-      <c r="E26" t="s">
-        <v>639</v>
-      </c>
-      <c r="F26" t="s">
-        <v>640</v>
-      </c>
-      <c r="G26" t="s">
-        <v>641</v>
-      </c>
       <c r="K26" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="L26" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="O26" t="s">
-        <v>644</v>
-      </c>
-      <c r="R26" t="s">
-        <v>645</v>
+        <v>553</v>
       </c>
       <c r="S26" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="U26" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>789</v>
+        <v>968</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>770</v>
       </c>
       <c r="D27" t="s">
-        <v>788</v>
+        <v>929</v>
       </c>
       <c r="E27" t="s">
-        <v>790</v>
+        <v>933</v>
       </c>
       <c r="F27" t="s">
-        <v>794</v>
+        <v>930</v>
       </c>
       <c r="L27" t="s">
-        <v>793</v>
-      </c>
-      <c r="S27" t="s">
-        <v>792</v>
-      </c>
-      <c r="T27" t="s">
-        <v>791</v>
+        <v>931</v>
+      </c>
+      <c r="O27" t="s">
+        <v>932</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>804</v>
+        <v>622</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
-        <v>805</v>
-      </c>
       <c r="D28" t="s">
-        <v>801</v>
+        <v>327</v>
       </c>
       <c r="E28" t="s">
-        <v>808</v>
+        <v>623</v>
       </c>
       <c r="F28" t="s">
-        <v>810</v>
-      </c>
-      <c r="G28" t="s">
-        <v>809</v>
-      </c>
-      <c r="K28" t="s">
-        <v>802</v>
+        <v>624</v>
+      </c>
+      <c r="H28" t="s">
+        <v>625</v>
       </c>
       <c r="L28" t="s">
-        <v>806</v>
-      </c>
-      <c r="O28" t="s">
-        <v>807</v>
+        <v>141</v>
       </c>
       <c r="S28" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>648</v>
+        <v>953</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>960</v>
       </c>
       <c r="D29" t="s">
-        <v>649</v>
+        <v>966</v>
       </c>
       <c r="E29" t="s">
-        <v>650</v>
+        <v>952</v>
       </c>
       <c r="F29" t="s">
-        <v>651</v>
-      </c>
-      <c r="G29" t="s">
-        <v>811</v>
+        <v>965</v>
       </c>
       <c r="L29" t="s">
-        <v>652</v>
-      </c>
-      <c r="R29" t="s">
-        <v>351</v>
+        <v>954</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>626</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>627</v>
+      </c>
+      <c r="E30" t="s">
+        <v>327</v>
+      </c>
+      <c r="F30" t="s">
+        <v>597</v>
+      </c>
+      <c r="G30" t="s">
+        <v>628</v>
+      </c>
+      <c r="K30" t="s">
+        <v>629</v>
+      </c>
+      <c r="L30" t="s">
+        <v>347</v>
+      </c>
+      <c r="M30" t="s">
+        <v>630</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="R30" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>577</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>822</v>
+      </c>
+      <c r="D31" t="s">
+        <v>631</v>
+      </c>
+      <c r="E31" t="s">
+        <v>364</v>
+      </c>
+      <c r="F31" t="s">
+        <v>632</v>
+      </c>
+      <c r="G31" t="s">
+        <v>633</v>
+      </c>
+      <c r="K31" t="s">
+        <v>356</v>
+      </c>
+      <c r="L31" t="s">
+        <v>141</v>
+      </c>
+      <c r="O31" t="s">
+        <v>576</v>
+      </c>
+      <c r="S31" t="s">
+        <v>752</v>
+      </c>
+      <c r="T31" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>577</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>634</v>
+      </c>
+      <c r="E32" t="s">
+        <v>635</v>
+      </c>
+      <c r="F32" t="s">
+        <v>636</v>
+      </c>
+      <c r="G32" t="s">
+        <v>637</v>
+      </c>
+      <c r="K32" t="s">
+        <v>638</v>
+      </c>
+      <c r="L32" t="s">
+        <v>639</v>
+      </c>
+      <c r="O32" t="s">
+        <v>640</v>
+      </c>
+      <c r="R32" t="s">
+        <v>641</v>
+      </c>
+      <c r="S32" t="s">
+        <v>642</v>
+      </c>
+      <c r="U32" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>785</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>784</v>
+      </c>
+      <c r="E33" t="s">
+        <v>786</v>
+      </c>
+      <c r="F33" t="s">
+        <v>790</v>
+      </c>
+      <c r="L33" t="s">
+        <v>789</v>
+      </c>
+      <c r="S33" t="s">
+        <v>788</v>
+      </c>
+      <c r="T33" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>951</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>944</v>
+      </c>
+      <c r="E34" t="s">
+        <v>955</v>
+      </c>
+      <c r="F34" t="s">
+        <v>945</v>
+      </c>
+      <c r="G34" t="s">
+        <v>946</v>
+      </c>
+      <c r="L34" t="s">
+        <v>947</v>
+      </c>
+      <c r="M34" t="s">
+        <v>950</v>
+      </c>
+      <c r="N34" t="s">
+        <v>949</v>
+      </c>
+      <c r="O34" t="s">
+        <v>803</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>800</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>801</v>
+      </c>
+      <c r="D35" t="s">
+        <v>797</v>
+      </c>
+      <c r="E35" t="s">
+        <v>804</v>
+      </c>
+      <c r="F35" t="s">
+        <v>806</v>
+      </c>
+      <c r="G35" t="s">
+        <v>805</v>
+      </c>
+      <c r="K35" t="s">
+        <v>798</v>
+      </c>
+      <c r="L35" t="s">
+        <v>802</v>
+      </c>
+      <c r="O35" t="s">
+        <v>803</v>
+      </c>
+      <c r="S35" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>644</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>645</v>
+      </c>
+      <c r="E36" t="s">
+        <v>646</v>
+      </c>
+      <c r="F36" t="s">
+        <v>647</v>
+      </c>
+      <c r="G36" t="s">
+        <v>807</v>
+      </c>
+      <c r="L36" t="s">
+        <v>648</v>
+      </c>
+      <c r="R36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>814</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>819</v>
+      </c>
+      <c r="D37" t="s">
+        <v>820</v>
+      </c>
+      <c r="E37" t="s">
+        <v>360</v>
+      </c>
+      <c r="F37" t="s">
+        <v>559</v>
+      </c>
+      <c r="G37" t="s">
+        <v>815</v>
+      </c>
+      <c r="H37" t="s">
+        <v>816</v>
+      </c>
+      <c r="I37" t="s">
+        <v>553</v>
+      </c>
+      <c r="K37" t="s">
+        <v>817</v>
+      </c>
+      <c r="L37" t="s">
+        <v>362</v>
+      </c>
+      <c r="O37" t="s">
+        <v>821</v>
+      </c>
+      <c r="S37" s="7" t="s">
         <v>818</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s">
-        <v>823</v>
-      </c>
-      <c r="D30" t="s">
-        <v>824</v>
-      </c>
-      <c r="E30" t="s">
-        <v>361</v>
-      </c>
-      <c r="F30" t="s">
-        <v>560</v>
-      </c>
-      <c r="G30" t="s">
-        <v>819</v>
-      </c>
-      <c r="H30" t="s">
-        <v>820</v>
-      </c>
-      <c r="I30" t="s">
-        <v>554</v>
-      </c>
-      <c r="K30" t="s">
-        <v>821</v>
-      </c>
-      <c r="L30" t="s">
-        <v>363</v>
-      </c>
-      <c r="O30" t="s">
-        <v>825</v>
-      </c>
-      <c r="S30" s="7" t="s">
-        <v>822</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S12" r:id="rId1" xr:uid="{C128D13F-E388-46EF-BC6F-4E08840FA05E}"/>
-    <hyperlink ref="S30" r:id="rId2" xr:uid="{9CB0123F-E74C-490D-A84D-A5AED553534B}"/>
+    <hyperlink ref="S13" r:id="rId1" xr:uid="{C128D13F-E388-46EF-BC6F-4E08840FA05E}"/>
+    <hyperlink ref="S37" r:id="rId2" xr:uid="{9CB0123F-E74C-490D-A84D-A5AED553534B}"/>
+    <hyperlink ref="R14" r:id="rId3" xr:uid="{44FD2CD1-34CD-4C0B-B628-AD2B0DE1A848}"/>
+    <hyperlink ref="R20" r:id="rId4" xr:uid="{0CCBAE31-83C0-4B23-B4C6-830AB0A58DA9}"/>
+    <hyperlink ref="R5" r:id="rId5" xr:uid="{5338DCDD-92F3-45F7-8BD5-2B6CDA7C8CC1}"/>
+    <hyperlink ref="S24" r:id="rId6" xr:uid="{AC7DAB17-7FFA-4D9D-ACBB-D79ED2205EB0}"/>
+    <hyperlink ref="S27" r:id="rId7" xr:uid="{6E272047-8078-4F98-B4D5-CBA96F1529C9}"/>
+    <hyperlink ref="S34" r:id="rId8" xr:uid="{624ACCBF-6DA1-4882-8539-649B7AA5F351}"/>
+    <hyperlink ref="R29" r:id="rId9" xr:uid="{0B0CCCF4-7D90-4DB4-A400-64D1F4E6A63D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6634,7 +7656,9 @@
   </sheetPr>
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6644,22 +7668,22 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -6668,40 +7692,40 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>20</v>
@@ -6709,71 +7733,71 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="W2" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="X2" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>673</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>677</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -6788,102 +7812,102 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="V3" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>278</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD7856-F1EB-49EA-8AFD-1F793A3EA3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80B67D4-1757-4471-BB9F-DD8AD525A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filed Cases" sheetId="1" r:id="rId1"/>
@@ -3287,7 +3287,7 @@
   </sheetPr>
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5393,8 +5393,8 @@
   </sheetPr>
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6355,9 +6355,7 @@
   </sheetPr>
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80B67D4-1757-4471-BB9F-DD8AD525A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{561AAA5B-C2CB-4141-9B14-1AF01F5E6E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{561AAA5B-C2CB-4141-9B14-1AF01F5E6E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BDFAB2-3006-4873-A56C-1BDEE1C1C1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="980">
   <si>
     <t>State</t>
   </si>
@@ -616,6 +616,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>FilmOn.tv</t>
     </r>
@@ -624,6 +625,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>, Hologram USA</t>
@@ -1629,9 +1631,6 @@
     <t>Lindsey Hill</t>
   </si>
   <si>
-    <t>Social, Athelete Girlfriend</t>
-  </si>
-  <si>
     <t>Trevor Bauer</t>
   </si>
   <si>
@@ -2959,13 +2958,40 @@
   </si>
   <si>
     <t>Comedians</t>
+  </si>
+  <si>
+    <t>Kimberly Pandelios, models</t>
+  </si>
+  <si>
+    <t>1992-2000s</t>
+  </si>
+  <si>
+    <t>Modeling, Photography</t>
+  </si>
+  <si>
+    <t>David Rademaker</t>
+  </si>
+  <si>
+    <t>Prosecutors</t>
+  </si>
+  <si>
+    <t>Fake Advertisement, Murder, Kidnapping, Assault</t>
+  </si>
+  <si>
+    <t>"Witness and (Perpetrator) discussed the ads Rademaker  had placed in magazines and newspapers in which appellant held himself out as a photographer seeking models, as a ruse"</t>
+  </si>
+  <si>
+    <t>https://casetext.com/case/people-v-rademaker-</t>
+  </si>
+  <si>
+    <t>Social, Athlete Girlfriend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2976,6 +3002,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2983,45 +3010,59 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3287,9 +3328,7 @@
   </sheetPr>
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4034,7 +4073,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>180</v>
@@ -4285,7 +4324,7 @@
         <v>229</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>230</v>
@@ -4510,7 +4549,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4521,7 +4560,7 @@
         <v>275</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>276</v>
@@ -4535,7 +4574,7 @@
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>279</v>
@@ -4704,10 +4743,10 @@
         <v>309</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="U44" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4787,7 +4826,7 @@
         <v>148</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>325</v>
@@ -4857,7 +4896,7 @@
     </row>
     <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>334</v>
@@ -4869,7 +4908,7 @@
         <v>336</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>218</v>
@@ -4878,7 +4917,7 @@
         <v>337</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5183,134 +5222,134 @@
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B62" t="s">
+        <v>827</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B62" t="s">
+      <c r="F62" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="U62" s="7" t="s">
         <v>828</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>969</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="U62" s="7" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B63" t="s">
+        <v>893</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>836</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>220</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="U63" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="V63" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="W63" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B64" t="s">
+        <v>898</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="T64" t="s">
+        <v>897</v>
+      </c>
+      <c r="U64" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="B64" t="s">
+      <c r="V64" s="7" t="s">
         <v>899</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="T64" t="s">
-        <v>898</v>
-      </c>
-      <c r="U64" s="7" t="s">
-        <v>884</v>
-      </c>
-      <c r="V64" s="7" t="s">
-        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -5391,10 +5430,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF26"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5467,7 +5506,7 @@
         <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C2">
         <v>1954</v>
@@ -5499,7 +5538,7 @@
         <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C3">
         <v>2008</v>
@@ -5523,7 +5562,7 @@
         <v>159</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -5637,7 +5676,7 @@
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -5670,10 +5709,10 @@
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>440</v>
@@ -5688,7 +5727,7 @@
         <v>443</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -5762,7 +5801,7 @@
         <v>463</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -5926,7 +5965,7 @@
         <v>500</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -6087,24 +6126,24 @@
         <v>527</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="S20" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>198</v>
@@ -6113,13 +6152,13 @@
         <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="S21" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -6127,51 +6166,51 @@
         <v>497</v>
       </c>
       <c r="B22" t="s">
+        <v>700</v>
+      </c>
+      <c r="C22" t="s">
         <v>701</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>702</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>703</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>704</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>705</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>706</v>
       </c>
-      <c r="J22" t="s">
+      <c r="P22" t="s">
         <v>707</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>708</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>709</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>710</v>
-      </c>
-      <c r="T22" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C23" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>21</v>
@@ -6180,28 +6219,28 @@
         <v>413</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="M23" t="s">
         <v>863</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="P23" t="s">
         <v>864</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>865</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="S23" s="7" t="s">
-        <v>867</v>
-      </c>
       <c r="T23" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6209,54 +6248,54 @@
         <v>407</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C24" t="s">
+        <v>914</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="C24" t="s">
+      <c r="M24" t="s">
+        <v>913</v>
+      </c>
+      <c r="P24" t="s">
         <v>915</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="S24" s="7" t="s">
         <v>912</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="M24" t="s">
-        <v>914</v>
-      </c>
-      <c r="P24" t="s">
-        <v>916</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C25" t="s">
         <v>921</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="C25" t="s">
-        <v>922</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>21</v>
@@ -6265,51 +6304,89 @@
         <v>413</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="K25" t="s">
         <v>923</v>
       </c>
-      <c r="K25" t="s">
-        <v>924</v>
-      </c>
       <c r="P25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K26" t="s">
         <v>243</v>
       </c>
       <c r="P26" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>407</v>
+      </c>
+      <c r="B27" t="s">
+        <v>971</v>
+      </c>
+      <c r="C27" t="s">
+        <v>972</v>
+      </c>
+      <c r="D27" t="s">
+        <v>973</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>974</v>
+      </c>
+      <c r="I27" t="s">
+        <v>975</v>
+      </c>
+      <c r="J27" t="s">
+        <v>976</v>
+      </c>
+      <c r="P27" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>977</v>
+      </c>
+      <c r="S27" t="s">
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -6361,7 +6438,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6370,40 +6447,40 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1" t="s">
         <v>536</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>537</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>538</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>539</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>540</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>541</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>542</v>
-      </c>
-      <c r="K1" t="s">
-        <v>543</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>543</v>
+      </c>
+      <c r="N1" t="s">
         <v>544</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>545</v>
-      </c>
-      <c r="O1" t="s">
-        <v>546</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -6420,7 +6497,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -6429,22 +6506,22 @@
         <v>1954</v>
       </c>
       <c r="D2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E2" t="s">
         <v>548</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>549</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>550</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>551</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>552</v>
-      </c>
-      <c r="O2" t="s">
-        <v>553</v>
       </c>
       <c r="S2" t="s">
         <v>411</v>
@@ -6452,153 +6529,153 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E3" t="s">
         <v>555</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>556</v>
-      </c>
-      <c r="F3" t="s">
-        <v>557</v>
       </c>
       <c r="G3" t="s">
         <v>209</v>
       </c>
       <c r="L3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="S3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>777</v>
+      </c>
+      <c r="D4" t="s">
+        <v>714</v>
+      </c>
+      <c r="E4" t="s">
         <v>559</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>778</v>
-      </c>
-      <c r="D4" t="s">
-        <v>715</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>560</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>561</v>
-      </c>
-      <c r="G4" t="s">
-        <v>562</v>
       </c>
       <c r="I4" t="s">
         <v>159</v>
       </c>
       <c r="K4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L4" t="s">
+        <v>562</v>
+      </c>
+      <c r="O4" t="s">
+        <v>552</v>
+      </c>
+      <c r="S4" t="s">
         <v>563</v>
-      </c>
-      <c r="O4" t="s">
-        <v>553</v>
-      </c>
-      <c r="S4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>843</v>
+      </c>
+      <c r="D5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E5" t="s">
+        <v>832</v>
+      </c>
+      <c r="F5" t="s">
         <v>844</v>
       </c>
-      <c r="D5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E5" t="s">
-        <v>833</v>
-      </c>
-      <c r="F5" t="s">
-        <v>845</v>
-      </c>
       <c r="G5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
       <c r="D6" t="s">
+        <v>716</v>
+      </c>
+      <c r="E6" t="s">
         <v>717</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>718</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>719</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>720</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>552</v>
+      </c>
+      <c r="K6" t="s">
         <v>721</v>
       </c>
-      <c r="I6" t="s">
-        <v>553</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>722</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>723</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
+        <v>552</v>
+      </c>
+      <c r="P6" t="s">
+        <v>720</v>
+      </c>
+      <c r="S6" t="s">
         <v>724</v>
-      </c>
-      <c r="O6" t="s">
-        <v>553</v>
-      </c>
-      <c r="P6" t="s">
-        <v>721</v>
-      </c>
-      <c r="S6" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -6610,22 +6687,22 @@
         <v>159</v>
       </c>
       <c r="E7" t="s">
+        <v>725</v>
+      </c>
+      <c r="F7" t="s">
         <v>726</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>727</v>
-      </c>
-      <c r="G7" t="s">
-        <v>728</v>
       </c>
       <c r="I7" t="s">
         <v>159</v>
       </c>
       <c r="J7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L7" t="s">
         <v>141</v>
@@ -6634,18 +6711,18 @@
         <v>408</v>
       </c>
       <c r="N7" t="s">
+        <v>728</v>
+      </c>
+      <c r="O7" t="s">
         <v>729</v>
       </c>
-      <c r="O7" t="s">
-        <v>730</v>
-      </c>
       <c r="S7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -6657,136 +6734,136 @@
         <v>159</v>
       </c>
       <c r="E8" t="s">
+        <v>731</v>
+      </c>
+      <c r="I8" t="s">
+        <v>552</v>
+      </c>
+      <c r="J8" t="s">
         <v>732</v>
       </c>
-      <c r="I8" t="s">
-        <v>553</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>733</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>723</v>
+      </c>
+      <c r="O8" t="s">
+        <v>552</v>
+      </c>
+      <c r="S8" t="s">
         <v>734</v>
-      </c>
-      <c r="M8" t="s">
-        <v>724</v>
-      </c>
-      <c r="O8" t="s">
-        <v>553</v>
-      </c>
-      <c r="S8" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D9" t="s">
+        <v>762</v>
+      </c>
+      <c r="E9" t="s">
+        <v>764</v>
+      </c>
+      <c r="F9" t="s">
+        <v>765</v>
+      </c>
+      <c r="G9" t="s">
+        <v>766</v>
+      </c>
+      <c r="I9" t="s">
+        <v>768</v>
+      </c>
+      <c r="L9" t="s">
         <v>763</v>
       </c>
-      <c r="E9" t="s">
-        <v>765</v>
-      </c>
-      <c r="F9" t="s">
-        <v>766</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="O9" t="s">
         <v>767</v>
       </c>
-      <c r="I9" t="s">
-        <v>769</v>
-      </c>
-      <c r="L9" t="s">
-        <v>764</v>
-      </c>
-      <c r="O9" t="s">
-        <v>768</v>
-      </c>
       <c r="R9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D10" t="s">
         <v>736</v>
-      </c>
-      <c r="D10" t="s">
-        <v>737</v>
       </c>
       <c r="E10" t="s">
         <v>155</v>
       </c>
       <c r="F10" t="s">
+        <v>736</v>
+      </c>
+      <c r="G10" t="s">
         <v>737</v>
-      </c>
-      <c r="G10" t="s">
-        <v>738</v>
       </c>
       <c r="I10" t="s">
         <v>159</v>
       </c>
       <c r="J10" t="s">
+        <v>738</v>
+      </c>
+      <c r="L10" t="s">
         <v>739</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>740</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>741</v>
       </c>
-      <c r="O10" t="s">
+      <c r="S10" t="s">
         <v>742</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>743</v>
-      </c>
-      <c r="T10" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C11">
         <v>2024</v>
       </c>
       <c r="D11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E11" t="s">
+        <v>565</v>
+      </c>
+      <c r="F11" t="s">
         <v>566</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>567</v>
-      </c>
-      <c r="G11" t="s">
-        <v>568</v>
       </c>
       <c r="I11" t="s">
         <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S11" t="s">
         <v>123</v>
@@ -6794,7 +6871,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -6809,13 +6886,13 @@
         <v>513</v>
       </c>
       <c r="F12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L12" t="s">
         <v>571</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>572</v>
-      </c>
-      <c r="O12" t="s">
-        <v>573</v>
       </c>
       <c r="S12" t="s">
         <v>516</v>
@@ -6823,183 +6900,183 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
         <v>808</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>809</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>548</v>
+      </c>
+      <c r="F13" t="s">
         <v>810</v>
       </c>
-      <c r="E13" t="s">
-        <v>549</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="L13" t="s">
         <v>811</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
+        <v>852</v>
+      </c>
+      <c r="S13" s="7" t="s">
         <v>812</v>
-      </c>
-      <c r="O13" t="s">
-        <v>853</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C14">
         <v>2024</v>
       </c>
       <c r="D14" t="s">
+        <v>849</v>
+      </c>
+      <c r="E14" t="s">
+        <v>845</v>
+      </c>
+      <c r="F14" t="s">
+        <v>847</v>
+      </c>
+      <c r="L14" t="s">
+        <v>848</v>
+      </c>
+      <c r="R14" s="7" t="s">
         <v>850</v>
-      </c>
-      <c r="E14" t="s">
-        <v>846</v>
-      </c>
-      <c r="F14" t="s">
-        <v>848</v>
-      </c>
-      <c r="L14" t="s">
-        <v>849</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>851</v>
       </c>
       <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>580</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>581</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>822</v>
+      </c>
+      <c r="F15" t="s">
         <v>582</v>
       </c>
-      <c r="E15" t="s">
-        <v>823</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>583</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>584</v>
-      </c>
-      <c r="I15" t="s">
-        <v>585</v>
       </c>
       <c r="L15" t="s">
         <v>231</v>
       </c>
       <c r="O15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="T15" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
+        <v>585</v>
+      </c>
+      <c r="D16" t="s">
         <v>586</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>749</v>
+      </c>
+      <c r="F16" t="s">
         <v>587</v>
       </c>
-      <c r="E16" t="s">
-        <v>750</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>588</v>
-      </c>
-      <c r="G16" t="s">
-        <v>589</v>
       </c>
       <c r="I16" t="s">
         <v>414</v>
       </c>
       <c r="K16" t="s">
+        <v>589</v>
+      </c>
+      <c r="L16" t="s">
         <v>590</v>
       </c>
-      <c r="L16" t="s">
-        <v>591</v>
-      </c>
       <c r="O16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="T16" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D17" t="s">
+        <v>753</v>
+      </c>
+      <c r="E17" t="s">
         <v>754</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>755</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>756</v>
       </c>
-      <c r="G17" t="s">
+      <c r="L17" t="s">
+        <v>759</v>
+      </c>
+      <c r="R17" t="s">
         <v>757</v>
       </c>
-      <c r="L17" t="s">
-        <v>760</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>758</v>
-      </c>
-      <c r="S17" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>593</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>745</v>
+      </c>
+      <c r="E18" t="s">
+        <v>746</v>
+      </c>
+      <c r="F18" t="s">
         <v>594</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>746</v>
-      </c>
-      <c r="E18" t="s">
-        <v>747</v>
-      </c>
-      <c r="F18" t="s">
-        <v>595</v>
       </c>
       <c r="I18" t="s">
         <v>414</v>
@@ -7008,111 +7085,111 @@
         <v>231</v>
       </c>
       <c r="O18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
+        <v>772</v>
+      </c>
+      <c r="D19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E19" t="s">
+        <v>771</v>
+      </c>
+      <c r="F19" t="s">
+        <v>775</v>
+      </c>
+      <c r="G19" t="s">
+        <v>774</v>
+      </c>
+      <c r="J19" t="s">
         <v>773</v>
       </c>
-      <c r="D19" t="s">
-        <v>771</v>
-      </c>
-      <c r="E19" t="s">
-        <v>772</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="L19" t="s">
         <v>776</v>
       </c>
-      <c r="G19" t="s">
-        <v>775</v>
-      </c>
-      <c r="J19" t="s">
-        <v>774</v>
-      </c>
-      <c r="L19" t="s">
-        <v>777</v>
-      </c>
       <c r="O19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="S19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>853</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>843</v>
+      </c>
+      <c r="D20" t="s">
+        <v>855</v>
+      </c>
+      <c r="E20" t="s">
         <v>854</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>844</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>856</v>
       </c>
-      <c r="E20" t="s">
-        <v>855</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="L20" t="s">
+        <v>776</v>
+      </c>
+      <c r="O20" t="s">
         <v>857</v>
       </c>
-      <c r="L20" t="s">
-        <v>777</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="R20" s="7" t="s">
         <v>858</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>573</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>966</v>
+      </c>
+      <c r="E21" t="s">
         <v>574</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>967</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>575</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>576</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>577</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>578</v>
       </c>
-      <c r="L21" t="s">
-        <v>579</v>
-      </c>
       <c r="O21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -7121,193 +7198,193 @@
         <v>245</v>
       </c>
       <c r="E22" t="s">
+        <v>595</v>
+      </c>
+      <c r="F22" t="s">
         <v>596</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>597</v>
       </c>
-      <c r="G22" t="s">
+      <c r="K22" t="s">
         <v>598</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>599</v>
       </c>
-      <c r="L22" t="s">
+      <c r="S22" t="s">
         <v>600</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>601</v>
-      </c>
-      <c r="T22" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>602</v>
+      </c>
+      <c r="B23" t="s">
+        <v>955</v>
+      </c>
+      <c r="C23" t="s">
         <v>603</v>
       </c>
-      <c r="B23" t="s">
-        <v>956</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>604</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>605</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>606</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>607</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>608</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>609</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>610</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>611</v>
       </c>
-      <c r="M23" t="s">
-        <v>612</v>
-      </c>
       <c r="O23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S23" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>906</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>903</v>
+      </c>
+      <c r="E24" t="s">
         <v>907</v>
       </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>908</v>
+      </c>
+      <c r="L24" t="s">
+        <v>902</v>
+      </c>
+      <c r="O24" t="s">
         <v>904</v>
       </c>
-      <c r="E24" t="s">
-        <v>908</v>
-      </c>
-      <c r="F24" t="s">
-        <v>909</v>
-      </c>
-      <c r="L24" t="s">
-        <v>903</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="S24" s="7" t="s">
         <v>905</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>591</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
         <v>592</v>
       </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>593</v>
-      </c>
       <c r="D25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E25" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F25" t="s">
+        <v>791</v>
+      </c>
+      <c r="G25" t="s">
         <v>792</v>
       </c>
-      <c r="G25" t="s">
+      <c r="L25" t="s">
         <v>793</v>
       </c>
-      <c r="L25" t="s">
-        <v>794</v>
-      </c>
       <c r="S25" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B26" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C26">
         <v>2008</v>
       </c>
       <c r="D26" t="s">
+        <v>613</v>
+      </c>
+      <c r="E26" t="s">
         <v>614</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>615</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>616</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
+        <v>577</v>
+      </c>
+      <c r="K26" t="s">
         <v>617</v>
       </c>
-      <c r="I26" t="s">
-        <v>578</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>618</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
+        <v>552</v>
+      </c>
+      <c r="S26" t="s">
         <v>619</v>
       </c>
-      <c r="O26" t="s">
-        <v>553</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
         <v>620</v>
-      </c>
-      <c r="U26" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B27" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D27" t="s">
+        <v>928</v>
+      </c>
+      <c r="E27" t="s">
+        <v>932</v>
+      </c>
+      <c r="F27" t="s">
         <v>929</v>
       </c>
-      <c r="E27" t="s">
+      <c r="L27" t="s">
+        <v>930</v>
+      </c>
+      <c r="O27" t="s">
+        <v>931</v>
+      </c>
+      <c r="S27" s="7" t="s">
         <v>933</v>
-      </c>
-      <c r="F27" t="s">
-        <v>930</v>
-      </c>
-      <c r="L27" t="s">
-        <v>931</v>
-      </c>
-      <c r="O27" t="s">
-        <v>932</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -7316,103 +7393,103 @@
         <v>327</v>
       </c>
       <c r="E28" t="s">
+        <v>622</v>
+      </c>
+      <c r="F28" t="s">
         <v>623</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>624</v>
-      </c>
-      <c r="H28" t="s">
-        <v>625</v>
       </c>
       <c r="L28" t="s">
         <v>141</v>
       </c>
       <c r="S28" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>952</v>
+      </c>
+      <c r="B29" t="s">
+        <v>959</v>
+      </c>
+      <c r="D29" t="s">
+        <v>965</v>
+      </c>
+      <c r="E29" t="s">
+        <v>951</v>
+      </c>
+      <c r="F29" t="s">
+        <v>964</v>
+      </c>
+      <c r="L29" t="s">
         <v>953</v>
       </c>
-      <c r="B29" t="s">
-        <v>960</v>
-      </c>
-      <c r="D29" t="s">
-        <v>966</v>
-      </c>
-      <c r="E29" t="s">
-        <v>952</v>
-      </c>
-      <c r="F29" t="s">
-        <v>965</v>
-      </c>
-      <c r="L29" t="s">
-        <v>954</v>
-      </c>
       <c r="R29" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>625</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
         <v>626</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>627</v>
       </c>
       <c r="E30" t="s">
         <v>327</v>
       </c>
       <c r="F30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G30" t="s">
+        <v>627</v>
+      </c>
+      <c r="K30" t="s">
         <v>628</v>
-      </c>
-      <c r="K30" t="s">
-        <v>629</v>
       </c>
       <c r="L30" t="s">
         <v>347</v>
       </c>
       <c r="M30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N30" t="s">
         <v>239</v>
       </c>
       <c r="R30" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D31" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E31" t="s">
         <v>364</v>
       </c>
       <c r="F31" t="s">
+        <v>631</v>
+      </c>
+      <c r="G31" t="s">
         <v>632</v>
-      </c>
-      <c r="G31" t="s">
-        <v>633</v>
       </c>
       <c r="K31" t="s">
         <v>356</v>
@@ -7421,170 +7498,170 @@
         <v>141</v>
       </c>
       <c r="O31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="S31" t="s">
+        <v>751</v>
+      </c>
+      <c r="T31" t="s">
         <v>752</v>
-      </c>
-      <c r="T31" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
       <c r="D32" t="s">
+        <v>633</v>
+      </c>
+      <c r="E32" t="s">
         <v>634</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>635</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>636</v>
       </c>
-      <c r="G32" t="s">
+      <c r="K32" t="s">
         <v>637</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>638</v>
       </c>
-      <c r="L32" t="s">
+      <c r="O32" t="s">
         <v>639</v>
       </c>
-      <c r="O32" t="s">
+      <c r="R32" t="s">
         <v>640</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>641</v>
       </c>
-      <c r="S32" t="s">
+      <c r="U32" t="s">
         <v>642</v>
-      </c>
-      <c r="U32" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>784</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>783</v>
+      </c>
+      <c r="E33" t="s">
         <v>785</v>
       </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>784</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>789</v>
+      </c>
+      <c r="L33" t="s">
+        <v>788</v>
+      </c>
+      <c r="S33" t="s">
+        <v>787</v>
+      </c>
+      <c r="T33" t="s">
         <v>786</v>
-      </c>
-      <c r="F33" t="s">
-        <v>790</v>
-      </c>
-      <c r="L33" t="s">
-        <v>789</v>
-      </c>
-      <c r="S33" t="s">
-        <v>788</v>
-      </c>
-      <c r="T33" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="D34" t="s">
+        <v>943</v>
+      </c>
+      <c r="E34" t="s">
+        <v>954</v>
+      </c>
+      <c r="F34" t="s">
         <v>944</v>
       </c>
-      <c r="E34" t="s">
-        <v>955</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>945</v>
       </c>
-      <c r="G34" t="s">
+      <c r="L34" t="s">
         <v>946</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
+        <v>949</v>
+      </c>
+      <c r="N34" t="s">
+        <v>948</v>
+      </c>
+      <c r="O34" t="s">
+        <v>802</v>
+      </c>
+      <c r="S34" s="7" t="s">
         <v>947</v>
-      </c>
-      <c r="M34" t="s">
-        <v>950</v>
-      </c>
-      <c r="N34" t="s">
-        <v>949</v>
-      </c>
-      <c r="O34" t="s">
-        <v>803</v>
-      </c>
-      <c r="S34" s="7" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>799</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
         <v>800</v>
       </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>796</v>
+      </c>
+      <c r="E35" t="s">
+        <v>803</v>
+      </c>
+      <c r="F35" t="s">
+        <v>805</v>
+      </c>
+      <c r="G35" t="s">
+        <v>804</v>
+      </c>
+      <c r="K35" t="s">
+        <v>797</v>
+      </c>
+      <c r="L35" t="s">
         <v>801</v>
       </c>
-      <c r="D35" t="s">
-        <v>797</v>
-      </c>
-      <c r="E35" t="s">
-        <v>804</v>
-      </c>
-      <c r="F35" t="s">
-        <v>806</v>
-      </c>
-      <c r="G35" t="s">
-        <v>805</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="O35" t="s">
+        <v>802</v>
+      </c>
+      <c r="S35" t="s">
         <v>798</v>
-      </c>
-      <c r="L35" t="s">
-        <v>802</v>
-      </c>
-      <c r="O35" t="s">
-        <v>803</v>
-      </c>
-      <c r="S35" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="D36" t="s">
+        <v>644</v>
+      </c>
+      <c r="E36" t="s">
         <v>645</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>646</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>806</v>
+      </c>
+      <c r="L36" t="s">
         <v>647</v>
-      </c>
-      <c r="G36" t="s">
-        <v>807</v>
-      </c>
-      <c r="L36" t="s">
-        <v>648</v>
       </c>
       <c r="R36" t="s">
         <v>350</v>
@@ -7592,43 +7669,43 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
       </c>
       <c r="C37" t="s">
+        <v>818</v>
+      </c>
+      <c r="D37" t="s">
         <v>819</v>
-      </c>
-      <c r="D37" t="s">
-        <v>820</v>
       </c>
       <c r="E37" t="s">
         <v>360</v>
       </c>
       <c r="F37" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G37" t="s">
+        <v>814</v>
+      </c>
+      <c r="H37" t="s">
         <v>815</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
+        <v>552</v>
+      </c>
+      <c r="K37" t="s">
         <v>816</v>
-      </c>
-      <c r="I37" t="s">
-        <v>553</v>
-      </c>
-      <c r="K37" t="s">
-        <v>817</v>
       </c>
       <c r="L37" t="s">
         <v>362</v>
       </c>
       <c r="O37" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -7655,7 +7732,7 @@
   <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7675,13 +7752,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>404</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -7708,16 +7785,16 @@
         <v>400</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>405</v>
@@ -7734,68 +7811,68 @@
         <v>407</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>661</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>663</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>664</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>672</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>673</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -7813,99 +7890,99 @@
         <v>407</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>278</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="V4" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BDFAB2-3006-4873-A56C-1BDEE1C1C1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482CE2C8-452F-4121-B691-B90D14DCAB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="981">
   <si>
     <t>State</t>
   </si>
@@ -1322,9 +1322,6 @@
     <t>https://www.biography.com/crime/natalie-wood-death-mystery</t>
   </si>
   <si>
-    <t>Drake Bell, Actors Nickelodeon</t>
-  </si>
-  <si>
     <t>Film, Nickolodeon Shows</t>
   </si>
   <si>
@@ -2960,9 +2957,6 @@
     <t>Comedians</t>
   </si>
   <si>
-    <t>Kimberly Pandelios, models</t>
-  </si>
-  <si>
     <t>1992-2000s</t>
   </si>
   <si>
@@ -2981,10 +2975,19 @@
     <t>"Witness and (Perpetrator) discussed the ads Rademaker  had placed in magazines and newspapers in which appellant held himself out as a photographer seeking models, as a ruse"</t>
   </si>
   <si>
-    <t>https://casetext.com/case/people-v-rademaker-</t>
-  </si>
-  <si>
     <t>Social, Athlete Girlfriend</t>
+  </si>
+  <si>
+    <t>Actors Nickelodeon, Drake Bell</t>
+  </si>
+  <si>
+    <t>Kimberly Pandelios, Models</t>
+  </si>
+  <si>
+    <t>https://casetext.com/case/people-v-rademaker-1</t>
+  </si>
+  <si>
+    <t>2008-2017</t>
   </si>
 </sst>
 </file>
@@ -4073,7 +4076,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>180</v>
@@ -4324,7 +4327,7 @@
         <v>229</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>230</v>
@@ -4549,7 +4552,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4560,7 +4563,7 @@
         <v>275</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>276</v>
@@ -4574,7 +4577,7 @@
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>279</v>
@@ -4743,10 +4746,10 @@
         <v>309</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="U44" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4826,7 +4829,7 @@
         <v>148</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>325</v>
@@ -4896,7 +4899,7 @@
     </row>
     <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>334</v>
@@ -4908,7 +4911,7 @@
         <v>336</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>218</v>
@@ -4917,7 +4920,7 @@
         <v>337</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5222,134 +5225,134 @@
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B62" t="s">
+        <v>826</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B62" t="s">
+      <c r="F62" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="U62" s="7" t="s">
         <v>827</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>968</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="U62" s="7" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B63" t="s">
+        <v>892</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>835</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>220</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U63" s="7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="V63" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="W63" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B64" t="s">
+        <v>897</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="T64" t="s">
+        <v>896</v>
+      </c>
+      <c r="U64" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="B64" t="s">
+      <c r="V64" s="7" t="s">
         <v>898</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="T64" t="s">
-        <v>897</v>
-      </c>
-      <c r="U64" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="V64" s="7" t="s">
-        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -5506,7 +5509,7 @@
         <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C2">
         <v>1954</v>
@@ -5538,7 +5541,7 @@
         <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C3">
         <v>2008</v>
@@ -5562,7 +5565,7 @@
         <v>159</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -5606,37 +5609,37 @@
         <v>407</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>425</v>
+        <v>977</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="T5" s="1"/>
     </row>
@@ -5649,34 +5652,34 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -5694,40 +5697,40 @@
     </row>
     <row r="7" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C7" s="1">
         <v>2009</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="R7" s="7" t="s">
         <v>869</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -5735,73 +5738,73 @@
         <v>407</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="K8" s="1"/>
       <c r="M8" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>251</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="S9" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -5809,28 +5812,28 @@
         <v>407</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>159</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -5838,10 +5841,10 @@
         <v>407</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>32</v>
@@ -5850,110 +5853,110 @@
         <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="C12" s="1">
         <v>2022</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>140</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
@@ -5962,10 +5965,10 @@
         <v>126</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -5973,13 +5976,13 @@
         <v>407</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C15" s="1">
         <v>1977</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>21</v>
@@ -5991,96 +5994,105 @@
         <v>339</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>505</v>
-      </c>
     </row>
     <row r="16" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>407</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>508</v>
+      <c r="B16" t="s">
+        <v>978</v>
+      </c>
+      <c r="C16" t="s">
+        <v>970</v>
+      </c>
+      <c r="D16" t="s">
+        <v>971</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>972</v>
+      </c>
+      <c r="I16" t="s">
+        <v>973</v>
+      </c>
+      <c r="J16" t="s">
+        <v>974</v>
+      </c>
+      <c r="P16" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>975</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>509</v>
+        <v>407</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>510</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>512</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>513</v>
+        <v>64</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>515</v>
+        <v>140</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>407</v>
+        <v>508</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2017</v>
+        <v>509</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>198</v>
+        <v>510</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>339</v>
+        <v>512</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>140</v>
+        <v>513</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>504</v>
+        <v>515</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -6088,34 +6100,28 @@
         <v>407</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C19" s="1">
-        <v>1982</v>
+        <v>2017</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>198</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>518</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>518</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>521</v>
+        <v>339</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>525</v>
+        <v>140</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -6123,270 +6129,270 @@
         <v>407</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1982</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>979</v>
+        <v>198</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>868</v>
+        <v>521</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>530</v>
+        <v>407</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>497</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>496</v>
+      </c>
+      <c r="B23" t="s">
+        <v>699</v>
+      </c>
+      <c r="C23" t="s">
         <v>700</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D23" t="s">
         <v>701</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E23" t="s">
         <v>702</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F23" t="s">
         <v>703</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G23" t="s">
         <v>704</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J23" t="s">
         <v>705</v>
       </c>
-      <c r="J22" t="s">
+      <c r="P23" t="s">
         <v>706</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q23" t="s">
         <v>707</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S23" t="s">
         <v>708</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T23" t="s">
         <v>709</v>
-      </c>
-      <c r="T22" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="C23" t="s">
-        <v>860</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="M23" t="s">
-        <v>863</v>
-      </c>
-      <c r="P23" t="s">
-        <v>864</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>865</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>407</v>
+        <v>915</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>917</v>
+        <v>875</v>
       </c>
       <c r="C24" t="s">
-        <v>914</v>
+        <v>859</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="E24" t="s">
+        <v>877</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>413</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>911</v>
+        <v>860</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>919</v>
+        <v>861</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>918</v>
+        <v>876</v>
       </c>
       <c r="M24" t="s">
-        <v>913</v>
+        <v>862</v>
       </c>
       <c r="P24" t="s">
-        <v>915</v>
+        <v>863</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>864</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>912</v>
+        <v>865</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>920</v>
+        <v>407</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="C25" t="s">
-        <v>921</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>969</v>
-      </c>
-      <c r="E25" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="E25" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>413</v>
+        <v>21</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>942</v>
+        <v>908</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="K25" t="s">
-        <v>923</v>
+        <v>918</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="M25" t="s">
+        <v>912</v>
       </c>
       <c r="P25" t="s">
-        <v>941</v>
+        <v>914</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>750</v>
+        <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>938</v>
+        <v>924</v>
+      </c>
+      <c r="C26" t="s">
+        <v>920</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>970</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
+        <v>968</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="H26" t="s">
-        <v>715</v>
+        <v>941</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="K26" t="s">
-        <v>243</v>
+        <v>922</v>
       </c>
       <c r="P26" t="s">
         <v>940</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>407</v>
-      </c>
-      <c r="B27" t="s">
-        <v>971</v>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>937</v>
       </c>
       <c r="C27" t="s">
-        <v>972</v>
-      </c>
-      <c r="D27" t="s">
-        <v>973</v>
+        <v>980</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>969</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
       </c>
-      <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>974</v>
-      </c>
-      <c r="I27" t="s">
-        <v>975</v>
-      </c>
-      <c r="J27" t="s">
-        <v>976</v>
+      <c r="G27" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="H27" t="s">
+        <v>714</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="K27" t="s">
+        <v>243</v>
       </c>
       <c r="P27" t="s">
-        <v>920</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>977</v>
-      </c>
-      <c r="S27" t="s">
-        <v>978</v>
+        <v>939</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -6403,23 +6409,24 @@
     <hyperlink ref="S13" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="S15" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
     <hyperlink ref="T15" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="S16" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="S17" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="T17" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="S18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="S19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="S23" r:id="rId18" xr:uid="{E5BCF9ED-607A-46EF-8724-94F855B2D18D}"/>
-    <hyperlink ref="S21" r:id="rId19" xr:uid="{53A58021-42F2-4118-AA91-960F1BA9DD23}"/>
-    <hyperlink ref="S20" r:id="rId20" xr:uid="{81F18DB6-CC15-45BF-9272-BAEEBEC74C3F}"/>
+    <hyperlink ref="S17" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="S18" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="T18" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="S19" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="S20" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="S24" r:id="rId18" xr:uid="{E5BCF9ED-607A-46EF-8724-94F855B2D18D}"/>
+    <hyperlink ref="S22" r:id="rId19" xr:uid="{53A58021-42F2-4118-AA91-960F1BA9DD23}"/>
+    <hyperlink ref="S21" r:id="rId20" xr:uid="{81F18DB6-CC15-45BF-9272-BAEEBEC74C3F}"/>
     <hyperlink ref="R7" r:id="rId21" xr:uid="{0F81DC5F-CBCB-4EB0-AB57-9021F64FDEB1}"/>
     <hyperlink ref="S3" r:id="rId22" xr:uid="{31F33453-AA5C-4FED-AC94-E36CA0B8399F}"/>
     <hyperlink ref="S6" r:id="rId23" xr:uid="{EA53A0A6-3354-4DA6-931D-0032968C97B6}"/>
     <hyperlink ref="S14" r:id="rId24" xr:uid="{4D6573F2-1EA9-4E08-A52B-E468B8460EE1}"/>
     <hyperlink ref="S9" r:id="rId25" xr:uid="{8D608921-968E-4F1A-BF18-7DBD51C776E6}"/>
-    <hyperlink ref="S24" r:id="rId26" xr:uid="{3046D3BB-35E6-4472-9DFC-58B3D4025E50}"/>
-    <hyperlink ref="S26" r:id="rId27" xr:uid="{AA49850F-C204-4CF2-AA22-0FE75057F0C1}"/>
-    <hyperlink ref="S25" r:id="rId28" xr:uid="{A07BEB9F-AD30-48DF-A8C7-48386BC6B3EC}"/>
-    <hyperlink ref="T23" r:id="rId29" xr:uid="{CE505C40-EDF1-4329-9994-25E21C9C0708}"/>
+    <hyperlink ref="S25" r:id="rId26" xr:uid="{3046D3BB-35E6-4472-9DFC-58B3D4025E50}"/>
+    <hyperlink ref="S27" r:id="rId27" xr:uid="{AA49850F-C204-4CF2-AA22-0FE75057F0C1}"/>
+    <hyperlink ref="S26" r:id="rId28" xr:uid="{A07BEB9F-AD30-48DF-A8C7-48386BC6B3EC}"/>
+    <hyperlink ref="T24" r:id="rId29" xr:uid="{CE505C40-EDF1-4329-9994-25E21C9C0708}"/>
+    <hyperlink ref="S16" r:id="rId30" xr:uid="{0833BB32-4942-4B5F-865D-728E4A58B43D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6438,7 +6445,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6447,40 +6454,40 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E1" t="s">
         <v>535</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>536</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>537</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>538</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>539</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>540</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>541</v>
-      </c>
-      <c r="K1" t="s">
-        <v>542</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>542</v>
+      </c>
+      <c r="N1" t="s">
         <v>543</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>544</v>
-      </c>
-      <c r="O1" t="s">
-        <v>545</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -6497,7 +6504,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -6506,22 +6513,22 @@
         <v>1954</v>
       </c>
       <c r="D2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E2" t="s">
         <v>547</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>548</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>549</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>550</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>551</v>
-      </c>
-      <c r="O2" t="s">
-        <v>552</v>
       </c>
       <c r="S2" t="s">
         <v>411</v>
@@ -6529,153 +6536,153 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E3" t="s">
         <v>554</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>555</v>
-      </c>
-      <c r="F3" t="s">
-        <v>556</v>
       </c>
       <c r="G3" t="s">
         <v>209</v>
       </c>
       <c r="L3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>776</v>
+      </c>
+      <c r="D4" t="s">
+        <v>713</v>
+      </c>
+      <c r="E4" t="s">
         <v>558</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>777</v>
-      </c>
-      <c r="D4" t="s">
-        <v>714</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>559</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>560</v>
-      </c>
-      <c r="G4" t="s">
-        <v>561</v>
       </c>
       <c r="I4" t="s">
         <v>159</v>
       </c>
       <c r="K4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L4" t="s">
+        <v>561</v>
+      </c>
+      <c r="O4" t="s">
+        <v>551</v>
+      </c>
+      <c r="S4" t="s">
         <v>562</v>
-      </c>
-      <c r="O4" t="s">
-        <v>552</v>
-      </c>
-      <c r="S4" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>842</v>
+      </c>
+      <c r="D5" t="s">
+        <v>841</v>
+      </c>
+      <c r="E5" t="s">
+        <v>831</v>
+      </c>
+      <c r="F5" t="s">
         <v>843</v>
       </c>
-      <c r="D5" t="s">
-        <v>842</v>
-      </c>
-      <c r="E5" t="s">
-        <v>832</v>
-      </c>
-      <c r="F5" t="s">
-        <v>844</v>
-      </c>
       <c r="G5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
       <c r="D6" t="s">
+        <v>715</v>
+      </c>
+      <c r="E6" t="s">
         <v>716</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>717</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>718</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>719</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>551</v>
+      </c>
+      <c r="K6" t="s">
         <v>720</v>
       </c>
-      <c r="I6" t="s">
-        <v>552</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>721</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>722</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
+        <v>551</v>
+      </c>
+      <c r="P6" t="s">
+        <v>719</v>
+      </c>
+      <c r="S6" t="s">
         <v>723</v>
-      </c>
-      <c r="O6" t="s">
-        <v>552</v>
-      </c>
-      <c r="P6" t="s">
-        <v>720</v>
-      </c>
-      <c r="S6" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -6687,22 +6694,22 @@
         <v>159</v>
       </c>
       <c r="E7" t="s">
+        <v>724</v>
+      </c>
+      <c r="F7" t="s">
         <v>725</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>726</v>
-      </c>
-      <c r="G7" t="s">
-        <v>727</v>
       </c>
       <c r="I7" t="s">
         <v>159</v>
       </c>
       <c r="J7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L7" t="s">
         <v>141</v>
@@ -6711,18 +6718,18 @@
         <v>408</v>
       </c>
       <c r="N7" t="s">
+        <v>727</v>
+      </c>
+      <c r="O7" t="s">
         <v>728</v>
       </c>
-      <c r="O7" t="s">
-        <v>729</v>
-      </c>
       <c r="S7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -6734,136 +6741,136 @@
         <v>159</v>
       </c>
       <c r="E8" t="s">
+        <v>730</v>
+      </c>
+      <c r="I8" t="s">
+        <v>551</v>
+      </c>
+      <c r="J8" t="s">
         <v>731</v>
       </c>
-      <c r="I8" t="s">
-        <v>552</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>732</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>722</v>
+      </c>
+      <c r="O8" t="s">
+        <v>551</v>
+      </c>
+      <c r="S8" t="s">
         <v>733</v>
-      </c>
-      <c r="M8" t="s">
-        <v>723</v>
-      </c>
-      <c r="O8" t="s">
-        <v>552</v>
-      </c>
-      <c r="S8" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D9" t="s">
+        <v>761</v>
+      </c>
+      <c r="E9" t="s">
+        <v>763</v>
+      </c>
+      <c r="F9" t="s">
+        <v>764</v>
+      </c>
+      <c r="G9" t="s">
+        <v>765</v>
+      </c>
+      <c r="I9" t="s">
+        <v>767</v>
+      </c>
+      <c r="L9" t="s">
         <v>762</v>
       </c>
-      <c r="E9" t="s">
-        <v>764</v>
-      </c>
-      <c r="F9" t="s">
-        <v>765</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="O9" t="s">
         <v>766</v>
       </c>
-      <c r="I9" t="s">
-        <v>768</v>
-      </c>
-      <c r="L9" t="s">
-        <v>763</v>
-      </c>
-      <c r="O9" t="s">
-        <v>767</v>
-      </c>
       <c r="R9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
+        <v>734</v>
+      </c>
+      <c r="D10" t="s">
         <v>735</v>
-      </c>
-      <c r="D10" t="s">
-        <v>736</v>
       </c>
       <c r="E10" t="s">
         <v>155</v>
       </c>
       <c r="F10" t="s">
+        <v>735</v>
+      </c>
+      <c r="G10" t="s">
         <v>736</v>
-      </c>
-      <c r="G10" t="s">
-        <v>737</v>
       </c>
       <c r="I10" t="s">
         <v>159</v>
       </c>
       <c r="J10" t="s">
+        <v>737</v>
+      </c>
+      <c r="L10" t="s">
         <v>738</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>739</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>740</v>
       </c>
-      <c r="O10" t="s">
+      <c r="S10" t="s">
         <v>741</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>742</v>
-      </c>
-      <c r="T10" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C11">
         <v>2024</v>
       </c>
       <c r="D11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E11" t="s">
+        <v>564</v>
+      </c>
+      <c r="F11" t="s">
         <v>565</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>566</v>
-      </c>
-      <c r="G11" t="s">
-        <v>567</v>
       </c>
       <c r="I11" t="s">
         <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S11" t="s">
         <v>123</v>
@@ -6871,7 +6878,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -6880,203 +6887,203 @@
         <v>2020</v>
       </c>
       <c r="D12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F12" t="s">
+        <v>569</v>
+      </c>
+      <c r="L12" t="s">
         <v>570</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>571</v>
       </c>
-      <c r="O12" t="s">
-        <v>572</v>
-      </c>
       <c r="S12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>806</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
         <v>807</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>808</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>547</v>
+      </c>
+      <c r="F13" t="s">
         <v>809</v>
       </c>
-      <c r="E13" t="s">
-        <v>548</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="L13" t="s">
         <v>810</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
+        <v>851</v>
+      </c>
+      <c r="S13" s="7" t="s">
         <v>811</v>
-      </c>
-      <c r="O13" t="s">
-        <v>852</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C14">
         <v>2024</v>
       </c>
       <c r="D14" t="s">
+        <v>848</v>
+      </c>
+      <c r="E14" t="s">
+        <v>844</v>
+      </c>
+      <c r="F14" t="s">
+        <v>846</v>
+      </c>
+      <c r="L14" t="s">
+        <v>847</v>
+      </c>
+      <c r="R14" s="7" t="s">
         <v>849</v>
-      </c>
-      <c r="E14" t="s">
-        <v>845</v>
-      </c>
-      <c r="F14" t="s">
-        <v>847</v>
-      </c>
-      <c r="L14" t="s">
-        <v>848</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>850</v>
       </c>
       <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>578</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>579</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>580</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>821</v>
+      </c>
+      <c r="F15" t="s">
         <v>581</v>
       </c>
-      <c r="E15" t="s">
-        <v>822</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>582</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>583</v>
-      </c>
-      <c r="I15" t="s">
-        <v>584</v>
       </c>
       <c r="L15" t="s">
         <v>231</v>
       </c>
       <c r="O15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
+        <v>584</v>
+      </c>
+      <c r="D16" t="s">
         <v>585</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>748</v>
+      </c>
+      <c r="F16" t="s">
         <v>586</v>
       </c>
-      <c r="E16" t="s">
-        <v>749</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>587</v>
-      </c>
-      <c r="G16" t="s">
-        <v>588</v>
       </c>
       <c r="I16" t="s">
         <v>414</v>
       </c>
       <c r="K16" t="s">
+        <v>588</v>
+      </c>
+      <c r="L16" t="s">
         <v>589</v>
       </c>
-      <c r="L16" t="s">
-        <v>590</v>
-      </c>
       <c r="O16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="T16" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D17" t="s">
+        <v>752</v>
+      </c>
+      <c r="E17" t="s">
         <v>753</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>754</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>755</v>
       </c>
-      <c r="G17" t="s">
+      <c r="L17" t="s">
+        <v>758</v>
+      </c>
+      <c r="R17" t="s">
         <v>756</v>
       </c>
-      <c r="L17" t="s">
-        <v>759</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>757</v>
-      </c>
-      <c r="S17" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>592</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>744</v>
+      </c>
+      <c r="E18" t="s">
+        <v>745</v>
+      </c>
+      <c r="F18" t="s">
         <v>593</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>745</v>
-      </c>
-      <c r="E18" t="s">
-        <v>746</v>
-      </c>
-      <c r="F18" t="s">
-        <v>594</v>
       </c>
       <c r="I18" t="s">
         <v>414</v>
@@ -7085,111 +7092,111 @@
         <v>231</v>
       </c>
       <c r="O18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R18" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
+        <v>771</v>
+      </c>
+      <c r="D19" t="s">
+        <v>769</v>
+      </c>
+      <c r="E19" t="s">
+        <v>770</v>
+      </c>
+      <c r="F19" t="s">
+        <v>774</v>
+      </c>
+      <c r="G19" t="s">
+        <v>773</v>
+      </c>
+      <c r="J19" t="s">
         <v>772</v>
       </c>
-      <c r="D19" t="s">
-        <v>770</v>
-      </c>
-      <c r="E19" t="s">
-        <v>771</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="L19" t="s">
         <v>775</v>
       </c>
-      <c r="G19" t="s">
-        <v>774</v>
-      </c>
-      <c r="J19" t="s">
-        <v>773</v>
-      </c>
-      <c r="L19" t="s">
-        <v>776</v>
-      </c>
       <c r="O19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="S19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>852</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>842</v>
+      </c>
+      <c r="D20" t="s">
+        <v>854</v>
+      </c>
+      <c r="E20" t="s">
         <v>853</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>843</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>855</v>
       </c>
-      <c r="E20" t="s">
-        <v>854</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="L20" t="s">
+        <v>775</v>
+      </c>
+      <c r="O20" t="s">
         <v>856</v>
       </c>
-      <c r="L20" t="s">
-        <v>776</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="R20" s="7" t="s">
         <v>857</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>572</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>965</v>
+      </c>
+      <c r="E21" t="s">
         <v>573</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>966</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>574</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>575</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>576</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>577</v>
       </c>
-      <c r="L21" t="s">
-        <v>578</v>
-      </c>
       <c r="O21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -7198,193 +7205,193 @@
         <v>245</v>
       </c>
       <c r="E22" t="s">
+        <v>594</v>
+      </c>
+      <c r="F22" t="s">
         <v>595</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>596</v>
       </c>
-      <c r="G22" t="s">
+      <c r="K22" t="s">
         <v>597</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>598</v>
       </c>
-      <c r="L22" t="s">
+      <c r="S22" t="s">
         <v>599</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>600</v>
-      </c>
-      <c r="T22" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>601</v>
+      </c>
+      <c r="B23" t="s">
+        <v>954</v>
+      </c>
+      <c r="C23" t="s">
         <v>602</v>
       </c>
-      <c r="B23" t="s">
-        <v>955</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>603</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>604</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>605</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>606</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>607</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>608</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>609</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>610</v>
       </c>
-      <c r="M23" t="s">
-        <v>611</v>
-      </c>
       <c r="O23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S23" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>905</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>902</v>
+      </c>
+      <c r="E24" t="s">
         <v>906</v>
       </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>907</v>
+      </c>
+      <c r="L24" t="s">
+        <v>901</v>
+      </c>
+      <c r="O24" t="s">
         <v>903</v>
       </c>
-      <c r="E24" t="s">
-        <v>907</v>
-      </c>
-      <c r="F24" t="s">
-        <v>908</v>
-      </c>
-      <c r="L24" t="s">
-        <v>902</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="S24" s="7" t="s">
         <v>904</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>590</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
         <v>591</v>
       </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>592</v>
-      </c>
       <c r="D25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E25" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F25" t="s">
+        <v>790</v>
+      </c>
+      <c r="G25" t="s">
         <v>791</v>
       </c>
-      <c r="G25" t="s">
+      <c r="L25" t="s">
         <v>792</v>
       </c>
-      <c r="L25" t="s">
-        <v>793</v>
-      </c>
       <c r="S25" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B26" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C26">
         <v>2008</v>
       </c>
       <c r="D26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E26" t="s">
         <v>613</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>614</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>615</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
+        <v>576</v>
+      </c>
+      <c r="K26" t="s">
         <v>616</v>
       </c>
-      <c r="I26" t="s">
-        <v>577</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>617</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
+        <v>551</v>
+      </c>
+      <c r="S26" t="s">
         <v>618</v>
       </c>
-      <c r="O26" t="s">
-        <v>552</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
         <v>619</v>
-      </c>
-      <c r="U26" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B27" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D27" t="s">
+        <v>927</v>
+      </c>
+      <c r="E27" t="s">
+        <v>931</v>
+      </c>
+      <c r="F27" t="s">
         <v>928</v>
       </c>
-      <c r="E27" t="s">
+      <c r="L27" t="s">
+        <v>929</v>
+      </c>
+      <c r="O27" t="s">
+        <v>930</v>
+      </c>
+      <c r="S27" s="7" t="s">
         <v>932</v>
-      </c>
-      <c r="F27" t="s">
-        <v>929</v>
-      </c>
-      <c r="L27" t="s">
-        <v>930</v>
-      </c>
-      <c r="O27" t="s">
-        <v>931</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -7393,103 +7400,103 @@
         <v>327</v>
       </c>
       <c r="E28" t="s">
+        <v>621</v>
+      </c>
+      <c r="F28" t="s">
         <v>622</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>623</v>
-      </c>
-      <c r="H28" t="s">
-        <v>624</v>
       </c>
       <c r="L28" t="s">
         <v>141</v>
       </c>
       <c r="S28" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>951</v>
+      </c>
+      <c r="B29" t="s">
+        <v>958</v>
+      </c>
+      <c r="D29" t="s">
+        <v>964</v>
+      </c>
+      <c r="E29" t="s">
+        <v>950</v>
+      </c>
+      <c r="F29" t="s">
+        <v>963</v>
+      </c>
+      <c r="L29" t="s">
         <v>952</v>
       </c>
-      <c r="B29" t="s">
-        <v>959</v>
-      </c>
-      <c r="D29" t="s">
-        <v>965</v>
-      </c>
-      <c r="E29" t="s">
-        <v>951</v>
-      </c>
-      <c r="F29" t="s">
-        <v>964</v>
-      </c>
-      <c r="L29" t="s">
-        <v>953</v>
-      </c>
       <c r="R29" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>624</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
         <v>625</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>626</v>
       </c>
       <c r="E30" t="s">
         <v>327</v>
       </c>
       <c r="F30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G30" t="s">
+        <v>626</v>
+      </c>
+      <c r="K30" t="s">
         <v>627</v>
-      </c>
-      <c r="K30" t="s">
-        <v>628</v>
       </c>
       <c r="L30" t="s">
         <v>347</v>
       </c>
       <c r="M30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N30" t="s">
         <v>239</v>
       </c>
       <c r="R30" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D31" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E31" t="s">
         <v>364</v>
       </c>
       <c r="F31" t="s">
+        <v>630</v>
+      </c>
+      <c r="G31" t="s">
         <v>631</v>
-      </c>
-      <c r="G31" t="s">
-        <v>632</v>
       </c>
       <c r="K31" t="s">
         <v>356</v>
@@ -7498,170 +7505,170 @@
         <v>141</v>
       </c>
       <c r="O31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S31" t="s">
+        <v>750</v>
+      </c>
+      <c r="T31" t="s">
         <v>751</v>
-      </c>
-      <c r="T31" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
       <c r="D32" t="s">
+        <v>632</v>
+      </c>
+      <c r="E32" t="s">
         <v>633</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>634</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>635</v>
       </c>
-      <c r="G32" t="s">
+      <c r="K32" t="s">
         <v>636</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>637</v>
       </c>
-      <c r="L32" t="s">
+      <c r="O32" t="s">
         <v>638</v>
       </c>
-      <c r="O32" t="s">
+      <c r="R32" t="s">
         <v>639</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>640</v>
       </c>
-      <c r="S32" t="s">
+      <c r="U32" t="s">
         <v>641</v>
-      </c>
-      <c r="U32" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>783</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>782</v>
+      </c>
+      <c r="E33" t="s">
         <v>784</v>
       </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>783</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>788</v>
+      </c>
+      <c r="L33" t="s">
+        <v>787</v>
+      </c>
+      <c r="S33" t="s">
+        <v>786</v>
+      </c>
+      <c r="T33" t="s">
         <v>785</v>
-      </c>
-      <c r="F33" t="s">
-        <v>789</v>
-      </c>
-      <c r="L33" t="s">
-        <v>788</v>
-      </c>
-      <c r="S33" t="s">
-        <v>787</v>
-      </c>
-      <c r="T33" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="D34" t="s">
+        <v>942</v>
+      </c>
+      <c r="E34" t="s">
+        <v>953</v>
+      </c>
+      <c r="F34" t="s">
         <v>943</v>
       </c>
-      <c r="E34" t="s">
-        <v>954</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>944</v>
       </c>
-      <c r="G34" t="s">
+      <c r="L34" t="s">
         <v>945</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
+        <v>948</v>
+      </c>
+      <c r="N34" t="s">
+        <v>947</v>
+      </c>
+      <c r="O34" t="s">
+        <v>801</v>
+      </c>
+      <c r="S34" s="7" t="s">
         <v>946</v>
-      </c>
-      <c r="M34" t="s">
-        <v>949</v>
-      </c>
-      <c r="N34" t="s">
-        <v>948</v>
-      </c>
-      <c r="O34" t="s">
-        <v>802</v>
-      </c>
-      <c r="S34" s="7" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>798</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
         <v>799</v>
       </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>795</v>
+      </c>
+      <c r="E35" t="s">
+        <v>802</v>
+      </c>
+      <c r="F35" t="s">
+        <v>804</v>
+      </c>
+      <c r="G35" t="s">
+        <v>803</v>
+      </c>
+      <c r="K35" t="s">
+        <v>796</v>
+      </c>
+      <c r="L35" t="s">
         <v>800</v>
       </c>
-      <c r="D35" t="s">
-        <v>796</v>
-      </c>
-      <c r="E35" t="s">
-        <v>803</v>
-      </c>
-      <c r="F35" t="s">
-        <v>805</v>
-      </c>
-      <c r="G35" t="s">
-        <v>804</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="O35" t="s">
+        <v>801</v>
+      </c>
+      <c r="S35" t="s">
         <v>797</v>
-      </c>
-      <c r="L35" t="s">
-        <v>801</v>
-      </c>
-      <c r="O35" t="s">
-        <v>802</v>
-      </c>
-      <c r="S35" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="D36" t="s">
+        <v>643</v>
+      </c>
+      <c r="E36" t="s">
         <v>644</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>645</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>805</v>
+      </c>
+      <c r="L36" t="s">
         <v>646</v>
-      </c>
-      <c r="G36" t="s">
-        <v>806</v>
-      </c>
-      <c r="L36" t="s">
-        <v>647</v>
       </c>
       <c r="R36" t="s">
         <v>350</v>
@@ -7669,43 +7676,43 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
       </c>
       <c r="C37" t="s">
+        <v>817</v>
+      </c>
+      <c r="D37" t="s">
         <v>818</v>
-      </c>
-      <c r="D37" t="s">
-        <v>819</v>
       </c>
       <c r="E37" t="s">
         <v>360</v>
       </c>
       <c r="F37" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G37" t="s">
+        <v>813</v>
+      </c>
+      <c r="H37" t="s">
         <v>814</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
+        <v>551</v>
+      </c>
+      <c r="K37" t="s">
         <v>815</v>
-      </c>
-      <c r="I37" t="s">
-        <v>552</v>
-      </c>
-      <c r="K37" t="s">
-        <v>816</v>
       </c>
       <c r="L37" t="s">
         <v>362</v>
       </c>
       <c r="O37" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -7752,13 +7759,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>404</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -7785,16 +7792,16 @@
         <v>400</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>405</v>
@@ -7811,68 +7818,68 @@
         <v>407</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>659</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>660</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>663</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>671</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>672</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -7890,99 +7897,99 @@
         <v>407</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>677</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>278</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="V4" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482CE2C8-452F-4121-B691-B90D14DCAB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26E4438-4C4C-4161-BE80-50E67003C327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="988">
   <si>
     <t>State</t>
   </si>
@@ -2989,12 +2989,33 @@
   <si>
     <t>2008-2017</t>
   </si>
+  <si>
+    <t>1990s-2010s</t>
+  </si>
+  <si>
+    <t>2016-2024</t>
+  </si>
+  <si>
+    <t>The Lost Boys</t>
+  </si>
+  <si>
+    <t>https://people.com/tv/corey-haim-mother-names-his-alleged-abuser/</t>
+  </si>
+  <si>
+    <t>2020s/2010s</t>
+  </si>
+  <si>
+    <t>2021-2024</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3019,12 +3040,6 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3071,18 +3086,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3096,20 +3105,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4551,7 +4557,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="7" t="s">
+      <c r="U36" s="6" t="s">
         <v>962</v>
       </c>
     </row>
@@ -4745,10 +4751,10 @@
       <c r="G44" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="T44" s="7" t="s">
+      <c r="T44" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="U44" s="7" t="s">
+      <c r="U44" s="6" t="s">
         <v>933</v>
       </c>
     </row>
@@ -4919,7 +4925,7 @@
       <c r="I51" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="T51" s="7" t="s">
+      <c r="T51" s="6" t="s">
         <v>888</v>
       </c>
     </row>
@@ -5230,7 +5236,7 @@
       <c r="B62" t="s">
         <v>826</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>967</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -5260,7 +5266,7 @@
       <c r="R62" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="U62" s="7" t="s">
+      <c r="U62" s="6" t="s">
         <v>827</v>
       </c>
     </row>
@@ -5301,13 +5307,13 @@
       <c r="R63" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="U63" s="7" t="s">
+      <c r="U63" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="V63" s="7" t="s">
+      <c r="V63" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="W63" s="7" t="s">
+      <c r="W63" s="6" t="s">
         <v>830</v>
       </c>
     </row>
@@ -5348,10 +5354,10 @@
       <c r="T64" t="s">
         <v>896</v>
       </c>
-      <c r="U64" s="7" t="s">
+      <c r="U64" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="V64" s="7" t="s">
+      <c r="V64" s="6" t="s">
         <v>898</v>
       </c>
     </row>
@@ -5433,78 +5439,71 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>395</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>396</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>397</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>398</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>399</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>400</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>401</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>402</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>403</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>404</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>405</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>406</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>407</v>
       </c>
@@ -5536,7 +5535,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>407</v>
       </c>
@@ -5564,446 +5563,428 @@
       <c r="M3" t="s">
         <v>159</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>416</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>417</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>418</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>419</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>420</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>421</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>422</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="2" t="s">
+      <c r="S4" t="s">
         <v>423</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>407</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>977</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>981</v>
+      </c>
+      <c r="D5" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
         <v>426</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>427</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>428</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" t="s">
         <v>429</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="2" t="s">
+      <c r="S5" t="s">
         <v>430</v>
       </c>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6">
+        <v>2009</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>868</v>
+      </c>
+      <c r="G6" t="s">
+        <v>874</v>
+      </c>
+      <c r="J6" t="s">
+        <v>439</v>
+      </c>
+      <c r="K6" t="s">
+        <v>440</v>
+      </c>
+      <c r="P6" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>442</v>
+      </c>
+      <c r="R6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>407</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C7" t="s">
+        <v>913</v>
+      </c>
+      <c r="D7" t="s">
         <v>431</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>432</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
+      <c r="J7" t="s">
         <v>433</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
+      <c r="O7" t="s">
         <v>434</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5" t="s">
+      <c r="Q7" t="s">
         <v>435</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="7" t="s">
+      <c r="S7" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-    </row>
-    <row r="7" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G8" t="s">
+        <v>448</v>
+      </c>
+      <c r="J8" t="s">
+        <v>449</v>
+      </c>
+      <c r="M8" t="s">
+        <v>450</v>
+      </c>
+      <c r="P8" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>452</v>
+      </c>
+      <c r="S8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E9" t="s">
+        <v>458</v>
+      </c>
+      <c r="G9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J9" t="s">
+        <v>459</v>
+      </c>
+      <c r="K9" t="s">
+        <v>460</v>
+      </c>
+      <c r="M9" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>462</v>
+      </c>
+      <c r="S9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>465</v>
+      </c>
+      <c r="J10" t="s">
+        <v>466</v>
+      </c>
+      <c r="M10" t="s">
+        <v>159</v>
+      </c>
+      <c r="S10" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11" t="s">
+        <v>982</v>
+      </c>
+      <c r="D11" t="s">
+        <v>469</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>470</v>
+      </c>
+      <c r="J11" t="s">
+        <v>471</v>
+      </c>
+      <c r="M11" t="s">
+        <v>472</v>
+      </c>
+      <c r="P11" t="s">
+        <v>473</v>
+      </c>
+      <c r="S11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12" t="s">
+        <v>477</v>
+      </c>
+      <c r="E12" t="s">
+        <v>478</v>
+      </c>
+      <c r="F12" t="s">
+        <v>479</v>
+      </c>
+      <c r="G12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H12" t="s">
+        <v>481</v>
+      </c>
+      <c r="I12" t="s">
+        <v>482</v>
+      </c>
+      <c r="J12" t="s">
+        <v>483</v>
+      </c>
+      <c r="K12" t="s">
+        <v>484</v>
+      </c>
+      <c r="N12" t="s">
+        <v>485</v>
+      </c>
+      <c r="O12" t="s">
+        <v>486</v>
+      </c>
+      <c r="P12" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>488</v>
+      </c>
+      <c r="R12" t="s">
+        <v>489</v>
+      </c>
+      <c r="S12" t="s">
+        <v>490</v>
+      </c>
+      <c r="T12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>436</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13">
+        <v>1986</v>
+      </c>
+      <c r="D13" t="s">
+        <v>493</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>494</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" t="s">
+        <v>983</v>
+      </c>
+      <c r="S13" t="s">
+        <v>495</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B14" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" t="s">
+        <v>498</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>499</v>
+      </c>
+      <c r="S14" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>407</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="M8" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>500</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>1977</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>501</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
         <v>339</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>502</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" t="s">
         <v>503</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>407</v>
       </c>
@@ -6037,172 +6018,179 @@
       <c r="Q16" t="s">
         <v>975</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>407</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>505</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>506</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>140</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="S17" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>508</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>509</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>985</v>
+      </c>
+      <c r="D18" t="s">
         <v>510</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>511</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>512</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>513</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" t="s">
         <v>514</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="S18" t="s">
         <v>515</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="T18" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>407</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>517</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>2017</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>518</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>518</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>339</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>140</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="S19" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>407</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>519</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>1982</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>198</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
         <v>520</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>521</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>522</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" t="s">
         <v>523</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" t="s">
         <v>524</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S20" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>407</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>526</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>986</v>
+      </c>
+      <c r="D21" t="s">
         <v>976</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>527</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>528</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="S21" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>529</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>530</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>987</v>
+      </c>
+      <c r="D22" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
         <v>531</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>532</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="6" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>496</v>
       </c>
@@ -6241,31 +6229,31 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>915</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>875</v>
       </c>
       <c r="C24" t="s">
         <v>859</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>877</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
         <v>413</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>860</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" t="s">
         <v>861</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" t="s">
         <v>876</v>
       </c>
       <c r="M24" t="s">
@@ -6277,42 +6265,42 @@
       <c r="Q24" t="s">
         <v>864</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="S24" t="s">
         <v>865</v>
       </c>
-      <c r="T24" s="7" t="s">
+      <c r="T24" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>407</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>916</v>
       </c>
       <c r="C25" t="s">
         <v>913</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>909</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
         <v>908</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>910</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" t="s">
         <v>918</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" t="s">
         <v>917</v>
       </c>
       <c r="M25" t="s">
@@ -6321,33 +6309,33 @@
       <c r="P25" t="s">
         <v>914</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S25" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>919</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>924</v>
       </c>
       <c r="C26" t="s">
         <v>920</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" t="s">
         <v>968</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
         <v>413</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>941</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" t="s">
         <v>921</v>
       </c>
       <c r="K26" t="s">
@@ -6356,33 +6344,33 @@
       <c r="P26" t="s">
         <v>940</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="S26" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>938</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>937</v>
       </c>
       <c r="C27" t="s">
         <v>980</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" t="s">
         <v>969</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>926</v>
       </c>
       <c r="H27" t="s">
         <v>714</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" t="s">
         <v>925</v>
       </c>
       <c r="K27" t="s">
@@ -6391,42 +6379,15 @@
       <c r="P27" t="s">
         <v>939</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="S27" t="s">
         <v>923</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="T4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="S5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="S8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="S10" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="S11" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="R12" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="S12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="T12" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="S13" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="S15" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="T15" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="S17" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="S18" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="T18" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="S19" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="S20" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="S24" r:id="rId18" xr:uid="{E5BCF9ED-607A-46EF-8724-94F855B2D18D}"/>
-    <hyperlink ref="S22" r:id="rId19" xr:uid="{53A58021-42F2-4118-AA91-960F1BA9DD23}"/>
-    <hyperlink ref="S21" r:id="rId20" xr:uid="{81F18DB6-CC15-45BF-9272-BAEEBEC74C3F}"/>
-    <hyperlink ref="R7" r:id="rId21" xr:uid="{0F81DC5F-CBCB-4EB0-AB57-9021F64FDEB1}"/>
-    <hyperlink ref="S3" r:id="rId22" xr:uid="{31F33453-AA5C-4FED-AC94-E36CA0B8399F}"/>
-    <hyperlink ref="S6" r:id="rId23" xr:uid="{EA53A0A6-3354-4DA6-931D-0032968C97B6}"/>
-    <hyperlink ref="S14" r:id="rId24" xr:uid="{4D6573F2-1EA9-4E08-A52B-E468B8460EE1}"/>
-    <hyperlink ref="S9" r:id="rId25" xr:uid="{8D608921-968E-4F1A-BF18-7DBD51C776E6}"/>
-    <hyperlink ref="S25" r:id="rId26" xr:uid="{3046D3BB-35E6-4472-9DFC-58B3D4025E50}"/>
-    <hyperlink ref="S27" r:id="rId27" xr:uid="{AA49850F-C204-4CF2-AA22-0FE75057F0C1}"/>
-    <hyperlink ref="S26" r:id="rId28" xr:uid="{A07BEB9F-AD30-48DF-A8C7-48386BC6B3EC}"/>
-    <hyperlink ref="T24" r:id="rId29" xr:uid="{CE505C40-EDF1-4329-9994-25E21C9C0708}"/>
-    <hyperlink ref="S16" r:id="rId30" xr:uid="{0833BB32-4942-4B5F-865D-728E4A58B43D}"/>
+    <hyperlink ref="S22" r:id="rId1" xr:uid="{EAFEFA7F-672C-4012-82CA-F2828833DF8D}"/>
+    <hyperlink ref="S7" r:id="rId2" xr:uid="{D875509E-9299-4035-8A68-E1124FC53806}"/>
+    <hyperlink ref="T13" r:id="rId3" xr:uid="{A92F508D-067A-491E-B5A9-6B41E06C580C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6629,7 +6590,7 @@
       <c r="L5" t="s">
         <v>858</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="6" t="s">
         <v>857</v>
       </c>
     </row>
@@ -6930,7 +6891,7 @@
       <c r="O13" t="s">
         <v>851</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="6" t="s">
         <v>811</v>
       </c>
     </row>
@@ -6956,10 +6917,10 @@
       <c r="L14" t="s">
         <v>847</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="S14" s="7"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -7158,7 +7119,7 @@
       <c r="O20" t="s">
         <v>856</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="R20" s="6" t="s">
         <v>857</v>
       </c>
     </row>
@@ -7289,7 +7250,7 @@
       <c r="O24" t="s">
         <v>903</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="S24" s="6" t="s">
         <v>904</v>
       </c>
     </row>
@@ -7385,7 +7346,7 @@
       <c r="O27" t="s">
         <v>930</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="S27" s="6" t="s">
         <v>932</v>
       </c>
     </row>
@@ -7434,10 +7395,10 @@
       <c r="L29" t="s">
         <v>952</v>
       </c>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="S29" s="6" t="s">
         <v>960</v>
       </c>
     </row>
@@ -7609,7 +7570,7 @@
       <c r="O34" t="s">
         <v>801</v>
       </c>
-      <c r="S34" s="7" t="s">
+      <c r="S34" s="6" t="s">
         <v>946</v>
       </c>
     </row>
@@ -7711,7 +7672,7 @@
       <c r="O37" t="s">
         <v>819</v>
       </c>
-      <c r="S37" s="7" t="s">
+      <c r="S37" s="6" t="s">
         <v>816</v>
       </c>
     </row>
@@ -7814,83 +7775,83 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26E4438-4C4C-4161-BE80-50E67003C327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9351980C-D3B5-45A7-8264-2BA8AB01833D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="989">
   <si>
     <t>State</t>
   </si>
@@ -3009,6 +3009,9 @@
   </si>
   <si>
     <t>2018-2019</t>
+  </si>
+  <si>
+    <t>1991-</t>
   </si>
 </sst>
 </file>
@@ -5936,6 +5939,9 @@
       <c r="B14" t="s">
         <v>497</v>
       </c>
+      <c r="C14" t="s">
+        <v>988</v>
+      </c>
       <c r="D14" t="s">
         <v>498</v>
       </c>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9351980C-D3B5-45A7-8264-2BA8AB01833D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B285E11-B98E-4194-BB40-7312D0EEBC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="993">
   <si>
     <t>State</t>
   </si>
@@ -3012,6 +3012,18 @@
   </si>
   <si>
     <t>1991-</t>
+  </si>
+  <si>
+    <t>Employees, Actors, Blake Stuerman</t>
+  </si>
+  <si>
+    <t>19902-2020s</t>
+  </si>
+  <si>
+    <t>Abuse, Hostile Environment, Sexual Assault</t>
+  </si>
+  <si>
+    <t>https://www.rollingstone.com/culture/culture-news/bryan-singer-abuse-allegations-blake-stuerman-1274239/</t>
   </si>
 </sst>
 </file>
@@ -6033,7 +6045,10 @@
         <v>407</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>989</v>
+      </c>
+      <c r="C17" t="s">
+        <v>990</v>
       </c>
       <c r="D17" t="s">
         <v>505</v>
@@ -6045,10 +6060,13 @@
         <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>991</v>
       </c>
       <c r="S17" t="s">
         <v>507</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -6391,9 +6409,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S22" r:id="rId1" xr:uid="{EAFEFA7F-672C-4012-82CA-F2828833DF8D}"/>
-    <hyperlink ref="S7" r:id="rId2" xr:uid="{D875509E-9299-4035-8A68-E1124FC53806}"/>
-    <hyperlink ref="T13" r:id="rId3" xr:uid="{A92F508D-067A-491E-B5A9-6B41E06C580C}"/>
+    <hyperlink ref="S22" r:id="rId1" xr:uid="{C64C5A0E-BE3B-4B8A-8C4E-BD742DC54A3A}"/>
+    <hyperlink ref="S7" r:id="rId2" xr:uid="{0544146B-9426-499D-B186-EC2DB666B8EB}"/>
+    <hyperlink ref="T13" r:id="rId3" xr:uid="{2B873B9C-E240-43D4-914E-F504D4781831}"/>
+    <hyperlink ref="T17" r:id="rId4" xr:uid="{C6F052E8-E638-46BD-97BF-F4AFC55CC309}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B285E11-B98E-4194-BB40-7312D0EEBC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665AA44F-B27D-4B65-BDA0-69BF6FCD8EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1508,9 +1508,6 @@
     <t>Attorney, Arts Lawsuits, Videos Online</t>
   </si>
   <si>
-    <t>Conservatorship</t>
-  </si>
-  <si>
     <t>#FreeBam</t>
   </si>
   <si>
@@ -3024,6 +3021,9 @@
   </si>
   <si>
     <t>https://www.rollingstone.com/culture/culture-news/bryan-singer-abuse-allegations-blake-stuerman-1274239/</t>
+  </si>
+  <si>
+    <t>Medical, Expliotation, Conservatorship</t>
   </si>
 </sst>
 </file>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>180</v>
@@ -4348,7 +4348,7 @@
         <v>229</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>230</v>
@@ -4573,7 +4573,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4584,7 +4584,7 @@
         <v>275</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>276</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>279</v>
@@ -4767,10 +4767,10 @@
         <v>309</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="U44" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4850,7 +4850,7 @@
         <v>148</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>325</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>334</v>
@@ -4932,7 +4932,7 @@
         <v>336</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>218</v>
@@ -4941,7 +4941,7 @@
         <v>337</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5246,134 +5246,134 @@
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B62" t="s">
+        <v>825</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B62" t="s">
+      <c r="F62" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="U62" s="6" t="s">
         <v>826</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>967</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="U62" s="6" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B63" t="s">
+        <v>891</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>834</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>220</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="V63" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="W63" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B64" t="s">
+        <v>896</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="T64" t="s">
+        <v>895</v>
+      </c>
+      <c r="U64" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="B64" t="s">
+      <c r="V64" s="6" t="s">
         <v>897</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="T64" t="s">
-        <v>896</v>
-      </c>
-      <c r="U64" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="V64" s="6" t="s">
-        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +5523,7 @@
         <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C2">
         <v>1954</v>
@@ -5555,7 +5555,7 @@
         <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C3">
         <v>2008</v>
@@ -5579,7 +5579,7 @@
         <v>159</v>
       </c>
       <c r="S3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -5622,10 +5622,10 @@
         <v>407</v>
       </c>
       <c r="B5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D5" t="s">
         <v>425</v>
@@ -5666,10 +5666,10 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J6" t="s">
         <v>439</v>
@@ -5684,7 +5684,7 @@
         <v>442</v>
       </c>
       <c r="R6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -5695,7 +5695,7 @@
         <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D7" t="s">
         <v>431</v>
@@ -5716,7 +5716,7 @@
         <v>435</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -5789,7 +5789,7 @@
         <v>462</v>
       </c>
       <c r="S9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -5829,7 +5829,7 @@
         <v>468</v>
       </c>
       <c r="C11" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D11" t="s">
         <v>469</v>
@@ -5897,19 +5897,19 @@
         <v>486</v>
       </c>
       <c r="P12" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q12" t="s">
         <v>487</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>488</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>489</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>490</v>
-      </c>
-      <c r="T12" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -5917,45 +5917,45 @@
         <v>436</v>
       </c>
       <c r="B13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C13">
         <v>1986</v>
       </c>
       <c r="D13" t="s">
+        <v>492</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>493</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>494</v>
       </c>
       <c r="J13" t="s">
         <v>140</v>
       </c>
       <c r="P13" t="s">
+        <v>982</v>
+      </c>
+      <c r="S13" t="s">
+        <v>494</v>
+      </c>
+      <c r="T13" s="6" t="s">
         <v>983</v>
-      </c>
-      <c r="S13" t="s">
-        <v>495</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>495</v>
+      </c>
+      <c r="B14" t="s">
         <v>496</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>987</v>
+      </c>
+      <c r="D14" t="s">
         <v>497</v>
-      </c>
-      <c r="C14" t="s">
-        <v>988</v>
-      </c>
-      <c r="D14" t="s">
-        <v>498</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -5964,10 +5964,10 @@
         <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="S14" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -5975,13 +5975,13 @@
         <v>407</v>
       </c>
       <c r="B15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C15">
         <v>1977</v>
       </c>
       <c r="D15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -5993,13 +5993,13 @@
         <v>339</v>
       </c>
       <c r="J15" t="s">
+        <v>501</v>
+      </c>
+      <c r="S15" t="s">
         <v>502</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>503</v>
-      </c>
-      <c r="T15" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -6007,37 +6007,37 @@
         <v>407</v>
       </c>
       <c r="B16" t="s">
+        <v>977</v>
+      </c>
+      <c r="C16" t="s">
+        <v>969</v>
+      </c>
+      <c r="D16" t="s">
+        <v>970</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>971</v>
+      </c>
+      <c r="I16" t="s">
+        <v>972</v>
+      </c>
+      <c r="J16" t="s">
+        <v>973</v>
+      </c>
+      <c r="P16" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>974</v>
+      </c>
+      <c r="S16" t="s">
         <v>978</v>
-      </c>
-      <c r="C16" t="s">
-        <v>970</v>
-      </c>
-      <c r="D16" t="s">
-        <v>971</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>972</v>
-      </c>
-      <c r="I16" t="s">
-        <v>973</v>
-      </c>
-      <c r="J16" t="s">
-        <v>974</v>
-      </c>
-      <c r="P16" t="s">
-        <v>919</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>975</v>
-      </c>
-      <c r="S16" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -6045,60 +6045,60 @@
         <v>407</v>
       </c>
       <c r="B17" t="s">
+        <v>988</v>
+      </c>
+      <c r="C17" t="s">
         <v>989</v>
       </c>
-      <c r="C17" t="s">
-        <v>990</v>
-      </c>
       <c r="D17" t="s">
+        <v>504</v>
+      </c>
+      <c r="E17" t="s">
         <v>505</v>
-      </c>
-      <c r="E17" t="s">
-        <v>506</v>
       </c>
       <c r="G17" t="s">
         <v>64</v>
       </c>
       <c r="J17" t="s">
+        <v>990</v>
+      </c>
+      <c r="S17" t="s">
+        <v>506</v>
+      </c>
+      <c r="T17" s="6" t="s">
         <v>991</v>
-      </c>
-      <c r="S17" t="s">
-        <v>507</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>507</v>
+      </c>
+      <c r="B18" t="s">
         <v>508</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>984</v>
+      </c>
+      <c r="D18" t="s">
         <v>509</v>
       </c>
-      <c r="C18" t="s">
-        <v>985</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>510</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>511</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>512</v>
       </c>
-      <c r="J18" t="s">
+      <c r="Q18" t="s">
         <v>513</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>514</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>515</v>
-      </c>
-      <c r="T18" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -6106,7 +6106,7 @@
         <v>407</v>
       </c>
       <c r="B19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C19">
         <v>2017</v>
@@ -6115,10 +6115,10 @@
         <v>198</v>
       </c>
       <c r="E19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G19" t="s">
         <v>339</v>
@@ -6127,7 +6127,7 @@
         <v>140</v>
       </c>
       <c r="S19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -6135,7 +6135,7 @@
         <v>407</v>
       </c>
       <c r="B20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C20">
         <v>1982</v>
@@ -6147,22 +6147,22 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
+        <v>519</v>
+      </c>
+      <c r="J20" t="s">
         <v>520</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>521</v>
       </c>
-      <c r="K20" t="s">
+      <c r="P20" t="s">
         <v>522</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>523</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>524</v>
-      </c>
-      <c r="S20" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -6170,33 +6170,33 @@
         <v>407</v>
       </c>
       <c r="B21" t="s">
+        <v>525</v>
+      </c>
+      <c r="C21" t="s">
+        <v>985</v>
+      </c>
+      <c r="D21" t="s">
+        <v>975</v>
+      </c>
+      <c r="G21" t="s">
         <v>526</v>
       </c>
-      <c r="C21" t="s">
-        <v>986</v>
-      </c>
-      <c r="D21" t="s">
-        <v>976</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
         <v>527</v>
       </c>
-      <c r="J21" t="s">
-        <v>528</v>
-      </c>
       <c r="S21" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B22" t="s">
         <v>529</v>
       </c>
-      <c r="B22" t="s">
-        <v>530</v>
-      </c>
       <c r="C22" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D22" t="s">
         <v>198</v>
@@ -6205,65 +6205,65 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
+        <v>530</v>
+      </c>
+      <c r="J22" t="s">
         <v>531</v>
       </c>
-      <c r="J22" t="s">
-        <v>532</v>
-      </c>
       <c r="S22" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B23" t="s">
+        <v>698</v>
+      </c>
+      <c r="C23" t="s">
         <v>699</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>700</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>701</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>702</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>703</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>704</v>
       </c>
-      <c r="J23" t="s">
+      <c r="P23" t="s">
         <v>705</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>706</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>707</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>708</v>
-      </c>
-      <c r="T23" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B24" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C24" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D24" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -6272,28 +6272,28 @@
         <v>413</v>
       </c>
       <c r="G24" t="s">
+        <v>859</v>
+      </c>
+      <c r="J24" t="s">
         <v>860</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>875</v>
+      </c>
+      <c r="M24" t="s">
         <v>861</v>
       </c>
-      <c r="K24" t="s">
-        <v>876</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="P24" t="s">
         <v>862</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>863</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>864</v>
       </c>
-      <c r="S24" t="s">
-        <v>865</v>
-      </c>
       <c r="T24" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6301,54 +6301,54 @@
         <v>407</v>
       </c>
       <c r="B25" t="s">
+        <v>915</v>
+      </c>
+      <c r="C25" t="s">
+        <v>912</v>
+      </c>
+      <c r="D25" t="s">
+        <v>908</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>907</v>
+      </c>
+      <c r="H25" t="s">
+        <v>909</v>
+      </c>
+      <c r="J25" t="s">
+        <v>917</v>
+      </c>
+      <c r="K25" t="s">
         <v>916</v>
       </c>
-      <c r="C25" t="s">
+      <c r="M25" t="s">
+        <v>911</v>
+      </c>
+      <c r="P25" t="s">
         <v>913</v>
       </c>
-      <c r="D25" t="s">
-        <v>909</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>908</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="S25" t="s">
         <v>910</v>
-      </c>
-      <c r="J25" t="s">
-        <v>918</v>
-      </c>
-      <c r="K25" t="s">
-        <v>917</v>
-      </c>
-      <c r="M25" t="s">
-        <v>912</v>
-      </c>
-      <c r="P25" t="s">
-        <v>914</v>
-      </c>
-      <c r="S25" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>918</v>
+      </c>
+      <c r="B26" t="s">
+        <v>923</v>
+      </c>
+      <c r="C26" t="s">
         <v>919</v>
       </c>
-      <c r="B26" t="s">
-        <v>924</v>
-      </c>
-      <c r="C26" t="s">
-        <v>920</v>
-      </c>
       <c r="D26" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -6357,54 +6357,54 @@
         <v>413</v>
       </c>
       <c r="G26" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J26" t="s">
+        <v>920</v>
+      </c>
+      <c r="K26" t="s">
         <v>921</v>
       </c>
-      <c r="K26" t="s">
-        <v>922</v>
-      </c>
       <c r="P26" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="S26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B27" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D27" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H27" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J27" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K27" t="s">
         <v>243</v>
       </c>
       <c r="P27" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="S27" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -6431,7 +6431,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6440,40 +6440,40 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" t="s">
         <v>534</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>535</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>536</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>537</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>538</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>539</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>540</v>
-      </c>
-      <c r="K1" t="s">
-        <v>541</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>541</v>
+      </c>
+      <c r="N1" t="s">
         <v>542</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>543</v>
-      </c>
-      <c r="O1" t="s">
-        <v>544</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -6499,22 +6499,22 @@
         <v>1954</v>
       </c>
       <c r="D2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E2" t="s">
         <v>546</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>547</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>548</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>549</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>550</v>
-      </c>
-      <c r="O2" t="s">
-        <v>551</v>
       </c>
       <c r="S2" t="s">
         <v>411</v>
@@ -6522,153 +6522,153 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E3" t="s">
         <v>553</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>554</v>
-      </c>
-      <c r="F3" t="s">
-        <v>555</v>
       </c>
       <c r="G3" t="s">
         <v>209</v>
       </c>
       <c r="L3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E4" t="s">
         <v>557</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>776</v>
-      </c>
-      <c r="D4" t="s">
-        <v>713</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>558</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>559</v>
-      </c>
-      <c r="G4" t="s">
-        <v>560</v>
       </c>
       <c r="I4" t="s">
         <v>159</v>
       </c>
       <c r="K4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L4" t="s">
+        <v>560</v>
+      </c>
+      <c r="O4" t="s">
+        <v>550</v>
+      </c>
+      <c r="S4" t="s">
         <v>561</v>
-      </c>
-      <c r="O4" t="s">
-        <v>551</v>
-      </c>
-      <c r="S4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>841</v>
+      </c>
+      <c r="D5" t="s">
+        <v>840</v>
+      </c>
+      <c r="E5" t="s">
+        <v>830</v>
+      </c>
+      <c r="F5" t="s">
         <v>842</v>
       </c>
-      <c r="D5" t="s">
-        <v>841</v>
-      </c>
-      <c r="E5" t="s">
-        <v>831</v>
-      </c>
-      <c r="F5" t="s">
-        <v>843</v>
-      </c>
       <c r="G5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
       <c r="D6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E6" t="s">
         <v>715</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>716</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>717</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>718</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>550</v>
+      </c>
+      <c r="K6" t="s">
         <v>719</v>
       </c>
-      <c r="I6" t="s">
-        <v>551</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>720</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>721</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
+        <v>550</v>
+      </c>
+      <c r="P6" t="s">
+        <v>718</v>
+      </c>
+      <c r="S6" t="s">
         <v>722</v>
-      </c>
-      <c r="O6" t="s">
-        <v>551</v>
-      </c>
-      <c r="P6" t="s">
-        <v>719</v>
-      </c>
-      <c r="S6" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -6680,22 +6680,22 @@
         <v>159</v>
       </c>
       <c r="E7" t="s">
+        <v>723</v>
+      </c>
+      <c r="F7" t="s">
         <v>724</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>725</v>
-      </c>
-      <c r="G7" t="s">
-        <v>726</v>
       </c>
       <c r="I7" t="s">
         <v>159</v>
       </c>
       <c r="J7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L7" t="s">
         <v>141</v>
@@ -6704,18 +6704,18 @@
         <v>408</v>
       </c>
       <c r="N7" t="s">
+        <v>726</v>
+      </c>
+      <c r="O7" t="s">
         <v>727</v>
       </c>
-      <c r="O7" t="s">
-        <v>728</v>
-      </c>
       <c r="S7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -6727,136 +6727,136 @@
         <v>159</v>
       </c>
       <c r="E8" t="s">
+        <v>729</v>
+      </c>
+      <c r="I8" t="s">
+        <v>550</v>
+      </c>
+      <c r="J8" t="s">
         <v>730</v>
       </c>
-      <c r="I8" t="s">
-        <v>551</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>731</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>721</v>
+      </c>
+      <c r="O8" t="s">
+        <v>550</v>
+      </c>
+      <c r="S8" t="s">
         <v>732</v>
-      </c>
-      <c r="M8" t="s">
-        <v>722</v>
-      </c>
-      <c r="O8" t="s">
-        <v>551</v>
-      </c>
-      <c r="S8" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D9" t="s">
+        <v>760</v>
+      </c>
+      <c r="E9" t="s">
+        <v>762</v>
+      </c>
+      <c r="F9" t="s">
+        <v>763</v>
+      </c>
+      <c r="G9" t="s">
+        <v>764</v>
+      </c>
+      <c r="I9" t="s">
+        <v>766</v>
+      </c>
+      <c r="L9" t="s">
         <v>761</v>
       </c>
-      <c r="E9" t="s">
-        <v>763</v>
-      </c>
-      <c r="F9" t="s">
-        <v>764</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="O9" t="s">
         <v>765</v>
       </c>
-      <c r="I9" t="s">
-        <v>767</v>
-      </c>
-      <c r="L9" t="s">
-        <v>762</v>
-      </c>
-      <c r="O9" t="s">
-        <v>766</v>
-      </c>
       <c r="R9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
+        <v>733</v>
+      </c>
+      <c r="D10" t="s">
         <v>734</v>
-      </c>
-      <c r="D10" t="s">
-        <v>735</v>
       </c>
       <c r="E10" t="s">
         <v>155</v>
       </c>
       <c r="F10" t="s">
+        <v>734</v>
+      </c>
+      <c r="G10" t="s">
         <v>735</v>
-      </c>
-      <c r="G10" t="s">
-        <v>736</v>
       </c>
       <c r="I10" t="s">
         <v>159</v>
       </c>
       <c r="J10" t="s">
+        <v>736</v>
+      </c>
+      <c r="L10" t="s">
         <v>737</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>738</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>739</v>
       </c>
-      <c r="O10" t="s">
+      <c r="S10" t="s">
         <v>740</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>741</v>
-      </c>
-      <c r="T10" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C11">
         <v>2024</v>
       </c>
       <c r="D11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F11" t="s">
         <v>564</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>565</v>
-      </c>
-      <c r="G11" t="s">
-        <v>566</v>
       </c>
       <c r="I11" t="s">
         <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S11" t="s">
         <v>123</v>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -6873,203 +6873,203 @@
         <v>2020</v>
       </c>
       <c r="D12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F12" t="s">
+        <v>568</v>
+      </c>
+      <c r="L12" t="s">
         <v>569</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>570</v>
       </c>
-      <c r="O12" t="s">
-        <v>571</v>
-      </c>
       <c r="S12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>805</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
         <v>806</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>807</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>546</v>
+      </c>
+      <c r="F13" t="s">
         <v>808</v>
       </c>
-      <c r="E13" t="s">
-        <v>547</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="L13" t="s">
         <v>809</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
+        <v>850</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>810</v>
-      </c>
-      <c r="O13" t="s">
-        <v>851</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C14">
         <v>2024</v>
       </c>
       <c r="D14" t="s">
+        <v>847</v>
+      </c>
+      <c r="E14" t="s">
+        <v>843</v>
+      </c>
+      <c r="F14" t="s">
+        <v>845</v>
+      </c>
+      <c r="L14" t="s">
+        <v>846</v>
+      </c>
+      <c r="R14" s="6" t="s">
         <v>848</v>
-      </c>
-      <c r="E14" t="s">
-        <v>844</v>
-      </c>
-      <c r="F14" t="s">
-        <v>846</v>
-      </c>
-      <c r="L14" t="s">
-        <v>847</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>849</v>
       </c>
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>578</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>579</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>820</v>
+      </c>
+      <c r="F15" t="s">
         <v>580</v>
       </c>
-      <c r="E15" t="s">
-        <v>821</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>581</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>582</v>
-      </c>
-      <c r="I15" t="s">
-        <v>583</v>
       </c>
       <c r="L15" t="s">
         <v>231</v>
       </c>
       <c r="O15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
+        <v>583</v>
+      </c>
+      <c r="D16" t="s">
         <v>584</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>747</v>
+      </c>
+      <c r="F16" t="s">
         <v>585</v>
       </c>
-      <c r="E16" t="s">
-        <v>748</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>586</v>
-      </c>
-      <c r="G16" t="s">
-        <v>587</v>
       </c>
       <c r="I16" t="s">
         <v>414</v>
       </c>
       <c r="K16" t="s">
+        <v>587</v>
+      </c>
+      <c r="L16" t="s">
         <v>588</v>
       </c>
-      <c r="L16" t="s">
-        <v>589</v>
-      </c>
       <c r="O16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S16" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="T16" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D17" t="s">
+        <v>751</v>
+      </c>
+      <c r="E17" t="s">
         <v>752</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>753</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>754</v>
       </c>
-      <c r="G17" t="s">
+      <c r="L17" t="s">
+        <v>757</v>
+      </c>
+      <c r="R17" t="s">
         <v>755</v>
       </c>
-      <c r="L17" t="s">
-        <v>758</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>756</v>
-      </c>
-      <c r="S17" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>591</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>743</v>
+      </c>
+      <c r="E18" t="s">
+        <v>744</v>
+      </c>
+      <c r="F18" t="s">
         <v>592</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>744</v>
-      </c>
-      <c r="E18" t="s">
-        <v>745</v>
-      </c>
-      <c r="F18" t="s">
-        <v>593</v>
       </c>
       <c r="I18" t="s">
         <v>414</v>
@@ -7078,111 +7078,111 @@
         <v>231</v>
       </c>
       <c r="O18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
+        <v>770</v>
+      </c>
+      <c r="D19" t="s">
+        <v>768</v>
+      </c>
+      <c r="E19" t="s">
+        <v>769</v>
+      </c>
+      <c r="F19" t="s">
+        <v>773</v>
+      </c>
+      <c r="G19" t="s">
+        <v>772</v>
+      </c>
+      <c r="J19" t="s">
         <v>771</v>
       </c>
-      <c r="D19" t="s">
-        <v>769</v>
-      </c>
-      <c r="E19" t="s">
-        <v>770</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="L19" t="s">
         <v>774</v>
       </c>
-      <c r="G19" t="s">
-        <v>773</v>
-      </c>
-      <c r="J19" t="s">
-        <v>772</v>
-      </c>
-      <c r="L19" t="s">
-        <v>775</v>
-      </c>
       <c r="O19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="S19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>851</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>841</v>
+      </c>
+      <c r="D20" t="s">
+        <v>853</v>
+      </c>
+      <c r="E20" t="s">
         <v>852</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>842</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>854</v>
       </c>
-      <c r="E20" t="s">
-        <v>853</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="L20" t="s">
+        <v>774</v>
+      </c>
+      <c r="O20" t="s">
         <v>855</v>
       </c>
-      <c r="L20" t="s">
-        <v>775</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="R20" s="6" t="s">
         <v>856</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>571</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>964</v>
+      </c>
+      <c r="E21" t="s">
         <v>572</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>965</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>573</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>574</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>575</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>576</v>
       </c>
-      <c r="L21" t="s">
-        <v>577</v>
-      </c>
       <c r="O21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -7191,193 +7191,193 @@
         <v>245</v>
       </c>
       <c r="E22" t="s">
+        <v>593</v>
+      </c>
+      <c r="F22" t="s">
         <v>594</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>595</v>
       </c>
-      <c r="G22" t="s">
+      <c r="K22" t="s">
         <v>596</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>597</v>
       </c>
-      <c r="L22" t="s">
+      <c r="S22" t="s">
         <v>598</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>599</v>
-      </c>
-      <c r="T22" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>600</v>
+      </c>
+      <c r="B23" t="s">
+        <v>953</v>
+      </c>
+      <c r="C23" t="s">
         <v>601</v>
       </c>
-      <c r="B23" t="s">
-        <v>954</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>602</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>603</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>604</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>605</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>606</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>607</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>608</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>609</v>
       </c>
-      <c r="M23" t="s">
-        <v>610</v>
-      </c>
       <c r="O23" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S23" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>904</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>901</v>
+      </c>
+      <c r="E24" t="s">
         <v>905</v>
       </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>906</v>
+      </c>
+      <c r="L24" t="s">
+        <v>900</v>
+      </c>
+      <c r="O24" t="s">
         <v>902</v>
       </c>
-      <c r="E24" t="s">
-        <v>906</v>
-      </c>
-      <c r="F24" t="s">
-        <v>907</v>
-      </c>
-      <c r="L24" t="s">
-        <v>901</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="S24" s="6" t="s">
         <v>903</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>589</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
         <v>590</v>
       </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>591</v>
-      </c>
       <c r="D25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F25" t="s">
+        <v>789</v>
+      </c>
+      <c r="G25" t="s">
         <v>790</v>
       </c>
-      <c r="G25" t="s">
+      <c r="L25" t="s">
         <v>791</v>
       </c>
-      <c r="L25" t="s">
-        <v>792</v>
-      </c>
       <c r="S25" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C26">
         <v>2008</v>
       </c>
       <c r="D26" t="s">
+        <v>611</v>
+      </c>
+      <c r="E26" t="s">
         <v>612</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>613</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>614</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
+        <v>575</v>
+      </c>
+      <c r="K26" t="s">
         <v>615</v>
       </c>
-      <c r="I26" t="s">
-        <v>576</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>616</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
+        <v>550</v>
+      </c>
+      <c r="S26" t="s">
         <v>617</v>
       </c>
-      <c r="O26" t="s">
-        <v>551</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
         <v>618</v>
-      </c>
-      <c r="U26" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D27" t="s">
+        <v>926</v>
+      </c>
+      <c r="E27" t="s">
+        <v>930</v>
+      </c>
+      <c r="F27" t="s">
         <v>927</v>
       </c>
-      <c r="E27" t="s">
+      <c r="L27" t="s">
+        <v>928</v>
+      </c>
+      <c r="O27" t="s">
+        <v>929</v>
+      </c>
+      <c r="S27" s="6" t="s">
         <v>931</v>
-      </c>
-      <c r="F27" t="s">
-        <v>928</v>
-      </c>
-      <c r="L27" t="s">
-        <v>929</v>
-      </c>
-      <c r="O27" t="s">
-        <v>930</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -7386,103 +7386,103 @@
         <v>327</v>
       </c>
       <c r="E28" t="s">
+        <v>620</v>
+      </c>
+      <c r="F28" t="s">
         <v>621</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>622</v>
-      </c>
-      <c r="H28" t="s">
-        <v>623</v>
       </c>
       <c r="L28" t="s">
         <v>141</v>
       </c>
       <c r="S28" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>950</v>
+      </c>
+      <c r="B29" t="s">
+        <v>957</v>
+      </c>
+      <c r="D29" t="s">
+        <v>963</v>
+      </c>
+      <c r="E29" t="s">
+        <v>949</v>
+      </c>
+      <c r="F29" t="s">
+        <v>962</v>
+      </c>
+      <c r="L29" t="s">
         <v>951</v>
       </c>
-      <c r="B29" t="s">
-        <v>958</v>
-      </c>
-      <c r="D29" t="s">
-        <v>964</v>
-      </c>
-      <c r="E29" t="s">
-        <v>950</v>
-      </c>
-      <c r="F29" t="s">
-        <v>963</v>
-      </c>
-      <c r="L29" t="s">
-        <v>952</v>
-      </c>
       <c r="R29" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>623</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
         <v>624</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>625</v>
       </c>
       <c r="E30" t="s">
         <v>327</v>
       </c>
       <c r="F30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G30" t="s">
+        <v>625</v>
+      </c>
+      <c r="K30" t="s">
         <v>626</v>
-      </c>
-      <c r="K30" t="s">
-        <v>627</v>
       </c>
       <c r="L30" t="s">
         <v>347</v>
       </c>
       <c r="M30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N30" t="s">
         <v>239</v>
       </c>
       <c r="R30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D31" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E31" t="s">
         <v>364</v>
       </c>
       <c r="F31" t="s">
+        <v>629</v>
+      </c>
+      <c r="G31" t="s">
         <v>630</v>
-      </c>
-      <c r="G31" t="s">
-        <v>631</v>
       </c>
       <c r="K31" t="s">
         <v>356</v>
@@ -7491,170 +7491,170 @@
         <v>141</v>
       </c>
       <c r="O31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="S31" t="s">
+        <v>749</v>
+      </c>
+      <c r="T31" t="s">
         <v>750</v>
-      </c>
-      <c r="T31" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
       <c r="D32" t="s">
+        <v>631</v>
+      </c>
+      <c r="E32" t="s">
         <v>632</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>633</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>634</v>
       </c>
-      <c r="G32" t="s">
+      <c r="K32" t="s">
         <v>635</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>636</v>
       </c>
-      <c r="L32" t="s">
+      <c r="O32" t="s">
         <v>637</v>
       </c>
-      <c r="O32" t="s">
+      <c r="R32" t="s">
         <v>638</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>639</v>
       </c>
-      <c r="S32" t="s">
+      <c r="U32" t="s">
         <v>640</v>
-      </c>
-      <c r="U32" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>782</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>781</v>
+      </c>
+      <c r="E33" t="s">
         <v>783</v>
       </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>782</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>787</v>
+      </c>
+      <c r="L33" t="s">
+        <v>786</v>
+      </c>
+      <c r="S33" t="s">
+        <v>785</v>
+      </c>
+      <c r="T33" t="s">
         <v>784</v>
-      </c>
-      <c r="F33" t="s">
-        <v>788</v>
-      </c>
-      <c r="L33" t="s">
-        <v>787</v>
-      </c>
-      <c r="S33" t="s">
-        <v>786</v>
-      </c>
-      <c r="T33" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="D34" t="s">
+        <v>941</v>
+      </c>
+      <c r="E34" t="s">
+        <v>952</v>
+      </c>
+      <c r="F34" t="s">
         <v>942</v>
       </c>
-      <c r="E34" t="s">
-        <v>953</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>943</v>
       </c>
-      <c r="G34" t="s">
+      <c r="L34" t="s">
         <v>944</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
+        <v>947</v>
+      </c>
+      <c r="N34" t="s">
+        <v>946</v>
+      </c>
+      <c r="O34" t="s">
+        <v>800</v>
+      </c>
+      <c r="S34" s="6" t="s">
         <v>945</v>
-      </c>
-      <c r="M34" t="s">
-        <v>948</v>
-      </c>
-      <c r="N34" t="s">
-        <v>947</v>
-      </c>
-      <c r="O34" t="s">
-        <v>801</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>797</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
         <v>798</v>
       </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>794</v>
+      </c>
+      <c r="E35" t="s">
+        <v>801</v>
+      </c>
+      <c r="F35" t="s">
+        <v>803</v>
+      </c>
+      <c r="G35" t="s">
+        <v>802</v>
+      </c>
+      <c r="K35" t="s">
+        <v>795</v>
+      </c>
+      <c r="L35" t="s">
         <v>799</v>
       </c>
-      <c r="D35" t="s">
-        <v>795</v>
-      </c>
-      <c r="E35" t="s">
-        <v>802</v>
-      </c>
-      <c r="F35" t="s">
-        <v>804</v>
-      </c>
-      <c r="G35" t="s">
-        <v>803</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="O35" t="s">
+        <v>800</v>
+      </c>
+      <c r="S35" t="s">
         <v>796</v>
-      </c>
-      <c r="L35" t="s">
-        <v>800</v>
-      </c>
-      <c r="O35" t="s">
-        <v>801</v>
-      </c>
-      <c r="S35" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="D36" t="s">
+        <v>642</v>
+      </c>
+      <c r="E36" t="s">
         <v>643</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>644</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>804</v>
+      </c>
+      <c r="L36" t="s">
         <v>645</v>
-      </c>
-      <c r="G36" t="s">
-        <v>805</v>
-      </c>
-      <c r="L36" t="s">
-        <v>646</v>
       </c>
       <c r="R36" t="s">
         <v>350</v>
@@ -7662,43 +7662,43 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
       </c>
       <c r="C37" t="s">
+        <v>816</v>
+      </c>
+      <c r="D37" t="s">
         <v>817</v>
-      </c>
-      <c r="D37" t="s">
-        <v>818</v>
       </c>
       <c r="E37" t="s">
         <v>360</v>
       </c>
       <c r="F37" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G37" t="s">
+        <v>812</v>
+      </c>
+      <c r="H37" t="s">
         <v>813</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
+        <v>550</v>
+      </c>
+      <c r="K37" t="s">
         <v>814</v>
-      </c>
-      <c r="I37" t="s">
-        <v>551</v>
-      </c>
-      <c r="K37" t="s">
-        <v>815</v>
       </c>
       <c r="L37" t="s">
         <v>362</v>
       </c>
       <c r="O37" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -7745,13 +7745,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>404</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -7778,16 +7778,16 @@
         <v>400</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>405</v>
@@ -7804,68 +7804,68 @@
         <v>407</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>659</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>670</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>671</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
@@ -7883,99 +7883,99 @@
         <v>407</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>278</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="V4" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665AA44F-B27D-4B65-BDA0-69BF6FCD8EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC65CF9-D5F0-42AD-BC04-6FFFA5782933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5617,106 +5617,118 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>914</v>
       </c>
       <c r="B5" t="s">
-        <v>976</v>
+        <v>874</v>
       </c>
       <c r="C5" t="s">
-        <v>980</v>
+        <v>858</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>876</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>413</v>
       </c>
       <c r="G5" t="s">
-        <v>426</v>
+        <v>859</v>
       </c>
       <c r="J5" t="s">
-        <v>427</v>
+        <v>860</v>
+      </c>
+      <c r="K5" t="s">
+        <v>875</v>
+      </c>
+      <c r="M5" t="s">
+        <v>861</v>
       </c>
       <c r="P5" t="s">
-        <v>428</v>
+        <v>862</v>
       </c>
       <c r="Q5" t="s">
-        <v>429</v>
+        <v>863</v>
       </c>
       <c r="S5" t="s">
-        <v>430</v>
+        <v>864</v>
+      </c>
+      <c r="T5" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C6">
-        <v>2009</v>
+        <v>976</v>
+      </c>
+      <c r="C6" t="s">
+        <v>980</v>
       </c>
       <c r="D6" t="s">
-        <v>438</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
+        <v>425</v>
       </c>
       <c r="F6" t="s">
-        <v>867</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>873</v>
+        <v>426</v>
       </c>
       <c r="J6" t="s">
-        <v>439</v>
-      </c>
-      <c r="K6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="P6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="Q6" t="s">
-        <v>442</v>
-      </c>
-      <c r="R6" t="s">
-        <v>868</v>
+        <v>429</v>
+      </c>
+      <c r="S6" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" t="s">
-        <v>912</v>
+        <v>437</v>
+      </c>
+      <c r="C7">
+        <v>2009</v>
       </c>
       <c r="D7" t="s">
-        <v>431</v>
+        <v>438</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>867</v>
       </c>
       <c r="G7" t="s">
-        <v>432</v>
+        <v>873</v>
       </c>
       <c r="J7" t="s">
-        <v>433</v>
-      </c>
-      <c r="O7" t="s">
-        <v>434</v>
+        <v>439</v>
+      </c>
+      <c r="K7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P7" t="s">
+        <v>441</v>
       </c>
       <c r="Q7" t="s">
-        <v>435</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>870</v>
+        <v>442</v>
+      </c>
+      <c r="R7" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -5724,101 +5736,104 @@
         <v>407</v>
       </c>
       <c r="B8" t="s">
-        <v>443</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>912</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
-      </c>
-      <c r="E8" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="F8" t="s">
-        <v>447</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="J8" t="s">
-        <v>449</v>
-      </c>
-      <c r="M8" t="s">
-        <v>450</v>
-      </c>
-      <c r="P8" t="s">
-        <v>451</v>
+        <v>433</v>
+      </c>
+      <c r="O8" t="s">
+        <v>434</v>
       </c>
       <c r="Q8" t="s">
-        <v>452</v>
-      </c>
-      <c r="S8" t="s">
-        <v>453</v>
+        <v>435</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C9" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D9" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E9" t="s">
-        <v>458</v>
+        <v>446</v>
+      </c>
+      <c r="F9" t="s">
+        <v>447</v>
       </c>
       <c r="G9" t="s">
-        <v>251</v>
+        <v>448</v>
       </c>
       <c r="J9" t="s">
-        <v>459</v>
-      </c>
-      <c r="K9" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="M9" t="s">
-        <v>461</v>
+        <v>450</v>
+      </c>
+      <c r="P9" t="s">
+        <v>451</v>
       </c>
       <c r="Q9" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="S9" t="s">
-        <v>872</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10">
-        <v>2020</v>
+        <v>455</v>
+      </c>
+      <c r="C10" t="s">
+        <v>456</v>
       </c>
       <c r="D10" t="s">
-        <v>464</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
+        <v>457</v>
+      </c>
+      <c r="E10" t="s">
+        <v>458</v>
       </c>
       <c r="G10" t="s">
-        <v>465</v>
+        <v>251</v>
       </c>
       <c r="J10" t="s">
-        <v>466</v>
+        <v>459</v>
+      </c>
+      <c r="K10" t="s">
+        <v>460</v>
       </c>
       <c r="M10" t="s">
-        <v>159</v>
+        <v>461</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>462</v>
       </c>
       <c r="S10" t="s">
-        <v>467</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -5826,180 +5841,177 @@
         <v>407</v>
       </c>
       <c r="B11" t="s">
-        <v>468</v>
-      </c>
-      <c r="C11" t="s">
-        <v>981</v>
+        <v>463</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
       </c>
       <c r="D11" t="s">
-        <v>469</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
+        <v>464</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J11" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M11" t="s">
-        <v>472</v>
-      </c>
-      <c r="P11" t="s">
-        <v>473</v>
+        <v>159</v>
       </c>
       <c r="S11" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s">
-        <v>476</v>
-      </c>
-      <c r="C12">
-        <v>2022</v>
+        <v>468</v>
+      </c>
+      <c r="C12" t="s">
+        <v>981</v>
       </c>
       <c r="D12" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E12" t="s">
-        <v>478</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>479</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>480</v>
-      </c>
-      <c r="H12" t="s">
-        <v>481</v>
-      </c>
-      <c r="I12" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="J12" t="s">
-        <v>483</v>
-      </c>
-      <c r="K12" t="s">
-        <v>484</v>
-      </c>
-      <c r="N12" t="s">
-        <v>485</v>
-      </c>
-      <c r="O12" t="s">
-        <v>486</v>
+        <v>471</v>
+      </c>
+      <c r="M12" t="s">
+        <v>472</v>
       </c>
       <c r="P12" t="s">
-        <v>992</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>487</v>
-      </c>
-      <c r="R12" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="S12" t="s">
-        <v>489</v>
-      </c>
-      <c r="T12" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C13">
-        <v>1986</v>
+        <v>2022</v>
       </c>
       <c r="D13" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>478</v>
+      </c>
+      <c r="F13" t="s">
+        <v>479</v>
       </c>
       <c r="G13" t="s">
-        <v>493</v>
+        <v>480</v>
+      </c>
+      <c r="H13" t="s">
+        <v>481</v>
+      </c>
+      <c r="I13" t="s">
+        <v>482</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>483</v>
+      </c>
+      <c r="K13" t="s">
+        <v>484</v>
+      </c>
+      <c r="N13" t="s">
+        <v>485</v>
+      </c>
+      <c r="O13" t="s">
+        <v>486</v>
       </c>
       <c r="P13" t="s">
-        <v>982</v>
+        <v>992</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>487</v>
+      </c>
+      <c r="R13" t="s">
+        <v>488</v>
       </c>
       <c r="S13" t="s">
-        <v>494</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>983</v>
+        <v>489</v>
+      </c>
+      <c r="T13" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="B14" t="s">
-        <v>496</v>
-      </c>
-      <c r="C14" t="s">
-        <v>987</v>
+        <v>491</v>
+      </c>
+      <c r="C14">
+        <v>1986</v>
       </c>
       <c r="D14" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>493</v>
       </c>
       <c r="J14" t="s">
-        <v>498</v>
+        <v>140</v>
+      </c>
+      <c r="P14" t="s">
+        <v>982</v>
       </c>
       <c r="S14" t="s">
-        <v>871</v>
+        <v>494</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>495</v>
       </c>
       <c r="B15" t="s">
-        <v>499</v>
-      </c>
-      <c r="C15">
-        <v>1977</v>
+        <v>496</v>
+      </c>
+      <c r="C15" t="s">
+        <v>987</v>
       </c>
       <c r="D15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
       <c r="G15" t="s">
-        <v>339</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="S15" t="s">
-        <v>502</v>
-      </c>
-      <c r="T15" t="s">
-        <v>503</v>
+        <v>871</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -6007,13 +6019,13 @@
         <v>407</v>
       </c>
       <c r="B16" t="s">
-        <v>977</v>
-      </c>
-      <c r="C16" t="s">
-        <v>969</v>
+        <v>499</v>
+      </c>
+      <c r="C16">
+        <v>1977</v>
       </c>
       <c r="D16" t="s">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -6022,22 +6034,16 @@
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>971</v>
-      </c>
-      <c r="I16" t="s">
-        <v>972</v>
+        <v>339</v>
       </c>
       <c r="J16" t="s">
-        <v>973</v>
-      </c>
-      <c r="P16" t="s">
-        <v>918</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>974</v>
+        <v>501</v>
       </c>
       <c r="S16" t="s">
-        <v>978</v>
+        <v>502</v>
+      </c>
+      <c r="T16" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -6045,89 +6051,98 @@
         <v>407</v>
       </c>
       <c r="B17" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="C17" t="s">
-        <v>989</v>
+        <v>969</v>
       </c>
       <c r="D17" t="s">
-        <v>504</v>
+        <v>970</v>
       </c>
       <c r="E17" t="s">
-        <v>505</v>
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>971</v>
+      </c>
+      <c r="I17" t="s">
+        <v>972</v>
       </c>
       <c r="J17" t="s">
-        <v>990</v>
+        <v>973</v>
+      </c>
+      <c r="P17" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>974</v>
       </c>
       <c r="S17" t="s">
-        <v>506</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>507</v>
+        <v>407</v>
       </c>
       <c r="B18" t="s">
-        <v>508</v>
+        <v>988</v>
       </c>
       <c r="C18" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="D18" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E18" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G18" t="s">
-        <v>511</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>513</v>
+        <v>990</v>
       </c>
       <c r="S18" t="s">
-        <v>514</v>
-      </c>
-      <c r="T18" t="s">
-        <v>515</v>
+        <v>506</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>407</v>
+        <v>507</v>
       </c>
       <c r="B19" t="s">
-        <v>516</v>
-      </c>
-      <c r="C19">
-        <v>2017</v>
+        <v>508</v>
+      </c>
+      <c r="C19" t="s">
+        <v>984</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>509</v>
       </c>
       <c r="E19" t="s">
-        <v>517</v>
-      </c>
-      <c r="F19" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G19" t="s">
-        <v>339</v>
+        <v>511</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>512</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>513</v>
       </c>
       <c r="S19" t="s">
-        <v>502</v>
+        <v>514</v>
+      </c>
+      <c r="T19" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -6135,34 +6150,28 @@
         <v>407</v>
       </c>
       <c r="B20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C20">
-        <v>1982</v>
+        <v>2017</v>
       </c>
       <c r="D20" t="s">
         <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>517</v>
+      </c>
+      <c r="F20" t="s">
+        <v>517</v>
       </c>
       <c r="G20" t="s">
-        <v>519</v>
+        <v>339</v>
       </c>
       <c r="J20" t="s">
-        <v>520</v>
-      </c>
-      <c r="K20" t="s">
-        <v>521</v>
-      </c>
-      <c r="P20" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>523</v>
+        <v>140</v>
       </c>
       <c r="S20" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -6170,130 +6179,121 @@
         <v>407</v>
       </c>
       <c r="B21" t="s">
-        <v>525</v>
-      </c>
-      <c r="C21" t="s">
-        <v>985</v>
+        <v>518</v>
+      </c>
+      <c r="C21">
+        <v>1982</v>
       </c>
       <c r="D21" t="s">
-        <v>975</v>
+        <v>198</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="J21" t="s">
-        <v>527</v>
+        <v>520</v>
+      </c>
+      <c r="K21" t="s">
+        <v>521</v>
+      </c>
+      <c r="P21" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>523</v>
       </c>
       <c r="S21" t="s">
-        <v>866</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>528</v>
+        <v>407</v>
       </c>
       <c r="B22" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C22" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
+        <v>975</v>
       </c>
       <c r="G22" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J22" t="s">
-        <v>531</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>865</v>
+        <v>527</v>
+      </c>
+      <c r="S22" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>528</v>
+      </c>
+      <c r="B23" t="s">
+        <v>529</v>
+      </c>
+      <c r="C23" t="s">
+        <v>986</v>
+      </c>
+      <c r="D23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>530</v>
+      </c>
+      <c r="J23" t="s">
+        <v>531</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>495</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>698</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>699</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>700</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>701</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>702</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>703</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J24" t="s">
         <v>704</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P24" t="s">
         <v>705</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q24" t="s">
         <v>706</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S24" t="s">
         <v>707</v>
       </c>
-      <c r="T23" t="s">
+      <c r="T24" t="s">
         <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>914</v>
-      </c>
-      <c r="B24" t="s">
-        <v>874</v>
-      </c>
-      <c r="C24" t="s">
-        <v>858</v>
-      </c>
-      <c r="D24" t="s">
-        <v>876</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>413</v>
-      </c>
-      <c r="G24" t="s">
-        <v>859</v>
-      </c>
-      <c r="J24" t="s">
-        <v>860</v>
-      </c>
-      <c r="K24" t="s">
-        <v>875</v>
-      </c>
-      <c r="M24" t="s">
-        <v>861</v>
-      </c>
-      <c r="P24" t="s">
-        <v>862</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>863</v>
-      </c>
-      <c r="S24" t="s">
-        <v>864</v>
-      </c>
-      <c r="T24" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6409,10 +6409,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S22" r:id="rId1" xr:uid="{C64C5A0E-BE3B-4B8A-8C4E-BD742DC54A3A}"/>
-    <hyperlink ref="S7" r:id="rId2" xr:uid="{0544146B-9426-499D-B186-EC2DB666B8EB}"/>
-    <hyperlink ref="T13" r:id="rId3" xr:uid="{2B873B9C-E240-43D4-914E-F504D4781831}"/>
-    <hyperlink ref="T17" r:id="rId4" xr:uid="{C6F052E8-E638-46BD-97BF-F4AFC55CC309}"/>
+    <hyperlink ref="S23" r:id="rId1" xr:uid="{C64C5A0E-BE3B-4B8A-8C4E-BD742DC54A3A}"/>
+    <hyperlink ref="S8" r:id="rId2" xr:uid="{0544146B-9426-499D-B186-EC2DB666B8EB}"/>
+    <hyperlink ref="T14" r:id="rId3" xr:uid="{2B873B9C-E240-43D4-914E-F504D4781831}"/>
+    <hyperlink ref="T18" r:id="rId4" xr:uid="{C6F052E8-E638-46BD-97BF-F4AFC55CC309}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC65CF9-D5F0-42AD-BC04-6FFFA5782933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C9A98-E192-4632-AB50-3F214CD19EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1011">
   <si>
     <t>State</t>
   </si>
@@ -1733,18 +1733,12 @@
     <t>https://en.wikipedia.org/wiki/Shalimar_Seiuli</t>
   </si>
   <si>
-    <t>Reported</t>
-  </si>
-  <si>
     <t>Witnesses, Lil Rod, daughter, TikToker</t>
   </si>
   <si>
     <t>Fixers, Witness Intimidation</t>
   </si>
   <si>
-    <t>Lawsuit</t>
-  </si>
-  <si>
     <t>Music, Employees, Journalists, Fixers, Investigators</t>
   </si>
   <si>
@@ -1799,12 +1793,6 @@
     <t>1993/1994</t>
   </si>
   <si>
-    <t>OJ Simpson</t>
-  </si>
-  <si>
-    <t>Surviellance, Anthony Pellicano</t>
-  </si>
-  <si>
     <t>Letters to Lawyer</t>
   </si>
   <si>
@@ -1880,9 +1868,6 @@
     <t>Ignored, Obstruction Charges</t>
   </si>
   <si>
-    <t>R Kelly</t>
-  </si>
-  <si>
     <t>Victims-Witnesses</t>
   </si>
   <si>
@@ -1904,18 +1889,12 @@
     <t>https://en.wikipedia.org/wiki/Jack_Palladino</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>Mannee Hailey-McMurray</t>
   </si>
   <si>
     <t>Restraining Order</t>
   </si>
   <si>
-    <t>Police</t>
-  </si>
-  <si>
     <t>Concluded</t>
   </si>
   <si>
@@ -2603,18 +2582,6 @@
     <t>Ignored, Responded</t>
   </si>
   <si>
-    <t>Sammy Davis, Kim Novak</t>
-  </si>
-  <si>
-    <t>Harry Cohen, Assailant, Confidential Magazine</t>
-  </si>
-  <si>
-    <t>Respond, Avoid</t>
-  </si>
-  <si>
-    <t>Fixers, Assailant</t>
-  </si>
-  <si>
     <t>https://youtu.be/YW1yH-bTWi8?si=L-Un59cfka_d2kLi</t>
   </si>
   <si>
@@ -2936,15 +2903,9 @@
     <t>Audio Recorded, Wiretapped, Harassed, Edited Statements</t>
   </si>
   <si>
-    <t>Unclear, Surveillance, Editing</t>
-  </si>
-  <si>
     <t>Bill Clinton, Jack Palladino</t>
   </si>
   <si>
-    <t>Services, Shell</t>
-  </si>
-  <si>
     <t>Lukasz Sebastian Gottwald, KMI</t>
   </si>
   <si>
@@ -3023,7 +2984,100 @@
     <t>https://www.rollingstone.com/culture/culture-news/bryan-singer-abuse-allegations-blake-stuerman-1274239/</t>
   </si>
   <si>
-    <t>Medical, Expliotation, Conservatorship</t>
+    <t>Profiling, Fixing, Intimidation, Pressure Lawyers</t>
+  </si>
+  <si>
+    <t>Listen to Fixers</t>
+  </si>
+  <si>
+    <t>Reported, Charges Related</t>
+  </si>
+  <si>
+    <t>Lawsuit, Report</t>
+  </si>
+  <si>
+    <t>Federal Authorities</t>
+  </si>
+  <si>
+    <t>Harry Cohn, John Roselli, racketeer, Assailant, Confidential Magazine, Mickey Cohen</t>
+  </si>
+  <si>
+    <t>Sammy Davis Jr, Kim Novak</t>
+  </si>
+  <si>
+    <t>Assailant, Threats, Implicate Mob, Hitmen, Confidential Magazine</t>
+  </si>
+  <si>
+    <t>Respond, Avoid, protection of Chicago mobster Sam Giancana who said that he could protect him in Chicago and Las Vegas but not California</t>
+  </si>
+  <si>
+    <t>Fixers, Assailant, Hiring, Implicate Mob</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Harry_Cohn#cite_note-18</t>
+  </si>
+  <si>
+    <t>Audio Recordings, Witness Tampering, Surviellance, Anthony Pellicano</t>
+  </si>
+  <si>
+    <t>Fixing Services</t>
+  </si>
+  <si>
+    <t>Unclear</t>
+  </si>
+  <si>
+    <t>Medical, Exploitation, Conservatorship</t>
+  </si>
+  <si>
+    <t>Molly Bloom</t>
+  </si>
+  <si>
+    <t>Social, High-Level Gambling, Hotels, Nightclubs, Olympic Athlete</t>
+  </si>
+  <si>
+    <t>New York, California</t>
+  </si>
+  <si>
+    <t>RICO, Gambling Illegal Profits</t>
+  </si>
+  <si>
+    <t>Implication, Association Fallacy, Not Intentional, Book</t>
+  </si>
+  <si>
+    <t>Movie, Hollywood, Molly's Game Book, Viper Room</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Mollys-Game-26-Year-Old-High-Stakes-Underground/dp/0062213083</t>
+  </si>
+  <si>
+    <t>No Status, Criminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cohen</t>
+  </si>
+  <si>
+    <t>Harry Cohn, John Roselli, racketeer, Assailant, Confidential Magazine, Mickey</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>Actress, Activist, CEO</t>
+  </si>
+  <si>
+    <t>Restraining Order, Police</t>
+  </si>
+  <si>
+    <t>Conspiracy Agreements</t>
+  </si>
+  <si>
+    <t>Harvey Weinstein, Jack Palladino, BlackCube</t>
+  </si>
+  <si>
+    <t>OJ Simpson, Anthony Pellicano</t>
+  </si>
+  <si>
+    <t>R Kelly, Jack Palladino</t>
   </si>
 </sst>
 </file>
@@ -4097,7 +4151,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>180</v>
@@ -4348,7 +4402,7 @@
         <v>229</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>230</v>
@@ -4573,7 +4627,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="6" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4584,7 +4638,7 @@
         <v>275</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>276</v>
@@ -4598,7 +4652,7 @@
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>279</v>
@@ -4767,10 +4821,10 @@
         <v>309</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="U44" s="6" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4850,7 +4904,7 @@
         <v>148</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>325</v>
@@ -4920,7 +4974,7 @@
     </row>
     <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>334</v>
@@ -4932,7 +4986,7 @@
         <v>336</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>218</v>
@@ -4941,7 +4995,7 @@
         <v>337</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5246,134 +5300,134 @@
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B62" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="U62" s="6" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="B63" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>220</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="V63" s="6" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="W63" s="6" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="B64" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="K64" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="T64" t="s">
         <v>884</v>
       </c>
-      <c r="R64" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="T64" t="s">
-        <v>895</v>
-      </c>
       <c r="U64" s="6" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="V64" s="6" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -5454,7 +5508,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -5523,7 +5577,7 @@
         <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C2">
         <v>1954</v>
@@ -5555,7 +5609,7 @@
         <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="C3">
         <v>2008</v>
@@ -5579,7 +5633,7 @@
         <v>159</v>
       </c>
       <c r="S3" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -5619,16 +5673,16 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B5" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="C5" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="D5" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -5637,28 +5691,28 @@
         <v>413</v>
       </c>
       <c r="G5" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="J5" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="K5" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="M5" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="P5" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="Q5" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="S5" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="T5" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -5666,10 +5720,10 @@
         <v>407</v>
       </c>
       <c r="B6" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="C6" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="D6" t="s">
         <v>425</v>
@@ -5710,10 +5764,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="G7" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="J7" t="s">
         <v>439</v>
@@ -5728,7 +5782,7 @@
         <v>442</v>
       </c>
       <c r="R7" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -5739,7 +5793,7 @@
         <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="D8" t="s">
         <v>431</v>
@@ -5759,8 +5813,8 @@
       <c r="Q8" t="s">
         <v>435</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>870</v>
+      <c r="S8" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -5833,7 +5887,7 @@
         <v>462</v>
       </c>
       <c r="S10" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -5873,7 +5927,7 @@
         <v>468</v>
       </c>
       <c r="C12" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="D12" t="s">
         <v>469</v>
@@ -5941,7 +5995,7 @@
         <v>486</v>
       </c>
       <c r="P13" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="Q13" t="s">
         <v>487</v>
@@ -5979,13 +6033,13 @@
         <v>140</v>
       </c>
       <c r="P14" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="S14" t="s">
         <v>494</v>
       </c>
-      <c r="T14" s="6" t="s">
-        <v>983</v>
+      <c r="T14" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -5996,7 +6050,7 @@
         <v>496</v>
       </c>
       <c r="C15" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="D15" t="s">
         <v>497</v>
@@ -6011,7 +6065,7 @@
         <v>498</v>
       </c>
       <c r="S15" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -6051,13 +6105,13 @@
         <v>407</v>
       </c>
       <c r="B17" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="C17" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="D17" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -6066,112 +6120,121 @@
         <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="I17" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="J17" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="P17" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="Q17" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="S17" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>1001</v>
       </c>
       <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>834</v>
+      </c>
+      <c r="D18" t="s">
+        <v>985</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J18" t="s">
+        <v>987</v>
+      </c>
+      <c r="K18" t="s">
+        <v>986</v>
+      </c>
+      <c r="N18" t="s">
+        <v>767</v>
+      </c>
+      <c r="P18" t="s">
         <v>988</v>
       </c>
-      <c r="C18" t="s">
+      <c r="S18" t="s">
+        <v>845</v>
+      </c>
+      <c r="T18" t="s">
         <v>989</v>
-      </c>
-      <c r="D18" t="s">
-        <v>504</v>
-      </c>
-      <c r="E18" t="s">
-        <v>505</v>
-      </c>
-      <c r="G18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" t="s">
-        <v>990</v>
-      </c>
-      <c r="S18" t="s">
-        <v>506</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>507</v>
+        <v>407</v>
       </c>
       <c r="B19" t="s">
-        <v>508</v>
+        <v>975</v>
       </c>
       <c r="C19" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="D19" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E19" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G19" t="s">
-        <v>511</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>513</v>
+        <v>977</v>
       </c>
       <c r="S19" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="T19" t="s">
-        <v>515</v>
+        <v>978</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>407</v>
+        <v>507</v>
       </c>
       <c r="B20" t="s">
-        <v>516</v>
-      </c>
-      <c r="C20">
-        <v>2017</v>
+        <v>508</v>
+      </c>
+      <c r="C20" t="s">
+        <v>971</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>509</v>
       </c>
       <c r="E20" t="s">
-        <v>517</v>
-      </c>
-      <c r="F20" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G20" t="s">
-        <v>339</v>
+        <v>511</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>512</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>513</v>
       </c>
       <c r="S20" t="s">
-        <v>502</v>
+        <v>514</v>
+      </c>
+      <c r="T20" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -6179,34 +6242,28 @@
         <v>407</v>
       </c>
       <c r="B21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C21">
-        <v>1982</v>
+        <v>2017</v>
       </c>
       <c r="D21" t="s">
         <v>198</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>517</v>
+      </c>
+      <c r="F21" t="s">
+        <v>517</v>
       </c>
       <c r="G21" t="s">
-        <v>519</v>
+        <v>339</v>
       </c>
       <c r="J21" t="s">
-        <v>520</v>
-      </c>
-      <c r="K21" t="s">
-        <v>521</v>
-      </c>
-      <c r="P21" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>523</v>
+        <v>140</v>
       </c>
       <c r="S21" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -6214,206 +6271,302 @@
         <v>407</v>
       </c>
       <c r="B22" t="s">
-        <v>525</v>
-      </c>
-      <c r="C22" t="s">
-        <v>985</v>
+        <v>518</v>
+      </c>
+      <c r="C22">
+        <v>1982</v>
       </c>
       <c r="D22" t="s">
-        <v>975</v>
+        <v>198</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="J22" t="s">
-        <v>527</v>
+        <v>520</v>
+      </c>
+      <c r="K22" t="s">
+        <v>521</v>
+      </c>
+      <c r="P22" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>523</v>
       </c>
       <c r="S22" t="s">
-        <v>866</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>528</v>
+        <v>407</v>
       </c>
       <c r="B23" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C23" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
+        <v>962</v>
       </c>
       <c r="G23" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J23" t="s">
-        <v>531</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>865</v>
+        <v>527</v>
+      </c>
+      <c r="S23" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="B24" t="s">
-        <v>698</v>
+        <v>529</v>
       </c>
       <c r="C24" t="s">
-        <v>699</v>
+        <v>973</v>
       </c>
       <c r="D24" t="s">
-        <v>700</v>
+        <v>198</v>
       </c>
       <c r="E24" t="s">
-        <v>701</v>
-      </c>
-      <c r="F24" t="s">
-        <v>702</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>703</v>
+        <v>530</v>
       </c>
       <c r="J24" t="s">
-        <v>704</v>
-      </c>
-      <c r="P24" t="s">
-        <v>705</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>706</v>
+        <v>531</v>
       </c>
       <c r="S24" t="s">
-        <v>707</v>
-      </c>
-      <c r="T24" t="s">
-        <v>708</v>
+        <v>854</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>407</v>
+        <v>495</v>
       </c>
       <c r="B25" t="s">
-        <v>915</v>
+        <v>691</v>
       </c>
       <c r="C25" t="s">
-        <v>912</v>
+        <v>692</v>
       </c>
       <c r="D25" t="s">
-        <v>908</v>
+        <v>693</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>694</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>695</v>
       </c>
       <c r="G25" t="s">
-        <v>907</v>
-      </c>
-      <c r="H25" t="s">
-        <v>909</v>
+        <v>696</v>
       </c>
       <c r="J25" t="s">
-        <v>917</v>
-      </c>
-      <c r="K25" t="s">
-        <v>916</v>
-      </c>
-      <c r="M25" t="s">
-        <v>911</v>
+        <v>697</v>
       </c>
       <c r="P25" t="s">
-        <v>913</v>
+        <v>698</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>699</v>
       </c>
       <c r="S25" t="s">
-        <v>910</v>
+        <v>700</v>
+      </c>
+      <c r="T25" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>918</v>
+        <v>407</v>
       </c>
       <c r="B26" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="C26" t="s">
-        <v>919</v>
+        <v>901</v>
       </c>
       <c r="D26" t="s">
-        <v>967</v>
+        <v>897</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>413</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>940</v>
+        <v>896</v>
+      </c>
+      <c r="H26" t="s">
+        <v>898</v>
       </c>
       <c r="J26" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="K26" t="s">
-        <v>921</v>
+        <v>905</v>
+      </c>
+      <c r="M26" t="s">
+        <v>900</v>
       </c>
       <c r="P26" t="s">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="S26" t="s">
-        <v>748</v>
+        <v>899</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>937</v>
+        <v>907</v>
       </c>
       <c r="B27" t="s">
-        <v>936</v>
+        <v>912</v>
       </c>
       <c r="C27" t="s">
-        <v>979</v>
+        <v>908</v>
       </c>
       <c r="D27" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
       </c>
+      <c r="F27" t="s">
+        <v>413</v>
+      </c>
       <c r="G27" t="s">
+        <v>929</v>
+      </c>
+      <c r="J27" t="s">
+        <v>909</v>
+      </c>
+      <c r="K27" t="s">
+        <v>910</v>
+      </c>
+      <c r="P27" t="s">
+        <v>928</v>
+      </c>
+      <c r="S27" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>926</v>
+      </c>
+      <c r="B28" t="s">
         <v>925</v>
       </c>
-      <c r="H27" t="s">
-        <v>713</v>
-      </c>
-      <c r="J27" t="s">
-        <v>924</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="C28" t="s">
+        <v>966</v>
+      </c>
+      <c r="D28" t="s">
+        <v>955</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>914</v>
+      </c>
+      <c r="H28" t="s">
+        <v>706</v>
+      </c>
+      <c r="J28" t="s">
+        <v>913</v>
+      </c>
+      <c r="K28" t="s">
         <v>243</v>
       </c>
-      <c r="P27" t="s">
-        <v>938</v>
-      </c>
-      <c r="S27" t="s">
-        <v>922</v>
+      <c r="P28" t="s">
+        <v>927</v>
+      </c>
+      <c r="S28" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>615</v>
+      </c>
+      <c r="B29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>614</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K29" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s">
+        <v>141</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1007</v>
+      </c>
+      <c r="S29" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>926</v>
+      </c>
+      <c r="B30" t="s">
+        <v>994</v>
+      </c>
+      <c r="C30">
+        <v>2014</v>
+      </c>
+      <c r="D30" t="s">
+        <v>995</v>
+      </c>
+      <c r="E30" t="s">
+        <v>996</v>
+      </c>
+      <c r="F30" t="s">
+        <v>413</v>
+      </c>
+      <c r="J30" t="s">
+        <v>997</v>
+      </c>
+      <c r="K30" t="s">
+        <v>998</v>
+      </c>
+      <c r="P30" t="s">
+        <v>999</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="S23" r:id="rId1" xr:uid="{C64C5A0E-BE3B-4B8A-8C4E-BD742DC54A3A}"/>
-    <hyperlink ref="S8" r:id="rId2" xr:uid="{0544146B-9426-499D-B186-EC2DB666B8EB}"/>
-    <hyperlink ref="T14" r:id="rId3" xr:uid="{2B873B9C-E240-43D4-914E-F504D4781831}"/>
-    <hyperlink ref="T18" r:id="rId4" xr:uid="{C6F052E8-E638-46BD-97BF-F4AFC55CC309}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6423,7 +6576,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6528,7 +6681,7 @@
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="D3" t="s">
         <v>552</v>
@@ -6546,7 +6699,7 @@
         <v>555</v>
       </c>
       <c r="S3" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -6557,10 +6710,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="D4" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E4" t="s">
         <v>557</v>
@@ -6575,7 +6728,7 @@
         <v>159</v>
       </c>
       <c r="K4" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="L4" t="s">
         <v>560</v>
@@ -6589,86 +6742,86 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="D5" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="E5" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="F5" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="G5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I5" t="s">
         <v>550</v>
       </c>
       <c r="L5" t="s">
-        <v>857</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>856</v>
+        <v>846</v>
+      </c>
+      <c r="R5" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B6" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E6" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F6" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G6" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="H6" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="I6" t="s">
         <v>550</v>
       </c>
       <c r="K6" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="L6" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="M6" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="O6" t="s">
         <v>550</v>
       </c>
       <c r="P6" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="S6" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -6680,22 +6833,22 @@
         <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G7" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="I7" t="s">
         <v>159</v>
       </c>
       <c r="J7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L7" t="s">
         <v>141</v>
@@ -6704,18 +6857,18 @@
         <v>408</v>
       </c>
       <c r="N7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="O7" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="S7" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -6727,25 +6880,31 @@
         <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>729</v>
+        <v>722</v>
+      </c>
+      <c r="F8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G8" t="s">
+        <v>980</v>
       </c>
       <c r="I8" t="s">
         <v>550</v>
       </c>
       <c r="J8" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="L8" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="M8" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="O8" t="s">
         <v>550</v>
       </c>
       <c r="S8" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -6756,104 +6915,107 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="D9" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E9" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="F9" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="G9" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="I9" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="L9" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="O9" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="R9" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="D10" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="E10" t="s">
         <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G10" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="I10" t="s">
         <v>159</v>
       </c>
       <c r="J10" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="L10" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="M10" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="O10" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="S10" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="T10" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>562</v>
+        <v>981</v>
       </c>
       <c r="B11" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="C11">
         <v>2024</v>
       </c>
       <c r="D11" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="E11" t="s">
+        <v>562</v>
+      </c>
+      <c r="F11" t="s">
         <v>563</v>
       </c>
-      <c r="F11" t="s">
-        <v>564</v>
-      </c>
       <c r="G11" t="s">
-        <v>565</v>
+        <v>982</v>
+      </c>
+      <c r="H11" t="s">
+        <v>983</v>
       </c>
       <c r="I11" t="s">
         <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O11" t="s">
         <v>550</v>
@@ -6864,7 +7026,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -6879,13 +7041,13 @@
         <v>511</v>
       </c>
       <c r="F12" t="s">
+        <v>566</v>
+      </c>
+      <c r="L12" t="s">
+        <v>567</v>
+      </c>
+      <c r="O12" t="s">
         <v>568</v>
-      </c>
-      <c r="L12" t="s">
-        <v>569</v>
-      </c>
-      <c r="O12" t="s">
-        <v>570</v>
       </c>
       <c r="S12" t="s">
         <v>514</v>
@@ -6893,84 +7055,83 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="D13" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="E13" t="s">
         <v>546</v>
       </c>
       <c r="F13" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="L13" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="O13" t="s">
-        <v>850</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>810</v>
+        <v>843</v>
+      </c>
+      <c r="S13" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B14" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C14">
         <v>2024</v>
       </c>
       <c r="D14" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="E14" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F14" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="L14" t="s">
-        <v>846</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="S14" s="6"/>
+        <v>839</v>
+      </c>
+      <c r="R14" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
+        <v>576</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E15" t="s">
+        <v>813</v>
+      </c>
+      <c r="F15" t="s">
         <v>578</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
         <v>579</v>
       </c>
-      <c r="E15" t="s">
-        <v>820</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>580</v>
-      </c>
-      <c r="G15" t="s">
-        <v>581</v>
-      </c>
-      <c r="I15" t="s">
-        <v>582</v>
       </c>
       <c r="L15" t="s">
         <v>231</v>
@@ -6979,210 +7140,216 @@
         <v>550</v>
       </c>
       <c r="S15" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="T15" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>556</v>
+        <v>844</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>583</v>
+        <v>834</v>
       </c>
       <c r="D16" t="s">
-        <v>584</v>
+        <v>984</v>
       </c>
       <c r="E16" t="s">
-        <v>747</v>
+        <v>985</v>
       </c>
       <c r="F16" t="s">
-        <v>585</v>
+        <v>986</v>
       </c>
       <c r="G16" t="s">
-        <v>586</v>
-      </c>
-      <c r="I16" t="s">
-        <v>414</v>
-      </c>
-      <c r="K16" t="s">
-        <v>587</v>
+        <v>987</v>
       </c>
       <c r="L16" t="s">
-        <v>588</v>
+        <v>767</v>
       </c>
       <c r="O16" t="s">
-        <v>550</v>
-      </c>
-      <c r="S16" t="s">
-        <v>748</v>
-      </c>
-      <c r="T16" t="s">
-        <v>746</v>
+        <v>988</v>
+      </c>
+      <c r="R16" t="s">
+        <v>845</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>623</v>
+        <v>556</v>
       </c>
       <c r="B17" t="s">
-        <v>758</v>
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>581</v>
       </c>
       <c r="D17" t="s">
-        <v>751</v>
+        <v>1009</v>
       </c>
       <c r="E17" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="F17" t="s">
-        <v>753</v>
+        <v>990</v>
       </c>
       <c r="G17" t="s">
-        <v>754</v>
+        <v>582</v>
+      </c>
+      <c r="I17" t="s">
+        <v>414</v>
+      </c>
+      <c r="K17" t="s">
+        <v>583</v>
       </c>
       <c r="L17" t="s">
-        <v>757</v>
-      </c>
-      <c r="R17" t="s">
-        <v>755</v>
+        <v>584</v>
+      </c>
+      <c r="O17" t="s">
+        <v>550</v>
       </c>
       <c r="S17" t="s">
-        <v>756</v>
+        <v>741</v>
+      </c>
+      <c r="T17" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>751</v>
       </c>
       <c r="D18" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E18" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F18" t="s">
-        <v>592</v>
-      </c>
-      <c r="I18" t="s">
-        <v>414</v>
+        <v>746</v>
+      </c>
+      <c r="G18" t="s">
+        <v>747</v>
       </c>
       <c r="L18" t="s">
-        <v>231</v>
-      </c>
-      <c r="O18" t="s">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="R18" t="s">
-        <v>759</v>
+        <v>748</v>
+      </c>
+      <c r="S18" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
-        <v>770</v>
-      </c>
       <c r="D19" t="s">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="E19" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="F19" t="s">
-        <v>773</v>
-      </c>
-      <c r="G19" t="s">
-        <v>772</v>
-      </c>
-      <c r="J19" t="s">
-        <v>771</v>
+        <v>588</v>
+      </c>
+      <c r="I19" t="s">
+        <v>414</v>
       </c>
       <c r="L19" t="s">
-        <v>774</v>
+        <v>231</v>
       </c>
       <c r="O19" t="s">
-        <v>739</v>
-      </c>
-      <c r="S19" t="s">
-        <v>776</v>
+        <v>550</v>
+      </c>
+      <c r="R19" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>851</v>
+        <v>544</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>841</v>
+        <v>763</v>
       </c>
       <c r="D20" t="s">
-        <v>853</v>
+        <v>761</v>
       </c>
       <c r="E20" t="s">
-        <v>852</v>
+        <v>762</v>
+      </c>
+      <c r="F20" t="s">
+        <v>766</v>
       </c>
       <c r="G20" t="s">
-        <v>854</v>
+        <v>765</v>
+      </c>
+      <c r="J20" t="s">
+        <v>764</v>
       </c>
       <c r="L20" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="O20" t="s">
-        <v>855</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>856</v>
+        <v>732</v>
+      </c>
+      <c r="S20" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>569</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>952</v>
+      </c>
+      <c r="E21" t="s">
+        <v>570</v>
+      </c>
+      <c r="F21" t="s">
         <v>571</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>964</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>572</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>573</v>
       </c>
-      <c r="G21" t="s">
+      <c r="L21" t="s">
         <v>574</v>
-      </c>
-      <c r="I21" t="s">
-        <v>575</v>
-      </c>
-      <c r="L21" t="s">
-        <v>576</v>
       </c>
       <c r="O21" t="s">
         <v>550</v>
       </c>
       <c r="S21" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -7191,527 +7358,493 @@
         <v>245</v>
       </c>
       <c r="E22" t="s">
+        <v>589</v>
+      </c>
+      <c r="F22" t="s">
+        <v>590</v>
+      </c>
+      <c r="G22" t="s">
+        <v>591</v>
+      </c>
+      <c r="K22" t="s">
+        <v>592</v>
+      </c>
+      <c r="L22" t="s">
         <v>593</v>
       </c>
-      <c r="F22" t="s">
+      <c r="S22" t="s">
         <v>594</v>
       </c>
-      <c r="G22" t="s">
+      <c r="T22" t="s">
         <v>595</v>
-      </c>
-      <c r="K22" t="s">
-        <v>596</v>
-      </c>
-      <c r="L22" t="s">
-        <v>597</v>
-      </c>
-      <c r="S22" t="s">
-        <v>598</v>
-      </c>
-      <c r="T22" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>596</v>
+      </c>
+      <c r="B23" t="s">
+        <v>942</v>
+      </c>
+      <c r="C23" t="s">
+        <v>597</v>
+      </c>
+      <c r="D23" t="s">
+        <v>598</v>
+      </c>
+      <c r="E23" t="s">
+        <v>599</v>
+      </c>
+      <c r="F23" t="s">
         <v>600</v>
       </c>
-      <c r="B23" t="s">
-        <v>953</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
         <v>601</v>
       </c>
-      <c r="D23" t="s">
+      <c r="I23" t="s">
         <v>602</v>
       </c>
-      <c r="E23" t="s">
+      <c r="J23" t="s">
         <v>603</v>
       </c>
-      <c r="F23" t="s">
+      <c r="L23" t="s">
         <v>604</v>
       </c>
-      <c r="G23" t="s">
+      <c r="M23" t="s">
         <v>605</v>
-      </c>
-      <c r="I23" t="s">
-        <v>606</v>
-      </c>
-      <c r="J23" t="s">
-        <v>607</v>
-      </c>
-      <c r="L23" t="s">
-        <v>608</v>
-      </c>
-      <c r="M23" t="s">
-        <v>609</v>
       </c>
       <c r="O23" t="s">
         <v>550</v>
       </c>
       <c r="S23" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="E24" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="F24" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="L24" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="O24" t="s">
-        <v>902</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>903</v>
+        <v>891</v>
+      </c>
+      <c r="S24" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D25" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E25" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="F25" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="G25" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="L25" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="S25" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B26" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="C26">
         <v>2008</v>
       </c>
       <c r="D26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E26" t="s">
+        <v>607</v>
+      </c>
+      <c r="F26" t="s">
+        <v>608</v>
+      </c>
+      <c r="G26" t="s">
+        <v>609</v>
+      </c>
+      <c r="I26" t="s">
+        <v>573</v>
+      </c>
+      <c r="K26" t="s">
+        <v>610</v>
+      </c>
+      <c r="L26" t="s">
         <v>611</v>
-      </c>
-      <c r="E26" t="s">
-        <v>612</v>
-      </c>
-      <c r="F26" t="s">
-        <v>613</v>
-      </c>
-      <c r="G26" t="s">
-        <v>614</v>
-      </c>
-      <c r="I26" t="s">
-        <v>575</v>
-      </c>
-      <c r="K26" t="s">
-        <v>615</v>
-      </c>
-      <c r="L26" t="s">
-        <v>616</v>
       </c>
       <c r="O26" t="s">
         <v>550</v>
       </c>
       <c r="S26" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="U26" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>965</v>
+        <v>991</v>
       </c>
       <c r="B27" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="D27" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="E27" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="F27" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="L27" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="O27" t="s">
-        <v>929</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>931</v>
+        <v>918</v>
+      </c>
+      <c r="S27" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>619</v>
+        <v>939</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>946</v>
       </c>
       <c r="D28" t="s">
-        <v>327</v>
+        <v>992</v>
       </c>
       <c r="E28" t="s">
-        <v>620</v>
+        <v>938</v>
       </c>
       <c r="F28" t="s">
-        <v>621</v>
-      </c>
-      <c r="H28" t="s">
-        <v>622</v>
+        <v>951</v>
       </c>
       <c r="L28" t="s">
-        <v>141</v>
+        <v>940</v>
+      </c>
+      <c r="R28" t="s">
+        <v>945</v>
       </c>
       <c r="S28" t="s">
-        <v>777</v>
+        <v>948</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>950</v>
+        <v>616</v>
       </c>
       <c r="B29" t="s">
-        <v>957</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>963</v>
+        <v>617</v>
       </c>
       <c r="E29" t="s">
-        <v>949</v>
+        <v>327</v>
       </c>
       <c r="F29" t="s">
-        <v>962</v>
+        <v>590</v>
+      </c>
+      <c r="G29" t="s">
+        <v>618</v>
+      </c>
+      <c r="K29" t="s">
+        <v>619</v>
       </c>
       <c r="L29" t="s">
-        <v>951</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>956</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>959</v>
+        <v>347</v>
+      </c>
+      <c r="M29" t="s">
+        <v>620</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="R29" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>572</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>812</v>
+      </c>
+      <c r="D30" t="s">
+        <v>621</v>
+      </c>
+      <c r="E30" t="s">
+        <v>364</v>
+      </c>
+      <c r="F30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G30" t="s">
         <v>623</v>
       </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>624</v>
-      </c>
-      <c r="E30" t="s">
-        <v>327</v>
-      </c>
-      <c r="F30" t="s">
-        <v>594</v>
-      </c>
-      <c r="G30" t="s">
-        <v>625</v>
-      </c>
       <c r="K30" t="s">
-        <v>626</v>
+        <v>356</v>
       </c>
       <c r="L30" t="s">
-        <v>347</v>
-      </c>
-      <c r="M30" t="s">
-        <v>627</v>
-      </c>
-      <c r="N30" t="s">
-        <v>239</v>
-      </c>
-      <c r="R30" t="s">
-        <v>780</v>
+        <v>141</v>
+      </c>
+      <c r="O30" t="s">
+        <v>571</v>
+      </c>
+      <c r="S30" t="s">
+        <v>742</v>
+      </c>
+      <c r="T30" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C31" t="s">
-        <v>819</v>
-      </c>
       <c r="D31" t="s">
+        <v>624</v>
+      </c>
+      <c r="E31" t="s">
+        <v>625</v>
+      </c>
+      <c r="F31" t="s">
+        <v>626</v>
+      </c>
+      <c r="G31" t="s">
+        <v>627</v>
+      </c>
+      <c r="K31" t="s">
         <v>628</v>
       </c>
-      <c r="E31" t="s">
-        <v>364</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="L31" t="s">
         <v>629</v>
       </c>
-      <c r="G31" t="s">
+      <c r="O31" t="s">
         <v>630</v>
       </c>
-      <c r="K31" t="s">
-        <v>356</v>
-      </c>
-      <c r="L31" t="s">
-        <v>141</v>
-      </c>
-      <c r="O31" t="s">
-        <v>573</v>
+      <c r="R31" t="s">
+        <v>631</v>
       </c>
       <c r="S31" t="s">
-        <v>749</v>
-      </c>
-      <c r="T31" t="s">
-        <v>750</v>
+        <v>632</v>
+      </c>
+      <c r="U31" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>574</v>
+        <v>775</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>631</v>
+        <v>774</v>
       </c>
       <c r="E32" t="s">
-        <v>632</v>
+        <v>776</v>
       </c>
       <c r="F32" t="s">
-        <v>633</v>
-      </c>
-      <c r="G32" t="s">
+        <v>780</v>
+      </c>
+      <c r="L32" t="s">
+        <v>779</v>
+      </c>
+      <c r="S32" t="s">
+        <v>778</v>
+      </c>
+      <c r="T32" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>937</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>930</v>
+      </c>
+      <c r="E33" t="s">
+        <v>941</v>
+      </c>
+      <c r="F33" t="s">
+        <v>931</v>
+      </c>
+      <c r="G33" t="s">
+        <v>932</v>
+      </c>
+      <c r="L33" t="s">
+        <v>933</v>
+      </c>
+      <c r="M33" t="s">
+        <v>936</v>
+      </c>
+      <c r="N33" t="s">
+        <v>935</v>
+      </c>
+      <c r="O33" t="s">
+        <v>793</v>
+      </c>
+      <c r="S33" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>790</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>791</v>
+      </c>
+      <c r="D34" t="s">
+        <v>787</v>
+      </c>
+      <c r="E34" t="s">
+        <v>794</v>
+      </c>
+      <c r="F34" t="s">
+        <v>796</v>
+      </c>
+      <c r="G34" t="s">
+        <v>795</v>
+      </c>
+      <c r="K34" t="s">
+        <v>788</v>
+      </c>
+      <c r="L34" t="s">
+        <v>792</v>
+      </c>
+      <c r="O34" t="s">
+        <v>793</v>
+      </c>
+      <c r="S34" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>634</v>
       </c>
-      <c r="K32" t="s">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
         <v>635</v>
       </c>
-      <c r="L32" t="s">
+      <c r="E35" t="s">
         <v>636</v>
       </c>
-      <c r="O32" t="s">
+      <c r="F35" t="s">
         <v>637</v>
       </c>
-      <c r="R32" t="s">
+      <c r="G35" t="s">
+        <v>797</v>
+      </c>
+      <c r="L35" t="s">
         <v>638</v>
       </c>
-      <c r="S32" t="s">
-        <v>639</v>
-      </c>
-      <c r="U32" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>782</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>781</v>
-      </c>
-      <c r="E33" t="s">
-        <v>783</v>
-      </c>
-      <c r="F33" t="s">
-        <v>787</v>
-      </c>
-      <c r="L33" t="s">
-        <v>786</v>
-      </c>
-      <c r="S33" t="s">
-        <v>785</v>
-      </c>
-      <c r="T33" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>948</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" t="s">
-        <v>941</v>
-      </c>
-      <c r="E34" t="s">
-        <v>952</v>
-      </c>
-      <c r="F34" t="s">
-        <v>942</v>
-      </c>
-      <c r="G34" t="s">
-        <v>943</v>
-      </c>
-      <c r="L34" t="s">
-        <v>944</v>
-      </c>
-      <c r="M34" t="s">
-        <v>947</v>
-      </c>
-      <c r="N34" t="s">
-        <v>946</v>
-      </c>
-      <c r="O34" t="s">
-        <v>800</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>797</v>
-      </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" t="s">
-        <v>798</v>
-      </c>
-      <c r="D35" t="s">
-        <v>794</v>
-      </c>
-      <c r="E35" t="s">
-        <v>801</v>
-      </c>
-      <c r="F35" t="s">
-        <v>803</v>
-      </c>
-      <c r="G35" t="s">
-        <v>802</v>
-      </c>
-      <c r="K35" t="s">
-        <v>795</v>
-      </c>
-      <c r="L35" t="s">
-        <v>799</v>
-      </c>
-      <c r="O35" t="s">
-        <v>800</v>
-      </c>
-      <c r="S35" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R35" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>641</v>
+        <v>804</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>809</v>
       </c>
       <c r="D36" t="s">
-        <v>642</v>
+        <v>810</v>
       </c>
       <c r="E36" t="s">
-        <v>643</v>
+        <v>360</v>
       </c>
       <c r="F36" t="s">
-        <v>644</v>
+        <v>556</v>
       </c>
       <c r="G36" t="s">
-        <v>804</v>
+        <v>805</v>
+      </c>
+      <c r="H36" t="s">
+        <v>806</v>
+      </c>
+      <c r="I36" t="s">
+        <v>550</v>
+      </c>
+      <c r="K36" t="s">
+        <v>807</v>
       </c>
       <c r="L36" t="s">
-        <v>645</v>
-      </c>
-      <c r="R36" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+        <v>362</v>
+      </c>
+      <c r="O36" t="s">
         <v>811</v>
       </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" t="s">
-        <v>816</v>
-      </c>
-      <c r="D37" t="s">
-        <v>817</v>
-      </c>
-      <c r="E37" t="s">
-        <v>360</v>
-      </c>
-      <c r="F37" t="s">
-        <v>556</v>
-      </c>
-      <c r="G37" t="s">
-        <v>812</v>
-      </c>
-      <c r="H37" t="s">
-        <v>813</v>
-      </c>
-      <c r="I37" t="s">
-        <v>550</v>
-      </c>
-      <c r="K37" t="s">
-        <v>814</v>
-      </c>
-      <c r="L37" t="s">
-        <v>362</v>
-      </c>
-      <c r="O37" t="s">
-        <v>818</v>
-      </c>
-      <c r="S37" s="6" t="s">
-        <v>815</v>
+      <c r="S36" t="s">
+        <v>808</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S13" r:id="rId1" xr:uid="{C128D13F-E388-46EF-BC6F-4E08840FA05E}"/>
-    <hyperlink ref="S37" r:id="rId2" xr:uid="{9CB0123F-E74C-490D-A84D-A5AED553534B}"/>
-    <hyperlink ref="R14" r:id="rId3" xr:uid="{44FD2CD1-34CD-4C0B-B628-AD2B0DE1A848}"/>
-    <hyperlink ref="R20" r:id="rId4" xr:uid="{0CCBAE31-83C0-4B23-B4C6-830AB0A58DA9}"/>
-    <hyperlink ref="R5" r:id="rId5" xr:uid="{5338DCDD-92F3-45F7-8BD5-2B6CDA7C8CC1}"/>
-    <hyperlink ref="S24" r:id="rId6" xr:uid="{AC7DAB17-7FFA-4D9D-ACBB-D79ED2205EB0}"/>
-    <hyperlink ref="S27" r:id="rId7" xr:uid="{6E272047-8078-4F98-B4D5-CBA96F1529C9}"/>
-    <hyperlink ref="S34" r:id="rId8" xr:uid="{624ACCBF-6DA1-4882-8539-649B7AA5F351}"/>
-    <hyperlink ref="R29" r:id="rId9" xr:uid="{0B0CCCF4-7D90-4DB4-A400-64D1F4E6A63D}"/>
+    <hyperlink ref="S16" r:id="rId1" location="cite_note-18" xr:uid="{BDFDF2E5-CEBB-4CA0-B224-66232C330931}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7745,13 +7878,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>404</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -7778,16 +7911,16 @@
         <v>400</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>405</v>
@@ -7804,68 +7937,68 @@
         <v>407</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>651</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>658</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>663</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>670</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
@@ -7883,99 +8016,99 @@
         <v>407</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>278</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C9A98-E192-4632-AB50-3F214CD19EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4653B0D-307B-47D1-9F28-793135B62468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1012">
   <si>
     <t>State</t>
   </si>
@@ -2138,9 +2138,6 @@
     <t>Jeffrey Epstein, Ghislaine Maxwell, Others Unknown</t>
   </si>
   <si>
-    <t>Intimidation, Sexual Assault, Harassment, Art Theft</t>
-  </si>
-  <si>
     <t>Intimidation Interstate, Manipulation and Intimidation of Journalists, Across States, Interstate Threats</t>
   </si>
   <si>
@@ -3050,12 +3047,6 @@
     <t>https://www.amazon.com/Mollys-Game-26-Year-Old-High-Stakes-Underground/dp/0062213083</t>
   </si>
   <si>
-    <t>No Status, Criminal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cohen</t>
-  </si>
-  <si>
     <t>Harry Cohn, John Roselli, racketeer, Assailant, Confidential Magazine, Mickey</t>
   </si>
   <si>
@@ -3078,6 +3069,18 @@
   </si>
   <si>
     <t>R Kelly, Jack Palladino</t>
+  </si>
+  <si>
+    <t>Reported, Criminal</t>
+  </si>
+  <si>
+    <t>Film, Music, Musician, Actress, Model</t>
+  </si>
+  <si>
+    <t>Intimidation, Fled States, Sexual Assault, Harassment, Art Theft</t>
+  </si>
+  <si>
+    <t>Actors, Children</t>
   </si>
 </sst>
 </file>
@@ -4151,7 +4154,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>180</v>
@@ -4627,7 +4630,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4638,7 +4641,7 @@
         <v>275</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>276</v>
@@ -4652,7 +4655,7 @@
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>279</v>
@@ -4821,10 +4824,10 @@
         <v>309</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="U44" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4904,7 +4907,7 @@
         <v>148</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>325</v>
@@ -4974,7 +4977,7 @@
     </row>
     <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>334</v>
@@ -4986,7 +4989,7 @@
         <v>336</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>218</v>
@@ -4995,7 +4998,7 @@
         <v>337</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5300,75 +5303,75 @@
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B62" t="s">
+        <v>817</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B62" t="s">
+      <c r="F62" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="U62" s="6" t="s">
         <v>818</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>953</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="U62" s="6" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B63" t="s">
+        <v>879</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>826</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>220</v>
@@ -5377,57 +5380,57 @@
         <v>616</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="V63" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="W63" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B64" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>868</v>
-      </c>
       <c r="I64" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>873</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>616</v>
       </c>
       <c r="T64" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="U64" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="V64" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>
@@ -5511,7 +5514,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5577,7 +5580,7 @@
         <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C2">
         <v>1954</v>
@@ -5609,7 +5612,7 @@
         <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C3">
         <v>2008</v>
@@ -5633,7 +5636,7 @@
         <v>159</v>
       </c>
       <c r="S3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -5673,16 +5676,16 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -5691,28 +5694,28 @@
         <v>413</v>
       </c>
       <c r="G5" t="s">
+        <v>847</v>
+      </c>
+      <c r="J5" t="s">
         <v>848</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>863</v>
+      </c>
+      <c r="M5" t="s">
         <v>849</v>
       </c>
-      <c r="K5" t="s">
-        <v>864</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>850</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>851</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>852</v>
       </c>
-      <c r="S5" t="s">
-        <v>853</v>
-      </c>
       <c r="T5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -5723,171 +5726,177 @@
         <v>963</v>
       </c>
       <c r="C6" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>956</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>426</v>
+        <v>957</v>
+      </c>
+      <c r="I6" t="s">
+        <v>958</v>
       </c>
       <c r="J6" t="s">
-        <v>427</v>
+        <v>959</v>
       </c>
       <c r="P6" t="s">
-        <v>428</v>
+        <v>906</v>
       </c>
       <c r="Q6" t="s">
-        <v>429</v>
+        <v>960</v>
       </c>
       <c r="S6" t="s">
-        <v>430</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
-      </c>
-      <c r="C7">
-        <v>2009</v>
+        <v>962</v>
+      </c>
+      <c r="C7" t="s">
+        <v>966</v>
       </c>
       <c r="D7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
+        <v>425</v>
       </c>
       <c r="F7" t="s">
-        <v>856</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>862</v>
+        <v>426</v>
       </c>
       <c r="J7" t="s">
-        <v>439</v>
-      </c>
-      <c r="K7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="P7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="Q7" t="s">
-        <v>442</v>
-      </c>
-      <c r="R7" t="s">
-        <v>857</v>
+        <v>429</v>
+      </c>
+      <c r="S7" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>1008</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>984</v>
       </c>
       <c r="C8" t="s">
-        <v>901</v>
+        <v>833</v>
       </c>
       <c r="D8" t="s">
-        <v>431</v>
-      </c>
-      <c r="F8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>432</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="s">
-        <v>433</v>
-      </c>
-      <c r="O8" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>435</v>
+        <v>986</v>
+      </c>
+      <c r="K8" t="s">
+        <v>985</v>
+      </c>
+      <c r="P8" t="s">
+        <v>987</v>
       </c>
       <c r="S8" t="s">
-        <v>859</v>
+        <v>844</v>
+      </c>
+      <c r="T8" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C9" t="s">
-        <v>444</v>
+        <v>437</v>
+      </c>
+      <c r="C9">
+        <v>2009</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E9" t="s">
-        <v>446</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>447</v>
+        <v>855</v>
       </c>
       <c r="G9" t="s">
-        <v>448</v>
+        <v>861</v>
       </c>
       <c r="J9" t="s">
-        <v>449</v>
-      </c>
-      <c r="M9" t="s">
-        <v>450</v>
+        <v>439</v>
+      </c>
+      <c r="K9" t="s">
+        <v>440</v>
       </c>
       <c r="P9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="Q9" t="s">
-        <v>452</v>
-      </c>
-      <c r="S9" t="s">
-        <v>453</v>
+        <v>442</v>
+      </c>
+      <c r="R9" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="B10" t="s">
-        <v>455</v>
+        <v>691</v>
       </c>
       <c r="C10" t="s">
-        <v>456</v>
+        <v>692</v>
       </c>
       <c r="D10" t="s">
-        <v>457</v>
+        <v>693</v>
       </c>
       <c r="E10" t="s">
-        <v>458</v>
+        <v>694</v>
+      </c>
+      <c r="F10" t="s">
+        <v>695</v>
       </c>
       <c r="G10" t="s">
-        <v>251</v>
+        <v>696</v>
       </c>
       <c r="J10" t="s">
-        <v>459</v>
-      </c>
-      <c r="K10" t="s">
-        <v>460</v>
-      </c>
-      <c r="M10" t="s">
-        <v>461</v>
+        <v>1010</v>
+      </c>
+      <c r="P10" t="s">
+        <v>697</v>
       </c>
       <c r="Q10" t="s">
-        <v>462</v>
+        <v>698</v>
       </c>
       <c r="S10" t="s">
-        <v>861</v>
+        <v>699</v>
+      </c>
+      <c r="T10" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -5924,256 +5933,253 @@
         <v>407</v>
       </c>
       <c r="B12" t="s">
-        <v>468</v>
+        <v>1011</v>
       </c>
       <c r="C12" t="s">
-        <v>968</v>
+        <v>900</v>
       </c>
       <c r="D12" t="s">
-        <v>469</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
+        <v>431</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="J12" t="s">
-        <v>471</v>
-      </c>
-      <c r="M12" t="s">
-        <v>472</v>
-      </c>
-      <c r="P12" t="s">
-        <v>473</v>
+        <v>433</v>
+      </c>
+      <c r="O12" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>435</v>
       </c>
       <c r="S12" t="s">
-        <v>474</v>
+        <v>858</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="B13" t="s">
-        <v>476</v>
-      </c>
-      <c r="C13">
-        <v>2022</v>
+        <v>443</v>
+      </c>
+      <c r="C13" t="s">
+        <v>444</v>
       </c>
       <c r="D13" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="E13" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="F13" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="G13" t="s">
-        <v>480</v>
-      </c>
-      <c r="H13" t="s">
-        <v>481</v>
-      </c>
-      <c r="I13" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="J13" t="s">
-        <v>483</v>
-      </c>
-      <c r="K13" t="s">
-        <v>484</v>
-      </c>
-      <c r="N13" t="s">
-        <v>485</v>
-      </c>
-      <c r="O13" t="s">
-        <v>486</v>
+        <v>449</v>
+      </c>
+      <c r="M13" t="s">
+        <v>450</v>
       </c>
       <c r="P13" t="s">
-        <v>993</v>
+        <v>451</v>
       </c>
       <c r="Q13" t="s">
-        <v>487</v>
-      </c>
-      <c r="R13" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="S13" t="s">
-        <v>489</v>
-      </c>
-      <c r="T13" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="B14" t="s">
-        <v>491</v>
-      </c>
-      <c r="C14">
-        <v>1986</v>
+        <v>455</v>
+      </c>
+      <c r="C14" t="s">
+        <v>456</v>
       </c>
       <c r="D14" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>458</v>
       </c>
       <c r="G14" t="s">
-        <v>493</v>
+        <v>251</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
-      </c>
-      <c r="P14" t="s">
-        <v>969</v>
+        <v>459</v>
+      </c>
+      <c r="K14" t="s">
+        <v>460</v>
+      </c>
+      <c r="M14" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>462</v>
       </c>
       <c r="S14" t="s">
-        <v>494</v>
-      </c>
-      <c r="T14" t="s">
-        <v>970</v>
+        <v>860</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>495</v>
+        <v>407</v>
       </c>
       <c r="B15" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="C15" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>470</v>
       </c>
       <c r="J15" t="s">
-        <v>498</v>
+        <v>471</v>
+      </c>
+      <c r="M15" t="s">
+        <v>472</v>
+      </c>
+      <c r="P15" t="s">
+        <v>473</v>
       </c>
       <c r="S15" t="s">
-        <v>860</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B16" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C16">
-        <v>1977</v>
+        <v>2022</v>
       </c>
       <c r="D16" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>478</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>479</v>
       </c>
       <c r="G16" t="s">
-        <v>339</v>
+        <v>480</v>
+      </c>
+      <c r="H16" t="s">
+        <v>481</v>
+      </c>
+      <c r="I16" t="s">
+        <v>482</v>
       </c>
       <c r="J16" t="s">
-        <v>501</v>
+        <v>483</v>
+      </c>
+      <c r="K16" t="s">
+        <v>484</v>
+      </c>
+      <c r="N16" t="s">
+        <v>485</v>
+      </c>
+      <c r="O16" t="s">
+        <v>486</v>
+      </c>
+      <c r="P16" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>487</v>
+      </c>
+      <c r="R16" t="s">
+        <v>488</v>
       </c>
       <c r="S16" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="T16" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="B17" t="s">
-        <v>964</v>
-      </c>
-      <c r="C17" t="s">
-        <v>956</v>
+        <v>491</v>
+      </c>
+      <c r="C17">
+        <v>1986</v>
       </c>
       <c r="D17" t="s">
-        <v>957</v>
+        <v>492</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
       </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
       <c r="G17" t="s">
-        <v>958</v>
-      </c>
-      <c r="I17" t="s">
-        <v>959</v>
+        <v>493</v>
       </c>
       <c r="J17" t="s">
-        <v>960</v>
+        <v>140</v>
       </c>
       <c r="P17" t="s">
-        <v>907</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="S17" t="s">
-        <v>965</v>
+        <v>494</v>
+      </c>
+      <c r="T17" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1001</v>
+        <v>495</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>496</v>
       </c>
       <c r="C18" t="s">
-        <v>834</v>
+        <v>973</v>
       </c>
       <c r="D18" t="s">
-        <v>985</v>
+        <v>497</v>
       </c>
       <c r="E18" t="s">
-        <v>1002</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>1003</v>
+        <v>126</v>
       </c>
       <c r="J18" t="s">
-        <v>987</v>
-      </c>
-      <c r="K18" t="s">
-        <v>986</v>
-      </c>
-      <c r="N18" t="s">
-        <v>767</v>
-      </c>
-      <c r="P18" t="s">
-        <v>988</v>
+        <v>498</v>
       </c>
       <c r="S18" t="s">
-        <v>845</v>
-      </c>
-      <c r="T18" t="s">
-        <v>989</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -6181,89 +6187,92 @@
         <v>407</v>
       </c>
       <c r="B19" t="s">
-        <v>975</v>
-      </c>
-      <c r="C19" t="s">
-        <v>976</v>
+        <v>499</v>
+      </c>
+      <c r="C19">
+        <v>1977</v>
       </c>
       <c r="D19" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E19" t="s">
-        <v>505</v>
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>339</v>
       </c>
       <c r="J19" t="s">
-        <v>977</v>
+        <v>501</v>
       </c>
       <c r="S19" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="T19" t="s">
-        <v>978</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>507</v>
+        <v>407</v>
       </c>
       <c r="B20" t="s">
-        <v>508</v>
+        <v>974</v>
       </c>
       <c r="C20" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="D20" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E20" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G20" t="s">
-        <v>511</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>513</v>
+        <v>976</v>
       </c>
       <c r="S20" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="T20" t="s">
-        <v>515</v>
+        <v>977</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>507</v>
       </c>
       <c r="B21" t="s">
-        <v>516</v>
-      </c>
-      <c r="C21">
-        <v>2017</v>
+        <v>508</v>
+      </c>
+      <c r="C21" t="s">
+        <v>970</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>509</v>
       </c>
       <c r="E21" t="s">
-        <v>517</v>
-      </c>
-      <c r="F21" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G21" t="s">
-        <v>339</v>
+        <v>511</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
+        <v>512</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>513</v>
       </c>
       <c r="S21" t="s">
-        <v>502</v>
+        <v>514</v>
+      </c>
+      <c r="T21" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -6271,34 +6280,28 @@
         <v>407</v>
       </c>
       <c r="B22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C22">
-        <v>1982</v>
+        <v>2017</v>
       </c>
       <c r="D22" t="s">
         <v>198</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>517</v>
+      </c>
+      <c r="F22" t="s">
+        <v>517</v>
       </c>
       <c r="G22" t="s">
-        <v>519</v>
+        <v>339</v>
       </c>
       <c r="J22" t="s">
-        <v>520</v>
-      </c>
-      <c r="K22" t="s">
-        <v>521</v>
-      </c>
-      <c r="P22" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>523</v>
+        <v>140</v>
       </c>
       <c r="S22" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -6306,45 +6309,54 @@
         <v>407</v>
       </c>
       <c r="B23" t="s">
-        <v>525</v>
-      </c>
-      <c r="C23" t="s">
-        <v>972</v>
+        <v>518</v>
+      </c>
+      <c r="C23">
+        <v>1982</v>
       </c>
       <c r="D23" t="s">
-        <v>962</v>
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="J23" t="s">
-        <v>527</v>
+        <v>520</v>
+      </c>
+      <c r="K23" t="s">
+        <v>521</v>
+      </c>
+      <c r="P23" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>523</v>
       </c>
       <c r="S23" t="s">
-        <v>855</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>528</v>
+        <v>407</v>
       </c>
       <c r="B24" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C24" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
+        <v>961</v>
       </c>
       <c r="G24" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J24" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="S24" t="s">
         <v>854</v>
@@ -6352,40 +6364,28 @@
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="B25" t="s">
-        <v>691</v>
+        <v>529</v>
       </c>
       <c r="C25" t="s">
-        <v>692</v>
+        <v>972</v>
       </c>
       <c r="D25" t="s">
-        <v>693</v>
+        <v>198</v>
       </c>
       <c r="E25" t="s">
-        <v>694</v>
-      </c>
-      <c r="F25" t="s">
-        <v>695</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>696</v>
+        <v>530</v>
       </c>
       <c r="J25" t="s">
-        <v>697</v>
-      </c>
-      <c r="P25" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>699</v>
+        <v>531</v>
       </c>
       <c r="S25" t="s">
-        <v>700</v>
-      </c>
-      <c r="T25" t="s">
-        <v>701</v>
+        <v>853</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6393,54 +6393,54 @@
         <v>407</v>
       </c>
       <c r="B26" t="s">
+        <v>903</v>
+      </c>
+      <c r="C26" t="s">
+        <v>900</v>
+      </c>
+      <c r="D26" t="s">
+        <v>896</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>895</v>
+      </c>
+      <c r="H26" t="s">
+        <v>897</v>
+      </c>
+      <c r="J26" t="s">
+        <v>905</v>
+      </c>
+      <c r="K26" t="s">
         <v>904</v>
       </c>
-      <c r="C26" t="s">
+      <c r="M26" t="s">
+        <v>899</v>
+      </c>
+      <c r="P26" t="s">
         <v>901</v>
       </c>
-      <c r="D26" t="s">
-        <v>897</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>896</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="S26" t="s">
         <v>898</v>
-      </c>
-      <c r="J26" t="s">
-        <v>906</v>
-      </c>
-      <c r="K26" t="s">
-        <v>905</v>
-      </c>
-      <c r="M26" t="s">
-        <v>900</v>
-      </c>
-      <c r="P26" t="s">
-        <v>902</v>
-      </c>
-      <c r="S26" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>906</v>
+      </c>
+      <c r="B27" t="s">
+        <v>911</v>
+      </c>
+      <c r="C27" t="s">
         <v>907</v>
       </c>
-      <c r="B27" t="s">
-        <v>912</v>
-      </c>
-      <c r="C27" t="s">
-        <v>908</v>
-      </c>
       <c r="D27" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
@@ -6449,54 +6449,54 @@
         <v>413</v>
       </c>
       <c r="G27" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J27" t="s">
+        <v>908</v>
+      </c>
+      <c r="K27" t="s">
         <v>909</v>
       </c>
-      <c r="K27" t="s">
-        <v>910</v>
-      </c>
       <c r="P27" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="S27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B28" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C28" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D28" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J28" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K28" t="s">
         <v>243</v>
       </c>
       <c r="P28" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="S28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -6507,10 +6507,10 @@
         <v>327</v>
       </c>
       <c r="C29" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D29" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
@@ -6519,7 +6519,7 @@
         <v>614</v>
       </c>
       <c r="J29" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="K29" t="s">
         <v>243</v>
@@ -6528,42 +6528,42 @@
         <v>141</v>
       </c>
       <c r="P29" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="S29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B30" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C30">
         <v>2014</v>
       </c>
       <c r="D30" t="s">
+        <v>994</v>
+      </c>
+      <c r="E30" t="s">
         <v>995</v>
-      </c>
-      <c r="E30" t="s">
-        <v>996</v>
       </c>
       <c r="F30" t="s">
         <v>413</v>
       </c>
       <c r="J30" t="s">
+        <v>996</v>
+      </c>
+      <c r="K30" t="s">
         <v>997</v>
       </c>
-      <c r="K30" t="s">
+      <c r="P30" t="s">
         <v>998</v>
       </c>
-      <c r="P30" t="s">
+      <c r="S30" t="s">
         <v>999</v>
-      </c>
-      <c r="S30" t="s">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -6681,7 +6681,7 @@
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D3" t="s">
         <v>552</v>
@@ -6699,7 +6699,7 @@
         <v>555</v>
       </c>
       <c r="S3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -6710,10 +6710,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E4" t="s">
         <v>557</v>
@@ -6728,7 +6728,7 @@
         <v>159</v>
       </c>
       <c r="K4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L4" t="s">
         <v>560</v>
@@ -6742,81 +6742,84 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>824</v>
+        <v>587</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>834</v>
+        <v>759</v>
+      </c>
+      <c r="C5">
+        <v>2019</v>
       </c>
       <c r="D5" t="s">
-        <v>833</v>
+        <v>706</v>
       </c>
       <c r="E5" t="s">
-        <v>823</v>
+        <v>707</v>
       </c>
       <c r="F5" t="s">
-        <v>835</v>
+        <v>708</v>
       </c>
       <c r="G5" t="s">
-        <v>572</v>
+        <v>709</v>
+      </c>
+      <c r="H5" t="s">
+        <v>710</v>
       </c>
       <c r="I5" t="s">
         <v>550</v>
       </c>
+      <c r="K5" t="s">
+        <v>711</v>
+      </c>
       <c r="L5" t="s">
-        <v>846</v>
-      </c>
-      <c r="R5" t="s">
-        <v>845</v>
+        <v>712</v>
+      </c>
+      <c r="M5" t="s">
+        <v>713</v>
+      </c>
+      <c r="O5" t="s">
+        <v>550</v>
+      </c>
+      <c r="P5" t="s">
+        <v>710</v>
+      </c>
+      <c r="S5" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>587</v>
+        <v>843</v>
       </c>
       <c r="B6" t="s">
-        <v>760</v>
-      </c>
-      <c r="C6">
-        <v>2019</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>833</v>
       </c>
       <c r="D6" t="s">
-        <v>707</v>
+        <v>983</v>
       </c>
       <c r="E6" t="s">
-        <v>708</v>
+        <v>984</v>
       </c>
       <c r="F6" t="s">
-        <v>709</v>
+        <v>985</v>
       </c>
       <c r="G6" t="s">
-        <v>710</v>
-      </c>
-      <c r="H6" t="s">
-        <v>711</v>
-      </c>
-      <c r="I6" t="s">
-        <v>550</v>
-      </c>
-      <c r="K6" t="s">
-        <v>712</v>
+        <v>986</v>
       </c>
       <c r="L6" t="s">
-        <v>713</v>
-      </c>
-      <c r="M6" t="s">
-        <v>714</v>
+        <v>766</v>
       </c>
       <c r="O6" t="s">
-        <v>550</v>
-      </c>
-      <c r="P6" t="s">
-        <v>711</v>
-      </c>
-      <c r="S6" t="s">
-        <v>715</v>
+        <v>987</v>
+      </c>
+      <c r="R6" t="s">
+        <v>844</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -6833,13 +6836,13 @@
         <v>159</v>
       </c>
       <c r="E7" t="s">
+        <v>715</v>
+      </c>
+      <c r="F7" t="s">
         <v>716</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>717</v>
-      </c>
-      <c r="G7" t="s">
-        <v>718</v>
       </c>
       <c r="I7" t="s">
         <v>159</v>
@@ -6857,328 +6860,325 @@
         <v>408</v>
       </c>
       <c r="N7" t="s">
+        <v>718</v>
+      </c>
+      <c r="O7" t="s">
         <v>719</v>
       </c>
-      <c r="O7" t="s">
-        <v>720</v>
-      </c>
       <c r="S7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>721</v>
+        <v>823</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>2022</v>
+      <c r="C8" t="s">
+        <v>833</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>832</v>
       </c>
       <c r="E8" t="s">
-        <v>722</v>
+        <v>822</v>
       </c>
       <c r="F8" t="s">
-        <v>979</v>
+        <v>834</v>
       </c>
       <c r="G8" t="s">
-        <v>980</v>
+        <v>572</v>
       </c>
       <c r="I8" t="s">
         <v>550</v>
       </c>
-      <c r="J8" t="s">
-        <v>723</v>
-      </c>
       <c r="L8" t="s">
-        <v>724</v>
-      </c>
-      <c r="M8" t="s">
-        <v>714</v>
-      </c>
-      <c r="O8" t="s">
-        <v>550</v>
-      </c>
-      <c r="S8" t="s">
-        <v>725</v>
+        <v>845</v>
+      </c>
+      <c r="R8" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>544</v>
+        <v>720</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>763</v>
+      <c r="C9">
+        <v>2022</v>
       </c>
       <c r="D9" t="s">
-        <v>753</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>755</v>
+        <v>721</v>
       </c>
       <c r="F9" t="s">
-        <v>756</v>
+        <v>978</v>
       </c>
       <c r="G9" t="s">
-        <v>757</v>
+        <v>979</v>
       </c>
       <c r="I9" t="s">
-        <v>759</v>
+        <v>550</v>
+      </c>
+      <c r="J9" t="s">
+        <v>722</v>
       </c>
       <c r="L9" t="s">
-        <v>754</v>
+        <v>723</v>
+      </c>
+      <c r="M9" t="s">
+        <v>713</v>
       </c>
       <c r="O9" t="s">
-        <v>758</v>
-      </c>
-      <c r="R9" t="s">
-        <v>752</v>
+        <v>550</v>
+      </c>
+      <c r="S9" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>721</v>
+        <v>544</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>726</v>
+        <v>762</v>
       </c>
       <c r="D10" t="s">
-        <v>727</v>
+        <v>752</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>754</v>
       </c>
       <c r="F10" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="G10" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
-      </c>
-      <c r="J10" t="s">
-        <v>729</v>
+        <v>758</v>
       </c>
       <c r="L10" t="s">
-        <v>730</v>
-      </c>
-      <c r="M10" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="O10" t="s">
-        <v>732</v>
-      </c>
-      <c r="S10" t="s">
-        <v>733</v>
-      </c>
-      <c r="T10" t="s">
-        <v>734</v>
+        <v>757</v>
+      </c>
+      <c r="R10" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>981</v>
+        <v>720</v>
       </c>
       <c r="B11" t="s">
-        <v>944</v>
-      </c>
-      <c r="C11">
-        <v>2024</v>
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>725</v>
       </c>
       <c r="D11" t="s">
-        <v>786</v>
+        <v>726</v>
       </c>
       <c r="E11" t="s">
-        <v>562</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>563</v>
+        <v>726</v>
       </c>
       <c r="G11" t="s">
-        <v>982</v>
-      </c>
-      <c r="H11" t="s">
-        <v>983</v>
+        <v>727</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>159</v>
+      </c>
+      <c r="J11" t="s">
+        <v>728</v>
       </c>
       <c r="L11" t="s">
-        <v>564</v>
+        <v>729</v>
+      </c>
+      <c r="M11" t="s">
+        <v>730</v>
       </c>
       <c r="O11" t="s">
-        <v>550</v>
+        <v>731</v>
       </c>
       <c r="S11" t="s">
-        <v>123</v>
+        <v>732</v>
+      </c>
+      <c r="T11" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>565</v>
+        <v>980</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>943</v>
       </c>
       <c r="C12">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D12" t="s">
-        <v>508</v>
+        <v>785</v>
       </c>
       <c r="E12" t="s">
-        <v>511</v>
+        <v>562</v>
       </c>
       <c r="F12" t="s">
-        <v>566</v>
+        <v>563</v>
+      </c>
+      <c r="G12" t="s">
+        <v>981</v>
+      </c>
+      <c r="H12" t="s">
+        <v>982</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="O12" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="S12" t="s">
-        <v>514</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>798</v>
+        <v>565</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>799</v>
+      <c r="C13">
+        <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>800</v>
+        <v>508</v>
       </c>
       <c r="E13" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="F13" t="s">
-        <v>801</v>
+        <v>566</v>
       </c>
       <c r="L13" t="s">
-        <v>802</v>
+        <v>567</v>
       </c>
       <c r="O13" t="s">
-        <v>843</v>
+        <v>568</v>
       </c>
       <c r="S13" t="s">
-        <v>803</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>797</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>798</v>
+      </c>
+      <c r="D14" t="s">
+        <v>799</v>
+      </c>
+      <c r="E14" t="s">
+        <v>546</v>
+      </c>
+      <c r="F14" t="s">
+        <v>800</v>
+      </c>
+      <c r="L14" t="s">
+        <v>801</v>
+      </c>
+      <c r="O14" t="s">
         <v>842</v>
       </c>
-      <c r="B14" t="s">
-        <v>837</v>
-      </c>
-      <c r="C14">
-        <v>2024</v>
-      </c>
-      <c r="D14" t="s">
-        <v>840</v>
-      </c>
-      <c r="E14" t="s">
-        <v>836</v>
-      </c>
-      <c r="F14" t="s">
-        <v>838</v>
-      </c>
-      <c r="L14" t="s">
-        <v>839</v>
-      </c>
-      <c r="R14" t="s">
-        <v>841</v>
+      <c r="S14" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>575</v>
+        <v>841</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>576</v>
+        <v>836</v>
+      </c>
+      <c r="C15">
+        <v>2024</v>
       </c>
       <c r="D15" t="s">
-        <v>1008</v>
+        <v>839</v>
       </c>
       <c r="E15" t="s">
-        <v>813</v>
+        <v>835</v>
       </c>
       <c r="F15" t="s">
-        <v>578</v>
-      </c>
-      <c r="G15" t="s">
-        <v>579</v>
-      </c>
-      <c r="I15" t="s">
-        <v>580</v>
+        <v>837</v>
       </c>
       <c r="L15" t="s">
-        <v>231</v>
-      </c>
-      <c r="O15" t="s">
-        <v>550</v>
-      </c>
-      <c r="S15" t="s">
-        <v>613</v>
-      </c>
-      <c r="T15" t="s">
-        <v>738</v>
+        <v>838</v>
+      </c>
+      <c r="R15" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>844</v>
+        <v>575</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>834</v>
+        <v>576</v>
       </c>
       <c r="D16" t="s">
-        <v>984</v>
+        <v>1005</v>
       </c>
       <c r="E16" t="s">
-        <v>985</v>
+        <v>812</v>
       </c>
       <c r="F16" t="s">
-        <v>986</v>
+        <v>578</v>
       </c>
       <c r="G16" t="s">
-        <v>987</v>
+        <v>579</v>
+      </c>
+      <c r="I16" t="s">
+        <v>580</v>
       </c>
       <c r="L16" t="s">
-        <v>767</v>
+        <v>231</v>
       </c>
       <c r="O16" t="s">
-        <v>988</v>
-      </c>
-      <c r="R16" t="s">
-        <v>845</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>989</v>
+        <v>550</v>
+      </c>
+      <c r="S16" t="s">
+        <v>613</v>
+      </c>
+      <c r="T16" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -7192,13 +7192,13 @@
         <v>581</v>
       </c>
       <c r="D17" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F17" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G17" t="s">
         <v>582</v>
@@ -7216,10 +7216,10 @@
         <v>550</v>
       </c>
       <c r="S17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -7227,28 +7227,28 @@
         <v>616</v>
       </c>
       <c r="B18" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D18" t="s">
+        <v>743</v>
+      </c>
+      <c r="E18" t="s">
         <v>744</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>745</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>746</v>
       </c>
-      <c r="G18" t="s">
+      <c r="L18" t="s">
+        <v>749</v>
+      </c>
+      <c r="R18" t="s">
         <v>747</v>
       </c>
-      <c r="L18" t="s">
-        <v>750</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>748</v>
-      </c>
-      <c r="S18" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -7259,10 +7259,10 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
+        <v>735</v>
+      </c>
+      <c r="E19" t="s">
         <v>736</v>
-      </c>
-      <c r="E19" t="s">
-        <v>737</v>
       </c>
       <c r="F19" t="s">
         <v>588</v>
@@ -7277,7 +7277,7 @@
         <v>550</v>
       </c>
       <c r="R19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -7288,31 +7288,31 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
+        <v>762</v>
+      </c>
+      <c r="D20" t="s">
+        <v>760</v>
+      </c>
+      <c r="E20" t="s">
+        <v>761</v>
+      </c>
+      <c r="F20" t="s">
+        <v>765</v>
+      </c>
+      <c r="G20" t="s">
+        <v>764</v>
+      </c>
+      <c r="J20" t="s">
         <v>763</v>
       </c>
-      <c r="D20" t="s">
-        <v>761</v>
-      </c>
-      <c r="E20" t="s">
-        <v>762</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="L20" t="s">
         <v>766</v>
       </c>
-      <c r="G20" t="s">
-        <v>765</v>
-      </c>
-      <c r="J20" t="s">
-        <v>764</v>
-      </c>
-      <c r="L20" t="s">
-        <v>767</v>
-      </c>
       <c r="O20" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="S20" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -7323,7 +7323,7 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E21" t="s">
         <v>570</v>
@@ -7344,7 +7344,7 @@
         <v>550</v>
       </c>
       <c r="S21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -7384,7 +7384,7 @@
         <v>596</v>
       </c>
       <c r="B23" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C23" t="s">
         <v>597</v>
@@ -7417,33 +7417,33 @@
         <v>550</v>
       </c>
       <c r="S23" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>892</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>889</v>
+      </c>
+      <c r="E24" t="s">
         <v>893</v>
       </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>894</v>
+      </c>
+      <c r="L24" t="s">
+        <v>888</v>
+      </c>
+      <c r="O24" t="s">
         <v>890</v>
       </c>
-      <c r="E24" t="s">
-        <v>894</v>
-      </c>
-      <c r="F24" t="s">
-        <v>895</v>
-      </c>
-      <c r="L24" t="s">
-        <v>889</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="S24" t="s">
         <v>891</v>
-      </c>
-      <c r="S24" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -7460,19 +7460,19 @@
         <v>577</v>
       </c>
       <c r="E25" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F25" t="s">
+        <v>781</v>
+      </c>
+      <c r="G25" t="s">
         <v>782</v>
       </c>
-      <c r="G25" t="s">
+      <c r="L25" t="s">
         <v>783</v>
       </c>
-      <c r="L25" t="s">
-        <v>784</v>
-      </c>
       <c r="S25" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -7480,13 +7480,13 @@
         <v>606</v>
       </c>
       <c r="B26" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C26">
         <v>2008</v>
       </c>
       <c r="D26" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E26" t="s">
         <v>607</v>
@@ -7518,54 +7518,54 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B27" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D27" t="s">
+        <v>914</v>
+      </c>
+      <c r="E27" t="s">
+        <v>918</v>
+      </c>
+      <c r="F27" t="s">
         <v>915</v>
       </c>
-      <c r="E27" t="s">
+      <c r="L27" t="s">
+        <v>916</v>
+      </c>
+      <c r="O27" t="s">
+        <v>917</v>
+      </c>
+      <c r="S27" t="s">
         <v>919</v>
-      </c>
-      <c r="F27" t="s">
-        <v>916</v>
-      </c>
-      <c r="L27" t="s">
-        <v>917</v>
-      </c>
-      <c r="O27" t="s">
-        <v>918</v>
-      </c>
-      <c r="S27" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>938</v>
+      </c>
+      <c r="B28" t="s">
+        <v>945</v>
+      </c>
+      <c r="D28" t="s">
+        <v>991</v>
+      </c>
+      <c r="E28" t="s">
+        <v>937</v>
+      </c>
+      <c r="F28" t="s">
+        <v>950</v>
+      </c>
+      <c r="L28" t="s">
         <v>939</v>
       </c>
-      <c r="B28" t="s">
-        <v>946</v>
-      </c>
-      <c r="D28" t="s">
-        <v>992</v>
-      </c>
-      <c r="E28" t="s">
-        <v>938</v>
-      </c>
-      <c r="F28" t="s">
-        <v>951</v>
-      </c>
-      <c r="L28" t="s">
-        <v>940</v>
-      </c>
       <c r="R28" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="S28" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -7600,7 +7600,7 @@
         <v>239</v>
       </c>
       <c r="R29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -7611,7 +7611,7 @@
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D30" t="s">
         <v>621</v>
@@ -7635,10 +7635,10 @@
         <v>571</v>
       </c>
       <c r="S30" t="s">
+        <v>741</v>
+      </c>
+      <c r="T30" t="s">
         <v>742</v>
-      </c>
-      <c r="T30" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7681,98 +7681,98 @@
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>774</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>773</v>
+      </c>
+      <c r="E32" t="s">
         <v>775</v>
       </c>
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" t="s">
-        <v>774</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>779</v>
+      </c>
+      <c r="L32" t="s">
+        <v>778</v>
+      </c>
+      <c r="S32" t="s">
+        <v>777</v>
+      </c>
+      <c r="T32" t="s">
         <v>776</v>
-      </c>
-      <c r="F32" t="s">
-        <v>780</v>
-      </c>
-      <c r="L32" t="s">
-        <v>779</v>
-      </c>
-      <c r="S32" t="s">
-        <v>778</v>
-      </c>
-      <c r="T32" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
       </c>
       <c r="D33" t="s">
+        <v>929</v>
+      </c>
+      <c r="E33" t="s">
+        <v>940</v>
+      </c>
+      <c r="F33" t="s">
         <v>930</v>
       </c>
-      <c r="E33" t="s">
-        <v>941</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>931</v>
       </c>
-      <c r="G33" t="s">
+      <c r="L33" t="s">
         <v>932</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
+        <v>935</v>
+      </c>
+      <c r="N33" t="s">
+        <v>934</v>
+      </c>
+      <c r="O33" t="s">
+        <v>792</v>
+      </c>
+      <c r="S33" t="s">
         <v>933</v>
-      </c>
-      <c r="M33" t="s">
-        <v>936</v>
-      </c>
-      <c r="N33" t="s">
-        <v>935</v>
-      </c>
-      <c r="O33" t="s">
-        <v>793</v>
-      </c>
-      <c r="S33" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>789</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
         <v>790</v>
       </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>786</v>
+      </c>
+      <c r="E34" t="s">
+        <v>793</v>
+      </c>
+      <c r="F34" t="s">
+        <v>795</v>
+      </c>
+      <c r="G34" t="s">
+        <v>794</v>
+      </c>
+      <c r="K34" t="s">
+        <v>787</v>
+      </c>
+      <c r="L34" t="s">
         <v>791</v>
       </c>
-      <c r="D34" t="s">
-        <v>787</v>
-      </c>
-      <c r="E34" t="s">
-        <v>794</v>
-      </c>
-      <c r="F34" t="s">
-        <v>796</v>
-      </c>
-      <c r="G34" t="s">
-        <v>795</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="O34" t="s">
+        <v>792</v>
+      </c>
+      <c r="S34" t="s">
         <v>788</v>
-      </c>
-      <c r="L34" t="s">
-        <v>792</v>
-      </c>
-      <c r="O34" t="s">
-        <v>793</v>
-      </c>
-      <c r="S34" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7792,7 +7792,7 @@
         <v>637</v>
       </c>
       <c r="G35" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="L35" t="s">
         <v>638</v>
@@ -7803,16 +7803,16 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
       </c>
       <c r="C36" t="s">
+        <v>808</v>
+      </c>
+      <c r="D36" t="s">
         <v>809</v>
-      </c>
-      <c r="D36" t="s">
-        <v>810</v>
       </c>
       <c r="E36" t="s">
         <v>360</v>
@@ -7821,30 +7821,30 @@
         <v>556</v>
       </c>
       <c r="G36" t="s">
+        <v>804</v>
+      </c>
+      <c r="H36" t="s">
         <v>805</v>
-      </c>
-      <c r="H36" t="s">
-        <v>806</v>
       </c>
       <c r="I36" t="s">
         <v>550</v>
       </c>
       <c r="K36" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L36" t="s">
         <v>362</v>
       </c>
       <c r="O36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="S36" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S16" r:id="rId1" location="cite_note-18" xr:uid="{BDFDF2E5-CEBB-4CA0-B224-66232C330931}"/>
+    <hyperlink ref="S6" r:id="rId1" location="cite_note-18" xr:uid="{558100A1-1496-4788-A213-08E8BAD0A72D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4653B0D-307B-47D1-9F28-793135B62468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B9D008-1508-40D7-B386-543F40487A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1013">
   <si>
     <t>State</t>
   </si>
@@ -1298,9 +1298,6 @@
     <t>Suspicious, Criminal</t>
   </si>
   <si>
-    <t>Natalie Wood</t>
-  </si>
-  <si>
     <t>1981, 2011</t>
   </si>
   <si>
@@ -1358,9 +1355,6 @@
     <t>Criminal, Not Filed</t>
   </si>
   <si>
-    <t>Brittany Murphy, Julia Davis</t>
-  </si>
-  <si>
     <t>Film, Actress, Stunts</t>
   </si>
   <si>
@@ -3081,6 +3075,15 @@
   </si>
   <si>
     <t>Actors, Children</t>
+  </si>
+  <si>
+    <t>Film, Actress, Witnesses, Boating</t>
+  </si>
+  <si>
+    <t>Natalie Wood, Dennis Davern, Witnesses</t>
+  </si>
+  <si>
+    <t>Brittany Murphy, Julia Davis, Witnesses</t>
   </si>
 </sst>
 </file>
@@ -3409,7 +3412,7 @@
   </sheetPr>
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4154,7 +4157,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>180</v>
@@ -4405,7 +4408,7 @@
         <v>229</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>230</v>
@@ -4630,7 +4633,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="6" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4641,7 +4644,7 @@
         <v>275</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>276</v>
@@ -4655,7 +4658,7 @@
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>279</v>
@@ -4824,10 +4827,10 @@
         <v>309</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="U44" s="6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4907,7 +4910,7 @@
         <v>148</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>325</v>
@@ -4977,7 +4980,7 @@
     </row>
     <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>334</v>
@@ -4989,7 +4992,7 @@
         <v>336</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>218</v>
@@ -4998,7 +5001,7 @@
         <v>337</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5303,134 +5306,134 @@
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B62" t="s">
+        <v>815</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B62" t="s">
+      <c r="G62" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="R62" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>952</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="U62" s="6" t="s">
         <v>816</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="U62" s="6" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B63" t="s">
+        <v>877</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>881</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I63" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>829</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>220</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="V63" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="W63" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B64" t="s">
+        <v>882</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B64" t="s">
-        <v>884</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="J64" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="T64" t="s">
+        <v>881</v>
+      </c>
+      <c r="U64" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="T64" t="s">
+      <c r="V64" s="6" t="s">
         <v>883</v>
-      </c>
-      <c r="U64" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="V64" s="6" t="s">
-        <v>885</v>
       </c>
     </row>
   </sheetData>
@@ -5514,7 +5517,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5580,7 +5583,7 @@
         <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C2">
         <v>1954</v>
@@ -5612,7 +5615,7 @@
         <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C3">
         <v>2008</v>
@@ -5636,7 +5639,7 @@
         <v>159</v>
       </c>
       <c r="S3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -5644,48 +5647,48 @@
         <v>416</v>
       </c>
       <c r="B4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C4" t="s">
         <v>417</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>418</v>
       </c>
-      <c r="D4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>419</v>
       </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
         <v>420</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>421</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>422</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>423</v>
-      </c>
-      <c r="T4" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B5" t="s">
+        <v>860</v>
+      </c>
+      <c r="C5" t="s">
+        <v>844</v>
+      </c>
+      <c r="D5" t="s">
         <v>862</v>
-      </c>
-      <c r="C5" t="s">
-        <v>846</v>
-      </c>
-      <c r="D5" t="s">
-        <v>864</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -5694,28 +5697,28 @@
         <v>413</v>
       </c>
       <c r="G5" t="s">
+        <v>845</v>
+      </c>
+      <c r="J5" t="s">
+        <v>846</v>
+      </c>
+      <c r="K5" t="s">
+        <v>861</v>
+      </c>
+      <c r="M5" t="s">
         <v>847</v>
       </c>
-      <c r="J5" t="s">
+      <c r="P5" t="s">
         <v>848</v>
       </c>
-      <c r="K5" t="s">
-        <v>863</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="Q5" t="s">
         <v>849</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
         <v>850</v>
       </c>
-      <c r="Q5" t="s">
-        <v>851</v>
-      </c>
-      <c r="S5" t="s">
-        <v>852</v>
-      </c>
       <c r="T5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -5723,180 +5726,180 @@
         <v>407</v>
       </c>
       <c r="B6" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C6" t="s">
+        <v>953</v>
+      </c>
+      <c r="D6" t="s">
+        <v>954</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>955</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>956</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>957</v>
       </c>
-      <c r="I6" t="s">
+      <c r="P6" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q6" t="s">
         <v>958</v>
       </c>
-      <c r="J6" t="s">
-        <v>959</v>
-      </c>
-      <c r="P6" t="s">
-        <v>906</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>960</v>
-      </c>
       <c r="S6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
-        <v>962</v>
-      </c>
-      <c r="C7" t="s">
-        <v>966</v>
+        <v>1012</v>
+      </c>
+      <c r="C7">
+        <v>2009</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>436</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>853</v>
       </c>
       <c r="G7" t="s">
-        <v>426</v>
+        <v>859</v>
       </c>
       <c r="J7" t="s">
-        <v>427</v>
+        <v>437</v>
+      </c>
+      <c r="K7" t="s">
+        <v>438</v>
       </c>
       <c r="P7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="Q7" t="s">
-        <v>429</v>
-      </c>
-      <c r="S7" t="s">
-        <v>430</v>
+        <v>440</v>
+      </c>
+      <c r="R7" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B8" t="s">
+        <v>982</v>
+      </c>
+      <c r="C8" t="s">
+        <v>831</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>998</v>
+      </c>
+      <c r="J8" t="s">
         <v>984</v>
       </c>
-      <c r="C8" t="s">
-        <v>833</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>983</v>
+      </c>
+      <c r="P8" t="s">
+        <v>985</v>
+      </c>
+      <c r="S8" t="s">
+        <v>842</v>
+      </c>
+      <c r="T8" t="s">
         <v>986</v>
-      </c>
-      <c r="K8" t="s">
-        <v>985</v>
-      </c>
-      <c r="P8" t="s">
-        <v>987</v>
-      </c>
-      <c r="S8" t="s">
-        <v>844</v>
-      </c>
-      <c r="T8" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C9">
-        <v>2009</v>
+        <v>960</v>
+      </c>
+      <c r="C9" t="s">
+        <v>964</v>
       </c>
       <c r="D9" t="s">
-        <v>438</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
+        <v>424</v>
       </c>
       <c r="F9" t="s">
-        <v>855</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>861</v>
+        <v>425</v>
       </c>
       <c r="J9" t="s">
-        <v>439</v>
-      </c>
-      <c r="K9" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="P9" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="Q9" t="s">
-        <v>442</v>
-      </c>
-      <c r="R9" t="s">
-        <v>856</v>
+        <v>428</v>
+      </c>
+      <c r="S9" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C10" t="s">
+        <v>690</v>
+      </c>
+      <c r="D10" t="s">
         <v>691</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>692</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>693</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>694</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P10" t="s">
         <v>695</v>
       </c>
-      <c r="G10" t="s">
+      <c r="Q10" t="s">
         <v>696</v>
       </c>
-      <c r="J10" t="s">
-        <v>1010</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="S10" t="s">
         <v>697</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="T10" t="s">
         <v>698</v>
-      </c>
-      <c r="S10" t="s">
-        <v>699</v>
-      </c>
-      <c r="T10" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -5904,28 +5907,28 @@
         <v>407</v>
       </c>
       <c r="B11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C11">
         <v>2020</v>
       </c>
       <c r="D11" t="s">
+        <v>462</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>463</v>
+      </c>
+      <c r="J11" t="s">
         <v>464</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>465</v>
-      </c>
-      <c r="J11" t="s">
-        <v>466</v>
       </c>
       <c r="M11" t="s">
         <v>159</v>
       </c>
       <c r="S11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -5933,31 +5936,31 @@
         <v>407</v>
       </c>
       <c r="B12" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C12" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D12" t="s">
+        <v>430</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>431</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>432</v>
       </c>
-      <c r="J12" t="s">
+      <c r="O12" t="s">
         <v>433</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>434</v>
       </c>
-      <c r="Q12" t="s">
-        <v>435</v>
-      </c>
       <c r="S12" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -5965,72 +5968,72 @@
         <v>407</v>
       </c>
       <c r="B13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" t="s">
+        <v>442</v>
+      </c>
+      <c r="D13" t="s">
         <v>443</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>444</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>445</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>446</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>447</v>
       </c>
-      <c r="G13" t="s">
+      <c r="M13" t="s">
         <v>448</v>
       </c>
-      <c r="J13" t="s">
+      <c r="P13" t="s">
         <v>449</v>
       </c>
-      <c r="M13" t="s">
+      <c r="Q13" t="s">
         <v>450</v>
       </c>
-      <c r="P13" t="s">
+      <c r="S13" t="s">
         <v>451</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>452</v>
-      </c>
-      <c r="S13" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B14" t="s">
+        <v>453</v>
+      </c>
+      <c r="C14" t="s">
         <v>454</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>455</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>456</v>
-      </c>
-      <c r="D14" t="s">
-        <v>457</v>
-      </c>
-      <c r="E14" t="s">
-        <v>458</v>
       </c>
       <c r="G14" t="s">
         <v>251</v>
       </c>
       <c r="J14" t="s">
+        <v>457</v>
+      </c>
+      <c r="K14" t="s">
+        <v>458</v>
+      </c>
+      <c r="M14" t="s">
         <v>459</v>
       </c>
-      <c r="K14" t="s">
+      <c r="Q14" t="s">
         <v>460</v>
       </c>
-      <c r="M14" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>462</v>
-      </c>
       <c r="S14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -6038,13 +6041,13 @@
         <v>407</v>
       </c>
       <c r="B15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C15" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
@@ -6053,121 +6056,121 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
+        <v>468</v>
+      </c>
+      <c r="J15" t="s">
+        <v>469</v>
+      </c>
+      <c r="M15" t="s">
         <v>470</v>
       </c>
-      <c r="J15" t="s">
+      <c r="P15" t="s">
         <v>471</v>
       </c>
-      <c r="M15" t="s">
+      <c r="S15" t="s">
         <v>472</v>
-      </c>
-      <c r="P15" t="s">
-        <v>473</v>
-      </c>
-      <c r="S15" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
       <c r="D16" t="s">
+        <v>475</v>
+      </c>
+      <c r="E16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F16" t="s">
         <v>477</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>478</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>479</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>480</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>481</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>482</v>
       </c>
-      <c r="J16" t="s">
+      <c r="N16" t="s">
         <v>483</v>
       </c>
-      <c r="K16" t="s">
+      <c r="O16" t="s">
         <v>484</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q16" t="s">
         <v>485</v>
       </c>
-      <c r="O16" t="s">
+      <c r="R16" t="s">
         <v>486</v>
       </c>
-      <c r="P16" t="s">
-        <v>992</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>487</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>488</v>
-      </c>
-      <c r="S16" t="s">
-        <v>489</v>
-      </c>
-      <c r="T16" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C17">
         <v>1986</v>
       </c>
       <c r="D17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J17" t="s">
         <v>140</v>
       </c>
       <c r="P17" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="S17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="T17" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B18" t="s">
+        <v>494</v>
+      </c>
+      <c r="C18" t="s">
+        <v>971</v>
+      </c>
+      <c r="D18" t="s">
         <v>495</v>
-      </c>
-      <c r="B18" t="s">
-        <v>496</v>
-      </c>
-      <c r="C18" t="s">
-        <v>973</v>
-      </c>
-      <c r="D18" t="s">
-        <v>497</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -6176,10 +6179,10 @@
         <v>126</v>
       </c>
       <c r="J18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="S18" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -6187,13 +6190,13 @@
         <v>407</v>
       </c>
       <c r="B19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C19">
         <v>1977</v>
       </c>
       <c r="D19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -6205,13 +6208,13 @@
         <v>339</v>
       </c>
       <c r="J19" t="s">
+        <v>499</v>
+      </c>
+      <c r="S19" t="s">
+        <v>500</v>
+      </c>
+      <c r="T19" t="s">
         <v>501</v>
-      </c>
-      <c r="S19" t="s">
-        <v>502</v>
-      </c>
-      <c r="T19" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -6219,60 +6222,60 @@
         <v>407</v>
       </c>
       <c r="B20" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C20" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="S20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="T20" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>505</v>
+      </c>
+      <c r="B21" t="s">
+        <v>506</v>
+      </c>
+      <c r="C21" t="s">
+        <v>968</v>
+      </c>
+      <c r="D21" t="s">
         <v>507</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>508</v>
       </c>
-      <c r="C21" t="s">
-        <v>970</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
         <v>509</v>
       </c>
-      <c r="E21" t="s">
+      <c r="J21" t="s">
         <v>510</v>
       </c>
-      <c r="G21" t="s">
+      <c r="Q21" t="s">
         <v>511</v>
       </c>
-      <c r="J21" t="s">
+      <c r="S21" t="s">
         <v>512</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="T21" t="s">
         <v>513</v>
-      </c>
-      <c r="S21" t="s">
-        <v>514</v>
-      </c>
-      <c r="T21" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -6280,7 +6283,7 @@
         <v>407</v>
       </c>
       <c r="B22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C22">
         <v>2017</v>
@@ -6289,10 +6292,10 @@
         <v>198</v>
       </c>
       <c r="E22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G22" t="s">
         <v>339</v>
@@ -6301,7 +6304,7 @@
         <v>140</v>
       </c>
       <c r="S22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -6309,7 +6312,7 @@
         <v>407</v>
       </c>
       <c r="B23" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C23">
         <v>1982</v>
@@ -6321,22 +6324,22 @@
         <v>21</v>
       </c>
       <c r="G23" t="s">
+        <v>517</v>
+      </c>
+      <c r="J23" t="s">
+        <v>518</v>
+      </c>
+      <c r="K23" t="s">
         <v>519</v>
       </c>
-      <c r="J23" t="s">
+      <c r="P23" t="s">
         <v>520</v>
       </c>
-      <c r="K23" t="s">
+      <c r="Q23" t="s">
         <v>521</v>
       </c>
-      <c r="P23" t="s">
+      <c r="S23" t="s">
         <v>522</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>523</v>
-      </c>
-      <c r="S23" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -6344,33 +6347,33 @@
         <v>407</v>
       </c>
       <c r="B24" t="s">
+        <v>523</v>
+      </c>
+      <c r="C24" t="s">
+        <v>969</v>
+      </c>
+      <c r="D24" t="s">
+        <v>959</v>
+      </c>
+      <c r="G24" t="s">
+        <v>524</v>
+      </c>
+      <c r="J24" t="s">
         <v>525</v>
       </c>
-      <c r="C24" t="s">
-        <v>971</v>
-      </c>
-      <c r="D24" t="s">
-        <v>961</v>
-      </c>
-      <c r="G24" t="s">
-        <v>526</v>
-      </c>
-      <c r="J24" t="s">
-        <v>527</v>
-      </c>
       <c r="S24" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B25" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C25" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D25" t="s">
         <v>198</v>
@@ -6379,13 +6382,13 @@
         <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J25" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="S25" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6393,54 +6396,54 @@
         <v>407</v>
       </c>
       <c r="B26" t="s">
+        <v>901</v>
+      </c>
+      <c r="C26" t="s">
+        <v>898</v>
+      </c>
+      <c r="D26" t="s">
+        <v>894</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>893</v>
+      </c>
+      <c r="H26" t="s">
+        <v>895</v>
+      </c>
+      <c r="J26" t="s">
         <v>903</v>
       </c>
-      <c r="C26" t="s">
-        <v>900</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="K26" t="s">
+        <v>902</v>
+      </c>
+      <c r="M26" t="s">
+        <v>897</v>
+      </c>
+      <c r="P26" t="s">
+        <v>899</v>
+      </c>
+      <c r="S26" t="s">
         <v>896</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>895</v>
-      </c>
-      <c r="H26" t="s">
-        <v>897</v>
-      </c>
-      <c r="J26" t="s">
-        <v>905</v>
-      </c>
-      <c r="K26" t="s">
-        <v>904</v>
-      </c>
-      <c r="M26" t="s">
-        <v>899</v>
-      </c>
-      <c r="P26" t="s">
-        <v>901</v>
-      </c>
-      <c r="S26" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B27" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C27" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D27" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
@@ -6449,77 +6452,77 @@
         <v>413</v>
       </c>
       <c r="G27" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J27" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="K27" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="P27" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="S27" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B28" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C28" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D28" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H28" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J28" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="K28" t="s">
         <v>243</v>
       </c>
       <c r="P28" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="S28" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B29" t="s">
         <v>327</v>
       </c>
       <c r="C29" t="s">
+        <v>999</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>612</v>
+      </c>
+      <c r="J29" t="s">
         <v>1001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>614</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1003</v>
       </c>
       <c r="K29" t="s">
         <v>243</v>
@@ -6528,42 +6531,42 @@
         <v>141</v>
       </c>
       <c r="P29" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="S29" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B30" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C30">
         <v>2014</v>
       </c>
       <c r="D30" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E30" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F30" t="s">
         <v>413</v>
       </c>
       <c r="J30" t="s">
+        <v>994</v>
+      </c>
+      <c r="K30" t="s">
+        <v>995</v>
+      </c>
+      <c r="P30" t="s">
         <v>996</v>
       </c>
-      <c r="K30" t="s">
+      <c r="S30" t="s">
         <v>997</v>
-      </c>
-      <c r="P30" t="s">
-        <v>998</v>
-      </c>
-      <c r="S30" t="s">
-        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -6584,7 +6587,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6593,40 +6596,40 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F1" t="s">
         <v>533</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>534</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>535</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>536</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>537</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>538</v>
-      </c>
-      <c r="J1" t="s">
-        <v>539</v>
-      </c>
-      <c r="K1" t="s">
-        <v>540</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>539</v>
+      </c>
+      <c r="N1" t="s">
+        <v>540</v>
+      </c>
+      <c r="O1" t="s">
         <v>541</v>
-      </c>
-      <c r="N1" t="s">
-        <v>542</v>
-      </c>
-      <c r="O1" t="s">
-        <v>543</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -6643,7 +6646,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -6652,22 +6655,22 @@
         <v>1954</v>
       </c>
       <c r="D2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F2" t="s">
         <v>545</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>546</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>547</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>548</v>
-      </c>
-      <c r="L2" t="s">
-        <v>549</v>
-      </c>
-      <c r="O2" t="s">
-        <v>550</v>
       </c>
       <c r="S2" t="s">
         <v>411</v>
@@ -6675,156 +6678,156 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F3" t="s">
         <v>552</v>
-      </c>
-      <c r="E3" t="s">
-        <v>553</v>
-      </c>
-      <c r="F3" t="s">
-        <v>554</v>
       </c>
       <c r="G3" t="s">
         <v>209</v>
       </c>
       <c r="L3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D4" t="s">
+        <v>702</v>
+      </c>
+      <c r="E4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F4" t="s">
         <v>556</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>767</v>
-      </c>
-      <c r="D4" t="s">
-        <v>704</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>557</v>
-      </c>
-      <c r="F4" t="s">
-        <v>558</v>
-      </c>
-      <c r="G4" t="s">
-        <v>559</v>
       </c>
       <c r="I4" t="s">
         <v>159</v>
       </c>
       <c r="K4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="L4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="S4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C5">
         <v>2019</v>
       </c>
       <c r="D5" t="s">
+        <v>704</v>
+      </c>
+      <c r="E5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F5" t="s">
         <v>706</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>707</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>708</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>548</v>
+      </c>
+      <c r="K5" t="s">
         <v>709</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>710</v>
       </c>
-      <c r="I5" t="s">
-        <v>550</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>711</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
+        <v>548</v>
+      </c>
+      <c r="P5" t="s">
+        <v>708</v>
+      </c>
+      <c r="S5" t="s">
         <v>712</v>
-      </c>
-      <c r="M5" t="s">
-        <v>713</v>
-      </c>
-      <c r="O5" t="s">
-        <v>550</v>
-      </c>
-      <c r="P5" t="s">
-        <v>710</v>
-      </c>
-      <c r="S5" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D6" t="s">
+        <v>981</v>
+      </c>
+      <c r="E6" t="s">
+        <v>982</v>
+      </c>
+      <c r="F6" t="s">
         <v>983</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>984</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
+        <v>764</v>
+      </c>
+      <c r="O6" t="s">
         <v>985</v>
       </c>
-      <c r="G6" t="s">
+      <c r="R6" t="s">
+        <v>842</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>986</v>
-      </c>
-      <c r="L6" t="s">
-        <v>766</v>
-      </c>
-      <c r="O6" t="s">
-        <v>987</v>
-      </c>
-      <c r="R6" t="s">
-        <v>844</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -6836,22 +6839,22 @@
         <v>159</v>
       </c>
       <c r="E7" t="s">
+        <v>713</v>
+      </c>
+      <c r="F7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G7" t="s">
         <v>715</v>
-      </c>
-      <c r="F7" t="s">
-        <v>716</v>
-      </c>
-      <c r="G7" t="s">
-        <v>717</v>
       </c>
       <c r="I7" t="s">
         <v>159</v>
       </c>
       <c r="J7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L7" t="s">
         <v>141</v>
@@ -6860,50 +6863,50 @@
         <v>408</v>
       </c>
       <c r="N7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="O7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="S7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D8" t="s">
+        <v>830</v>
+      </c>
+      <c r="E8" t="s">
+        <v>820</v>
+      </c>
+      <c r="F8" t="s">
         <v>832</v>
       </c>
-      <c r="E8" t="s">
-        <v>822</v>
-      </c>
-      <c r="F8" t="s">
-        <v>834</v>
-      </c>
       <c r="G8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="R8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -6915,145 +6918,145 @@
         <v>159</v>
       </c>
       <c r="E9" t="s">
+        <v>719</v>
+      </c>
+      <c r="F9" t="s">
+        <v>976</v>
+      </c>
+      <c r="G9" t="s">
+        <v>977</v>
+      </c>
+      <c r="I9" t="s">
+        <v>548</v>
+      </c>
+      <c r="J9" t="s">
+        <v>720</v>
+      </c>
+      <c r="L9" t="s">
         <v>721</v>
       </c>
-      <c r="F9" t="s">
-        <v>978</v>
-      </c>
-      <c r="G9" t="s">
-        <v>979</v>
-      </c>
-      <c r="I9" t="s">
-        <v>550</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
+        <v>711</v>
+      </c>
+      <c r="O9" t="s">
+        <v>548</v>
+      </c>
+      <c r="S9" t="s">
         <v>722</v>
-      </c>
-      <c r="L9" t="s">
-        <v>723</v>
-      </c>
-      <c r="M9" t="s">
-        <v>713</v>
-      </c>
-      <c r="O9" t="s">
-        <v>550</v>
-      </c>
-      <c r="S9" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D10" t="s">
+        <v>750</v>
+      </c>
+      <c r="E10" t="s">
         <v>752</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>753</v>
+      </c>
+      <c r="G10" t="s">
         <v>754</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
+        <v>756</v>
+      </c>
+      <c r="L10" t="s">
+        <v>751</v>
+      </c>
+      <c r="O10" t="s">
         <v>755</v>
       </c>
-      <c r="G10" t="s">
-        <v>756</v>
-      </c>
-      <c r="I10" t="s">
-        <v>758</v>
-      </c>
-      <c r="L10" t="s">
-        <v>753</v>
-      </c>
-      <c r="O10" t="s">
-        <v>757</v>
-      </c>
       <c r="R10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E11" t="s">
         <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I11" t="s">
         <v>159</v>
       </c>
       <c r="J11" t="s">
+        <v>726</v>
+      </c>
+      <c r="L11" t="s">
+        <v>727</v>
+      </c>
+      <c r="M11" t="s">
         <v>728</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>729</v>
       </c>
-      <c r="M11" t="s">
+      <c r="S11" t="s">
         <v>730</v>
       </c>
-      <c r="O11" t="s">
+      <c r="T11" t="s">
         <v>731</v>
-      </c>
-      <c r="S11" t="s">
-        <v>732</v>
-      </c>
-      <c r="T11" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B12" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C12">
         <v>2024</v>
       </c>
       <c r="D12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G12" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H12" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I12" t="s">
         <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="S12" t="s">
         <v>123</v>
@@ -7061,7 +7064,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -7070,202 +7073,202 @@
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F13" t="s">
+        <v>564</v>
+      </c>
+      <c r="L13" t="s">
+        <v>565</v>
+      </c>
+      <c r="O13" t="s">
         <v>566</v>
       </c>
-      <c r="L13" t="s">
-        <v>567</v>
-      </c>
-      <c r="O13" t="s">
-        <v>568</v>
-      </c>
       <c r="S13" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>795</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>796</v>
+      </c>
+      <c r="D14" t="s">
         <v>797</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>544</v>
+      </c>
+      <c r="F14" t="s">
         <v>798</v>
       </c>
-      <c r="D14" t="s">
+      <c r="L14" t="s">
         <v>799</v>
       </c>
-      <c r="E14" t="s">
-        <v>546</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="O14" t="s">
+        <v>840</v>
+      </c>
+      <c r="S14" t="s">
         <v>800</v>
-      </c>
-      <c r="L14" t="s">
-        <v>801</v>
-      </c>
-      <c r="O14" t="s">
-        <v>842</v>
-      </c>
-      <c r="S14" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B15" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C15">
         <v>2024</v>
       </c>
       <c r="D15" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E15" t="s">
+        <v>833</v>
+      </c>
+      <c r="F15" t="s">
         <v>835</v>
       </c>
-      <c r="F15" t="s">
-        <v>837</v>
-      </c>
       <c r="L15" t="s">
+        <v>836</v>
+      </c>
+      <c r="R15" t="s">
         <v>838</v>
-      </c>
-      <c r="R15" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
+        <v>574</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E16" t="s">
+        <v>810</v>
+      </c>
+      <c r="F16" t="s">
         <v>576</v>
       </c>
-      <c r="D16" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E16" t="s">
-        <v>812</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>577</v>
+      </c>
+      <c r="I16" t="s">
         <v>578</v>
-      </c>
-      <c r="G16" t="s">
-        <v>579</v>
-      </c>
-      <c r="I16" t="s">
-        <v>580</v>
       </c>
       <c r="L16" t="s">
         <v>231</v>
       </c>
       <c r="O16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="S16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="T16" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D17" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F17" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="G17" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I17" t="s">
         <v>414</v>
       </c>
       <c r="K17" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L17" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="O17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="S17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="T17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B18" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D18" t="s">
+        <v>741</v>
+      </c>
+      <c r="E18" t="s">
+        <v>742</v>
+      </c>
+      <c r="F18" t="s">
         <v>743</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>744</v>
       </c>
-      <c r="F18" t="s">
+      <c r="L18" t="s">
+        <v>747</v>
+      </c>
+      <c r="R18" t="s">
         <v>745</v>
       </c>
-      <c r="G18" t="s">
+      <c r="S18" t="s">
         <v>746</v>
-      </c>
-      <c r="L18" t="s">
-        <v>749</v>
-      </c>
-      <c r="R18" t="s">
-        <v>747</v>
-      </c>
-      <c r="S18" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F19" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I19" t="s">
         <v>414</v>
@@ -7274,82 +7277,82 @@
         <v>231</v>
       </c>
       <c r="O19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="R19" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
+        <v>760</v>
+      </c>
+      <c r="D20" t="s">
+        <v>758</v>
+      </c>
+      <c r="E20" t="s">
+        <v>759</v>
+      </c>
+      <c r="F20" t="s">
+        <v>763</v>
+      </c>
+      <c r="G20" t="s">
         <v>762</v>
       </c>
-      <c r="D20" t="s">
-        <v>760</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="J20" t="s">
         <v>761</v>
       </c>
-      <c r="F20" t="s">
-        <v>765</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="L20" t="s">
         <v>764</v>
       </c>
-      <c r="J20" t="s">
-        <v>763</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="O20" t="s">
+        <v>729</v>
+      </c>
+      <c r="S20" t="s">
         <v>766</v>
-      </c>
-      <c r="O20" t="s">
-        <v>731</v>
-      </c>
-      <c r="S20" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>567</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>949</v>
+      </c>
+      <c r="E21" t="s">
+        <v>568</v>
+      </c>
+      <c r="F21" t="s">
         <v>569</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>951</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>570</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>571</v>
       </c>
-      <c r="G21" t="s">
+      <c r="L21" t="s">
         <v>572</v>
       </c>
-      <c r="I21" t="s">
-        <v>573</v>
-      </c>
-      <c r="L21" t="s">
-        <v>574</v>
-      </c>
       <c r="O21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="S21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -7358,272 +7361,272 @@
         <v>245</v>
       </c>
       <c r="E22" t="s">
+        <v>587</v>
+      </c>
+      <c r="F22" t="s">
+        <v>588</v>
+      </c>
+      <c r="G22" t="s">
         <v>589</v>
       </c>
-      <c r="F22" t="s">
+      <c r="K22" t="s">
         <v>590</v>
       </c>
-      <c r="G22" t="s">
+      <c r="L22" t="s">
         <v>591</v>
       </c>
-      <c r="K22" t="s">
+      <c r="S22" t="s">
         <v>592</v>
       </c>
-      <c r="L22" t="s">
+      <c r="T22" t="s">
         <v>593</v>
-      </c>
-      <c r="S22" t="s">
-        <v>594</v>
-      </c>
-      <c r="T22" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>594</v>
+      </c>
+      <c r="B23" t="s">
+        <v>939</v>
+      </c>
+      <c r="C23" t="s">
+        <v>595</v>
+      </c>
+      <c r="D23" t="s">
         <v>596</v>
       </c>
-      <c r="B23" t="s">
-        <v>941</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>597</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>598</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>599</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>600</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>601</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>602</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="s">
         <v>603</v>
       </c>
-      <c r="L23" t="s">
-        <v>604</v>
-      </c>
-      <c r="M23" t="s">
-        <v>605</v>
-      </c>
       <c r="O23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="S23" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>890</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>887</v>
+      </c>
+      <c r="E24" t="s">
+        <v>891</v>
+      </c>
+      <c r="F24" t="s">
         <v>892</v>
       </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="L24" t="s">
+        <v>886</v>
+      </c>
+      <c r="O24" t="s">
+        <v>888</v>
+      </c>
+      <c r="S24" t="s">
         <v>889</v>
-      </c>
-      <c r="E24" t="s">
-        <v>893</v>
-      </c>
-      <c r="F24" t="s">
-        <v>894</v>
-      </c>
-      <c r="L24" t="s">
-        <v>888</v>
-      </c>
-      <c r="O24" t="s">
-        <v>890</v>
-      </c>
-      <c r="S24" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D25" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E25" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F25" t="s">
+        <v>779</v>
+      </c>
+      <c r="G25" t="s">
+        <v>780</v>
+      </c>
+      <c r="L25" t="s">
         <v>781</v>
       </c>
-      <c r="G25" t="s">
-        <v>782</v>
-      </c>
-      <c r="L25" t="s">
-        <v>783</v>
-      </c>
       <c r="S25" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B26" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C26">
         <v>2008</v>
       </c>
       <c r="D26" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E26" t="s">
+        <v>605</v>
+      </c>
+      <c r="F26" t="s">
+        <v>606</v>
+      </c>
+      <c r="G26" t="s">
         <v>607</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
+        <v>571</v>
+      </c>
+      <c r="K26" t="s">
         <v>608</v>
       </c>
-      <c r="G26" t="s">
+      <c r="L26" t="s">
         <v>609</v>
       </c>
-      <c r="I26" t="s">
-        <v>573</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="O26" t="s">
+        <v>548</v>
+      </c>
+      <c r="S26" t="s">
         <v>610</v>
       </c>
-      <c r="L26" t="s">
+      <c r="U26" t="s">
         <v>611</v>
-      </c>
-      <c r="O26" t="s">
-        <v>550</v>
-      </c>
-      <c r="S26" t="s">
-        <v>612</v>
-      </c>
-      <c r="U26" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B27" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D27" t="s">
+        <v>912</v>
+      </c>
+      <c r="E27" t="s">
+        <v>916</v>
+      </c>
+      <c r="F27" t="s">
+        <v>913</v>
+      </c>
+      <c r="L27" t="s">
         <v>914</v>
       </c>
-      <c r="E27" t="s">
-        <v>918</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="O27" t="s">
         <v>915</v>
       </c>
-      <c r="L27" t="s">
-        <v>916</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="S27" t="s">
         <v>917</v>
-      </c>
-      <c r="S27" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B28" t="s">
+        <v>943</v>
+      </c>
+      <c r="D28" t="s">
+        <v>989</v>
+      </c>
+      <c r="E28" t="s">
+        <v>935</v>
+      </c>
+      <c r="F28" t="s">
+        <v>948</v>
+      </c>
+      <c r="L28" t="s">
+        <v>937</v>
+      </c>
+      <c r="R28" t="s">
+        <v>942</v>
+      </c>
+      <c r="S28" t="s">
         <v>945</v>
-      </c>
-      <c r="D28" t="s">
-        <v>991</v>
-      </c>
-      <c r="E28" t="s">
-        <v>937</v>
-      </c>
-      <c r="F28" t="s">
-        <v>950</v>
-      </c>
-      <c r="L28" t="s">
-        <v>939</v>
-      </c>
-      <c r="R28" t="s">
-        <v>944</v>
-      </c>
-      <c r="S28" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E29" t="s">
         <v>327</v>
       </c>
       <c r="F29" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G29" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K29" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L29" t="s">
         <v>347</v>
       </c>
       <c r="M29" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="N29" t="s">
         <v>239</v>
       </c>
       <c r="R29" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D30" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E30" t="s">
         <v>364</v>
       </c>
       <c r="F30" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G30" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K30" t="s">
         <v>356</v>
@@ -7632,170 +7635,170 @@
         <v>141</v>
       </c>
       <c r="O30" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="S30" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="T30" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
+        <v>622</v>
+      </c>
+      <c r="E31" t="s">
+        <v>623</v>
+      </c>
+      <c r="F31" t="s">
         <v>624</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>625</v>
       </c>
-      <c r="F31" t="s">
+      <c r="K31" t="s">
         <v>626</v>
       </c>
-      <c r="G31" t="s">
+      <c r="L31" t="s">
         <v>627</v>
       </c>
-      <c r="K31" t="s">
+      <c r="O31" t="s">
         <v>628</v>
       </c>
-      <c r="L31" t="s">
+      <c r="R31" t="s">
         <v>629</v>
       </c>
-      <c r="O31" t="s">
+      <c r="S31" t="s">
         <v>630</v>
       </c>
-      <c r="R31" t="s">
+      <c r="U31" t="s">
         <v>631</v>
-      </c>
-      <c r="S31" t="s">
-        <v>632</v>
-      </c>
-      <c r="U31" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>772</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>771</v>
+      </c>
+      <c r="E32" t="s">
+        <v>773</v>
+      </c>
+      <c r="F32" t="s">
+        <v>777</v>
+      </c>
+      <c r="L32" t="s">
+        <v>776</v>
+      </c>
+      <c r="S32" t="s">
+        <v>775</v>
+      </c>
+      <c r="T32" t="s">
         <v>774</v>
-      </c>
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" t="s">
-        <v>773</v>
-      </c>
-      <c r="E32" t="s">
-        <v>775</v>
-      </c>
-      <c r="F32" t="s">
-        <v>779</v>
-      </c>
-      <c r="L32" t="s">
-        <v>778</v>
-      </c>
-      <c r="S32" t="s">
-        <v>777</v>
-      </c>
-      <c r="T32" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
       </c>
       <c r="D33" t="s">
+        <v>927</v>
+      </c>
+      <c r="E33" t="s">
+        <v>938</v>
+      </c>
+      <c r="F33" t="s">
+        <v>928</v>
+      </c>
+      <c r="G33" t="s">
         <v>929</v>
       </c>
-      <c r="E33" t="s">
-        <v>940</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="L33" t="s">
         <v>930</v>
       </c>
-      <c r="G33" t="s">
+      <c r="M33" t="s">
+        <v>933</v>
+      </c>
+      <c r="N33" t="s">
+        <v>932</v>
+      </c>
+      <c r="O33" t="s">
+        <v>790</v>
+      </c>
+      <c r="S33" t="s">
         <v>931</v>
-      </c>
-      <c r="L33" t="s">
-        <v>932</v>
-      </c>
-      <c r="M33" t="s">
-        <v>935</v>
-      </c>
-      <c r="N33" t="s">
-        <v>934</v>
-      </c>
-      <c r="O33" t="s">
-        <v>792</v>
-      </c>
-      <c r="S33" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>787</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>788</v>
+      </c>
+      <c r="D34" t="s">
+        <v>784</v>
+      </c>
+      <c r="E34" t="s">
+        <v>791</v>
+      </c>
+      <c r="F34" t="s">
+        <v>793</v>
+      </c>
+      <c r="G34" t="s">
+        <v>792</v>
+      </c>
+      <c r="K34" t="s">
+        <v>785</v>
+      </c>
+      <c r="L34" t="s">
         <v>789</v>
       </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="O34" t="s">
         <v>790</v>
       </c>
-      <c r="D34" t="s">
+      <c r="S34" t="s">
         <v>786</v>
-      </c>
-      <c r="E34" t="s">
-        <v>793</v>
-      </c>
-      <c r="F34" t="s">
-        <v>795</v>
-      </c>
-      <c r="G34" t="s">
-        <v>794</v>
-      </c>
-      <c r="K34" t="s">
-        <v>787</v>
-      </c>
-      <c r="L34" t="s">
-        <v>791</v>
-      </c>
-      <c r="O34" t="s">
-        <v>792</v>
-      </c>
-      <c r="S34" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
+        <v>633</v>
+      </c>
+      <c r="E35" t="s">
+        <v>634</v>
+      </c>
+      <c r="F35" t="s">
         <v>635</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
+        <v>794</v>
+      </c>
+      <c r="L35" t="s">
         <v>636</v>
-      </c>
-      <c r="F35" t="s">
-        <v>637</v>
-      </c>
-      <c r="G35" t="s">
-        <v>796</v>
-      </c>
-      <c r="L35" t="s">
-        <v>638</v>
       </c>
       <c r="R35" t="s">
         <v>350</v>
@@ -7803,43 +7806,43 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D36" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E36" t="s">
         <v>360</v>
       </c>
       <c r="F36" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G36" t="s">
+        <v>802</v>
+      </c>
+      <c r="H36" t="s">
+        <v>803</v>
+      </c>
+      <c r="I36" t="s">
+        <v>548</v>
+      </c>
+      <c r="K36" t="s">
         <v>804</v>
-      </c>
-      <c r="H36" t="s">
-        <v>805</v>
-      </c>
-      <c r="I36" t="s">
-        <v>550</v>
-      </c>
-      <c r="K36" t="s">
-        <v>806</v>
       </c>
       <c r="L36" t="s">
         <v>362</v>
       </c>
       <c r="O36" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S36" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -7878,13 +7881,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>404</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -7911,16 +7914,16 @@
         <v>400</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>405</v>
@@ -7937,68 +7940,68 @@
         <v>407</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>651</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="V2" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>663</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
@@ -8016,99 +8019,99 @@
         <v>407</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>278</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="V4" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B9D008-1508-40D7-B386-543F40487A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DC50D8-5C57-43FD-A753-6ADD602DC825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filed Cases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1082">
   <si>
     <t>State</t>
   </si>
@@ -1370,9 +1370,6 @@
     <t>Brittany Murphy's Death, YouTube Videos</t>
   </si>
   <si>
-    <t>Aaliyah,Tiffany Hawkins, Tracy Sampson, Patrice Jones, Montina Woods, Jerhonda Pace, Kitti Jones</t>
-  </si>
-  <si>
     <t>1990s-2024</t>
   </si>
   <si>
@@ -1451,9 +1448,6 @@
     <t>Model, Playboy Model</t>
   </si>
   <si>
-    <t>Donald Trump, Barry Cohen</t>
-  </si>
-  <si>
     <t>Bribery, Intimidation, Witness Intimidation, Brokering</t>
   </si>
   <si>
@@ -1676,9 +1670,6 @@
     <t>Investigated</t>
   </si>
   <si>
-    <t>Joe DiMaggio</t>
-  </si>
-  <si>
     <t>Marilyn Monroe</t>
   </si>
   <si>
@@ -1697,9 +1688,6 @@
     <t>Tax Investigation</t>
   </si>
   <si>
-    <t>Vince McMahon</t>
-  </si>
-  <si>
     <t>Women at WWE</t>
   </si>
   <si>
@@ -2585,18 +2573,9 @@
     <t>Ori Spado</t>
   </si>
   <si>
-    <t>RICO Act, Association Crime Enterprises</t>
-  </si>
-  <si>
     <t>FBI, Federal Government</t>
   </si>
   <si>
-    <t>Implications, Implicated Hollywood Fixing, Implicating Crimes</t>
-  </si>
-  <si>
-    <t>Ori Spado, Witnesses, Book, Interviews</t>
-  </si>
-  <si>
     <t>https://theaccidentalgangster.com/</t>
   </si>
   <si>
@@ -2627,9 +2606,6 @@
     <t>Unknown Assailants</t>
   </si>
   <si>
-    <t>Artists, Witnesses, Hollywood</t>
-  </si>
-  <si>
     <t>Informant, Hollywood</t>
   </si>
   <si>
@@ -2768,9 +2744,6 @@
     <t>Refusing Testimony</t>
   </si>
   <si>
-    <t xml:space="preserve"> Intimidation, Witness Tampering</t>
-  </si>
-  <si>
     <t>http://alisablogq.blogspot.com/2017/07/dismissed-in-interests-of-justice.html</t>
   </si>
   <si>
@@ -2822,9 +2795,6 @@
     <t>Interest of Justice</t>
   </si>
   <si>
-    <t>Fixers, Ignored Witness Tampering, Implications</t>
-  </si>
-  <si>
     <t>Fixers, Dunton</t>
   </si>
   <si>
@@ -3084,6 +3054,243 @@
   </si>
   <si>
     <t>Brittany Murphy, Julia Davis, Witnesses</t>
+  </si>
+  <si>
+    <t>Criminal, Obstruction of Justice</t>
+  </si>
+  <si>
+    <t>Music, Partners, Employees</t>
+  </si>
+  <si>
+    <t>New York, California, Florida, United States</t>
+  </si>
+  <si>
+    <t>Sean Combs, Combs, Russel Greene, Others</t>
+  </si>
+  <si>
+    <t>Tyrone Blackburne</t>
+  </si>
+  <si>
+    <t>Obstruction of Justice, Racketeering, Bribery, Assaults, Weapons, Drugs, RICO Act</t>
+  </si>
+  <si>
+    <t>Paying, Fixers, Russel Greene</t>
+  </si>
+  <si>
+    <t>Federal Authorities, FBI, Russel Greene</t>
+  </si>
+  <si>
+    <t>Bribery, Fixers, Witness Tampering</t>
+  </si>
+  <si>
+    <t>Cases, Tyrone Blackburne, Surprise Witness</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IDxxqlkhLT8</t>
+  </si>
+  <si>
+    <t>Donald Trump, Barry Cohen, Fixers, American Media Inc</t>
+  </si>
+  <si>
+    <t>Racketeers</t>
+  </si>
+  <si>
+    <t>Multiple Assault Victims, Frank Ocean, Rihanna, Drake, Tony Parker, Mike G, Karrueche Tran</t>
+  </si>
+  <si>
+    <t>2000s-2020s</t>
+  </si>
+  <si>
+    <t>Music, Party Goers, Nightclub Patrons</t>
+  </si>
+  <si>
+    <t>California, New York, DC</t>
+  </si>
+  <si>
+    <t>Chris Brown</t>
+  </si>
+  <si>
+    <t>Mark Geragos, Donald Eltra</t>
+  </si>
+  <si>
+    <t>Assaults, False Imprisonment, Hit and Run, Battery, Copyright Infridgement</t>
+  </si>
+  <si>
+    <t>News, Focus on One Case, Lawyers, Admit</t>
+  </si>
+  <si>
+    <t>Focus on One Case</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2013/10/28/showbiz/chris-brown-assault-charge/index.html</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chris_Brown</t>
+  </si>
+  <si>
+    <t>Multiple Victims, Multiple Witnesses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intimidation, Witness Tampering, Implicate Mob, Corrupt Persuasion</t>
+  </si>
+  <si>
+    <t>Fixers, Ignored Witness Tampering, Implications, Implicate Mob</t>
+  </si>
+  <si>
+    <t>Assailant, Threats, Implicate Mob, Confidential Magazine</t>
+  </si>
+  <si>
+    <t>Implications, Hollywood Fixers, Implicating Crimes, Implicating Artists</t>
+  </si>
+  <si>
+    <t>Ori Spado, Witnesses, Book, Interviews, Frank Sinatra</t>
+  </si>
+  <si>
+    <t>RICO Act, Association Crime Enterprises, Debt Collection, Burglaries</t>
+  </si>
+  <si>
+    <t>Criminal, Unknown</t>
+  </si>
+  <si>
+    <t>Witnesses, Patricia Douglas, Mary Nolan, Eddie Manix's Wife</t>
+  </si>
+  <si>
+    <t>Conspiracy, Assaults, Beatings</t>
+  </si>
+  <si>
+    <t>Fixing, Intimidation, Witness Interference, Implications</t>
+  </si>
+  <si>
+    <t>Implications, Fixing, Representation Lacking, Studios</t>
+  </si>
+  <si>
+    <t>Patricia Douglas, Complainants, Vanity Fair</t>
+  </si>
+  <si>
+    <t>https://www.vanityfair.com/news/2003/04/mgm200304</t>
+  </si>
+  <si>
+    <t>Artists, Witnesses, Hollywood, Frank Sinatra</t>
+  </si>
+  <si>
+    <t>1930s-2000s</t>
+  </si>
+  <si>
+    <t>Eddie Mannix, Fixers</t>
+  </si>
+  <si>
+    <t>Dancing, Film, Witnesses, MGM, Mistress</t>
+  </si>
+  <si>
+    <t>Aaliyah, Tiffany Hawkins, Tracy Sampson, Patrice Jones, Montina Woods, Jerhonda Pace, Kitti Jones</t>
+  </si>
+  <si>
+    <t>California Senator Fred Kraft</t>
+  </si>
+  <si>
+    <t>Vince McMahon, Company WWE</t>
+  </si>
+  <si>
+    <t>Joe DiMaggio, Barney Rudisky, Fixers</t>
+  </si>
+  <si>
+    <t>1993-2010s</t>
+  </si>
+  <si>
+    <t>Artists</t>
+  </si>
+  <si>
+    <t>Editing Hiring, Editing Statements, Implications</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Hollywood Fixers, Investigators</t>
+  </si>
+  <si>
+    <t>Implications, Shell, Hiring</t>
+  </si>
+  <si>
+    <t>Conflicts, Implications, Shell, Clients</t>
+  </si>
+  <si>
+    <t>https://www.frontpagedetectives.com/celebrity-justice</t>
+  </si>
+  <si>
+    <t>Witnesses, Implications, Documentary</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Damien Echols, Jessie Misskelley Jr, Jason Baldwin</t>
+  </si>
+  <si>
+    <t>Stephen Braga</t>
+  </si>
+  <si>
+    <t>Murder, Torture Sexually, Witnesses</t>
+  </si>
+  <si>
+    <t>Music, Sexual, Religion</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IHhhoJaQAnM?si=dl2DgbxEH5gYt3KH</t>
+  </si>
+  <si>
+    <t>Witnesses Against Depp</t>
+  </si>
+  <si>
+    <t>Profiling, Implicate Artists</t>
+  </si>
+  <si>
+    <t>Artist Implications</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Hiring, Front Page Detecives, American Media Inc</t>
+  </si>
+  <si>
+    <t>Revoked License Investigators, Front Page Detectives, AMI</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/event/West-Memphis-Three</t>
+  </si>
+  <si>
+    <t>Music Implications, Actors</t>
+  </si>
+  <si>
+    <t>Three Boys, Stevie Branch, Christopher Byers, Michael Moore, Witnesses</t>
+  </si>
+  <si>
+    <t>Children, Family, Witnesses</t>
+  </si>
+  <si>
+    <t>Hiring, Whodunnit, Death</t>
+  </si>
+  <si>
+    <t>California, Others</t>
+  </si>
+  <si>
+    <t>Artists, Accuracy of Investigations, Competitors</t>
+  </si>
+  <si>
+    <t>Revoked Licenses of Investigators</t>
+  </si>
+  <si>
+    <t>Implicate Politics</t>
+  </si>
+  <si>
+    <t>Connecticut, Police</t>
+  </si>
+  <si>
+    <t>Arkansas, Police</t>
   </si>
 </sst>
 </file>
@@ -3108,19 +3315,6 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3160,6 +3354,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3180,17 +3390,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4157,7 +4367,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>180</v>
@@ -4408,7 +4618,7 @@
         <v>229</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>230</v>
@@ -4632,8 +4842,8 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="6" t="s">
-        <v>947</v>
+      <c r="U36" s="4" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4644,7 +4854,7 @@
         <v>275</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>276</v>
@@ -4658,7 +4868,7 @@
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>279</v>
@@ -4826,11 +5036,11 @@
       <c r="G44" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="T44" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="U44" s="6" t="s">
-        <v>918</v>
+      <c r="T44" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4910,7 +5120,7 @@
         <v>148</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>325</v>
@@ -4980,7 +5190,7 @@
     </row>
     <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>334</v>
@@ -4992,7 +5202,7 @@
         <v>336</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>218</v>
@@ -5000,8 +5210,8 @@
       <c r="I51" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="T51" s="6" t="s">
-        <v>873</v>
+      <c r="T51" s="4" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5306,134 +5516,134 @@
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B62" t="s">
+        <v>811</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="U62" s="4" t="s">
         <v>812</v>
-      </c>
-      <c r="B62" t="s">
-        <v>815</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="U62" s="6" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B63" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>220</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="U63" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="V63" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="W63" s="6" t="s">
-        <v>819</v>
+        <v>610</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="W63" s="4" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="B64" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="T64" t="s">
-        <v>881</v>
-      </c>
-      <c r="U64" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="V64" s="6" t="s">
-        <v>883</v>
+        <v>873</v>
+      </c>
+      <c r="U64" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="V64" s="4" t="s">
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -5514,7 +5724,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -5583,7 +5793,7 @@
         <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C2">
         <v>1954</v>
@@ -5615,7 +5825,7 @@
         <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C3">
         <v>2008</v>
@@ -5639,7 +5849,7 @@
         <v>159</v>
       </c>
       <c r="S3" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -5647,13 +5857,13 @@
         <v>416</v>
       </c>
       <c r="B4" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="C4" t="s">
         <v>417</v>
       </c>
       <c r="D4" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -5679,16 +5889,16 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="B5" t="s">
-        <v>860</v>
+        <v>1041</v>
       </c>
       <c r="C5" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D5" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -5697,28 +5907,28 @@
         <v>413</v>
       </c>
       <c r="G5" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="J5" t="s">
-        <v>846</v>
+        <v>1033</v>
       </c>
       <c r="K5" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="M5" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="P5" t="s">
-        <v>848</v>
+        <v>1031</v>
       </c>
       <c r="Q5" t="s">
-        <v>849</v>
+        <v>1032</v>
       </c>
       <c r="S5" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="T5" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -5726,13 +5936,13 @@
         <v>407</v>
       </c>
       <c r="B6" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="C6" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="D6" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -5741,226 +5951,247 @@
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="I6" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="J6" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="P6" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="Q6" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="S6" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C7">
-        <v>2009</v>
+        <v>950</v>
+      </c>
+      <c r="C7" t="s">
+        <v>954</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>853</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>859</v>
+        <v>425</v>
       </c>
       <c r="J7" t="s">
-        <v>437</v>
-      </c>
-      <c r="K7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="P7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="Q7" t="s">
-        <v>440</v>
-      </c>
-      <c r="R7" t="s">
-        <v>854</v>
+        <v>428</v>
+      </c>
+      <c r="S7" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="B8" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="C8" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D8" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="J8" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="K8" t="s">
-        <v>983</v>
+        <v>1030</v>
       </c>
       <c r="P8" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="S8" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="T8" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s">
-        <v>960</v>
-      </c>
-      <c r="C9" t="s">
-        <v>964</v>
+        <v>1002</v>
+      </c>
+      <c r="C9">
+        <v>2009</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>436</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>846</v>
       </c>
       <c r="G9" t="s">
-        <v>425</v>
+        <v>852</v>
       </c>
       <c r="J9" t="s">
-        <v>426</v>
+        <v>437</v>
+      </c>
+      <c r="K9" t="s">
+        <v>438</v>
       </c>
       <c r="P9" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="Q9" t="s">
-        <v>428</v>
-      </c>
-      <c r="S9" t="s">
-        <v>429</v>
+        <v>440</v>
+      </c>
+      <c r="R9" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>1003</v>
       </c>
       <c r="B10" t="s">
-        <v>689</v>
+        <v>1027</v>
       </c>
       <c r="C10" t="s">
-        <v>690</v>
+        <v>441</v>
       </c>
       <c r="D10" t="s">
-        <v>691</v>
+        <v>1004</v>
       </c>
       <c r="E10" t="s">
-        <v>692</v>
+        <v>1005</v>
       </c>
       <c r="F10" t="s">
-        <v>693</v>
+        <v>413</v>
       </c>
       <c r="G10" t="s">
-        <v>694</v>
+        <v>1006</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1007</v>
       </c>
       <c r="J10" t="s">
         <v>1008</v>
       </c>
+      <c r="K10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1010</v>
+      </c>
       <c r="P10" t="s">
-        <v>695</v>
+        <v>1011</v>
       </c>
       <c r="Q10" t="s">
-        <v>696</v>
+        <v>1012</v>
       </c>
       <c r="S10" t="s">
-        <v>697</v>
-      </c>
-      <c r="T10" t="s">
-        <v>698</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>491</v>
       </c>
       <c r="B11" t="s">
-        <v>461</v>
-      </c>
-      <c r="C11">
-        <v>2020</v>
+        <v>685</v>
+      </c>
+      <c r="C11" t="s">
+        <v>686</v>
       </c>
       <c r="D11" t="s">
-        <v>462</v>
+        <v>687</v>
+      </c>
+      <c r="E11" t="s">
+        <v>688</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>689</v>
       </c>
       <c r="G11" t="s">
-        <v>463</v>
+        <v>690</v>
       </c>
       <c r="J11" t="s">
-        <v>464</v>
-      </c>
-      <c r="M11" t="s">
-        <v>159</v>
+        <v>998</v>
+      </c>
+      <c r="P11" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>692</v>
       </c>
       <c r="S11" t="s">
-        <v>465</v>
+        <v>693</v>
+      </c>
+      <c r="T11" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>896</v>
       </c>
       <c r="B12" t="s">
-        <v>1009</v>
+        <v>900</v>
       </c>
       <c r="C12" t="s">
+        <v>897</v>
+      </c>
+      <c r="D12" t="s">
+        <v>941</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>413</v>
+      </c>
+      <c r="G12" t="s">
+        <v>916</v>
+      </c>
+      <c r="J12" t="s">
         <v>898</v>
       </c>
-      <c r="D12" t="s">
-        <v>430</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>431</v>
-      </c>
-      <c r="J12" t="s">
-        <v>432</v>
-      </c>
-      <c r="O12" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>434</v>
+      <c r="K12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1029</v>
       </c>
       <c r="S12" t="s">
-        <v>856</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -5968,72 +6199,66 @@
         <v>407</v>
       </c>
       <c r="B13" t="s">
-        <v>441</v>
-      </c>
-      <c r="C13" t="s">
-        <v>442</v>
+        <v>460</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>443</v>
-      </c>
-      <c r="E13" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="F13" t="s">
-        <v>445</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="J13" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="M13" t="s">
-        <v>448</v>
-      </c>
-      <c r="P13" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>450</v>
+        <v>159</v>
       </c>
       <c r="S13" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>452</v>
+        <v>1034</v>
       </c>
       <c r="B14" t="s">
-        <v>453</v>
+        <v>1035</v>
       </c>
       <c r="C14" t="s">
-        <v>454</v>
+        <v>1042</v>
       </c>
       <c r="D14" t="s">
-        <v>455</v>
+        <v>1044</v>
       </c>
       <c r="E14" t="s">
-        <v>456</v>
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>251</v>
+        <v>1043</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1036</v>
       </c>
       <c r="J14" t="s">
-        <v>457</v>
-      </c>
-      <c r="K14" t="s">
-        <v>458</v>
-      </c>
-      <c r="M14" t="s">
-        <v>459</v>
+        <v>1037</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1038</v>
       </c>
       <c r="Q14" t="s">
-        <v>460</v>
-      </c>
-      <c r="S14" t="s">
-        <v>858</v>
+        <v>1039</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -6041,270 +6266,288 @@
         <v>407</v>
       </c>
       <c r="B15" t="s">
-        <v>466</v>
+        <v>999</v>
       </c>
       <c r="C15" t="s">
-        <v>965</v>
+        <v>890</v>
       </c>
       <c r="D15" t="s">
-        <v>467</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
+        <v>430</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="J15" t="s">
-        <v>469</v>
-      </c>
-      <c r="M15" t="s">
-        <v>470</v>
-      </c>
-      <c r="P15" t="s">
-        <v>471</v>
+        <v>432</v>
+      </c>
+      <c r="O15" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>434</v>
       </c>
       <c r="S15" t="s">
-        <v>472</v>
+        <v>849</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>407</v>
       </c>
       <c r="B16" t="s">
-        <v>474</v>
-      </c>
-      <c r="C16">
-        <v>2022</v>
+        <v>1045</v>
+      </c>
+      <c r="C16" t="s">
+        <v>441</v>
       </c>
       <c r="D16" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="E16" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="F16" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="G16" t="s">
-        <v>478</v>
-      </c>
-      <c r="H16" t="s">
-        <v>479</v>
-      </c>
-      <c r="I16" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="J16" t="s">
-        <v>481</v>
-      </c>
-      <c r="K16" t="s">
-        <v>482</v>
-      </c>
-      <c r="N16" t="s">
-        <v>483</v>
-      </c>
-      <c r="O16" t="s">
-        <v>484</v>
+        <v>446</v>
+      </c>
+      <c r="M16" t="s">
+        <v>447</v>
       </c>
       <c r="P16" t="s">
-        <v>990</v>
+        <v>448</v>
       </c>
       <c r="Q16" t="s">
-        <v>485</v>
-      </c>
-      <c r="R16" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="S16" t="s">
-        <v>487</v>
-      </c>
-      <c r="T16" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
-        <v>489</v>
-      </c>
-      <c r="C17">
-        <v>1986</v>
+        <v>452</v>
+      </c>
+      <c r="C17" t="s">
+        <v>453</v>
       </c>
       <c r="D17" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>455</v>
       </c>
       <c r="G17" t="s">
-        <v>491</v>
+        <v>251</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
-      </c>
-      <c r="P17" t="s">
-        <v>966</v>
+        <v>456</v>
+      </c>
+      <c r="K17" t="s">
+        <v>457</v>
+      </c>
+      <c r="M17" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>459</v>
       </c>
       <c r="S17" t="s">
-        <v>492</v>
-      </c>
-      <c r="T17" t="s">
-        <v>967</v>
+        <v>851</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>493</v>
+        <v>407</v>
       </c>
       <c r="B18" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="C18" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="D18" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>1014</v>
       </c>
       <c r="J18" t="s">
-        <v>496</v>
+        <v>467</v>
+      </c>
+      <c r="M18" t="s">
+        <v>468</v>
+      </c>
+      <c r="P18" t="s">
+        <v>469</v>
       </c>
       <c r="S18" t="s">
-        <v>857</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>407</v>
+        <v>471</v>
       </c>
       <c r="B19" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="C19">
-        <v>1977</v>
+        <v>2022</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>474</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>475</v>
       </c>
       <c r="G19" t="s">
-        <v>339</v>
+        <v>476</v>
+      </c>
+      <c r="H19" t="s">
+        <v>477</v>
+      </c>
+      <c r="I19" t="s">
+        <v>478</v>
       </c>
       <c r="J19" t="s">
-        <v>499</v>
+        <v>479</v>
+      </c>
+      <c r="K19" t="s">
+        <v>480</v>
+      </c>
+      <c r="N19" t="s">
+        <v>481</v>
+      </c>
+      <c r="O19" t="s">
+        <v>482</v>
+      </c>
+      <c r="P19" t="s">
+        <v>980</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>483</v>
+      </c>
+      <c r="R19" t="s">
+        <v>484</v>
       </c>
       <c r="S19" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="T19" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>407</v>
+        <v>914</v>
       </c>
       <c r="B20" t="s">
-        <v>972</v>
-      </c>
-      <c r="C20" t="s">
-        <v>973</v>
+        <v>981</v>
+      </c>
+      <c r="C20">
+        <v>2014</v>
       </c>
       <c r="D20" t="s">
-        <v>502</v>
+        <v>982</v>
       </c>
       <c r="E20" t="s">
-        <v>503</v>
+        <v>983</v>
+      </c>
+      <c r="F20" t="s">
+        <v>413</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>1015</v>
       </c>
       <c r="J20" t="s">
-        <v>974</v>
+        <v>984</v>
+      </c>
+      <c r="K20" t="s">
+        <v>985</v>
+      </c>
+      <c r="P20" t="s">
+        <v>986</v>
       </c>
       <c r="S20" t="s">
-        <v>504</v>
-      </c>
-      <c r="T20" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>505</v>
+        <v>435</v>
       </c>
       <c r="B21" t="s">
-        <v>506</v>
-      </c>
-      <c r="C21" t="s">
-        <v>968</v>
+        <v>487</v>
+      </c>
+      <c r="C21">
+        <v>1986</v>
       </c>
       <c r="D21" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="E21" t="s">
-        <v>508</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="J21" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>511</v>
+        <v>140</v>
+      </c>
+      <c r="P21" t="s">
+        <v>956</v>
       </c>
       <c r="S21" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="T21" t="s">
-        <v>513</v>
+        <v>957</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>407</v>
+        <v>491</v>
       </c>
       <c r="B22" t="s">
-        <v>514</v>
-      </c>
-      <c r="C22">
-        <v>2017</v>
+        <v>492</v>
+      </c>
+      <c r="C22" t="s">
+        <v>961</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>493</v>
       </c>
       <c r="E22" t="s">
-        <v>515</v>
-      </c>
-      <c r="F22" t="s">
-        <v>515</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>339</v>
+        <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
+        <v>494</v>
       </c>
       <c r="S22" t="s">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -6312,83 +6555,92 @@
         <v>407</v>
       </c>
       <c r="B23" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="C23">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>496</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
       <c r="G23" t="s">
-        <v>517</v>
+        <v>339</v>
       </c>
       <c r="J23" t="s">
-        <v>518</v>
-      </c>
-      <c r="K23" t="s">
-        <v>519</v>
-      </c>
-      <c r="P23" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="S23" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="T23" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>407</v>
       </c>
       <c r="B24" t="s">
-        <v>523</v>
+        <v>962</v>
       </c>
       <c r="C24" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="D24" t="s">
-        <v>959</v>
+        <v>500</v>
+      </c>
+      <c r="E24" t="s">
+        <v>501</v>
       </c>
       <c r="G24" t="s">
-        <v>524</v>
+        <v>64</v>
       </c>
       <c r="J24" t="s">
-        <v>525</v>
+        <v>964</v>
       </c>
       <c r="S24" t="s">
-        <v>852</v>
+        <v>502</v>
+      </c>
+      <c r="T24" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="B25" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="C25" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="D25" t="s">
-        <v>198</v>
+        <v>505</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>506</v>
       </c>
       <c r="G25" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="J25" t="s">
-        <v>529</v>
+        <v>508</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>509</v>
       </c>
       <c r="S25" t="s">
-        <v>851</v>
+        <v>510</v>
+      </c>
+      <c r="T25" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6396,180 +6648,267 @@
         <v>407</v>
       </c>
       <c r="B26" t="s">
-        <v>901</v>
-      </c>
-      <c r="C26" t="s">
-        <v>898</v>
+        <v>512</v>
+      </c>
+      <c r="C26">
+        <v>2017</v>
       </c>
       <c r="D26" t="s">
-        <v>894</v>
+        <v>198</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>513</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>513</v>
       </c>
       <c r="G26" t="s">
-        <v>893</v>
-      </c>
-      <c r="H26" t="s">
-        <v>895</v>
+        <v>339</v>
       </c>
       <c r="J26" t="s">
-        <v>903</v>
-      </c>
-      <c r="K26" t="s">
-        <v>902</v>
-      </c>
-      <c r="M26" t="s">
-        <v>897</v>
-      </c>
-      <c r="P26" t="s">
-        <v>899</v>
+        <v>140</v>
       </c>
       <c r="S26" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>904</v>
+        <v>407</v>
       </c>
       <c r="B27" t="s">
-        <v>909</v>
-      </c>
-      <c r="C27" t="s">
-        <v>905</v>
+        <v>514</v>
+      </c>
+      <c r="C27">
+        <v>1982</v>
       </c>
       <c r="D27" t="s">
-        <v>951</v>
+        <v>198</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
       </c>
-      <c r="F27" t="s">
-        <v>413</v>
-      </c>
       <c r="G27" t="s">
-        <v>926</v>
+        <v>515</v>
       </c>
       <c r="J27" t="s">
-        <v>906</v>
+        <v>516</v>
       </c>
       <c r="K27" t="s">
-        <v>907</v>
+        <v>517</v>
       </c>
       <c r="P27" t="s">
-        <v>925</v>
+        <v>518</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>519</v>
       </c>
       <c r="S27" t="s">
-        <v>738</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>923</v>
+        <v>407</v>
       </c>
       <c r="B28" t="s">
-        <v>922</v>
+        <v>521</v>
       </c>
       <c r="C28" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D28" t="s">
-        <v>952</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
+        <v>949</v>
       </c>
       <c r="G28" t="s">
-        <v>911</v>
-      </c>
-      <c r="H28" t="s">
-        <v>703</v>
+        <v>522</v>
       </c>
       <c r="J28" t="s">
-        <v>910</v>
-      </c>
-      <c r="K28" t="s">
-        <v>243</v>
-      </c>
-      <c r="P28" t="s">
-        <v>924</v>
+        <v>523</v>
       </c>
       <c r="S28" t="s">
-        <v>908</v>
+        <v>845</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>613</v>
+        <v>524</v>
       </c>
       <c r="B29" t="s">
-        <v>327</v>
+        <v>525</v>
       </c>
       <c r="C29" t="s">
-        <v>999</v>
+        <v>960</v>
       </c>
       <c r="D29" t="s">
-        <v>1000</v>
+        <v>198</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>612</v>
+        <v>526</v>
       </c>
       <c r="J29" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K29" t="s">
-        <v>243</v>
-      </c>
-      <c r="L29" t="s">
-        <v>141</v>
-      </c>
-      <c r="P29" t="s">
-        <v>1002</v>
+        <v>527</v>
       </c>
       <c r="S29" t="s">
-        <v>767</v>
+        <v>844</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>923</v>
+        <v>407</v>
       </c>
       <c r="B30" t="s">
+        <v>893</v>
+      </c>
+      <c r="C30" t="s">
+        <v>890</v>
+      </c>
+      <c r="D30" t="s">
+        <v>886</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>885</v>
+      </c>
+      <c r="H30" t="s">
+        <v>887</v>
+      </c>
+      <c r="J30" t="s">
+        <v>895</v>
+      </c>
+      <c r="K30" t="s">
+        <v>894</v>
+      </c>
+      <c r="M30" t="s">
+        <v>889</v>
+      </c>
+      <c r="P30" t="s">
+        <v>891</v>
+      </c>
+      <c r="S30" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>914</v>
+      </c>
+      <c r="B31" t="s">
+        <v>913</v>
+      </c>
+      <c r="C31" t="s">
+        <v>953</v>
+      </c>
+      <c r="D31" t="s">
+        <v>942</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>902</v>
+      </c>
+      <c r="H31" t="s">
+        <v>699</v>
+      </c>
+      <c r="J31" t="s">
+        <v>901</v>
+      </c>
+      <c r="K31" t="s">
+        <v>243</v>
+      </c>
+      <c r="P31" t="s">
+        <v>915</v>
+      </c>
+      <c r="S31" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>609</v>
+      </c>
+      <c r="B32" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" t="s">
+        <v>989</v>
+      </c>
+      <c r="D32" t="s">
+        <v>990</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>608</v>
+      </c>
+      <c r="J32" t="s">
         <v>991</v>
       </c>
-      <c r="C30">
-        <v>2014</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="K32" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" t="s">
         <v>992</v>
       </c>
-      <c r="E30" t="s">
-        <v>993</v>
-      </c>
-      <c r="F30" t="s">
-        <v>413</v>
-      </c>
-      <c r="J30" t="s">
-        <v>994</v>
-      </c>
-      <c r="K30" t="s">
-        <v>995</v>
-      </c>
-      <c r="P30" t="s">
-        <v>996</v>
-      </c>
-      <c r="S30" t="s">
-        <v>997</v>
+      <c r="S32" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>407</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1025</v>
+      </c>
+      <c r="T33" t="s">
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S14" r:id="rId1" xr:uid="{07E42739-3C6B-4490-84B1-CD88824F1D3B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6581,13 +6920,13 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6596,40 +6935,40 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F1" t="s">
         <v>531</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>532</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>533</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>534</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>535</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>536</v>
-      </c>
-      <c r="J1" t="s">
-        <v>537</v>
-      </c>
-      <c r="K1" t="s">
-        <v>538</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>537</v>
+      </c>
+      <c r="N1" t="s">
+        <v>538</v>
+      </c>
+      <c r="O1" t="s">
         <v>539</v>
-      </c>
-      <c r="N1" t="s">
-        <v>540</v>
-      </c>
-      <c r="O1" t="s">
-        <v>541</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -6646,7 +6985,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -6655,22 +6994,25 @@
         <v>1954</v>
       </c>
       <c r="D2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I2" t="s">
         <v>543</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>544</v>
       </c>
-      <c r="F2" t="s">
+      <c r="O2" t="s">
         <v>545</v>
-      </c>
-      <c r="I2" t="s">
-        <v>546</v>
-      </c>
-      <c r="L2" t="s">
-        <v>547</v>
-      </c>
-      <c r="O2" t="s">
-        <v>548</v>
       </c>
       <c r="S2" t="s">
         <v>411</v>
@@ -6678,16 +7020,16 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>701</v>
+        <v>761</v>
       </c>
       <c r="D3" t="s">
-        <v>550</v>
+        <v>698</v>
       </c>
       <c r="E3" t="s">
         <v>551</v>
@@ -6696,367 +7038,367 @@
         <v>552</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>553</v>
+      </c>
+      <c r="I3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" t="s">
+        <v>699</v>
       </c>
       <c r="L3" t="s">
-        <v>553</v>
+        <v>554</v>
+      </c>
+      <c r="O3" t="s">
+        <v>545</v>
       </c>
       <c r="S3" t="s">
-        <v>769</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>765</v>
+        <v>753</v>
+      </c>
+      <c r="C4">
+        <v>2019</v>
       </c>
       <c r="D4" t="s">
+        <v>700</v>
+      </c>
+      <c r="E4" t="s">
+        <v>701</v>
+      </c>
+      <c r="F4" t="s">
         <v>702</v>
       </c>
-      <c r="E4" t="s">
-        <v>555</v>
-      </c>
-      <c r="F4" t="s">
-        <v>556</v>
-      </c>
       <c r="G4" t="s">
-        <v>557</v>
+        <v>703</v>
+      </c>
+      <c r="H4" t="s">
+        <v>704</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>545</v>
       </c>
       <c r="K4" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="L4" t="s">
-        <v>558</v>
+        <v>706</v>
+      </c>
+      <c r="M4" t="s">
+        <v>707</v>
       </c>
       <c r="O4" t="s">
-        <v>548</v>
+        <v>545</v>
+      </c>
+      <c r="P4" t="s">
+        <v>704</v>
       </c>
       <c r="S4" t="s">
-        <v>559</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="B5" t="s">
-        <v>757</v>
-      </c>
-      <c r="C5">
-        <v>2019</v>
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>756</v>
       </c>
       <c r="D5" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="E5" t="s">
-        <v>705</v>
+        <v>748</v>
       </c>
       <c r="F5" t="s">
-        <v>706</v>
+        <v>749</v>
       </c>
       <c r="G5" t="s">
-        <v>707</v>
-      </c>
-      <c r="H5" t="s">
-        <v>708</v>
+        <v>750</v>
       </c>
       <c r="I5" t="s">
-        <v>548</v>
-      </c>
-      <c r="K5" t="s">
-        <v>709</v>
+        <v>752</v>
       </c>
       <c r="L5" t="s">
-        <v>710</v>
-      </c>
-      <c r="M5" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="O5" t="s">
-        <v>548</v>
-      </c>
-      <c r="P5" t="s">
-        <v>708</v>
-      </c>
-      <c r="S5" t="s">
-        <v>712</v>
+        <v>751</v>
+      </c>
+      <c r="R5" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>841</v>
+        <v>546</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>831</v>
+        <v>697</v>
       </c>
       <c r="D6" t="s">
-        <v>981</v>
+        <v>1047</v>
       </c>
       <c r="E6" t="s">
-        <v>982</v>
+        <v>547</v>
       </c>
       <c r="F6" t="s">
-        <v>983</v>
+        <v>548</v>
       </c>
       <c r="G6" t="s">
-        <v>984</v>
+        <v>209</v>
       </c>
       <c r="L6" t="s">
-        <v>764</v>
-      </c>
-      <c r="O6" t="s">
-        <v>985</v>
-      </c>
-      <c r="R6" t="s">
-        <v>842</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>986</v>
+        <v>549</v>
+      </c>
+      <c r="S6" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>570</v>
+        <v>837</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>827</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>971</v>
       </c>
       <c r="E7" t="s">
-        <v>713</v>
+        <v>972</v>
       </c>
       <c r="F7" t="s">
-        <v>714</v>
+        <v>973</v>
       </c>
       <c r="G7" t="s">
-        <v>715</v>
-      </c>
-      <c r="I7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" t="s">
-        <v>601</v>
-      </c>
-      <c r="K7" t="s">
-        <v>601</v>
+        <v>974</v>
       </c>
       <c r="L7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M7" t="s">
-        <v>408</v>
-      </c>
-      <c r="N7" t="s">
-        <v>716</v>
+        <v>760</v>
       </c>
       <c r="O7" t="s">
-        <v>717</v>
-      </c>
-      <c r="S7" t="s">
-        <v>768</v>
+        <v>975</v>
+      </c>
+      <c r="R7" t="s">
+        <v>838</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>821</v>
+        <v>566</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>831</v>
+        <v>234</v>
       </c>
       <c r="D8" t="s">
-        <v>830</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>820</v>
+        <v>709</v>
       </c>
       <c r="F8" t="s">
-        <v>832</v>
+        <v>710</v>
       </c>
       <c r="G8" t="s">
-        <v>570</v>
+        <v>711</v>
       </c>
       <c r="I8" t="s">
-        <v>548</v>
+        <v>159</v>
+      </c>
+      <c r="J8" t="s">
+        <v>597</v>
+      </c>
+      <c r="K8" t="s">
+        <v>597</v>
       </c>
       <c r="L8" t="s">
-        <v>843</v>
-      </c>
-      <c r="R8" t="s">
-        <v>842</v>
+        <v>141</v>
+      </c>
+      <c r="M8" t="s">
+        <v>408</v>
+      </c>
+      <c r="N8" t="s">
+        <v>712</v>
+      </c>
+      <c r="O8" t="s">
+        <v>713</v>
+      </c>
+      <c r="S8" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>718</v>
+        <v>817</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
-        <v>2022</v>
+      <c r="C9" t="s">
+        <v>827</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>826</v>
       </c>
       <c r="E9" t="s">
-        <v>719</v>
+        <v>816</v>
       </c>
       <c r="F9" t="s">
-        <v>976</v>
+        <v>828</v>
       </c>
       <c r="G9" t="s">
-        <v>977</v>
+        <v>566</v>
       </c>
       <c r="I9" t="s">
-        <v>548</v>
-      </c>
-      <c r="J9" t="s">
-        <v>720</v>
+        <v>545</v>
       </c>
       <c r="L9" t="s">
-        <v>721</v>
-      </c>
-      <c r="M9" t="s">
-        <v>711</v>
-      </c>
-      <c r="O9" t="s">
-        <v>548</v>
-      </c>
-      <c r="S9" t="s">
-        <v>722</v>
+        <v>839</v>
+      </c>
+      <c r="R9" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>714</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>760</v>
+      <c r="C10">
+        <v>2022</v>
       </c>
       <c r="D10" t="s">
-        <v>750</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>752</v>
+        <v>715</v>
       </c>
       <c r="F10" t="s">
-        <v>753</v>
+        <v>966</v>
       </c>
       <c r="G10" t="s">
-        <v>754</v>
+        <v>967</v>
       </c>
       <c r="I10" t="s">
-        <v>756</v>
+        <v>545</v>
+      </c>
+      <c r="J10" t="s">
+        <v>716</v>
       </c>
       <c r="L10" t="s">
-        <v>751</v>
+        <v>717</v>
+      </c>
+      <c r="M10" t="s">
+        <v>707</v>
       </c>
       <c r="O10" t="s">
-        <v>755</v>
-      </c>
-      <c r="R10" t="s">
-        <v>749</v>
+        <v>545</v>
+      </c>
+      <c r="S10" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D11" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E11" t="s">
         <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G11" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="I11" t="s">
         <v>159</v>
       </c>
       <c r="J11" t="s">
+        <v>722</v>
+      </c>
+      <c r="L11" t="s">
+        <v>723</v>
+      </c>
+      <c r="M11" t="s">
+        <v>724</v>
+      </c>
+      <c r="O11" t="s">
+        <v>725</v>
+      </c>
+      <c r="S11" t="s">
         <v>726</v>
       </c>
-      <c r="L11" t="s">
+      <c r="T11" t="s">
         <v>727</v>
-      </c>
-      <c r="M11" t="s">
-        <v>728</v>
-      </c>
-      <c r="O11" t="s">
-        <v>729</v>
-      </c>
-      <c r="S11" t="s">
-        <v>730</v>
-      </c>
-      <c r="T11" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="B12" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="C12">
         <v>2024</v>
       </c>
       <c r="D12" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F12" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G12" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="H12" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="I12" t="s">
         <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="O12" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="S12" t="s">
         <v>123</v>
@@ -7064,7 +7406,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -7073,202 +7415,202 @@
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F13" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="L13" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="O13" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="S13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>791</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>792</v>
+      </c>
+      <c r="D14" t="s">
+        <v>793</v>
+      </c>
+      <c r="E14" t="s">
+        <v>541</v>
+      </c>
+      <c r="F14" t="s">
+        <v>794</v>
+      </c>
+      <c r="L14" t="s">
         <v>795</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="O14" t="s">
+        <v>836</v>
+      </c>
+      <c r="S14" t="s">
         <v>796</v>
-      </c>
-      <c r="D14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E14" t="s">
-        <v>544</v>
-      </c>
-      <c r="F14" t="s">
-        <v>798</v>
-      </c>
-      <c r="L14" t="s">
-        <v>799</v>
-      </c>
-      <c r="O14" t="s">
-        <v>840</v>
-      </c>
-      <c r="S14" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B15" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C15">
         <v>2024</v>
       </c>
       <c r="D15" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E15" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F15" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="L15" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="R15" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>569</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>570</v>
+      </c>
+      <c r="D16" t="s">
+        <v>993</v>
+      </c>
+      <c r="E16" t="s">
+        <v>806</v>
+      </c>
+      <c r="F16" t="s">
+        <v>572</v>
+      </c>
+      <c r="G16" t="s">
         <v>573</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="I16" t="s">
         <v>574</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E16" t="s">
-        <v>810</v>
-      </c>
-      <c r="F16" t="s">
-        <v>576</v>
-      </c>
-      <c r="G16" t="s">
-        <v>577</v>
-      </c>
-      <c r="I16" t="s">
-        <v>578</v>
       </c>
       <c r="L16" t="s">
         <v>231</v>
       </c>
       <c r="O16" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="S16" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="T16" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D17" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="E17" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F17" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="G17" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I17" t="s">
         <v>414</v>
       </c>
       <c r="K17" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L17" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="O17" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="S17" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="T17" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B18" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D18" t="s">
+        <v>737</v>
+      </c>
+      <c r="E18" t="s">
+        <v>738</v>
+      </c>
+      <c r="F18" t="s">
+        <v>739</v>
+      </c>
+      <c r="G18" t="s">
+        <v>740</v>
+      </c>
+      <c r="L18" t="s">
+        <v>743</v>
+      </c>
+      <c r="R18" t="s">
         <v>741</v>
       </c>
-      <c r="E18" t="s">
+      <c r="S18" t="s">
         <v>742</v>
-      </c>
-      <c r="F18" t="s">
-        <v>743</v>
-      </c>
-      <c r="G18" t="s">
-        <v>744</v>
-      </c>
-      <c r="L18" t="s">
-        <v>747</v>
-      </c>
-      <c r="R18" t="s">
-        <v>745</v>
-      </c>
-      <c r="S18" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E19" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F19" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="I19" t="s">
         <v>414</v>
@@ -7277,82 +7619,82 @@
         <v>231</v>
       </c>
       <c r="O19" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="R19" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
+        <v>756</v>
+      </c>
+      <c r="D20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E20" t="s">
+        <v>755</v>
+      </c>
+      <c r="F20" t="s">
+        <v>759</v>
+      </c>
+      <c r="G20" t="s">
+        <v>758</v>
+      </c>
+      <c r="J20" t="s">
+        <v>757</v>
+      </c>
+      <c r="L20" t="s">
         <v>760</v>
       </c>
-      <c r="D20" t="s">
-        <v>758</v>
-      </c>
-      <c r="E20" t="s">
-        <v>759</v>
-      </c>
-      <c r="F20" t="s">
-        <v>763</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="O20" t="s">
+        <v>725</v>
+      </c>
+      <c r="S20" t="s">
         <v>762</v>
-      </c>
-      <c r="J20" t="s">
-        <v>761</v>
-      </c>
-      <c r="L20" t="s">
-        <v>764</v>
-      </c>
-      <c r="O20" t="s">
-        <v>729</v>
-      </c>
-      <c r="S20" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>563</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>939</v>
+      </c>
+      <c r="E21" t="s">
+        <v>564</v>
+      </c>
+      <c r="F21" t="s">
+        <v>565</v>
+      </c>
+      <c r="G21" t="s">
+        <v>566</v>
+      </c>
+      <c r="I21" t="s">
         <v>567</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>949</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="L21" t="s">
         <v>568</v>
       </c>
-      <c r="F21" t="s">
-        <v>569</v>
-      </c>
-      <c r="G21" t="s">
-        <v>570</v>
-      </c>
-      <c r="I21" t="s">
-        <v>571</v>
-      </c>
-      <c r="L21" t="s">
-        <v>572</v>
-      </c>
       <c r="O21" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="S21" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -7361,272 +7703,272 @@
         <v>245</v>
       </c>
       <c r="E22" t="s">
+        <v>583</v>
+      </c>
+      <c r="F22" t="s">
+        <v>584</v>
+      </c>
+      <c r="G22" t="s">
+        <v>585</v>
+      </c>
+      <c r="K22" t="s">
+        <v>586</v>
+      </c>
+      <c r="L22" t="s">
         <v>587</v>
       </c>
-      <c r="F22" t="s">
+      <c r="S22" t="s">
         <v>588</v>
       </c>
-      <c r="G22" t="s">
+      <c r="T22" t="s">
         <v>589</v>
-      </c>
-      <c r="K22" t="s">
-        <v>590</v>
-      </c>
-      <c r="L22" t="s">
-        <v>591</v>
-      </c>
-      <c r="S22" t="s">
-        <v>592</v>
-      </c>
-      <c r="T22" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>590</v>
+      </c>
+      <c r="B23" t="s">
+        <v>929</v>
+      </c>
+      <c r="C23" t="s">
+        <v>591</v>
+      </c>
+      <c r="D23" t="s">
+        <v>592</v>
+      </c>
+      <c r="E23" t="s">
+        <v>593</v>
+      </c>
+      <c r="F23" t="s">
         <v>594</v>
       </c>
-      <c r="B23" t="s">
-        <v>939</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
         <v>595</v>
       </c>
-      <c r="D23" t="s">
+      <c r="I23" t="s">
         <v>596</v>
       </c>
-      <c r="E23" t="s">
+      <c r="J23" t="s">
         <v>597</v>
       </c>
-      <c r="F23" t="s">
+      <c r="L23" t="s">
         <v>598</v>
       </c>
-      <c r="G23" t="s">
+      <c r="M23" t="s">
         <v>599</v>
       </c>
-      <c r="I23" t="s">
-        <v>600</v>
-      </c>
-      <c r="J23" t="s">
-        <v>601</v>
-      </c>
-      <c r="L23" t="s">
-        <v>602</v>
-      </c>
-      <c r="M23" t="s">
-        <v>603</v>
-      </c>
       <c r="O23" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="S23" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="E24" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="F24" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="L24" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="O24" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="S24" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D25" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E25" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F25" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="G25" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="L25" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="S25" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B26" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="C26">
         <v>2008</v>
       </c>
       <c r="D26" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="E26" t="s">
+        <v>601</v>
+      </c>
+      <c r="F26" t="s">
+        <v>602</v>
+      </c>
+      <c r="G26" t="s">
+        <v>603</v>
+      </c>
+      <c r="I26" t="s">
+        <v>567</v>
+      </c>
+      <c r="K26" t="s">
+        <v>604</v>
+      </c>
+      <c r="L26" t="s">
         <v>605</v>
       </c>
-      <c r="F26" t="s">
+      <c r="O26" t="s">
+        <v>545</v>
+      </c>
+      <c r="S26" t="s">
         <v>606</v>
       </c>
-      <c r="G26" t="s">
+      <c r="U26" t="s">
         <v>607</v>
-      </c>
-      <c r="I26" t="s">
-        <v>571</v>
-      </c>
-      <c r="K26" t="s">
-        <v>608</v>
-      </c>
-      <c r="L26" t="s">
-        <v>609</v>
-      </c>
-      <c r="O26" t="s">
-        <v>548</v>
-      </c>
-      <c r="S26" t="s">
-        <v>610</v>
-      </c>
-      <c r="U26" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="B27" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D27" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="E27" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="F27" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="L27" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="O27" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="S27" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="B28" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="D28" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="E28" t="s">
+        <v>925</v>
+      </c>
+      <c r="F28" t="s">
+        <v>938</v>
+      </c>
+      <c r="L28" t="s">
+        <v>927</v>
+      </c>
+      <c r="R28" t="s">
+        <v>932</v>
+      </c>
+      <c r="S28" t="s">
         <v>935</v>
-      </c>
-      <c r="F28" t="s">
-        <v>948</v>
-      </c>
-      <c r="L28" t="s">
-        <v>937</v>
-      </c>
-      <c r="R28" t="s">
-        <v>942</v>
-      </c>
-      <c r="S28" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E29" t="s">
         <v>327</v>
       </c>
       <c r="F29" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G29" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="K29" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="L29" t="s">
         <v>347</v>
       </c>
       <c r="M29" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="N29" t="s">
         <v>239</v>
       </c>
       <c r="R29" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D30" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E30" t="s">
         <v>364</v>
       </c>
       <c r="F30" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G30" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="K30" t="s">
         <v>356</v>
@@ -7635,170 +7977,170 @@
         <v>141</v>
       </c>
       <c r="O30" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="S30" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="T30" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
+        <v>618</v>
+      </c>
+      <c r="E31" t="s">
+        <v>619</v>
+      </c>
+      <c r="F31" t="s">
+        <v>620</v>
+      </c>
+      <c r="G31" t="s">
+        <v>621</v>
+      </c>
+      <c r="K31" t="s">
         <v>622</v>
       </c>
-      <c r="E31" t="s">
+      <c r="L31" t="s">
         <v>623</v>
       </c>
-      <c r="F31" t="s">
+      <c r="O31" t="s">
         <v>624</v>
       </c>
-      <c r="G31" t="s">
+      <c r="R31" t="s">
         <v>625</v>
       </c>
-      <c r="K31" t="s">
+      <c r="S31" t="s">
         <v>626</v>
       </c>
-      <c r="L31" t="s">
+      <c r="U31" t="s">
         <v>627</v>
-      </c>
-      <c r="O31" t="s">
-        <v>628</v>
-      </c>
-      <c r="R31" t="s">
-        <v>629</v>
-      </c>
-      <c r="S31" t="s">
-        <v>630</v>
-      </c>
-      <c r="U31" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>768</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>767</v>
+      </c>
+      <c r="E32" t="s">
+        <v>769</v>
+      </c>
+      <c r="F32" t="s">
+        <v>773</v>
+      </c>
+      <c r="L32" t="s">
         <v>772</v>
       </c>
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="S32" t="s">
         <v>771</v>
       </c>
-      <c r="E32" t="s">
-        <v>773</v>
-      </c>
-      <c r="F32" t="s">
-        <v>777</v>
-      </c>
-      <c r="L32" t="s">
-        <v>776</v>
-      </c>
-      <c r="S32" t="s">
-        <v>775</v>
-      </c>
       <c r="T32" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="E33" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="F33" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="G33" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="L33" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="M33" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="N33" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="O33" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="S33" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>783</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>784</v>
+      </c>
+      <c r="D34" t="s">
+        <v>780</v>
+      </c>
+      <c r="E34" t="s">
         <v>787</v>
       </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="F34" t="s">
+        <v>789</v>
+      </c>
+      <c r="G34" t="s">
         <v>788</v>
       </c>
-      <c r="D34" t="s">
-        <v>784</v>
-      </c>
-      <c r="E34" t="s">
-        <v>791</v>
-      </c>
-      <c r="F34" t="s">
-        <v>793</v>
-      </c>
-      <c r="G34" t="s">
-        <v>792</v>
-      </c>
       <c r="K34" t="s">
+        <v>781</v>
+      </c>
+      <c r="L34" t="s">
         <v>785</v>
       </c>
-      <c r="L34" t="s">
-        <v>789</v>
-      </c>
       <c r="O34" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="S34" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E35" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F35" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G35" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="L35" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="R35" t="s">
         <v>350</v>
@@ -7806,48 +8148,48 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D36" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E36" t="s">
         <v>360</v>
       </c>
       <c r="F36" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G36" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="H36" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="I36" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K36" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="L36" t="s">
         <v>362</v>
       </c>
       <c r="O36" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="S36" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S6" r:id="rId1" location="cite_note-18" xr:uid="{558100A1-1496-4788-A213-08E8BAD0A72D}"/>
+    <hyperlink ref="S7" r:id="rId1" location="cite_note-18" xr:uid="{558100A1-1496-4788-A213-08E8BAD0A72D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7858,10 +8200,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7870,263 +8212,355 @@
     <col min="20" max="20" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1" t="s">
+        <v>398</v>
+      </c>
+      <c r="M1" t="s">
+        <v>399</v>
+      </c>
+      <c r="N1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P1" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>635</v>
+      </c>
+      <c r="R1" t="s">
+        <v>636</v>
+      </c>
+      <c r="S1" t="s">
         <v>637</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" t="s">
+        <v>405</v>
+      </c>
+      <c r="U1" t="s">
+        <v>406</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" t="s">
         <v>638</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C2" t="s">
         <v>639</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="D2" t="s">
         <v>640</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="E2" t="s">
         <v>641</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="F2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G2" t="s">
+        <v>643</v>
+      </c>
+      <c r="H2" t="s">
+        <v>644</v>
+      </c>
+      <c r="I2" t="s">
+        <v>645</v>
+      </c>
+      <c r="K2" t="s">
+        <v>646</v>
+      </c>
+      <c r="M2" t="s">
+        <v>647</v>
+      </c>
+      <c r="N2" t="s">
+        <v>648</v>
+      </c>
+      <c r="P2" t="s">
+        <v>649</v>
+      </c>
+      <c r="R2" t="s">
+        <v>650</v>
+      </c>
+      <c r="S2" t="s">
+        <v>651</v>
+      </c>
+      <c r="T2" t="s">
+        <v>652</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="V2" s="5" t="s">
+      <c r="B3" t="s">
         <v>658</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="C3" t="s">
         <v>659</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="D3" t="s">
         <v>660</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="E3" t="s">
         <v>661</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>662</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>663</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J3" t="s">
+        <v>663</v>
+      </c>
+      <c r="M3" t="s">
+        <v>664</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P3" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>666</v>
+      </c>
+      <c r="R3" t="s">
+        <v>667</v>
+      </c>
+      <c r="S3" t="s">
+        <v>668</v>
+      </c>
+      <c r="T3" t="s">
+        <v>669</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>407</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>672</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="B5" t="s">
         <v>673</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="C5" t="s">
         <v>674</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="D5" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="E5" t="s">
         <v>676</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F5" t="s">
         <v>677</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G5" t="s">
         <v>678</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H5" t="s">
         <v>679</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="M5" t="s">
         <v>680</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="N5" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q5" t="s">
         <v>681</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="R5" t="s">
         <v>682</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="S5" t="s">
         <v>683</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="V5" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>1071</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="V3" r:id="rId6" location="cite_note-11" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="W3" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="V4" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{4DA2285A-39DB-4FE3-B3DA-18ABE62F7DA2}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{985202CF-B625-40FF-BF5E-D3CA2488EB5C}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{D4D54183-5458-4671-926F-F654EAB116E7}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{65126A29-FCA7-481A-900A-595D6F986FFB}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{4F8BA3F1-C5DD-4D29-9720-C8255C0F6A5A}"/>
+    <hyperlink ref="V3" r:id="rId6" location="cite_note-11" xr:uid="{C89C74DA-4E02-4ABF-88E5-BE623DFA3AC2}"/>
+    <hyperlink ref="W3" r:id="rId7" xr:uid="{86A2174E-A373-496F-9F2E-E7A4092DD0CC}"/>
+    <hyperlink ref="V5" r:id="rId8" xr:uid="{BA970201-26C2-48A4-B956-EE9D194708D3}"/>
+    <hyperlink ref="V4" r:id="rId9" xr:uid="{5354565A-FC06-4228-8299-95F121B891D5}"/>
+    <hyperlink ref="U6" r:id="rId10" xr:uid="{0996DDA4-68E9-49B2-A3AA-F7EE63FE5A79}"/>
+    <hyperlink ref="V6" r:id="rId11" xr:uid="{7B6AD993-86B0-4497-8B66-9ABB9BAE99D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA0860-338F-470A-AD97-1435C6F05037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D11634-2665-45C5-85A2-26369A207D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filed Cases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="1098">
   <si>
     <t>State</t>
   </si>
@@ -3311,6 +3311,12 @@
   </si>
   <si>
     <t>Safe In Heaven Dead Productions, Johnny Depp</t>
+  </si>
+  <si>
+    <t>2000, 2001</t>
+  </si>
+  <si>
+    <t>Sean Combs, RICO</t>
   </si>
 </sst>
 </file>
@@ -3604,9 +3610,7 @@
   </sheetPr>
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3867,75 +3871,75 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B7">
-        <v>2024</v>
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1096</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>1090</v>
       </c>
       <c r="D7" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1079</v>
+        <v>1091</v>
       </c>
       <c r="G7" t="s">
-        <v>1080</v>
+        <v>358</v>
       </c>
       <c r="I7" t="s">
-        <v>1086</v>
+        <v>359</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1087</v>
+        <v>360</v>
       </c>
       <c r="R7" t="s">
-        <v>1094</v>
+        <v>1092</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1089</v>
       </c>
       <c r="T7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="U7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="V7" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>1081</v>
       </c>
       <c r="B8">
-        <v>1997</v>
+        <v>2024</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>1097</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>1085</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>1079</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>1080</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>1086</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>1087</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1084</v>
       </c>
       <c r="U8" t="s">
-        <v>71</v>
+        <v>1082</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -3943,31 +3947,25 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>2001</v>
+        <v>2023</v>
       </c>
       <c r="C9" t="s">
-        <v>1090</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>1091</v>
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>358</v>
-      </c>
-      <c r="I9" t="s">
-        <v>359</v>
-      </c>
-      <c r="J9" t="s">
-        <v>360</v>
-      </c>
-      <c r="R9" t="s">
-        <v>1092</v>
-      </c>
-      <c r="S9" t="s">
-        <v>1089</v>
+        <v>85</v>
       </c>
       <c r="T9" t="s">
-        <v>1088</v>
+        <v>86</v>
+      </c>
+      <c r="U9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -3975,25 +3973,22 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
+        <v>179</v>
+      </c>
+      <c r="F10" t="s">
+        <v>931</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
-      </c>
-      <c r="T10" t="s">
-        <v>86</v>
-      </c>
-      <c r="U10" t="s">
-        <v>87</v>
+        <v>180</v>
+      </c>
+      <c r="I10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -4330,39 +4325,45 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1997</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>67</v>
+      </c>
+      <c r="I21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" t="s">
+        <v>70</v>
+      </c>
+      <c r="U21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>2024</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>175</v>
-      </c>
-      <c r="T22" t="s">
-        <v>176</v>
-      </c>
-      <c r="U22" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
@@ -4370,22 +4371,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" t="s">
-        <v>931</v>
+        <v>173</v>
+      </c>
+      <c r="E23" t="s">
+        <v>174</v>
       </c>
       <c r="G23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I23" t="s">
-        <v>181</v>
+        <v>175</v>
+      </c>
+      <c r="T23" t="s">
+        <v>176</v>
+      </c>
+      <c r="U23" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -6794,7 +6798,7 @@
   </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D11634-2665-45C5-85A2-26369A207D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF2CEAC-DECE-49BE-988E-6D260DD731F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="1109">
   <si>
     <t>State</t>
   </si>
@@ -2959,9 +2959,6 @@
     <t>Medical, Exploitation, Conservatorship</t>
   </si>
   <si>
-    <t>Molly Bloom</t>
-  </si>
-  <si>
     <t>Social, High-Level Gambling, Hotels, Nightclubs, Olympic Athlete</t>
   </si>
   <si>
@@ -3317,6 +3314,42 @@
   </si>
   <si>
     <t>Sean Combs, RICO</t>
+  </si>
+  <si>
+    <t>Lou Pearlman</t>
+  </si>
+  <si>
+    <t>https://www.today.com/popculture/lou-pearlman-indicted-fraud-charges-1C9430730</t>
+  </si>
+  <si>
+    <t>FBI, Federal Authorities, Integra Bank</t>
+  </si>
+  <si>
+    <t>Investors seek justice</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/title/81476403</t>
+  </si>
+  <si>
+    <t>Implication Artists, TV Show, 315 million defrauded investors, 120 million to banks, 20 million to Integra Bank</t>
+  </si>
+  <si>
+    <t>1990s-2007</t>
+  </si>
+  <si>
+    <t>Music, Boy Bands, Airplane Charter, Real Estate, Model Scouting, Restaurants, Financial, N Sync, Backstreet Boys</t>
+  </si>
+  <si>
+    <t>Fraud, Fraudulent Documents, Fake Accounting Firm, Wire Fraud, Ponzi Scheme</t>
+  </si>
+  <si>
+    <t>Investors, Integra Bank N.A., Social Circles Artists</t>
+  </si>
+  <si>
+    <t>Molly Bloom, Potentially Others</t>
+  </si>
+  <si>
+    <t>Alexa Nikolas, Family</t>
   </si>
 </sst>
 </file>
@@ -3383,12 +3416,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3874,13 +3908,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D7" t="s">
         <v>1090</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1091</v>
       </c>
       <c r="G7" t="s">
         <v>358</v>
@@ -3892,54 +3926,54 @@
         <v>360</v>
       </c>
       <c r="R7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="S7" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="T7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B8">
         <v>2024</v>
       </c>
       <c r="C8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I8" t="s">
         <v>1085</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1086</v>
       </c>
       <c r="J8" t="s">
         <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="R8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="T8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="U8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="V8" t="s">
         <v>1082</v>
-      </c>
-      <c r="V8" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -4458,7 +4492,7 @@
         <v>2015</v>
       </c>
       <c r="C26" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D26" t="s">
         <v>194</v>
@@ -4655,7 +4689,7 @@
         <v>233</v>
       </c>
       <c r="C33" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D33" t="s">
         <v>234</v>
@@ -5602,7 +5636,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -5735,13 +5769,13 @@
         <v>413</v>
       </c>
       <c r="B4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C4" t="s">
         <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -5770,7 +5804,7 @@
         <v>889</v>
       </c>
       <c r="B5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C5" t="s">
         <v>837</v>
@@ -5788,7 +5822,7 @@
         <v>838</v>
       </c>
       <c r="J5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K5" t="s">
         <v>850</v>
@@ -5797,10 +5831,10 @@
         <v>839</v>
       </c>
       <c r="P5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q5" t="s">
         <v>1028</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>1029</v>
       </c>
       <c r="S5" t="s">
         <v>840</v>
@@ -5884,7 +5918,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B8" t="s">
         <v>969</v>
@@ -5893,19 +5927,19 @@
         <v>824</v>
       </c>
       <c r="D8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J8" t="s">
         <v>971</v>
       </c>
       <c r="K8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="P8" t="s">
         <v>972</v>
@@ -5922,7 +5956,7 @@
         <v>432</v>
       </c>
       <c r="B9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C9">
         <v>2009</v>
@@ -5957,46 +5991,46 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B10" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C10" t="s">
         <v>438</v>
       </c>
       <c r="D10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E10" t="s">
         <v>1001</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1002</v>
       </c>
       <c r="F10" t="s">
         <v>410</v>
       </c>
       <c r="G10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I10" t="s">
         <v>1003</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>1004</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>1005</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>1006</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>1007</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>1008</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>1009</v>
-      </c>
-      <c r="S10" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -6022,7 +6056,7 @@
         <v>687</v>
       </c>
       <c r="J11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="P11" t="s">
         <v>688</v>
@@ -6063,10 +6097,10 @@
         <v>895</v>
       </c>
       <c r="K12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="P12" t="s">
         <v>1025</v>
-      </c>
-      <c r="P12" t="s">
-        <v>1026</v>
       </c>
       <c r="S12" t="s">
         <v>731</v>
@@ -6103,16 +6137,16 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B14" t="s">
         <v>1031</v>
       </c>
-      <c r="B14" t="s">
-        <v>1032</v>
-      </c>
       <c r="C14" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D14" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -6121,22 +6155,22 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I14" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J14" t="s">
         <v>1033</v>
       </c>
-      <c r="J14" t="s">
+      <c r="P14" t="s">
         <v>1034</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>1035</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -6144,7 +6178,7 @@
         <v>404</v>
       </c>
       <c r="B15" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C15" t="s">
         <v>887</v>
@@ -6176,7 +6210,7 @@
         <v>404</v>
       </c>
       <c r="B16" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C16" t="s">
         <v>438</v>
@@ -6264,7 +6298,7 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J18" t="s">
         <v>464</v>
@@ -6339,35 +6373,35 @@
       <c r="A20" t="s">
         <v>911</v>
       </c>
-      <c r="B20" t="s">
-        <v>978</v>
+      <c r="B20" s="4" t="s">
+        <v>1107</v>
       </c>
       <c r="C20">
         <v>2014</v>
       </c>
       <c r="D20" t="s">
+        <v>978</v>
+      </c>
+      <c r="E20" t="s">
         <v>979</v>
-      </c>
-      <c r="E20" t="s">
-        <v>980</v>
       </c>
       <c r="F20" t="s">
         <v>410</v>
       </c>
       <c r="G20" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J20" t="s">
+        <v>980</v>
+      </c>
+      <c r="K20" t="s">
         <v>981</v>
       </c>
-      <c r="K20" t="s">
+      <c r="P20" t="s">
         <v>982</v>
       </c>
-      <c r="P20" t="s">
+      <c r="S20" t="s">
         <v>983</v>
-      </c>
-      <c r="S20" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -6714,14 +6748,14 @@
       <c r="A32" t="s">
         <v>606</v>
       </c>
-      <c r="B32" t="s">
-        <v>325</v>
+      <c r="B32" s="4" t="s">
+        <v>1108</v>
       </c>
       <c r="C32" t="s">
+        <v>985</v>
+      </c>
+      <c r="D32" t="s">
         <v>986</v>
-      </c>
-      <c r="D32" t="s">
-        <v>987</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -6730,7 +6764,7 @@
         <v>605</v>
       </c>
       <c r="J32" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K32" t="s">
         <v>241</v>
@@ -6739,7 +6773,7 @@
         <v>141</v>
       </c>
       <c r="P32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="S32" t="s">
         <v>760</v>
@@ -6750,42 +6784,81 @@
         <v>404</v>
       </c>
       <c r="B33" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C33" t="s">
         <v>1013</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>1014</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>1015</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>1016</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>1017</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
         <v>1018</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>1019</v>
       </c>
-      <c r="K33" t="s">
+      <c r="P33" t="s">
         <v>1020</v>
       </c>
-      <c r="P33" t="s">
+      <c r="S33" t="s">
         <v>1021</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>1022</v>
       </c>
-      <c r="T33" t="s">
-        <v>1023</v>
+    </row>
+    <row r="34" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S14" r:id="rId1" xr:uid="{07E42739-3C6B-4490-84B1-CD88824F1D3B}"/>
+    <hyperlink ref="S34" r:id="rId2" xr:uid="{73CF35C7-B40E-48BA-95DD-51FC2F0FB138}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6872,7 +6945,7 @@
         <v>1954</v>
       </c>
       <c r="D2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E2" t="s">
         <v>538</v>
@@ -6881,7 +6954,7 @@
         <v>539</v>
       </c>
       <c r="G2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I2" t="s">
         <v>540</v>
@@ -7027,7 +7100,7 @@
         <v>694</v>
       </c>
       <c r="D6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E6" t="s">
         <v>544</v>
@@ -7377,7 +7450,7 @@
         <v>567</v>
       </c>
       <c r="D16" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E16" t="s">
         <v>803</v>
@@ -7415,7 +7488,7 @@
         <v>572</v>
       </c>
       <c r="D17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E17" t="s">
         <v>730</v>
@@ -7709,7 +7782,7 @@
         <v>2008</v>
       </c>
       <c r="D26" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E26" t="s">
         <v>598</v>
@@ -8246,7 +8319,7 @@
         <v>660</v>
       </c>
       <c r="I3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J3" t="s">
         <v>660</v>
@@ -8255,7 +8328,7 @@
         <v>661</v>
       </c>
       <c r="N3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="P3" t="s">
         <v>662</v>
@@ -8284,46 +8357,46 @@
         <v>404</v>
       </c>
       <c r="B4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="T4" t="s">
         <v>1073</v>
       </c>
-      <c r="C4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="V4" s="3" t="s">
         <v>1052</v>
-      </c>
-      <c r="T4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
@@ -8375,55 +8448,55 @@
         <v>404</v>
       </c>
       <c r="B6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D6" t="s">
         <v>1069</v>
       </c>
-      <c r="C6" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1070</v>
-      </c>
       <c r="E6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G6" t="s">
         <v>1054</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="G6" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1077</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1058</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1068</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>1064</v>
-      </c>
-      <c r="R6" t="s">
-        <v>1063</v>
-      </c>
-      <c r="S6" t="s">
-        <v>1062</v>
-      </c>
-      <c r="T6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>1060</v>
-      </c>
       <c r="V6" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF2CEAC-DECE-49BE-988E-6D260DD731F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146213BD-EC25-4971-BE23-BD3B82098EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,9 +184,6 @@
     <t>Nevada, California, New York</t>
   </si>
   <si>
-    <t>Nick Carter</t>
-  </si>
-  <si>
     <t>Melissa Schuman, Ashley Repp</t>
   </si>
   <si>
@@ -3350,6 +3347,9 @@
   </si>
   <si>
     <t>Alexa Nikolas, Family</t>
+  </si>
+  <si>
+    <t>Nick Carter, Michael Holtz</t>
   </si>
 </sst>
 </file>
@@ -3826,40 +3826,40 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>2006</v>
       </c>
       <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>74</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>76</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
       </c>
       <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" t="s">
         <v>78</v>
       </c>
-      <c r="R5" t="s">
+      <c r="U5" t="s">
         <v>79</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>80</v>
-      </c>
-      <c r="V5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -3870,37 +3870,37 @@
         <v>2016</v>
       </c>
       <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>89</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>90</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>91</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>92</v>
       </c>
-      <c r="I6" t="s">
+      <c r="R6" t="s">
         <v>93</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>94</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>95</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>96</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>97</v>
-      </c>
-      <c r="X6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -3908,72 +3908,72 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D7" t="s">
         <v>1089</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J7" t="s">
+        <v>359</v>
+      </c>
+      <c r="R7" t="s">
         <v>1090</v>
       </c>
-      <c r="G7" t="s">
-        <v>358</v>
-      </c>
-      <c r="I7" t="s">
-        <v>359</v>
-      </c>
-      <c r="J7" t="s">
-        <v>360</v>
-      </c>
-      <c r="R7" t="s">
-        <v>1091</v>
-      </c>
       <c r="S7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="T7" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B8">
         <v>2024</v>
       </c>
       <c r="C8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I8" t="s">
         <v>1084</v>
       </c>
-      <c r="E8" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" t="s">
         <v>1085</v>
       </c>
-      <c r="J8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1086</v>
-      </c>
       <c r="R8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="T8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="U8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="V8" t="s">
         <v>1081</v>
-      </c>
-      <c r="V8" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -3984,22 +3984,22 @@
         <v>2023</v>
       </c>
       <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>83</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>84</v>
       </c>
-      <c r="G9" t="s">
+      <c r="T9" t="s">
         <v>85</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>86</v>
-      </c>
-      <c r="U9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -4010,19 +4010,19 @@
         <v>2019</v>
       </c>
       <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
         <v>178</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>930</v>
+      </c>
+      <c r="G10" t="s">
         <v>179</v>
       </c>
-      <c r="F10" t="s">
-        <v>931</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>180</v>
-      </c>
-      <c r="I10" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -4033,28 +4033,28 @@
         <v>2024</v>
       </c>
       <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
         <v>108</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>109</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>110</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>111</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>112</v>
       </c>
-      <c r="J11" t="s">
+      <c r="U11" t="s">
         <v>113</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>114</v>
-      </c>
-      <c r="V11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -4064,70 +4064,70 @@
       <c r="B12">
         <v>2023</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>55</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>58</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>59</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>60</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N12" t="s">
         <v>61</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>62</v>
-      </c>
-      <c r="O12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13">
         <v>2024</v>
       </c>
       <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
         <v>100</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>101</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>102</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>103</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>104</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>105</v>
       </c>
-      <c r="K13" t="s">
+      <c r="U13" t="s">
         <v>106</v>
-      </c>
-      <c r="U13" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -4138,31 +4138,31 @@
         <v>2024</v>
       </c>
       <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
         <v>116</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>117</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>118</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
         <v>119</v>
       </c>
-      <c r="I14" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="O14" t="s">
         <v>120</v>
       </c>
-      <c r="O14" t="s">
+      <c r="T14" t="s">
         <v>121</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>122</v>
-      </c>
-      <c r="U14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -4173,25 +4173,25 @@
         <v>2023</v>
       </c>
       <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
         <v>124</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>125</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>126</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>127</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>128</v>
       </c>
-      <c r="J15" t="s">
-        <v>129</v>
-      </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -4202,28 +4202,28 @@
         <v>2020</v>
       </c>
       <c r="C16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" t="s">
         <v>130</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>131</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>132</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>133</v>
       </c>
-      <c r="I16" t="s">
+      <c r="T16" t="s">
         <v>134</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>135</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>136</v>
-      </c>
-      <c r="V16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -4234,63 +4234,63 @@
         <v>2017</v>
       </c>
       <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
         <v>138</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
         <v>139</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>140</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>141</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>142</v>
       </c>
-      <c r="K17" t="s">
+      <c r="R17" t="s">
         <v>143</v>
       </c>
-      <c r="R17" t="s">
+      <c r="U17" t="s">
         <v>144</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>145</v>
-      </c>
-      <c r="V17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18">
         <v>2019</v>
       </c>
       <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" t="s">
         <v>148</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>149</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
         <v>150</v>
       </c>
-      <c r="G18" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>151</v>
       </c>
-      <c r="K18" t="s">
+      <c r="T18" t="s">
         <v>152</v>
-      </c>
-      <c r="T18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -4301,28 +4301,28 @@
         <v>2022</v>
       </c>
       <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
         <v>154</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>155</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>156</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>157</v>
-      </c>
-      <c r="I19" t="s">
-        <v>158</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -4330,31 +4330,31 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" t="s">
         <v>160</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>161</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>162</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>163</v>
       </c>
-      <c r="G20" t="s">
+      <c r="T20" t="s">
         <v>164</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>165</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>166</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>167</v>
-      </c>
-      <c r="W20" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
@@ -4365,39 +4365,39 @@
         <v>1997</v>
       </c>
       <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>67</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>68</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>69</v>
       </c>
-      <c r="K21" t="s">
+      <c r="U21" t="s">
         <v>70</v>
-      </c>
-      <c r="U21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
         <v>169</v>
       </c>
-      <c r="C22" t="s">
+      <c r="G22" t="s">
         <v>170</v>
-      </c>
-      <c r="G22" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
@@ -4408,22 +4408,22 @@
         <v>2024</v>
       </c>
       <c r="C23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" t="s">
         <v>172</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>173</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>174</v>
       </c>
-      <c r="G23" t="s">
+      <c r="T23" t="s">
         <v>175</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>176</v>
-      </c>
-      <c r="U23" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -4434,28 +4434,28 @@
         <v>2024</v>
       </c>
       <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" t="s">
         <v>182</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>183</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" t="s">
         <v>184</v>
       </c>
-      <c r="G24" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>185</v>
       </c>
-      <c r="J24" t="s">
+      <c r="T24" t="s">
         <v>186</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>187</v>
-      </c>
-      <c r="U24" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
@@ -4466,22 +4466,22 @@
         <v>2024</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" t="s">
         <v>189</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>190</v>
       </c>
-      <c r="G25" t="s">
+      <c r="U25" t="s">
         <v>191</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>192</v>
-      </c>
-      <c r="V25" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
@@ -4492,19 +4492,19 @@
         <v>2015</v>
       </c>
       <c r="C26" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" t="s">
         <v>194</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>195</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>196</v>
-      </c>
-      <c r="I26" t="s">
-        <v>197</v>
       </c>
       <c r="J26" t="s">
         <v>38</v>
@@ -4518,25 +4518,25 @@
         <v>2018</v>
       </c>
       <c r="C27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" t="s">
         <v>198</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>199</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>200</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" t="s">
         <v>201</v>
       </c>
-      <c r="I27" t="s">
-        <v>112</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="U27" t="s">
         <v>202</v>
-      </c>
-      <c r="U27" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
@@ -4544,22 +4544,22 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" t="s">
         <v>204</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
         <v>205</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>206</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
+        <v>151</v>
+      </c>
+      <c r="R28" t="s">
         <v>207</v>
-      </c>
-      <c r="J28" t="s">
-        <v>152</v>
-      </c>
-      <c r="R28" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -4570,19 +4570,19 @@
         <v>2023</v>
       </c>
       <c r="C29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" t="s">
         <v>209</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" t="s">
         <v>210</v>
       </c>
-      <c r="E29" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="U29" t="s">
         <v>211</v>
-      </c>
-      <c r="U29" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -4593,28 +4593,28 @@
         <v>2021</v>
       </c>
       <c r="C30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" t="s">
         <v>213</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>214</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>215</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>216</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>217</v>
       </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>218</v>
       </c>
-      <c r="K30" t="s">
+      <c r="U30" t="s">
         <v>219</v>
-      </c>
-      <c r="U30" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
@@ -4625,25 +4625,25 @@
         <v>2023</v>
       </c>
       <c r="C31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" t="s">
         <v>221</v>
       </c>
-      <c r="D31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>222</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>223</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>224</v>
       </c>
-      <c r="K31" t="s">
+      <c r="U31" t="s">
         <v>225</v>
-      </c>
-      <c r="U31" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
@@ -4654,31 +4654,31 @@
         <v>2001</v>
       </c>
       <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" t="s">
         <v>227</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>593</v>
+      </c>
+      <c r="G32" t="s">
         <v>228</v>
       </c>
-      <c r="F32" t="s">
-        <v>594</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>229</v>
-      </c>
-      <c r="I32" t="s">
-        <v>230</v>
       </c>
       <c r="J32" t="s">
         <v>38</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O32" t="s">
+        <v>230</v>
+      </c>
+      <c r="P32" t="s">
         <v>231</v>
-      </c>
-      <c r="P32" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
@@ -4686,22 +4686,22 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D33" t="s">
         <v>233</v>
       </c>
-      <c r="C33" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
         <v>234</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>235</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>236</v>
-      </c>
-      <c r="J33" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
@@ -4712,22 +4712,22 @@
         <v>2021</v>
       </c>
       <c r="C34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" t="s">
         <v>238</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
         <v>239</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>240</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
+        <v>111</v>
+      </c>
+      <c r="U34" t="s">
         <v>241</v>
-      </c>
-      <c r="I34" t="s">
-        <v>112</v>
-      </c>
-      <c r="U34" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
@@ -4738,25 +4738,25 @@
         <v>2016</v>
       </c>
       <c r="C35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" t="s">
         <v>243</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>244</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>245</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" t="s">
         <v>246</v>
       </c>
-      <c r="I35" t="s">
-        <v>141</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="U35" t="s">
         <v>247</v>
-      </c>
-      <c r="U35" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
@@ -4767,46 +4767,46 @@
         <v>2022</v>
       </c>
       <c r="C36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" t="s">
         <v>249</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>250</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>251</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>252</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>253</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" t="s">
         <v>254</v>
       </c>
-      <c r="I36" t="s">
-        <v>112</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
+        <v>236</v>
+      </c>
+      <c r="U36" t="s">
         <v>255</v>
       </c>
-      <c r="K36" t="s">
-        <v>237</v>
-      </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>256</v>
       </c>
-      <c r="V36" t="s">
+      <c r="X36" t="s">
         <v>257</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>258</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>259</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
@@ -4817,25 +4817,25 @@
         <v>2018</v>
       </c>
       <c r="C37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" t="s">
         <v>261</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>262</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>263</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>264</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>265</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>266</v>
-      </c>
-      <c r="K37" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
@@ -4843,22 +4843,22 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" t="s">
         <v>268</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>269</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>270</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>271</v>
       </c>
-      <c r="G38" t="s">
-        <v>272</v>
-      </c>
       <c r="U38" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
@@ -4866,48 +4866,48 @@
         <v>32</v>
       </c>
       <c r="C39" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" t="s">
+        <v>908</v>
+      </c>
+      <c r="F39" t="s">
         <v>273</v>
       </c>
-      <c r="D39" t="s">
-        <v>909</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>274</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>275</v>
-      </c>
-      <c r="I39" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" t="s">
         <v>277</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>199</v>
+      </c>
+      <c r="G40" t="s">
         <v>278</v>
       </c>
-      <c r="E40" t="s">
-        <v>200</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" t="s">
         <v>279</v>
       </c>
-      <c r="I40" t="s">
-        <v>112</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>280</v>
       </c>
-      <c r="K40" t="s">
+      <c r="T40" t="s">
         <v>281</v>
-      </c>
-      <c r="T40" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
@@ -4918,31 +4918,31 @@
         <v>2022</v>
       </c>
       <c r="C41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" t="s">
         <v>283</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>284</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>285</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>286</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>287</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>288</v>
       </c>
-      <c r="K41" t="s">
+      <c r="R41" t="s">
         <v>289</v>
       </c>
-      <c r="R41" t="s">
+      <c r="U41" t="s">
         <v>290</v>
-      </c>
-      <c r="U41" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
@@ -4950,19 +4950,19 @@
         <v>32</v>
       </c>
       <c r="C42" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" t="s">
         <v>292</v>
       </c>
-      <c r="D42" t="s">
-        <v>293</v>
-      </c>
       <c r="G42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
@@ -4970,25 +4970,25 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D43" t="s">
         <v>294</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>295</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>296</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
+        <v>111</v>
+      </c>
+      <c r="J43" t="s">
+        <v>119</v>
+      </c>
+      <c r="T43" t="s">
         <v>297</v>
-      </c>
-      <c r="I43" t="s">
-        <v>112</v>
-      </c>
-      <c r="J43" t="s">
-        <v>120</v>
-      </c>
-      <c r="T43" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
@@ -4996,22 +4996,22 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" t="s">
         <v>299</v>
       </c>
-      <c r="D44" t="s">
-        <v>300</v>
-      </c>
       <c r="E44" t="s">
+        <v>295</v>
+      </c>
+      <c r="G44" t="s">
         <v>296</v>
       </c>
-      <c r="G44" t="s">
-        <v>297</v>
-      </c>
       <c r="I44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
@@ -5019,19 +5019,19 @@
         <v>32</v>
       </c>
       <c r="C45" t="s">
+        <v>300</v>
+      </c>
+      <c r="D45" t="s">
         <v>301</v>
       </c>
-      <c r="D45" t="s">
+      <c r="G45" t="s">
         <v>302</v>
       </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" t="s">
         <v>303</v>
-      </c>
-      <c r="I45" t="s">
-        <v>112</v>
-      </c>
-      <c r="K45" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
@@ -5039,19 +5039,19 @@
         <v>21</v>
       </c>
       <c r="C46" t="s">
+        <v>304</v>
+      </c>
+      <c r="D46" t="s">
         <v>305</v>
       </c>
-      <c r="D46" t="s">
+      <c r="G46" t="s">
         <v>306</v>
       </c>
-      <c r="G46" t="s">
-        <v>307</v>
-      </c>
       <c r="T46" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="U46" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
@@ -5059,22 +5059,22 @@
         <v>21</v>
       </c>
       <c r="C47" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" t="s">
         <v>308</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>309</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>310</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>311</v>
       </c>
-      <c r="H47" t="s">
-        <v>312</v>
-      </c>
       <c r="I47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
@@ -5082,19 +5082,19 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
+        <v>312</v>
+      </c>
+      <c r="D48" t="s">
         <v>313</v>
       </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
         <v>314</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
         <v>315</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>316</v>
-      </c>
-      <c r="J48" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
@@ -5105,42 +5105,42 @@
         <v>1990</v>
       </c>
       <c r="C49" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" t="s">
         <v>318</v>
       </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
         <v>319</v>
       </c>
-      <c r="G49" t="s">
-        <v>320</v>
-      </c>
       <c r="I49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J49" t="s">
         <v>38</v>
       </c>
       <c r="K49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>321</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>907</v>
+      </c>
+      <c r="G50" t="s">
         <v>322</v>
       </c>
-      <c r="C50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" t="s">
-        <v>908</v>
-      </c>
-      <c r="G50" t="s">
-        <v>323</v>
-      </c>
       <c r="I50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
@@ -5151,28 +5151,28 @@
         <v>2021</v>
       </c>
       <c r="C51" t="s">
+        <v>323</v>
+      </c>
+      <c r="D51" t="s">
         <v>324</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>325</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>326</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
+        <v>322</v>
+      </c>
+      <c r="I51" t="s">
         <v>327</v>
-      </c>
-      <c r="G51" t="s">
-        <v>323</v>
-      </c>
-      <c r="I51" t="s">
-        <v>328</v>
       </c>
       <c r="J51" t="s">
         <v>38</v>
       </c>
       <c r="K51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
@@ -5180,74 +5180,74 @@
         <v>21</v>
       </c>
       <c r="C52" t="s">
+        <v>328</v>
+      </c>
+      <c r="D52" t="s">
         <v>329</v>
       </c>
-      <c r="D52" t="s">
+      <c r="G52" t="s">
+        <v>139</v>
+      </c>
+      <c r="I52" t="s">
+        <v>140</v>
+      </c>
+      <c r="J52" t="s">
+        <v>151</v>
+      </c>
+      <c r="K52" t="s">
         <v>330</v>
-      </c>
-      <c r="G52" t="s">
-        <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>141</v>
-      </c>
-      <c r="J52" t="s">
-        <v>152</v>
-      </c>
-      <c r="K52" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>862</v>
+      </c>
+      <c r="C53" t="s">
+        <v>331</v>
+      </c>
+      <c r="D53" t="s">
+        <v>332</v>
+      </c>
+      <c r="E53" t="s">
+        <v>333</v>
+      </c>
+      <c r="F53" t="s">
         <v>863</v>
       </c>
-      <c r="C53" t="s">
-        <v>332</v>
-      </c>
-      <c r="D53" t="s">
-        <v>333</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
+        <v>216</v>
+      </c>
+      <c r="I53" t="s">
         <v>334</v>
       </c>
-      <c r="F53" t="s">
-        <v>864</v>
-      </c>
-      <c r="G53" t="s">
-        <v>217</v>
-      </c>
-      <c r="I53" t="s">
-        <v>335</v>
-      </c>
       <c r="T53" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C54" t="s">
         <v>336</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>337</v>
       </c>
-      <c r="D54" t="s">
-        <v>338</v>
-      </c>
       <c r="G54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J54" t="s">
         <v>38</v>
       </c>
       <c r="K54" t="s">
+        <v>338</v>
+      </c>
+      <c r="T54" t="s">
         <v>339</v>
-      </c>
-      <c r="T54" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
@@ -5255,28 +5255,28 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
+        <v>340</v>
+      </c>
+      <c r="D55" t="s">
         <v>341</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>342</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>343</v>
       </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
         <v>344</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>345</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>346</v>
       </c>
-      <c r="K55" t="s">
+      <c r="V55" t="s">
         <v>347</v>
-      </c>
-      <c r="V55" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
@@ -5287,22 +5287,22 @@
         <v>1943</v>
       </c>
       <c r="C56" t="s">
+        <v>348</v>
+      </c>
+      <c r="D56" t="s">
         <v>349</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
+        <v>200</v>
+      </c>
+      <c r="I56" t="s">
         <v>350</v>
-      </c>
-      <c r="G56" t="s">
-        <v>201</v>
-      </c>
-      <c r="I56" t="s">
-        <v>351</v>
       </c>
       <c r="J56" t="s">
         <v>38</v>
       </c>
       <c r="U56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
@@ -5310,25 +5310,25 @@
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D57" t="s">
+        <v>352</v>
+      </c>
+      <c r="E57" t="s">
         <v>353</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>354</v>
       </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
+        <v>140</v>
+      </c>
+      <c r="K57" t="s">
+        <v>338</v>
+      </c>
+      <c r="T57" t="s">
         <v>355</v>
-      </c>
-      <c r="I57" t="s">
-        <v>141</v>
-      </c>
-      <c r="K57" t="s">
-        <v>339</v>
-      </c>
-      <c r="T57" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
@@ -5336,22 +5336,22 @@
         <v>21</v>
       </c>
       <c r="C58" t="s">
+        <v>360</v>
+      </c>
+      <c r="D58" t="s">
         <v>361</v>
       </c>
-      <c r="D58" t="s">
+      <c r="G58" t="s">
         <v>362</v>
       </c>
-      <c r="G58" t="s">
-        <v>363</v>
-      </c>
       <c r="I58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
@@ -5362,31 +5362,31 @@
         <v>2023</v>
       </c>
       <c r="C59" t="s">
+        <v>363</v>
+      </c>
+      <c r="D59" t="s">
         <v>364</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>365</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>366</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>367</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>368</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>369</v>
       </c>
-      <c r="K59" t="s">
+      <c r="R59" t="s">
         <v>370</v>
       </c>
-      <c r="R59" t="s">
+      <c r="U59" t="s">
         <v>371</v>
-      </c>
-      <c r="U59" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
@@ -5397,31 +5397,31 @@
         <v>2021</v>
       </c>
       <c r="C60" t="s">
+        <v>372</v>
+      </c>
+      <c r="D60" t="s">
         <v>373</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>374</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>375</v>
       </c>
-      <c r="G60" t="s">
-        <v>376</v>
-      </c>
       <c r="I60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J60" t="s">
         <v>38</v>
       </c>
       <c r="K60" t="s">
+        <v>376</v>
+      </c>
+      <c r="R60" t="s">
+        <v>207</v>
+      </c>
+      <c r="U60" t="s">
         <v>377</v>
-      </c>
-      <c r="R60" t="s">
-        <v>208</v>
-      </c>
-      <c r="U60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
@@ -5432,31 +5432,31 @@
         <v>2021</v>
       </c>
       <c r="C61" t="s">
+        <v>378</v>
+      </c>
+      <c r="D61" t="s">
         <v>379</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>374</v>
+      </c>
+      <c r="G61" t="s">
         <v>380</v>
       </c>
-      <c r="E61" t="s">
-        <v>375</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="I61" t="s">
         <v>381</v>
-      </c>
-      <c r="I61" t="s">
-        <v>382</v>
       </c>
       <c r="J61" t="s">
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R61" t="s">
+        <v>382</v>
+      </c>
+      <c r="U61" t="s">
         <v>383</v>
-      </c>
-      <c r="U61" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
@@ -5467,163 +5467,163 @@
         <v>2021</v>
       </c>
       <c r="C62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E62" t="s">
+        <v>384</v>
+      </c>
+      <c r="G62" t="s">
         <v>385</v>
       </c>
-      <c r="G62" t="s">
+      <c r="I62" t="s">
         <v>386</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>387</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
+        <v>236</v>
+      </c>
+      <c r="R62" t="s">
+        <v>207</v>
+      </c>
+      <c r="U62" t="s">
         <v>388</v>
-      </c>
-      <c r="K62" t="s">
-        <v>237</v>
-      </c>
-      <c r="R62" t="s">
-        <v>208</v>
-      </c>
-      <c r="U62" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>804</v>
+      </c>
+      <c r="B63" t="s">
+        <v>807</v>
+      </c>
+      <c r="C63" t="s">
+        <v>936</v>
+      </c>
+      <c r="D63" t="s">
+        <v>803</v>
+      </c>
+      <c r="E63" t="s">
         <v>805</v>
       </c>
-      <c r="B63" t="s">
+      <c r="F63" t="s">
+        <v>806</v>
+      </c>
+      <c r="G63" t="s">
+        <v>859</v>
+      </c>
+      <c r="H63" t="s">
+        <v>860</v>
+      </c>
+      <c r="I63" t="s">
+        <v>818</v>
+      </c>
+      <c r="J63" t="s">
+        <v>820</v>
+      </c>
+      <c r="K63" t="s">
+        <v>821</v>
+      </c>
+      <c r="R63" t="s">
+        <v>809</v>
+      </c>
+      <c r="U63" t="s">
         <v>808</v>
-      </c>
-      <c r="C63" t="s">
-        <v>937</v>
-      </c>
-      <c r="D63" t="s">
-        <v>804</v>
-      </c>
-      <c r="E63" t="s">
-        <v>806</v>
-      </c>
-      <c r="F63" t="s">
-        <v>807</v>
-      </c>
-      <c r="G63" t="s">
-        <v>860</v>
-      </c>
-      <c r="H63" t="s">
-        <v>861</v>
-      </c>
-      <c r="I63" t="s">
-        <v>819</v>
-      </c>
-      <c r="J63" t="s">
-        <v>821</v>
-      </c>
-      <c r="K63" t="s">
-        <v>822</v>
-      </c>
-      <c r="R63" t="s">
-        <v>810</v>
-      </c>
-      <c r="U63" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>816</v>
+      </c>
+      <c r="B64" t="s">
+        <v>865</v>
+      </c>
+      <c r="C64" t="s">
+        <v>814</v>
+      </c>
+      <c r="D64" t="s">
+        <v>810</v>
+      </c>
+      <c r="E64" t="s">
+        <v>867</v>
+      </c>
+      <c r="F64" t="s">
+        <v>866</v>
+      </c>
+      <c r="G64" t="s">
+        <v>815</v>
+      </c>
+      <c r="H64" t="s">
+        <v>110</v>
+      </c>
+      <c r="I64" t="s">
         <v>817</v>
       </c>
-      <c r="B64" t="s">
-        <v>866</v>
-      </c>
-      <c r="C64" t="s">
-        <v>815</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="J64" t="s">
+        <v>819</v>
+      </c>
+      <c r="K64" t="s">
+        <v>218</v>
+      </c>
+      <c r="R64" t="s">
+        <v>606</v>
+      </c>
+      <c r="U64" t="s">
+        <v>868</v>
+      </c>
+      <c r="V64" t="s">
+        <v>864</v>
+      </c>
+      <c r="W64" t="s">
         <v>811</v>
-      </c>
-      <c r="E64" t="s">
-        <v>868</v>
-      </c>
-      <c r="F64" t="s">
-        <v>867</v>
-      </c>
-      <c r="G64" t="s">
-        <v>816</v>
-      </c>
-      <c r="H64" t="s">
-        <v>111</v>
-      </c>
-      <c r="I64" t="s">
-        <v>818</v>
-      </c>
-      <c r="J64" t="s">
-        <v>820</v>
-      </c>
-      <c r="K64" t="s">
-        <v>219</v>
-      </c>
-      <c r="R64" t="s">
-        <v>607</v>
-      </c>
-      <c r="U64" t="s">
-        <v>869</v>
-      </c>
-      <c r="V64" t="s">
-        <v>865</v>
-      </c>
-      <c r="W64" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>854</v>
+      </c>
+      <c r="B65" t="s">
+        <v>870</v>
+      </c>
+      <c r="C65" t="s">
+        <v>852</v>
+      </c>
+      <c r="D65" t="s">
+        <v>851</v>
+      </c>
+      <c r="E65" t="s">
+        <v>873</v>
+      </c>
+      <c r="F65" t="s">
+        <v>872</v>
+      </c>
+      <c r="G65" t="s">
+        <v>853</v>
+      </c>
+      <c r="I65" t="s">
+        <v>856</v>
+      </c>
+      <c r="J65" t="s">
+        <v>857</v>
+      </c>
+      <c r="K65" t="s">
+        <v>858</v>
+      </c>
+      <c r="R65" t="s">
+        <v>606</v>
+      </c>
+      <c r="T65" t="s">
+        <v>869</v>
+      </c>
+      <c r="U65" t="s">
         <v>855</v>
       </c>
-      <c r="B65" t="s">
+      <c r="V65" t="s">
         <v>871</v>
-      </c>
-      <c r="C65" t="s">
-        <v>853</v>
-      </c>
-      <c r="D65" t="s">
-        <v>852</v>
-      </c>
-      <c r="E65" t="s">
-        <v>874</v>
-      </c>
-      <c r="F65" t="s">
-        <v>873</v>
-      </c>
-      <c r="G65" t="s">
-        <v>854</v>
-      </c>
-      <c r="I65" t="s">
-        <v>857</v>
-      </c>
-      <c r="J65" t="s">
-        <v>858</v>
-      </c>
-      <c r="K65" t="s">
-        <v>859</v>
-      </c>
-      <c r="R65" t="s">
-        <v>607</v>
-      </c>
-      <c r="T65" t="s">
-        <v>870</v>
-      </c>
-      <c r="U65" t="s">
-        <v>856</v>
-      </c>
-      <c r="V65" t="s">
-        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -5646,10 +5646,10 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" t="s">
         <v>390</v>
-      </c>
-      <c r="B1" t="s">
-        <v>391</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5661,40 +5661,40 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>393</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>394</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>395</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>396</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>397</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>398</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>399</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>400</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>401</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>402</v>
-      </c>
-      <c r="R1" t="s">
-        <v>403</v>
       </c>
       <c r="S1" t="s">
         <v>20</v>
@@ -5702,16 +5702,16 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C2">
         <v>1954</v>
       </c>
       <c r="D2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -5723,430 +5723,430 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
+        <v>405</v>
+      </c>
+      <c r="M2" t="s">
         <v>406</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" t="s">
         <v>407</v>
-      </c>
-      <c r="S2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C3">
         <v>2008</v>
       </c>
       <c r="D3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>409</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>410</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>411</v>
       </c>
-      <c r="J3" t="s">
-        <v>412</v>
-      </c>
       <c r="M3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C4" t="s">
         <v>413</v>
       </c>
-      <c r="B4" t="s">
-        <v>997</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>995</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>414</v>
       </c>
-      <c r="D4" t="s">
-        <v>996</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>415</v>
       </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
         <v>416</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>417</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>418</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>419</v>
-      </c>
-      <c r="T4" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C5" t="s">
+        <v>836</v>
+      </c>
+      <c r="D5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G5" t="s">
         <v>837</v>
       </c>
-      <c r="D5" t="s">
-        <v>851</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>410</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K5" t="s">
+        <v>849</v>
+      </c>
+      <c r="M5" t="s">
         <v>838</v>
       </c>
-      <c r="J5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="K5" t="s">
-        <v>850</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="S5" t="s">
         <v>839</v>
       </c>
-      <c r="P5" t="s">
-        <v>1027</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>1028</v>
-      </c>
-      <c r="S5" t="s">
-        <v>840</v>
-      </c>
       <c r="T5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
+        <v>947</v>
+      </c>
+      <c r="C6" t="s">
+        <v>939</v>
+      </c>
+      <c r="D6" t="s">
+        <v>940</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>941</v>
+      </c>
+      <c r="I6" t="s">
+        <v>942</v>
+      </c>
+      <c r="J6" t="s">
+        <v>943</v>
+      </c>
+      <c r="P6" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>944</v>
+      </c>
+      <c r="S6" t="s">
         <v>948</v>
-      </c>
-      <c r="C6" t="s">
-        <v>940</v>
-      </c>
-      <c r="D6" t="s">
-        <v>941</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>942</v>
-      </c>
-      <c r="I6" t="s">
-        <v>943</v>
-      </c>
-      <c r="J6" t="s">
-        <v>944</v>
-      </c>
-      <c r="P6" t="s">
-        <v>893</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>945</v>
-      </c>
-      <c r="S6" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>421</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>422</v>
       </c>
-      <c r="J7" t="s">
+      <c r="P7" t="s">
         <v>423</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>424</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>425</v>
-      </c>
-      <c r="S7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>991</v>
+      </c>
+      <c r="B8" t="s">
+        <v>968</v>
+      </c>
+      <c r="C8" t="s">
+        <v>823</v>
+      </c>
+      <c r="D8" t="s">
         <v>992</v>
       </c>
-      <c r="B8" t="s">
-        <v>969</v>
-      </c>
-      <c r="C8" t="s">
-        <v>824</v>
-      </c>
-      <c r="D8" t="s">
-        <v>993</v>
-      </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J8" t="s">
+        <v>970</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P8" t="s">
         <v>971</v>
       </c>
-      <c r="K8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="S8" t="s">
+        <v>834</v>
+      </c>
+      <c r="T8" t="s">
         <v>972</v>
-      </c>
-      <c r="S8" t="s">
-        <v>835</v>
-      </c>
-      <c r="T8" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C9">
         <v>2009</v>
       </c>
       <c r="D9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>842</v>
+      </c>
+      <c r="G9" t="s">
+        <v>848</v>
+      </c>
+      <c r="J9" t="s">
         <v>433</v>
       </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="K9" t="s">
+        <v>434</v>
+      </c>
+      <c r="P9" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>436</v>
+      </c>
+      <c r="R9" t="s">
         <v>843</v>
-      </c>
-      <c r="G9" t="s">
-        <v>849</v>
-      </c>
-      <c r="J9" t="s">
-        <v>434</v>
-      </c>
-      <c r="K9" t="s">
-        <v>435</v>
-      </c>
-      <c r="P9" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>437</v>
-      </c>
-      <c r="R9" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>998</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D10" t="s">
         <v>999</v>
       </c>
-      <c r="B10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C10" t="s">
-        <v>438</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>1000</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G10" t="s">
         <v>1001</v>
       </c>
-      <c r="F10" t="s">
-        <v>410</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>1002</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>1003</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>1004</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>1005</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>1006</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>1007</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>1008</v>
-      </c>
-      <c r="S10" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B11" t="s">
+        <v>681</v>
+      </c>
+      <c r="C11" t="s">
         <v>682</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>683</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>684</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>685</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>686</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
+        <v>993</v>
+      </c>
+      <c r="P11" t="s">
         <v>687</v>
       </c>
-      <c r="J11" t="s">
-        <v>994</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>688</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>689</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>690</v>
-      </c>
-      <c r="T11" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>892</v>
+      </c>
+      <c r="B12" t="s">
+        <v>896</v>
+      </c>
+      <c r="C12" t="s">
         <v>893</v>
       </c>
-      <c r="B12" t="s">
-        <v>897</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>937</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" t="s">
+        <v>912</v>
+      </c>
+      <c r="J12" t="s">
         <v>894</v>
       </c>
-      <c r="D12" t="s">
-        <v>938</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>410</v>
-      </c>
-      <c r="G12" t="s">
-        <v>913</v>
-      </c>
-      <c r="J12" t="s">
-        <v>895</v>
-      </c>
       <c r="K12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P12" t="s">
         <v>1024</v>
       </c>
-      <c r="P12" t="s">
-        <v>1025</v>
-      </c>
       <c r="S12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C13">
         <v>2020</v>
       </c>
       <c r="D13" t="s">
+        <v>457</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>458</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>459</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="s">
+        <v>158</v>
+      </c>
+      <c r="S13" t="s">
         <v>460</v>
-      </c>
-      <c r="M13" t="s">
-        <v>159</v>
-      </c>
-      <c r="S13" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B14" t="s">
         <v>1030</v>
       </c>
-      <c r="B14" t="s">
-        <v>1031</v>
-      </c>
       <c r="C14" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D14" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -6155,141 +6155,141 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J14" t="s">
         <v>1032</v>
       </c>
-      <c r="J14" t="s">
+      <c r="P14" t="s">
         <v>1033</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>1034</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B15" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C15" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D15" t="s">
+        <v>426</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
         <v>427</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>428</v>
       </c>
-      <c r="J15" t="s">
+      <c r="O15" t="s">
         <v>429</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>430</v>
       </c>
-      <c r="Q15" t="s">
-        <v>431</v>
-      </c>
       <c r="S15" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B16" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C16" t="s">
+        <v>437</v>
+      </c>
+      <c r="D16" t="s">
         <v>438</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>439</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>440</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>441</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>442</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
         <v>443</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
         <v>444</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>445</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>446</v>
-      </c>
-      <c r="S16" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B17" t="s">
         <v>448</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>449</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>450</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>451</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" t="s">
         <v>452</v>
       </c>
-      <c r="G17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>453</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>454</v>
       </c>
-      <c r="M17" t="s">
+      <c r="Q17" t="s">
         <v>455</v>
       </c>
-      <c r="Q17" t="s">
-        <v>456</v>
-      </c>
       <c r="S17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B18" t="s">
+        <v>461</v>
+      </c>
+      <c r="C18" t="s">
+        <v>951</v>
+      </c>
+      <c r="D18" t="s">
         <v>462</v>
-      </c>
-      <c r="C18" t="s">
-        <v>952</v>
-      </c>
-      <c r="D18" t="s">
-        <v>463</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
@@ -6298,561 +6298,561 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J18" t="s">
+        <v>463</v>
+      </c>
+      <c r="M18" t="s">
         <v>464</v>
       </c>
-      <c r="M18" t="s">
+      <c r="P18" t="s">
         <v>465</v>
       </c>
-      <c r="P18" t="s">
+      <c r="S18" t="s">
         <v>466</v>
-      </c>
-      <c r="S18" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" t="s">
         <v>468</v>
-      </c>
-      <c r="B19" t="s">
-        <v>469</v>
       </c>
       <c r="C19">
         <v>2022</v>
       </c>
       <c r="D19" t="s">
+        <v>469</v>
+      </c>
+      <c r="E19" t="s">
         <v>470</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>471</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>472</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>473</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>474</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>475</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>476</v>
       </c>
-      <c r="K19" t="s">
+      <c r="N19" t="s">
         <v>477</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>478</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
+        <v>976</v>
+      </c>
+      <c r="Q19" t="s">
         <v>479</v>
       </c>
-      <c r="P19" t="s">
-        <v>977</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>480</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>481</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>482</v>
-      </c>
-      <c r="T19" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C20">
         <v>2014</v>
       </c>
       <c r="D20" t="s">
+        <v>977</v>
+      </c>
+      <c r="E20" t="s">
         <v>978</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>409</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J20" t="s">
         <v>979</v>
       </c>
-      <c r="F20" t="s">
-        <v>410</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1011</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>980</v>
       </c>
-      <c r="K20" t="s">
+      <c r="P20" t="s">
         <v>981</v>
       </c>
-      <c r="P20" t="s">
+      <c r="S20" t="s">
         <v>982</v>
-      </c>
-      <c r="S20" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C21">
         <v>1986</v>
       </c>
       <c r="D21" t="s">
+        <v>484</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
         <v>485</v>
       </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" t="s">
+        <v>952</v>
+      </c>
+      <c r="S21" t="s">
         <v>486</v>
       </c>
-      <c r="J21" t="s">
-        <v>140</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="T21" t="s">
         <v>953</v>
-      </c>
-      <c r="S21" t="s">
-        <v>487</v>
-      </c>
-      <c r="T21" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>487</v>
+      </c>
+      <c r="B22" t="s">
         <v>488</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>957</v>
+      </c>
+      <c r="D22" t="s">
         <v>489</v>
       </c>
-      <c r="C22" t="s">
-        <v>958</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" t="s">
         <v>490</v>
       </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" t="s">
-        <v>491</v>
-      </c>
       <c r="S22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C23">
         <v>1977</v>
       </c>
       <c r="D23" t="s">
+        <v>492</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>336</v>
+      </c>
+      <c r="J23" t="s">
         <v>493</v>
       </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>337</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="S23" t="s">
         <v>494</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>495</v>
-      </c>
-      <c r="T23" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B24" t="s">
+        <v>958</v>
+      </c>
+      <c r="C24" t="s">
         <v>959</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>496</v>
+      </c>
+      <c r="E24" t="s">
+        <v>497</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" t="s">
         <v>960</v>
       </c>
-      <c r="D24" t="s">
-        <v>497</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="S24" t="s">
         <v>498</v>
       </c>
-      <c r="G24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="T24" t="s">
         <v>961</v>
-      </c>
-      <c r="S24" t="s">
-        <v>499</v>
-      </c>
-      <c r="T24" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>499</v>
+      </c>
+      <c r="B25" t="s">
         <v>500</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>954</v>
+      </c>
+      <c r="D25" t="s">
         <v>501</v>
       </c>
-      <c r="C25" t="s">
-        <v>955</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>502</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>503</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>504</v>
       </c>
-      <c r="J25" t="s">
+      <c r="Q25" t="s">
         <v>505</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>506</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>507</v>
-      </c>
-      <c r="T25" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C26">
         <v>2017</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C27">
         <v>1982</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
       </c>
       <c r="G27" t="s">
+        <v>511</v>
+      </c>
+      <c r="J27" t="s">
         <v>512</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>513</v>
       </c>
-      <c r="K27" t="s">
+      <c r="P27" t="s">
         <v>514</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>515</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="S27" t="s">
         <v>516</v>
-      </c>
-      <c r="S27" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B28" t="s">
+        <v>517</v>
+      </c>
+      <c r="C28" t="s">
+        <v>955</v>
+      </c>
+      <c r="D28" t="s">
+        <v>945</v>
+      </c>
+      <c r="G28" t="s">
         <v>518</v>
       </c>
-      <c r="C28" t="s">
-        <v>956</v>
-      </c>
-      <c r="D28" t="s">
-        <v>946</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="J28" t="s">
         <v>519</v>
       </c>
-      <c r="J28" t="s">
-        <v>520</v>
-      </c>
       <c r="S28" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>520</v>
+      </c>
+      <c r="B29" t="s">
         <v>521</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>956</v>
+      </c>
+      <c r="D29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
         <v>522</v>
       </c>
-      <c r="C29" t="s">
-        <v>957</v>
-      </c>
-      <c r="D29" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="J29" t="s">
         <v>523</v>
       </c>
-      <c r="J29" t="s">
-        <v>524</v>
-      </c>
       <c r="S29" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B30" t="s">
+        <v>889</v>
+      </c>
+      <c r="C30" t="s">
+        <v>886</v>
+      </c>
+      <c r="D30" t="s">
+        <v>882</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>881</v>
+      </c>
+      <c r="H30" t="s">
+        <v>883</v>
+      </c>
+      <c r="J30" t="s">
+        <v>891</v>
+      </c>
+      <c r="K30" t="s">
         <v>890</v>
       </c>
-      <c r="C30" t="s">
+      <c r="M30" t="s">
+        <v>885</v>
+      </c>
+      <c r="P30" t="s">
         <v>887</v>
       </c>
-      <c r="D30" t="s">
-        <v>883</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>882</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="S30" t="s">
         <v>884</v>
-      </c>
-      <c r="J30" t="s">
-        <v>892</v>
-      </c>
-      <c r="K30" t="s">
-        <v>891</v>
-      </c>
-      <c r="M30" t="s">
-        <v>886</v>
-      </c>
-      <c r="P30" t="s">
-        <v>888</v>
-      </c>
-      <c r="S30" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>910</v>
+      </c>
+      <c r="B31" t="s">
+        <v>909</v>
+      </c>
+      <c r="C31" t="s">
+        <v>949</v>
+      </c>
+      <c r="D31" t="s">
+        <v>938</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>898</v>
+      </c>
+      <c r="H31" t="s">
+        <v>695</v>
+      </c>
+      <c r="J31" t="s">
+        <v>897</v>
+      </c>
+      <c r="K31" t="s">
+        <v>240</v>
+      </c>
+      <c r="P31" t="s">
         <v>911</v>
       </c>
-      <c r="B31" t="s">
-        <v>910</v>
-      </c>
-      <c r="C31" t="s">
-        <v>950</v>
-      </c>
-      <c r="D31" t="s">
-        <v>939</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>899</v>
-      </c>
-      <c r="H31" t="s">
-        <v>696</v>
-      </c>
-      <c r="J31" t="s">
-        <v>898</v>
-      </c>
-      <c r="K31" t="s">
-        <v>241</v>
-      </c>
-      <c r="P31" t="s">
-        <v>912</v>
-      </c>
       <c r="S31" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C32" t="s">
+        <v>984</v>
+      </c>
+      <c r="D32" t="s">
         <v>985</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>604</v>
+      </c>
+      <c r="J32" t="s">
         <v>986</v>
       </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>605</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
+        <v>240</v>
+      </c>
+      <c r="L32" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" t="s">
         <v>987</v>
       </c>
-      <c r="K32" t="s">
-        <v>241</v>
-      </c>
-      <c r="L32" t="s">
-        <v>141</v>
-      </c>
-      <c r="P32" t="s">
-        <v>988</v>
-      </c>
       <c r="S32" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B33" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C33" t="s">
         <v>1012</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>1013</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>1014</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>1015</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>1016</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
         <v>1017</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>1018</v>
       </c>
-      <c r="K33" t="s">
+      <c r="P33" t="s">
         <v>1019</v>
       </c>
-      <c r="P33" t="s">
+      <c r="S33" t="s">
         <v>1020</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>1021</v>
-      </c>
-      <c r="T33" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="P34" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q34" s="4" t="s">
         <v>1099</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="S34" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>1105</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="Q34" s="4" t="s">
+      <c r="T34" s="4" t="s">
         <v>1100</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>1101</v>
       </c>
     </row>
   </sheetData>
@@ -6877,7 +6877,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6886,40 +6886,40 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1" t="s">
         <v>526</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>527</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>528</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>529</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>530</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>531</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>532</v>
-      </c>
-      <c r="K1" t="s">
-        <v>533</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>533</v>
+      </c>
+      <c r="N1" t="s">
         <v>534</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>535</v>
-      </c>
-      <c r="O1" t="s">
-        <v>536</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -6928,7 +6928,7 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S1" t="s">
         <v>20</v>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -6945,296 +6945,296 @@
         <v>1954</v>
       </c>
       <c r="D2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F2" t="s">
         <v>538</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I2" t="s">
         <v>539</v>
       </c>
-      <c r="G2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>540</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>541</v>
       </c>
-      <c r="O2" t="s">
-        <v>542</v>
-      </c>
       <c r="S2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E3" t="s">
         <v>547</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>758</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>548</v>
+      </c>
+      <c r="G3" t="s">
+        <v>549</v>
+      </c>
+      <c r="I3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" t="s">
         <v>695</v>
       </c>
-      <c r="E3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F3" t="s">
-        <v>549</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="L3" t="s">
         <v>550</v>
       </c>
-      <c r="I3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" t="s">
-        <v>696</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
+        <v>541</v>
+      </c>
+      <c r="S3" t="s">
         <v>551</v>
-      </c>
-      <c r="O3" t="s">
-        <v>542</v>
-      </c>
-      <c r="S3" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C4">
         <v>2019</v>
       </c>
       <c r="D4" t="s">
+        <v>696</v>
+      </c>
+      <c r="E4" t="s">
         <v>697</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>698</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>699</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>700</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>541</v>
+      </c>
+      <c r="K4" t="s">
         <v>701</v>
       </c>
-      <c r="I4" t="s">
-        <v>542</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>702</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>703</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
+        <v>541</v>
+      </c>
+      <c r="P4" t="s">
+        <v>700</v>
+      </c>
+      <c r="S4" t="s">
         <v>704</v>
-      </c>
-      <c r="O4" t="s">
-        <v>542</v>
-      </c>
-      <c r="P4" t="s">
-        <v>701</v>
-      </c>
-      <c r="S4" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D5" t="s">
+        <v>742</v>
+      </c>
+      <c r="E5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G5" t="s">
+        <v>746</v>
+      </c>
+      <c r="I5" t="s">
+        <v>748</v>
+      </c>
+      <c r="L5" t="s">
         <v>743</v>
       </c>
-      <c r="E5" t="s">
-        <v>745</v>
-      </c>
-      <c r="F5" t="s">
-        <v>746</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="O5" t="s">
         <v>747</v>
       </c>
-      <c r="I5" t="s">
-        <v>749</v>
-      </c>
-      <c r="L5" t="s">
-        <v>744</v>
-      </c>
-      <c r="O5" t="s">
-        <v>748</v>
-      </c>
       <c r="R5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>693</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E6" t="s">
         <v>543</v>
       </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>694</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>544</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L6" t="s">
         <v>545</v>
       </c>
-      <c r="G6" t="s">
-        <v>208</v>
-      </c>
-      <c r="L6" t="s">
-        <v>546</v>
-      </c>
       <c r="S6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>833</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>823</v>
+      </c>
+      <c r="D7" t="s">
+        <v>967</v>
+      </c>
+      <c r="E7" t="s">
+        <v>968</v>
+      </c>
+      <c r="F7" t="s">
+        <v>969</v>
+      </c>
+      <c r="G7" t="s">
+        <v>970</v>
+      </c>
+      <c r="L7" t="s">
+        <v>756</v>
+      </c>
+      <c r="O7" t="s">
+        <v>971</v>
+      </c>
+      <c r="R7" t="s">
         <v>834</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>824</v>
-      </c>
-      <c r="D7" t="s">
-        <v>968</v>
-      </c>
-      <c r="E7" t="s">
-        <v>969</v>
-      </c>
-      <c r="F7" t="s">
-        <v>970</v>
-      </c>
-      <c r="G7" t="s">
-        <v>971</v>
-      </c>
-      <c r="L7" t="s">
-        <v>757</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="S7" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="R7" t="s">
-        <v>835</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
+        <v>705</v>
+      </c>
+      <c r="F8" t="s">
         <v>706</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>707</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" t="s">
+        <v>593</v>
+      </c>
+      <c r="K8" t="s">
+        <v>593</v>
+      </c>
+      <c r="L8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" t="s">
+        <v>404</v>
+      </c>
+      <c r="N8" t="s">
         <v>708</v>
       </c>
-      <c r="I8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J8" t="s">
-        <v>594</v>
-      </c>
-      <c r="K8" t="s">
-        <v>594</v>
-      </c>
-      <c r="L8" t="s">
-        <v>141</v>
-      </c>
-      <c r="M8" t="s">
-        <v>405</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>709</v>
       </c>
-      <c r="O8" t="s">
-        <v>710</v>
-      </c>
       <c r="S8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
+        <v>823</v>
+      </c>
+      <c r="D9" t="s">
+        <v>822</v>
+      </c>
+      <c r="E9" t="s">
+        <v>812</v>
+      </c>
+      <c r="F9" t="s">
         <v>824</v>
       </c>
-      <c r="D9" t="s">
-        <v>823</v>
-      </c>
-      <c r="E9" t="s">
-        <v>813</v>
-      </c>
-      <c r="F9" t="s">
-        <v>825</v>
-      </c>
       <c r="G9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="R9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -7243,121 +7243,121 @@
         <v>2022</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
+        <v>711</v>
+      </c>
+      <c r="F10" t="s">
+        <v>962</v>
+      </c>
+      <c r="G10" t="s">
+        <v>963</v>
+      </c>
+      <c r="I10" t="s">
+        <v>541</v>
+      </c>
+      <c r="J10" t="s">
         <v>712</v>
       </c>
-      <c r="F10" t="s">
-        <v>963</v>
-      </c>
-      <c r="G10" t="s">
-        <v>964</v>
-      </c>
-      <c r="I10" t="s">
-        <v>542</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>713</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
+        <v>703</v>
+      </c>
+      <c r="O10" t="s">
+        <v>541</v>
+      </c>
+      <c r="S10" t="s">
         <v>714</v>
-      </c>
-      <c r="M10" t="s">
-        <v>704</v>
-      </c>
-      <c r="O10" t="s">
-        <v>542</v>
-      </c>
-      <c r="S10" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
+        <v>715</v>
+      </c>
+      <c r="D11" t="s">
         <v>716</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" t="s">
+        <v>716</v>
+      </c>
+      <c r="G11" t="s">
         <v>717</v>
       </c>
-      <c r="E11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" t="s">
-        <v>717</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" t="s">
         <v>718</v>
       </c>
-      <c r="I11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>719</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>720</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>721</v>
       </c>
-      <c r="O11" t="s">
+      <c r="S11" t="s">
         <v>722</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>723</v>
-      </c>
-      <c r="T11" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C12">
         <v>2024</v>
       </c>
       <c r="D12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E12" t="s">
+        <v>552</v>
+      </c>
+      <c r="F12" t="s">
         <v>553</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>965</v>
+      </c>
+      <c r="H12" t="s">
+        <v>966</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
         <v>554</v>
       </c>
-      <c r="G12" t="s">
-        <v>966</v>
-      </c>
-      <c r="H12" t="s">
-        <v>967</v>
-      </c>
-      <c r="I12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L12" t="s">
-        <v>555</v>
-      </c>
       <c r="O12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -7366,776 +7366,776 @@
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F13" t="s">
+        <v>556</v>
+      </c>
+      <c r="L13" t="s">
         <v>557</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
         <v>558</v>
       </c>
-      <c r="O13" t="s">
-        <v>559</v>
-      </c>
       <c r="S13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>787</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>788</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>789</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>537</v>
+      </c>
+      <c r="F14" t="s">
         <v>790</v>
       </c>
-      <c r="E14" t="s">
-        <v>538</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="L14" t="s">
         <v>791</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
+        <v>832</v>
+      </c>
+      <c r="S14" t="s">
         <v>792</v>
-      </c>
-      <c r="O14" t="s">
-        <v>833</v>
-      </c>
-      <c r="S14" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C15">
         <v>2024</v>
       </c>
       <c r="D15" t="s">
+        <v>829</v>
+      </c>
+      <c r="E15" t="s">
+        <v>825</v>
+      </c>
+      <c r="F15" t="s">
+        <v>827</v>
+      </c>
+      <c r="L15" t="s">
+        <v>828</v>
+      </c>
+      <c r="R15" t="s">
         <v>830</v>
-      </c>
-      <c r="E15" t="s">
-        <v>826</v>
-      </c>
-      <c r="F15" t="s">
-        <v>828</v>
-      </c>
-      <c r="L15" t="s">
-        <v>829</v>
-      </c>
-      <c r="R15" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>565</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
         <v>566</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>567</v>
-      </c>
       <c r="D16" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E16" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F16" t="s">
+        <v>568</v>
+      </c>
+      <c r="G16" t="s">
         <v>569</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>570</v>
       </c>
-      <c r="I16" t="s">
-        <v>571</v>
-      </c>
       <c r="L16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
+        <v>571</v>
+      </c>
+      <c r="D17" t="s">
+        <v>989</v>
+      </c>
+      <c r="E17" t="s">
+        <v>729</v>
+      </c>
+      <c r="F17" t="s">
+        <v>973</v>
+      </c>
+      <c r="G17" t="s">
         <v>572</v>
       </c>
-      <c r="D17" t="s">
-        <v>990</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="I17" t="s">
+        <v>410</v>
+      </c>
+      <c r="K17" t="s">
+        <v>573</v>
+      </c>
+      <c r="L17" t="s">
+        <v>574</v>
+      </c>
+      <c r="O17" t="s">
+        <v>541</v>
+      </c>
+      <c r="S17" t="s">
         <v>730</v>
       </c>
-      <c r="F17" t="s">
-        <v>974</v>
-      </c>
-      <c r="G17" t="s">
-        <v>573</v>
-      </c>
-      <c r="I17" t="s">
-        <v>411</v>
-      </c>
-      <c r="K17" t="s">
-        <v>574</v>
-      </c>
-      <c r="L17" t="s">
-        <v>575</v>
-      </c>
-      <c r="O17" t="s">
-        <v>542</v>
-      </c>
-      <c r="S17" t="s">
-        <v>731</v>
-      </c>
       <c r="T17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D18" t="s">
+        <v>733</v>
+      </c>
+      <c r="E18" t="s">
         <v>734</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>735</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>736</v>
       </c>
-      <c r="G18" t="s">
+      <c r="L18" t="s">
+        <v>739</v>
+      </c>
+      <c r="R18" t="s">
         <v>737</v>
       </c>
-      <c r="L18" t="s">
-        <v>740</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>738</v>
-      </c>
-      <c r="S18" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>577</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>725</v>
+      </c>
+      <c r="E19" t="s">
+        <v>726</v>
+      </c>
+      <c r="F19" t="s">
         <v>578</v>
       </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>726</v>
-      </c>
-      <c r="E19" t="s">
-        <v>727</v>
-      </c>
-      <c r="F19" t="s">
-        <v>579</v>
-      </c>
       <c r="I19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="R19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
+        <v>752</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="E20" t="s">
+        <v>751</v>
+      </c>
+      <c r="F20" t="s">
+        <v>755</v>
+      </c>
+      <c r="G20" t="s">
+        <v>754</v>
+      </c>
+      <c r="J20" t="s">
         <v>753</v>
       </c>
-      <c r="D20" t="s">
-        <v>751</v>
-      </c>
-      <c r="E20" t="s">
-        <v>752</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="L20" t="s">
         <v>756</v>
       </c>
-      <c r="G20" t="s">
-        <v>755</v>
-      </c>
-      <c r="J20" t="s">
-        <v>754</v>
-      </c>
-      <c r="L20" t="s">
-        <v>757</v>
-      </c>
       <c r="O20" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="S20" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>559</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>935</v>
+      </c>
+      <c r="E21" t="s">
         <v>560</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>936</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>561</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>562</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>563</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>564</v>
       </c>
-      <c r="L21" t="s">
-        <v>565</v>
-      </c>
       <c r="O21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E22" t="s">
+        <v>579</v>
+      </c>
+      <c r="F22" t="s">
         <v>580</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>581</v>
       </c>
-      <c r="G22" t="s">
+      <c r="K22" t="s">
         <v>582</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>583</v>
       </c>
-      <c r="L22" t="s">
+      <c r="S22" t="s">
         <v>584</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>585</v>
-      </c>
-      <c r="T22" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>586</v>
+      </c>
+      <c r="B23" t="s">
+        <v>925</v>
+      </c>
+      <c r="C23" t="s">
         <v>587</v>
       </c>
-      <c r="B23" t="s">
-        <v>926</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>588</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>589</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>590</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>591</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>592</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>593</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>594</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>595</v>
       </c>
-      <c r="M23" t="s">
-        <v>596</v>
-      </c>
       <c r="O23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>878</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>875</v>
+      </c>
+      <c r="E24" t="s">
         <v>879</v>
       </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>880</v>
+      </c>
+      <c r="L24" t="s">
+        <v>874</v>
+      </c>
+      <c r="O24" t="s">
         <v>876</v>
       </c>
-      <c r="E24" t="s">
-        <v>880</v>
-      </c>
-      <c r="F24" t="s">
-        <v>881</v>
-      </c>
-      <c r="L24" t="s">
-        <v>875</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="S24" t="s">
         <v>877</v>
-      </c>
-      <c r="S24" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>575</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
         <v>576</v>
       </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>577</v>
-      </c>
       <c r="D25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E25" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F25" t="s">
+        <v>771</v>
+      </c>
+      <c r="G25" t="s">
         <v>772</v>
       </c>
-      <c r="G25" t="s">
+      <c r="L25" t="s">
         <v>773</v>
       </c>
-      <c r="L25" t="s">
-        <v>774</v>
-      </c>
       <c r="S25" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B26" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C26">
         <v>2008</v>
       </c>
       <c r="D26" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E26" t="s">
+        <v>597</v>
+      </c>
+      <c r="F26" t="s">
         <v>598</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>599</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
+        <v>563</v>
+      </c>
+      <c r="K26" t="s">
         <v>600</v>
       </c>
-      <c r="I26" t="s">
-        <v>564</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>601</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
+        <v>541</v>
+      </c>
+      <c r="S26" t="s">
         <v>602</v>
       </c>
-      <c r="O26" t="s">
-        <v>542</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
         <v>603</v>
-      </c>
-      <c r="U26" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D27" t="s">
+        <v>899</v>
+      </c>
+      <c r="E27" t="s">
+        <v>903</v>
+      </c>
+      <c r="F27" t="s">
         <v>900</v>
       </c>
-      <c r="E27" t="s">
+      <c r="L27" t="s">
+        <v>901</v>
+      </c>
+      <c r="O27" t="s">
+        <v>902</v>
+      </c>
+      <c r="S27" t="s">
         <v>904</v>
-      </c>
-      <c r="F27" t="s">
-        <v>901</v>
-      </c>
-      <c r="L27" t="s">
-        <v>902</v>
-      </c>
-      <c r="O27" t="s">
-        <v>903</v>
-      </c>
-      <c r="S27" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>922</v>
+      </c>
+      <c r="B28" t="s">
+        <v>929</v>
+      </c>
+      <c r="D28" t="s">
+        <v>975</v>
+      </c>
+      <c r="E28" t="s">
+        <v>921</v>
+      </c>
+      <c r="F28" t="s">
+        <v>934</v>
+      </c>
+      <c r="L28" t="s">
         <v>923</v>
       </c>
-      <c r="B28" t="s">
-        <v>930</v>
-      </c>
-      <c r="D28" t="s">
-        <v>976</v>
-      </c>
-      <c r="E28" t="s">
-        <v>922</v>
-      </c>
-      <c r="F28" t="s">
-        <v>935</v>
-      </c>
-      <c r="L28" t="s">
-        <v>924</v>
-      </c>
       <c r="R28" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="S28" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>606</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
         <v>607</v>
       </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>324</v>
+      </c>
+      <c r="F29" t="s">
+        <v>580</v>
+      </c>
+      <c r="G29" t="s">
         <v>608</v>
       </c>
-      <c r="E29" t="s">
-        <v>325</v>
-      </c>
-      <c r="F29" t="s">
-        <v>581</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="K29" t="s">
         <v>609</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
+        <v>344</v>
+      </c>
+      <c r="M29" t="s">
         <v>610</v>
       </c>
-      <c r="L29" t="s">
-        <v>345</v>
-      </c>
-      <c r="M29" t="s">
-        <v>611</v>
-      </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D30" t="s">
+        <v>611</v>
+      </c>
+      <c r="E30" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" t="s">
         <v>612</v>
       </c>
-      <c r="E30" t="s">
-        <v>361</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>613</v>
       </c>
-      <c r="G30" t="s">
-        <v>614</v>
-      </c>
       <c r="K30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="S30" t="s">
+        <v>731</v>
+      </c>
+      <c r="T30" t="s">
         <v>732</v>
-      </c>
-      <c r="T30" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
+        <v>614</v>
+      </c>
+      <c r="E31" t="s">
         <v>615</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>616</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>617</v>
       </c>
-      <c r="G31" t="s">
+      <c r="K31" t="s">
         <v>618</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>619</v>
       </c>
-      <c r="L31" t="s">
+      <c r="O31" t="s">
         <v>620</v>
       </c>
-      <c r="O31" t="s">
+      <c r="R31" t="s">
         <v>621</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>622</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>623</v>
-      </c>
-      <c r="U31" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>764</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>763</v>
+      </c>
+      <c r="E32" t="s">
         <v>765</v>
       </c>
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" t="s">
-        <v>764</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>769</v>
+      </c>
+      <c r="L32" t="s">
+        <v>768</v>
+      </c>
+      <c r="S32" t="s">
+        <v>767</v>
+      </c>
+      <c r="T32" t="s">
         <v>766</v>
-      </c>
-      <c r="F32" t="s">
-        <v>770</v>
-      </c>
-      <c r="L32" t="s">
-        <v>769</v>
-      </c>
-      <c r="S32" t="s">
-        <v>768</v>
-      </c>
-      <c r="T32" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
       </c>
       <c r="D33" t="s">
+        <v>913</v>
+      </c>
+      <c r="E33" t="s">
+        <v>924</v>
+      </c>
+      <c r="F33" t="s">
         <v>914</v>
       </c>
-      <c r="E33" t="s">
-        <v>925</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>915</v>
       </c>
-      <c r="G33" t="s">
+      <c r="L33" t="s">
         <v>916</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
+        <v>919</v>
+      </c>
+      <c r="N33" t="s">
+        <v>918</v>
+      </c>
+      <c r="O33" t="s">
+        <v>782</v>
+      </c>
+      <c r="S33" t="s">
         <v>917</v>
-      </c>
-      <c r="M33" t="s">
-        <v>920</v>
-      </c>
-      <c r="N33" t="s">
-        <v>919</v>
-      </c>
-      <c r="O33" t="s">
-        <v>783</v>
-      </c>
-      <c r="S33" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>779</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
         <v>780</v>
       </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>776</v>
+      </c>
+      <c r="E34" t="s">
+        <v>783</v>
+      </c>
+      <c r="F34" t="s">
+        <v>785</v>
+      </c>
+      <c r="G34" t="s">
+        <v>784</v>
+      </c>
+      <c r="K34" t="s">
+        <v>777</v>
+      </c>
+      <c r="L34" t="s">
         <v>781</v>
       </c>
-      <c r="D34" t="s">
-        <v>777</v>
-      </c>
-      <c r="E34" t="s">
-        <v>784</v>
-      </c>
-      <c r="F34" t="s">
-        <v>786</v>
-      </c>
-      <c r="G34" t="s">
-        <v>785</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="O34" t="s">
+        <v>782</v>
+      </c>
+      <c r="S34" t="s">
         <v>778</v>
-      </c>
-      <c r="L34" t="s">
-        <v>782</v>
-      </c>
-      <c r="O34" t="s">
-        <v>783</v>
-      </c>
-      <c r="S34" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
+        <v>625</v>
+      </c>
+      <c r="E35" t="s">
         <v>626</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>627</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
+        <v>786</v>
+      </c>
+      <c r="L35" t="s">
         <v>628</v>
       </c>
-      <c r="G35" t="s">
-        <v>787</v>
-      </c>
-      <c r="L35" t="s">
-        <v>629</v>
-      </c>
       <c r="R35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>793</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>798</v>
+      </c>
+      <c r="D36" t="s">
+        <v>799</v>
+      </c>
+      <c r="E36" t="s">
+        <v>356</v>
+      </c>
+      <c r="F36" t="s">
+        <v>546</v>
+      </c>
+      <c r="G36" t="s">
         <v>794</v>
       </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s">
-        <v>799</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="H36" t="s">
+        <v>795</v>
+      </c>
+      <c r="I36" t="s">
+        <v>541</v>
+      </c>
+      <c r="K36" t="s">
+        <v>796</v>
+      </c>
+      <c r="L36" t="s">
+        <v>358</v>
+      </c>
+      <c r="O36" t="s">
         <v>800</v>
       </c>
-      <c r="E36" t="s">
-        <v>357</v>
-      </c>
-      <c r="F36" t="s">
-        <v>547</v>
-      </c>
-      <c r="G36" t="s">
-        <v>795</v>
-      </c>
-      <c r="H36" t="s">
-        <v>796</v>
-      </c>
-      <c r="I36" t="s">
-        <v>542</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="S36" t="s">
         <v>797</v>
-      </c>
-      <c r="L36" t="s">
-        <v>359</v>
-      </c>
-      <c r="O36" t="s">
-        <v>801</v>
-      </c>
-      <c r="S36" t="s">
-        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -8165,22 +8165,22 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" t="s">
         <v>390</v>
-      </c>
-      <c r="B1" t="s">
-        <v>391</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -8189,40 +8189,40 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J1" t="s">
         <v>392</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>393</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>394</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>395</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>396</v>
       </c>
-      <c r="N1" t="s">
-        <v>397</v>
-      </c>
       <c r="P1" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q1" t="s">
         <v>631</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>632</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>633</v>
       </c>
-      <c r="S1" t="s">
-        <v>634</v>
-      </c>
       <c r="T1" t="s">
+        <v>401</v>
+      </c>
+      <c r="U1" t="s">
         <v>402</v>
-      </c>
-      <c r="U1" t="s">
-        <v>403</v>
       </c>
       <c r="V1" t="s">
         <v>20</v>
@@ -8230,273 +8230,273 @@
     </row>
     <row r="2" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C2" t="s">
         <v>635</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>636</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>637</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>638</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>639</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>640</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>641</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>642</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>643</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>644</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>645</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>646</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>647</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>648</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" t="s">
         <v>655</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>656</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>657</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>658</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" t="s">
         <v>659</v>
       </c>
-      <c r="G3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J3" t="s">
+        <v>659</v>
+      </c>
+      <c r="M3" t="s">
         <v>660</v>
       </c>
-      <c r="I3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J3" t="s">
-        <v>660</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="P3" t="s">
         <v>661</v>
       </c>
-      <c r="N3" t="s">
-        <v>1074</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>662</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>663</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>664</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>665</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T4" t="s">
         <v>1072</v>
       </c>
-      <c r="C4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="V4" s="3" t="s">
         <v>1051</v>
-      </c>
-      <c r="T4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B5" t="s">
         <v>669</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>670</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>671</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>672</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>673</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>674</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>675</v>
       </c>
-      <c r="H5" t="s">
+      <c r="M5" t="s">
         <v>676</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q5" t="s">
         <v>677</v>
       </c>
-      <c r="N5" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>678</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>679</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D6" t="s">
         <v>1068</v>
       </c>
-      <c r="C6" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1069</v>
-      </c>
       <c r="E6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G6" t="s">
         <v>1053</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="G6" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1076</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1057</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1067</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>1063</v>
-      </c>
-      <c r="R6" t="s">
-        <v>1062</v>
-      </c>
-      <c r="S6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="T6" t="s">
-        <v>1060</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>1059</v>
-      </c>
       <c r="V6" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
   </sheetData>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146213BD-EC25-4971-BE23-BD3B82098EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C996925-60A3-4050-B703-8B10C743ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="1152">
   <si>
     <t>State</t>
   </si>
@@ -3350,6 +3350,135 @@
   </si>
   <si>
     <t>Nick Carter, Michael Holtz</t>
+  </si>
+  <si>
+    <t>Plaintiff Attorneys/Investigators</t>
+  </si>
+  <si>
+    <t>2002-2003</t>
+  </si>
+  <si>
+    <t>Journalism, Los Angeles Times, Hollywood Reporter, New York Times, Variety</t>
+  </si>
+  <si>
+    <t>Anthony Pellicano, Fixers, Vandalizers, Assaulters</t>
+  </si>
+  <si>
+    <t>Intimidation, Property Damage, Vandalism, Threats, Assault</t>
+  </si>
+  <si>
+    <t>https://www.thewrap.com/anita-busch-hollywood-journalist-raped-la-times-pellicano/</t>
+  </si>
+  <si>
+    <t>https://www.hollywoodreporter.com/business/business-news/pellicano-anita-busch-talks-wiretap-339376/</t>
+  </si>
+  <si>
+    <t>Victim in Ohio</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music, Concerts, Relation </t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Drake Bell</t>
+  </si>
+  <si>
+    <t>PI Keith King, United Research Inc</t>
+  </si>
+  <si>
+    <t>Child Endangerment, Underage</t>
+  </si>
+  <si>
+    <t>Keith King, United Research Inc Ohio, Private Investigator, Police</t>
+  </si>
+  <si>
+    <t>FOIA request</t>
+  </si>
+  <si>
+    <t>https://clevelandoh.govqa.us/WEBAPP/_rs/(S(oagbq4vgdbu50qov54pu0for))/RequestArchiveDetails.aspx?rid=105392&amp;view=188</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/keith-king-53391b11/</t>
+  </si>
+  <si>
+    <t>Anita Busch, Victims of Fixers</t>
+  </si>
+  <si>
+    <t>California, FBI, Federal Authorities</t>
+  </si>
+  <si>
+    <t>Jackie Coogan</t>
+  </si>
+  <si>
+    <t>Film, Actors, Children</t>
+  </si>
+  <si>
+    <t>Arthur Bernstein, Financial Advisor</t>
+  </si>
+  <si>
+    <t>Financial Fraud, Coogan Act, Trust Fund</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Coogan Act, California Child Actor's Bill, Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jackie_Coogan</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/chaplinhislifear00robi</t>
+  </si>
+  <si>
+    <t>Marriage</t>
+  </si>
+  <si>
+    <t>Pasadena Police, Major League Baseball</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Lawyers</t>
+  </si>
+  <si>
+    <t>Hollywood Fixers, Implication Mob, Implication Gambino, Implication Artists</t>
+  </si>
+  <si>
+    <t>Continued Coercion</t>
+  </si>
+  <si>
+    <t>Coercive</t>
+  </si>
+  <si>
+    <t>Investors in Mission Save Her, Hollywood Social Circles, Charity, Producers</t>
+  </si>
+  <si>
+    <t>Reggie Benjamin</t>
+  </si>
+  <si>
+    <t>Coercion</t>
+  </si>
+  <si>
+    <t>California Lacks Coercion Laws, Implications</t>
+  </si>
+  <si>
+    <t>Victims of Reggie Benjamin</t>
+  </si>
+  <si>
+    <t>https://www.truehollywoodtalk.com/documentary-film-producers-nitish-kannan-and-alena-simone-talk-about-human-trafficking-at-the-pga-awards/</t>
+  </si>
+  <si>
+    <t>2017-Present</t>
+  </si>
+  <si>
+    <t>Film, Nonprofits, Charity, Producers</t>
   </si>
 </sst>
 </file>
@@ -3416,13 +3545,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5636,1230 +5764,1399 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="I1" t="s">
-        <v>394</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>1954</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="4" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>2008</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="4" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="4" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="4" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="4" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="4" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="4" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>2009</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="4" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="4" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="4" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="4" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>2020</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="4" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" s="4" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="4" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="4" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="4" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="4" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>2022</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="4" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>910</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>2014</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="4" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>1986</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="4" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="E22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="S22" t="s">
+      <c r="P22" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="S22" s="4" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>1977</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="E23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="S23" t="s">
+      <c r="P23" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="T23" t="s">
+      <c r="T23" s="4" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" s="4" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T25" s="4" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>2017</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S26" s="4" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>1982</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="E27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27" s="4" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="G28" t="s">
+      <c r="E30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J30" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="S28" t="s">
+      <c r="P30" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="S30" s="4" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="E31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J31" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S31" s="4" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D33" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="E33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H33" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J33" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K33" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M33" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P33" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S33" s="4" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D34" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="E34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H34" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J34" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K34" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P34" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S34" s="4" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D35" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="E35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J35" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K35" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L35" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P35" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S35" s="4" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D36" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E36" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G36" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H36" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J36" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K36" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P36" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S36" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T36" s="4" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>1097</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>1100</v>
+      <c r="B37" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1939</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="S14" r:id="rId1" xr:uid="{07E42739-3C6B-4490-84B1-CD88824F1D3B}"/>
-    <hyperlink ref="S34" r:id="rId2" xr:uid="{73CF35C7-B40E-48BA-95DD-51FC2F0FB138}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Cases in Film_Music_Arts - List Foundations.xlsx
+++ b/Cases in Film_Music_Arts - List Foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Actresses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6534829-6C0C-4791-B3A2-C31D07FCC760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6898E8BE-E39F-4EF3-BA79-0DA530FE0423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3625,18 +3625,9 @@
     <t>Hollywood, Film, Journalism</t>
   </si>
   <si>
-    <t>Blackcube/Chameleon Associates, Michael Hiltzik, Harvey Weinstein</t>
-  </si>
-  <si>
     <t>Intimidation, Surviellance, Fraudulent Conduct</t>
   </si>
   <si>
-    <t>Film, Fixers, Unlicenced Invetigators</t>
-  </si>
-  <si>
-    <t>Shell Investigators, Fixers, Witnesses Intimidated, Michael Hiltzik Dark PR</t>
-  </si>
-  <si>
     <t>Chronicles by Victim, The New Yorker</t>
   </si>
   <si>
@@ -3673,9 +3664,6 @@
     <t>Fraudulent Billing, Trackimo</t>
   </si>
   <si>
-    <t>Fraudulent Billing, Erotic, Alleged Trafficking, Alleged Talent Agencies</t>
-  </si>
-  <si>
     <t>Witnesses, Former Employees, “They have convinced hundreds of thousands of wannabe actors that they are some kind of industry standard,” said Billy DaMota, a longtime casting director who said he’s never consulted a listing service in his 30 years in the business. “Not one reputable casting director I know uses those places to find talent.”</t>
   </si>
   <si>
@@ -4496,24 +4484,29 @@
   </si>
   <si>
     <t>https://www.cnn.com/2024/01/26/politics/doj-cuomo-sexual-harassment-new-york/index.html</t>
+  </si>
+  <si>
+    <t>Blackcube/Chameleon Associates, Matthew Hiltzik, Harvey Weinstein</t>
+  </si>
+  <si>
+    <t>Shell Investigators, Fixers, Witnesses Intimidated, Matthew Hiltzik Dark PR</t>
+  </si>
+  <si>
+    <t>Fraudulent Billing,  Alleged Talent Agencies, Erotic, Alleged Trafficking</t>
+  </si>
+  <si>
+    <t>Film, Fixers, Unlicensed Investigators</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4537,9 +4530,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4849,7 +4841,7 @@
         <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
@@ -4864,7 +4856,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
@@ -4881,22 +4873,22 @@
         <v>773</v>
       </c>
       <c r="C3" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="D3" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="F3" t="s">
         <v>1102</v>
       </c>
       <c r="G3" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="H3" t="s">
         <v>983</v>
       </c>
       <c r="I3" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
@@ -4905,22 +4897,22 @@
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="O3" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="R3" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="S3" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="T3" t="s">
         <v>1107</v>
       </c>
       <c r="U3" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -4969,16 +4961,16 @@
         <v>773</v>
       </c>
       <c r="C5" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="D5" t="s">
         <v>488</v>
       </c>
       <c r="G5" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="H5" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="I5" t="s">
         <v>491</v>
@@ -4987,22 +4979,22 @@
         <v>724</v>
       </c>
       <c r="K5" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="N5" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="O5" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="R5" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="T5" t="s">
         <v>1107</v>
       </c>
       <c r="U5" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -5013,7 +5005,7 @@
         <v>1954</v>
       </c>
       <c r="C6" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -5031,7 +5023,7 @@
         <v>983</v>
       </c>
       <c r="I6" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
@@ -5040,16 +5032,16 @@
         <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="O6" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="R6" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="S6" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="T6" t="s">
         <v>1107</v>
@@ -5066,37 +5058,37 @@
         <v>2009</v>
       </c>
       <c r="C7" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="D7" t="s">
         <v>1171</v>
       </c>
       <c r="E7" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="F7" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="G7" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="I7" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="J7" t="s">
         <v>1173</v>
       </c>
       <c r="K7" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="N7" t="s">
         <v>912</v>
       </c>
       <c r="R7" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="U7" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -5107,49 +5099,49 @@
         <v>1957</v>
       </c>
       <c r="C8" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="D8" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="F8" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="G8" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="H8" t="s">
         <v>983</v>
       </c>
       <c r="I8" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="O8" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="R8" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="S8" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="T8" t="s">
         <v>1107</v>
       </c>
       <c r="U8" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="V8" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="W8" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -5157,13 +5149,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -5187,7 +5179,7 @@
         <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="U9" t="s">
         <v>46</v>
@@ -5196,7 +5188,7 @@
         <v>47</v>
       </c>
       <c r="W9" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -5213,10 +5205,10 @@
         <v>1025</v>
       </c>
       <c r="F10" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="G10" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="I10" t="s">
         <v>316</v>
@@ -5225,7 +5217,7 @@
         <v>317</v>
       </c>
       <c r="K10" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="O10" t="s">
         <v>148</v>
@@ -5245,10 +5237,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C11" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="D11" t="s">
         <v>83</v>
@@ -5266,10 +5258,10 @@
         <v>87</v>
       </c>
       <c r="O11" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="R11" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="T11" t="s">
         <v>88</v>
@@ -5292,7 +5284,7 @@
         <v>2024</v>
       </c>
       <c r="C12" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="D12" t="s">
         <v>160</v>
@@ -5301,13 +5293,13 @@
         <v>161</v>
       </c>
       <c r="G12" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="I12" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="J12" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="K12" t="s">
         <v>1021</v>
@@ -5316,10 +5308,10 @@
         <v>912</v>
       </c>
       <c r="O12" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="R12" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="T12" t="s">
         <v>162</v>
@@ -5336,7 +5328,7 @@
         <v>2024</v>
       </c>
       <c r="C13" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="D13" t="s">
         <v>1019</v>
@@ -5374,28 +5366,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C14" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D14" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="G14" t="s">
         <v>189</v>
       </c>
       <c r="I14" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="J14" t="s">
         <v>142</v>
       </c>
       <c r="R14" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="U14" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="V14" t="s">
         <v>66</v>
@@ -5406,34 +5398,34 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G15" t="s">
         <v>1314</v>
       </c>
-      <c r="C15" t="s">
+      <c r="I15" t="s">
         <v>1315</v>
       </c>
-      <c r="D15" t="s">
+      <c r="J15" t="s">
         <v>1316</v>
       </c>
-      <c r="E15" t="s">
+      <c r="R15" t="s">
         <v>1317</v>
       </c>
-      <c r="G15" t="s">
+      <c r="U15" t="s">
         <v>1318</v>
       </c>
-      <c r="I15" t="s">
+      <c r="V15" t="s">
         <v>1319</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1320</v>
-      </c>
-      <c r="R15" t="s">
-        <v>1321</v>
-      </c>
-      <c r="U15" t="s">
-        <v>1322</v>
-      </c>
-      <c r="V15" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -5462,7 +5454,7 @@
         <v>134</v>
       </c>
       <c r="R16" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="U16" t="s">
         <v>135</v>
@@ -5479,40 +5471,40 @@
         <v>2020</v>
       </c>
       <c r="C17" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I17" t="s">
         <v>1325</v>
       </c>
-      <c r="D17" t="s">
+      <c r="J17" t="s">
         <v>1326</v>
       </c>
-      <c r="E17" t="s">
+      <c r="K17" t="s">
         <v>1327</v>
       </c>
-      <c r="G17" t="s">
+      <c r="O17" t="s">
         <v>1328</v>
       </c>
-      <c r="I17" t="s">
+      <c r="R17" t="s">
         <v>1329</v>
       </c>
-      <c r="J17" t="s">
+      <c r="T17" t="s">
         <v>1330</v>
       </c>
-      <c r="K17" t="s">
+      <c r="U17" t="s">
         <v>1331</v>
       </c>
-      <c r="O17" t="s">
+      <c r="V17" t="s">
         <v>1332</v>
-      </c>
-      <c r="R17" t="s">
-        <v>1333</v>
-      </c>
-      <c r="T17" t="s">
-        <v>1334</v>
-      </c>
-      <c r="U17" t="s">
-        <v>1335</v>
-      </c>
-      <c r="V17" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -5570,10 +5562,10 @@
         <v>167</v>
       </c>
       <c r="T19" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="U19" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -5622,7 +5614,7 @@
         <v>125</v>
       </c>
       <c r="I21" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="T21" t="s">
         <v>126</v>
@@ -5660,7 +5652,7 @@
         <v>113</v>
       </c>
       <c r="O22" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="T22" t="s">
         <v>115</v>
@@ -5698,7 +5690,7 @@
         <v>142</v>
       </c>
       <c r="R23" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="T23" t="s">
         <v>143</v>
@@ -5712,25 +5704,25 @@
         <v>2007</v>
       </c>
       <c r="C24" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J24" t="s">
         <v>1342</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1346</v>
       </c>
       <c r="O24" t="s">
         <v>492</v>
       </c>
       <c r="U24" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -5741,10 +5733,10 @@
         <v>214</v>
       </c>
       <c r="C25" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="D25" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="G25" t="s">
         <v>215</v>
@@ -5756,7 +5748,7 @@
         <v>217</v>
       </c>
       <c r="U25" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -5800,7 +5792,7 @@
         <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -5852,7 +5844,7 @@
         <v>119</v>
       </c>
       <c r="G28" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="I28" t="s">
         <v>120</v>
@@ -5864,7 +5856,7 @@
         <v>121</v>
       </c>
       <c r="U28" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
@@ -5872,7 +5864,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="C29" t="s">
         <v>144</v>
@@ -5887,7 +5879,7 @@
         <v>147</v>
       </c>
       <c r="I29" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="J29" t="s">
         <v>36</v>
@@ -5899,7 +5891,7 @@
         <v>148</v>
       </c>
       <c r="R29" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
@@ -5907,28 +5899,28 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I30" t="s">
         <v>1357</v>
       </c>
-      <c r="C30" t="s">
+      <c r="J30" t="s">
         <v>1358</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1359</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1361</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1362</v>
       </c>
       <c r="O30" t="s">
         <v>148</v>
       </c>
       <c r="U30" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -5966,7 +5958,7 @@
         <v>157</v>
       </c>
       <c r="X31" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
@@ -6006,19 +5998,19 @@
         <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="C33" t="s">
         <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="G33" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="U33" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
@@ -6096,7 +6088,7 @@
         <v>181</v>
       </c>
       <c r="G36" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="I36" t="s">
         <v>182</v>
@@ -6105,10 +6097,10 @@
         <v>36</v>
       </c>
       <c r="R36" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="U36" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
@@ -6279,7 +6271,7 @@
         <v>2001</v>
       </c>
       <c r="C42" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="D42" t="s">
         <v>209</v>
@@ -6309,7 +6301,7 @@
         <v>692</v>
       </c>
       <c r="U42" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
@@ -6425,7 +6417,7 @@
         <v>2018</v>
       </c>
       <c r="C46" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="D46" t="s">
         <v>241</v>
@@ -6449,7 +6441,7 @@
         <v>148</v>
       </c>
       <c r="R46" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
@@ -6457,10 +6449,10 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C47" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="D47" t="s">
         <v>247</v>
@@ -6489,25 +6481,25 @@
         <v>251</v>
       </c>
       <c r="D48" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="E48" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="F48" t="s">
         <v>252</v>
       </c>
       <c r="G48" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="I48" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="R48" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="U48" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
@@ -6515,13 +6507,13 @@
         <v>754</v>
       </c>
       <c r="B49" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C49" t="s">
         <v>254</v>
       </c>
       <c r="D49" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="E49" t="s">
         <v>185</v>
@@ -6542,7 +6534,7 @@
         <v>258</v>
       </c>
       <c r="U49" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
@@ -6585,16 +6577,16 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C51" t="s">
         <v>268</v>
       </c>
       <c r="D51" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="E51" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="G51" t="s">
         <v>131</v>
@@ -6606,7 +6598,7 @@
         <v>257</v>
       </c>
       <c r="U51" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
@@ -6614,34 +6606,34 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C52" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="D52" t="s">
         <v>685</v>
       </c>
       <c r="G52" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="I52" t="s">
         <v>105</v>
       </c>
       <c r="J52" t="s">
+        <v>1390</v>
+      </c>
+      <c r="N52" t="s">
+        <v>1391</v>
+      </c>
+      <c r="O52" t="s">
+        <v>1392</v>
+      </c>
+      <c r="R52" t="s">
+        <v>1393</v>
+      </c>
+      <c r="U52" t="s">
         <v>1394</v>
-      </c>
-      <c r="N52" t="s">
-        <v>1395</v>
-      </c>
-      <c r="O52" t="s">
-        <v>1396</v>
-      </c>
-      <c r="R52" t="s">
-        <v>1397</v>
-      </c>
-      <c r="U52" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
@@ -6649,19 +6641,19 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="C53" t="s">
         <v>269</v>
       </c>
       <c r="D53" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="E53" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="G53" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="I53" t="s">
         <v>105</v>
@@ -6670,16 +6662,16 @@
         <v>113</v>
       </c>
       <c r="N53" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="O53" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="U53" t="s">
         <v>270</v>
       </c>
       <c r="V53" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
@@ -6705,7 +6697,7 @@
         <v>274</v>
       </c>
       <c r="U54" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
@@ -6713,7 +6705,7 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C55" t="s">
         <v>275</v>
@@ -6739,7 +6731,7 @@
         <v>928</v>
       </c>
       <c r="C56" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="D56" t="s">
         <v>278</v>
@@ -6757,13 +6749,13 @@
         <v>105</v>
       </c>
       <c r="R56" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="T56" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="U56" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
@@ -6771,10 +6763,10 @@
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="C57" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="D57" t="s">
         <v>282</v>
@@ -6789,10 +6781,10 @@
         <v>285</v>
       </c>
       <c r="U57" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="V57" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
@@ -6815,19 +6807,19 @@
         <v>132</v>
       </c>
       <c r="J58" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="K58" t="s">
         <v>289</v>
       </c>
       <c r="R58" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="U58" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="V58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
@@ -6841,27 +6833,27 @@
         <v>205</v>
       </c>
       <c r="D59" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1417</v>
+      </c>
+      <c r="R59" t="s">
         <v>1418</v>
       </c>
-      <c r="E59" t="s">
+      <c r="U59" t="s">
         <v>1419</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1421</v>
-      </c>
-      <c r="R59" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U59" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="B60">
         <v>2024</v>
@@ -6870,10 +6862,10 @@
         <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="G60" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="I60" t="s">
         <v>132</v>
@@ -6882,7 +6874,7 @@
         <v>142</v>
       </c>
       <c r="U60" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
@@ -6905,25 +6897,25 @@
         <v>293</v>
       </c>
       <c r="G61" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="H61" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="I61" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="J61" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="K61" t="s">
         <v>217</v>
       </c>
       <c r="U61" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="V61" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
@@ -6931,16 +6923,16 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C62" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="D62" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="G62" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="I62" t="s">
         <v>132</v>
@@ -6955,7 +6947,7 @@
         <v>898</v>
       </c>
       <c r="U62" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
@@ -6963,10 +6955,10 @@
         <v>811</v>
       </c>
       <c r="B63" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C63" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="D63" t="s">
         <v>295</v>
@@ -6975,7 +6967,7 @@
         <v>296</v>
       </c>
       <c r="F63" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="G63" t="s">
         <v>199</v>
@@ -6992,7 +6984,7 @@
         <v>298</v>
       </c>
       <c r="B64" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="C64" t="s">
         <v>299</v>
@@ -7021,34 +7013,34 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C65" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="D65" t="s">
         <v>303</v>
       </c>
       <c r="E65" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="G65" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="I65" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="J65" t="s">
         <v>305</v>
       </c>
       <c r="K65" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="T65" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="U65" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="V65" t="s">
         <v>306</v>
@@ -7062,31 +7054,31 @@
         <v>2021</v>
       </c>
       <c r="C66" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R66" t="s">
+        <v>1449</v>
+      </c>
+      <c r="U66" t="s">
         <v>1450</v>
       </c>
-      <c r="D66" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1317</v>
-      </c>
-      <c r="G66" t="s">
-        <v>1421</v>
-      </c>
-      <c r="I66" t="s">
-        <v>1452</v>
-      </c>
-      <c r="J66" t="s">
-        <v>1452</v>
-      </c>
-      <c r="R66" t="s">
-        <v>1453</v>
-      </c>
-      <c r="U66" t="s">
-        <v>1454</v>
-      </c>
       <c r="V66" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
@@ -7112,7 +7104,7 @@
         <v>36</v>
       </c>
       <c r="R67" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="U67" t="s">
         <v>310</v>
@@ -7123,7 +7115,7 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="C68" t="s">
         <v>299</v>
@@ -7144,7 +7136,7 @@
         <v>301</v>
       </c>
       <c r="U68" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="V68" t="s">
         <v>314</v>
@@ -7155,7 +7147,7 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="C69" t="s">
         <v>318</v>
@@ -7176,10 +7168,10 @@
         <v>142</v>
       </c>
       <c r="U69" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="V69" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
@@ -7327,25 +7319,25 @@
         <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="C74" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="D74" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="G74" t="s">
         <v>52</v>
       </c>
       <c r="J74" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="K74" t="s">
         <v>142</v>
       </c>
       <c r="U74" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
@@ -7450,1939 +7442,1936 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>348</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>349</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>350</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>351</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>1042</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>353</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>354</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>355</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>356</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>357</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>358</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>359</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>360</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>642</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>1100</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>1101</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>1102</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>1103</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>363</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>1096</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>1104</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>1105</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>1106</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>1107</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>364</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>643</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>1099</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>365</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>1098</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>1109</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>368</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>1097</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>1110</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" t="s">
         <v>1095</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" t="s">
         <v>1111</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>438</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>1112</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>1113</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>1114</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>1115</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>1116</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>1117</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>1118</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>1119</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>938</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>370</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>937</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
         <v>371</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>372</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>1121</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" t="s">
         <v>373</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>374</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>375</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>836</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>973</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>786</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>799</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>366</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>1122</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>968</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>798</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>787</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>1123</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" t="s">
         <v>966</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>967</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>688</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>788</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>361</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>893</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>885</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>886</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>887</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>888</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>889</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" t="s">
         <v>1124</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" t="s">
         <v>840</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="s">
         <v>890</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>361</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>892</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>896</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>377</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
         <v>378</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>379</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" t="s">
         <v>1125</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" t="s">
         <v>380</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" t="s">
         <v>381</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>933</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>914</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>773</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>934</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
         <v>913</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>916</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>965</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>1126</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>917</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" t="s">
         <v>1127</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>1107</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>1128</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>939</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>962</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>390</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>940</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>941</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>366</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>942</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>1129</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>943</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>944</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>945</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>1130</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>1131</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>946</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" t="s">
         <v>947</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>969</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>1132</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>974</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>975</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>1133</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>1134</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>1135</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>1136</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" t="s">
         <v>970</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" t="s">
         <v>971</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" t="s">
         <v>972</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>361</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>1138</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>2011</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>1139</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>1140</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>1141</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>1074</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>1142</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" t="s">
         <v>1143</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" t="s">
         <v>1144</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>388</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>1092</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>2009</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>1093</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>791</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>797</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>1089</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>1090</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" t="s">
         <v>1146</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" t="s">
         <v>1094</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" t="s">
         <v>389</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" t="s">
         <v>792</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>1147</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>1148</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>1149</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>1150</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
         <v>366</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>1151</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>1152</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>1153</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>1154</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>1155</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>1156</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>1157</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" t="s">
         <v>1158</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" t="s">
         <v>1159</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>361</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>1161</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>1162</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>1163</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
         <v>366</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>1164</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>1165</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" t="s">
         <v>1166</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" t="s">
         <v>1167</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" t="s">
         <v>1168</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
         <v>1169</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>361</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>1171</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>1172</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>1173</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
         <v>366</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>1174</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>1175</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>1176</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" t="s">
         <v>912</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" t="s">
         <v>1177</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" t="s">
         <v>1178</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" t="s">
         <v>1179</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>438</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>632</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>633</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>634</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>635</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>636</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>637</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>935</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" t="s">
         <v>1181</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" t="s">
         <v>638</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" t="s">
         <v>639</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" t="s">
         <v>640</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>840</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>844</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>841</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>883</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
         <v>366</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>858</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>842</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>963</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" t="s">
         <v>148</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" t="s">
         <v>964</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>361</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>408</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>1182</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>1183</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
         <v>409</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>410</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>1184</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" t="s">
         <v>1185</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" t="s">
         <v>1186</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" t="s">
         <v>1187</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" t="s">
         <v>411</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" t="s">
         <v>1188</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" t="s">
         <v>1189</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="U19" t="s">
         <v>1190</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>361</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>936</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>834</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>383</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
         <v>384</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>385</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" t="s">
         <v>386</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" t="s">
         <v>387</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>361</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>976</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>390</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>391</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>392</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>393</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>1192</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>394</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" t="s">
         <v>395</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" t="s">
         <v>1193</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" t="s">
         <v>396</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" t="s">
         <v>397</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="R21" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>399</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>400</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>401</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>402</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>403</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>229</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>404</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>405</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" t="s">
         <v>406</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" t="s">
         <v>1194</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" t="s">
         <v>407</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>361</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>412</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>897</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>413</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>949</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
         <v>414</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" t="s">
         <v>415</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" t="s">
         <v>1195</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" t="s">
         <v>416</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>418</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>419</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>2022</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>420</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>421</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>422</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>423</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>424</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>425</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" t="s">
         <v>426</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" t="s">
         <v>427</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" t="s">
         <v>428</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" t="s">
         <v>429</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" t="s">
         <v>921</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" t="s">
         <v>430</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" t="s">
         <v>431</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" t="s">
         <v>432</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>856</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>1040</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>2014</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>922</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>923</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>366</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>950</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" t="s">
         <v>924</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" t="s">
         <v>925</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" t="s">
         <v>1196</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" t="s">
         <v>926</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>388</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>434</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>1986</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>435</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
         <v>436</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" t="s">
         <v>131</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" t="s">
         <v>132</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" t="s">
         <v>898</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" t="s">
         <v>437</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>438</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>439</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>903</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>440</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
         <v>119</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" t="s">
         <v>441</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" t="s">
         <v>564</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" t="s">
         <v>1088</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="R27" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>1075</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>1197</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>1198</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>1199</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>923</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J28" t="s">
         <v>1200</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="N28" t="s">
+        <v>1490</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1488</v>
+      </c>
+      <c r="P28" t="s">
         <v>1201</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="R28" t="s">
         <v>1202</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="S28" t="s">
         <v>1203</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="T28" t="s">
         <v>1204</v>
       </c>
-      <c r="R28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B29" t="s">
         <v>1205</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="C29" t="s">
         <v>1206</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="D29" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="E29" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1211</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1212</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1489</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1213</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1214</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" t="s">
+        <v>442</v>
+      </c>
+      <c r="C30">
+        <v>1977</v>
+      </c>
+      <c r="D30" t="s">
+        <v>443</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>299</v>
+      </c>
+      <c r="J30" t="s">
+        <v>444</v>
+      </c>
+      <c r="O30" t="s">
+        <v>570</v>
+      </c>
+      <c r="R30" t="s">
+        <v>445</v>
+      </c>
+      <c r="S30" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>361</v>
+      </c>
+      <c r="B31" t="s">
+        <v>904</v>
+      </c>
+      <c r="C31" t="s">
+        <v>905</v>
+      </c>
+      <c r="D31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E31" t="s">
+        <v>448</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>906</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1216</v>
+      </c>
+      <c r="R31" t="s">
+        <v>449</v>
+      </c>
+      <c r="S31" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>450</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="N29" s="1" t="s">
+      <c r="B32" t="s">
+        <v>451</v>
+      </c>
+      <c r="C32" t="s">
+        <v>900</v>
+      </c>
+      <c r="D32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E32" t="s">
+        <v>453</v>
+      </c>
+      <c r="G32" t="s">
+        <v>454</v>
+      </c>
+      <c r="J32" t="s">
+        <v>455</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1217</v>
+      </c>
+      <c r="P32" t="s">
+        <v>456</v>
+      </c>
+      <c r="R32" t="s">
+        <v>457</v>
+      </c>
+      <c r="S32" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>361</v>
+      </c>
+      <c r="B33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C33">
+        <v>2017</v>
+      </c>
+      <c r="D33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" t="s">
+        <v>460</v>
+      </c>
+      <c r="F33" t="s">
+        <v>460</v>
+      </c>
+      <c r="G33" t="s">
+        <v>299</v>
+      </c>
+      <c r="J33" t="s">
+        <v>131</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="R33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B34" t="s">
+        <v>461</v>
+      </c>
+      <c r="C34">
+        <v>1982</v>
+      </c>
+      <c r="D34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>462</v>
+      </c>
+      <c r="J34" t="s">
+        <v>463</v>
+      </c>
+      <c r="K34" t="s">
+        <v>464</v>
+      </c>
+      <c r="O34" t="s">
+        <v>465</v>
+      </c>
+      <c r="P34" t="s">
+        <v>466</v>
+      </c>
+      <c r="R34" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1074</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P35" t="s">
+        <v>1080</v>
+      </c>
+      <c r="R35" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1033</v>
+      </c>
+      <c r="R36" t="s">
+        <v>1031</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>361</v>
+      </c>
+      <c r="B37" t="s">
+        <v>468</v>
+      </c>
+      <c r="C37" t="s">
+        <v>901</v>
+      </c>
+      <c r="D37" t="s">
+        <v>891</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G37" t="s">
+        <v>469</v>
+      </c>
+      <c r="J37" t="s">
+        <v>470</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1072</v>
+      </c>
+      <c r="R37" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>471</v>
+      </c>
+      <c r="B38" t="s">
+        <v>472</v>
+      </c>
+      <c r="C38" t="s">
+        <v>902</v>
+      </c>
+      <c r="D38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>473</v>
+      </c>
+      <c r="J38" t="s">
+        <v>474</v>
+      </c>
+      <c r="R38" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>361</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1074</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="R39" t="s">
+        <v>1047</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B40" t="s">
+        <v>837</v>
+      </c>
+      <c r="C40" t="s">
+        <v>834</v>
+      </c>
+      <c r="D40" t="s">
+        <v>830</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>829</v>
+      </c>
+      <c r="H40" t="s">
+        <v>831</v>
+      </c>
+      <c r="J40" t="s">
+        <v>839</v>
+      </c>
+      <c r="K40" t="s">
+        <v>838</v>
+      </c>
+      <c r="L40" t="s">
+        <v>833</v>
+      </c>
+      <c r="O40" t="s">
+        <v>835</v>
+      </c>
+      <c r="R40" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>856</v>
+      </c>
+      <c r="B41" t="s">
+        <v>855</v>
+      </c>
+      <c r="C41" t="s">
+        <v>895</v>
+      </c>
+      <c r="D41" t="s">
+        <v>884</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>846</v>
+      </c>
+      <c r="H41" t="s">
+        <v>646</v>
+      </c>
+      <c r="J41" t="s">
+        <v>845</v>
+      </c>
+      <c r="K41" t="s">
+        <v>221</v>
+      </c>
+      <c r="O41" t="s">
+        <v>857</v>
+      </c>
+      <c r="R41" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>556</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C42" t="s">
+        <v>928</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>555</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1087</v>
+      </c>
+      <c r="O42" t="s">
+        <v>929</v>
+      </c>
+      <c r="R42" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43" t="s">
+        <v>951</v>
+      </c>
+      <c r="C43" t="s">
+        <v>952</v>
+      </c>
+      <c r="D43" t="s">
+        <v>953</v>
+      </c>
+      <c r="E43" t="s">
+        <v>954</v>
+      </c>
+      <c r="G43" t="s">
+        <v>955</v>
+      </c>
+      <c r="H43" t="s">
+        <v>956</v>
+      </c>
+      <c r="J43" t="s">
+        <v>957</v>
+      </c>
+      <c r="K43" t="s">
+        <v>958</v>
+      </c>
+      <c r="O43" t="s">
+        <v>959</v>
+      </c>
+      <c r="R43" t="s">
+        <v>960</v>
+      </c>
+      <c r="S43" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>361</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P44" t="s">
+        <v>1057</v>
+      </c>
+      <c r="R44" t="s">
+        <v>1058</v>
+      </c>
+      <c r="S44" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>856</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C45">
+        <v>1939</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1066</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1070</v>
+      </c>
+      <c r="P45" t="s">
+        <v>1067</v>
+      </c>
+      <c r="R45" t="s">
+        <v>1068</v>
+      </c>
+      <c r="S45" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>856</v>
+      </c>
+      <c r="B46" t="s">
+        <v>656</v>
+      </c>
+      <c r="C46" t="s">
+        <v>401</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1220</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1221</v>
+      </c>
+      <c r="R46" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>361</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>366</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1220</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R47" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>388</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1230</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1231</v>
+      </c>
+      <c r="P48" t="s">
+        <v>1232</v>
+      </c>
+      <c r="R48" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>361</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O49" t="s">
+        <v>1240</v>
+      </c>
+      <c r="P49" t="s">
+        <v>1241</v>
+      </c>
+      <c r="R49" t="s">
         <v>1215</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1977</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1982</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1939</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>1219</v>
       </c>
     </row>
   </sheetData>
@@ -10390,10 +10379,10 @@
         <v>875</v>
       </c>
       <c r="C28" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="D28" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="E28" t="s">
         <v>867</v>
@@ -10495,7 +10484,7 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="D31" t="s">
         <v>565</v>
@@ -10536,7 +10525,7 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="D32" t="s">
         <v>714</v>
@@ -10551,7 +10540,7 @@
         <v>719</v>
       </c>
       <c r="O32" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="S32" t="s">
         <v>718</v>
@@ -10568,7 +10557,7 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="D33" t="s">
         <v>859</v>
@@ -10641,7 +10630,7 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="D35" t="s">
         <v>576</v>
@@ -10670,7 +10659,7 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="D36" t="s">
         <v>749</v>
@@ -10962,55 +10951,55 @@
         <v>361</v>
       </c>
       <c r="B5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F5" t="s">
         <v>1466</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1469</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1470</v>
       </c>
       <c r="G5" t="s">
         <v>1006</v>
       </c>
       <c r="H5" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="I5" t="s">
         <v>912</v>
       </c>
       <c r="M5" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="P5" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="Q5" t="s">
         <v>912</v>
       </c>
       <c r="R5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="V5" t="s">
         <v>1474</v>
       </c>
-      <c r="S5" t="s">
+      <c r="W5" t="s">
         <v>1475</v>
-      </c>
-      <c r="T5" t="s">
-        <v>1476</v>
-      </c>
-      <c r="U5" t="s">
-        <v>1477</v>
-      </c>
-      <c r="V5" t="s">
-        <v>1478</v>
-      </c>
-      <c r="W5" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -11118,46 +11107,46 @@
         <v>619</v>
       </c>
       <c r="B8" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="C8" t="s">
         <v>901</v>
       </c>
       <c r="D8" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="E8" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="F8" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
       </c>
       <c r="H8" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1482</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1483</v>
+      </c>
+      <c r="Q8" t="s">
         <v>1484</v>
       </c>
-      <c r="I8" t="s">
+      <c r="S8" t="s">
         <v>1485</v>
       </c>
-      <c r="L8" t="s">
+      <c r="T8" t="s">
+        <v>1484</v>
+      </c>
+      <c r="V8" t="s">
         <v>1486</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1487</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>1488</v>
-      </c>
-      <c r="S8" t="s">
-        <v>1489</v>
-      </c>
-      <c r="T8" t="s">
-        <v>1488</v>
-      </c>
-      <c r="V8" t="s">
-        <v>1490</v>
       </c>
     </row>
   </sheetData>
